--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24722"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,10 +15,19 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -33,10 +42,7 @@
     <t>transect_id</t>
   </si>
   <si>
-    <t>fucus_distichus</t>
-  </si>
-  <si>
-    <t>ulva_fenestrata</t>
+    <t>distance_along_transect_m</t>
   </si>
   <si>
     <t>dominant_seaweed</t>
@@ -45,29 +51,32 @@
     <t>fucus_distichus_percent-cover</t>
   </si>
   <si>
+    <t>mastocarpus_sp_percent-cover</t>
+  </si>
+  <si>
     <t>ulva_fenestrata_percent-cover</t>
+  </si>
+  <si>
+    <t>polysiphonia_sp</t>
+  </si>
+  <si>
+    <t>fucus_distichus</t>
+  </si>
+  <si>
+    <t>no_seaweed</t>
   </si>
   <si>
     <t>mastocarpus_sp</t>
   </si>
   <si>
-    <t>mastocarpus_sp_percent-cover</t>
-  </si>
-  <si>
-    <t>no_seaweed</t>
-  </si>
-  <si>
-    <t>polysiphonia_sp</t>
-  </si>
-  <si>
-    <t>distance_along_transect_m</t>
+    <t>ulva_fenestrata</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -395,16 +404,16 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="16.44140625" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -412,25 +421,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>44444</v>
       </c>
@@ -441,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -450,7 +459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>44444</v>
       </c>
@@ -464,7 +473,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>44444</v>
       </c>
@@ -478,7 +487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>44444</v>
       </c>
@@ -489,13 +498,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E5">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>44444</v>
       </c>
@@ -509,7 +518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>44444</v>
       </c>
@@ -523,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>44444</v>
       </c>
@@ -534,7 +543,7 @@
         <v>30</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -546,7 +555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>44444</v>
       </c>
@@ -557,7 +566,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E9">
         <v>40</v>
@@ -566,7 +575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>44444</v>
       </c>
@@ -577,13 +586,13 @@
         <v>5</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>44444</v>
       </c>
@@ -594,13 +603,13 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>44444</v>
       </c>
@@ -611,7 +620,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -620,7 +629,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>44444</v>
       </c>
@@ -631,7 +640,7 @@
         <v>20</v>
       </c>
       <c r="D13" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -640,7 +649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>44444</v>
       </c>
@@ -651,7 +660,7 @@
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E14">
         <v>10</v>
@@ -660,7 +669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>44444</v>
       </c>
@@ -671,7 +680,7 @@
         <v>30</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -680,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>44444</v>
       </c>
@@ -691,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>70</v>
@@ -700,7 +709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1">
         <v>44444</v>
       </c>
@@ -711,13 +720,13 @@
         <v>5</v>
       </c>
       <c r="D17" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1">
         <v>44444</v>
       </c>
@@ -728,7 +737,7 @@
         <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -737,7 +746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1">
         <v>44444</v>
       </c>
@@ -748,13 +757,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1">
         <v>44444</v>
       </c>
@@ -765,7 +774,7 @@
         <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -774,7 +783,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1">
         <v>44444</v>
       </c>
@@ -785,13 +794,13 @@
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1">
         <v>44444</v>
       </c>
@@ -802,13 +811,13 @@
         <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1">
         <v>44444</v>
       </c>
@@ -822,7 +831,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1">
         <v>44444</v>
       </c>
@@ -833,13 +842,13 @@
         <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G24">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1">
         <v>44444</v>
       </c>
@@ -850,13 +859,13 @@
         <v>45</v>
       </c>
       <c r="D25" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1">
         <v>44444</v>
       </c>
@@ -867,13 +876,13 @@
         <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G26">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1">
         <v>44444</v>
       </c>
@@ -884,13 +893,13 @@
         <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1">
         <v>44444</v>
       </c>
@@ -901,13 +910,13 @@
         <v>60</v>
       </c>
       <c r="D28" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G28">
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="1">
         <v>44444</v>
       </c>
@@ -918,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E29">
         <v>70</v>
@@ -927,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="1">
         <v>44444</v>
       </c>
@@ -938,13 +947,13 @@
         <v>5</v>
       </c>
       <c r="D30" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="1">
         <v>44444</v>
       </c>
@@ -958,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="1">
         <v>44444</v>
       </c>
@@ -969,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -978,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="1">
         <v>44444</v>
       </c>
@@ -989,7 +998,7 @@
         <v>20</v>
       </c>
       <c r="D33" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -998,7 +1007,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="1">
         <v>44444</v>
       </c>
@@ -1009,7 +1018,7 @@
         <v>25</v>
       </c>
       <c r="D34" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1018,7 +1027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="1">
         <v>44444</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v>30</v>
       </c>
       <c r="D35" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1038,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="1">
         <v>44444</v>
       </c>
@@ -1049,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E36">
         <v>20</v>
@@ -1058,7 +1067,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="1">
         <v>44444</v>
       </c>
@@ -1069,7 +1078,7 @@
         <v>5</v>
       </c>
       <c r="D37" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E37">
         <v>25</v>
@@ -1078,7 +1087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="1">
         <v>44444</v>
       </c>
@@ -1089,7 +1098,7 @@
         <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E38">
         <v>5</v>
@@ -1098,7 +1107,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="1">
         <v>44444</v>
       </c>
@@ -1109,7 +1118,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1118,7 +1127,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" s="1">
         <v>44444</v>
       </c>
@@ -1129,7 +1138,7 @@
         <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1138,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="1">
         <v>44444</v>
       </c>
@@ -1149,13 +1158,13 @@
         <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G41">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="1">
         <v>44444</v>
       </c>
@@ -1166,13 +1175,13 @@
         <v>30</v>
       </c>
       <c r="D42" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="G42">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="1">
         <v>44473</v>
       </c>
@@ -1183,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E43">
         <v>30</v>
@@ -1192,7 +1201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="1">
         <v>44473</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>5</v>
       </c>
       <c r="D44" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E44">
         <v>5</v>
@@ -1212,7 +1221,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="1">
         <v>44473</v>
       </c>
@@ -1226,7 +1235,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="1">
         <v>44473</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E46">
         <v>10</v>
@@ -1246,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="1">
         <v>44473</v>
       </c>
@@ -1257,13 +1266,13 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E47">
         <v>5</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="1">
         <v>44473</v>
       </c>
@@ -1277,7 +1286,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="1">
         <v>44473</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E49">
         <v>40</v>
@@ -1297,7 +1306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="1">
         <v>44473</v>
       </c>
@@ -1308,13 +1317,13 @@
         <v>5</v>
       </c>
       <c r="D50" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F50">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="1">
         <v>44473</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E51">
         <v>20</v>
@@ -1334,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="1">
         <v>44473</v>
       </c>
@@ -1345,7 +1354,7 @@
         <v>15</v>
       </c>
       <c r="D52" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E52">
         <v>10</v>
@@ -1354,7 +1363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="1">
         <v>44473</v>
       </c>
@@ -1365,13 +1374,13 @@
         <v>20</v>
       </c>
       <c r="D53" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F53">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="1">
         <v>44473</v>
       </c>
@@ -1382,7 +1391,7 @@
         <v>25</v>
       </c>
       <c r="D54" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E54">
         <v>5</v>
@@ -1391,7 +1400,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="1">
         <v>44473</v>
       </c>
@@ -1402,7 +1411,7 @@
         <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E55">
         <v>40</v>
@@ -1411,7 +1420,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7">
       <c r="A56" s="1">
         <v>44473</v>
       </c>
@@ -1425,7 +1434,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7">
       <c r="A57" s="1">
         <v>44473</v>
       </c>
@@ -1436,7 +1445,7 @@
         <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1445,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7">
       <c r="A58" s="1">
         <v>44473</v>
       </c>
@@ -1456,7 +1465,7 @@
         <v>15</v>
       </c>
       <c r="D58" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -1465,7 +1474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7">
       <c r="A59" s="1">
         <v>44473</v>
       </c>
@@ -1476,7 +1485,7 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E59">
         <v>5</v>
@@ -1485,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7">
       <c r="A60" s="1">
         <v>44473</v>
       </c>
@@ -1496,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="D60" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E60">
         <v>70</v>
@@ -1505,7 +1514,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7">
       <c r="A61" s="1">
         <v>44473</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>5</v>
       </c>
       <c r="D61" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1525,7 +1534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7">
       <c r="A62" s="1">
         <v>44473</v>
       </c>
@@ -1536,13 +1545,13 @@
         <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E62">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7">
       <c r="A63" s="1">
         <v>44473</v>
       </c>
@@ -1556,7 +1565,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7">
       <c r="A64" s="1">
         <v>44473</v>
       </c>
@@ -1567,7 +1576,7 @@
         <v>20</v>
       </c>
       <c r="D64" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E64">
         <v>10</v>
@@ -1579,7 +1588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>44473</v>
       </c>
@@ -1590,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="D65" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -1602,7 +1611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>44473</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>5</v>
       </c>
       <c r="D66" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E66">
         <v>30</v>
@@ -1622,7 +1631,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>44473</v>
       </c>
@@ -1633,7 +1642,7 @@
         <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E67">
         <v>10</v>
@@ -1642,7 +1651,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>44473</v>
       </c>
@@ -1653,7 +1662,7 @@
         <v>15</v>
       </c>
       <c r="D68" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E68">
         <v>5</v>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="755" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4671D4F0-FFAB-484F-97F7-C54C43DD15BC}"/>
+  <xr:revisionPtr revIDLastSave="1045" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C1026C6-5E08-4AC8-B0CC-2C1546D05B60}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -442,7 +442,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -640,6 +640,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -801,12 +807,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -863,6 +873,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1162,18 +1176,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BG586"/>
+  <dimension ref="A1:BG629"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF1" sqref="AF1"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A612" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE635" sqref="AE635"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="13.33203125" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" customWidth="1"/>
-    <col min="11" max="18" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" customWidth="1"/>
+    <col min="11" max="11" width="6.5546875" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
+    <col min="14" max="14" width="7.88671875" customWidth="1"/>
+    <col min="15" max="15" width="7.77734375" customWidth="1"/>
+    <col min="16" max="17" width="8.44140625" customWidth="1"/>
+    <col min="18" max="18" width="9.5546875" customWidth="1"/>
     <col min="19" max="22" width="9.109375" customWidth="1"/>
     <col min="25" max="25" width="7.6640625" customWidth="1"/>
     <col min="26" max="26" width="10.44140625" customWidth="1"/>
@@ -23774,6 +23795,1505 @@
         <v>1</v>
       </c>
     </row>
+    <row r="587" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A587" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B587" s="7">
+        <v>12</v>
+      </c>
+      <c r="C587" s="7">
+        <v>25</v>
+      </c>
+      <c r="D587" s="8">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E587" s="7">
+        <v>0</v>
+      </c>
+      <c r="F587" s="7">
+        <v>2</v>
+      </c>
+      <c r="G587" s="7">
+        <v>0</v>
+      </c>
+      <c r="I587" s="7">
+        <v>50</v>
+      </c>
+      <c r="S587" s="7">
+        <v>5</v>
+      </c>
+      <c r="AA587" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG587" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH587" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A588" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B588" s="7">
+        <v>12</v>
+      </c>
+      <c r="C588" s="7">
+        <v>25</v>
+      </c>
+      <c r="D588" s="8">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E588" s="7">
+        <v>0</v>
+      </c>
+      <c r="F588" s="7">
+        <v>2</v>
+      </c>
+      <c r="G588" s="7">
+        <v>5</v>
+      </c>
+      <c r="W588" s="7">
+        <v>10</v>
+      </c>
+      <c r="X588" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="589" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B589" s="7">
+        <v>12</v>
+      </c>
+      <c r="C589" s="7">
+        <v>25</v>
+      </c>
+      <c r="D589" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E589" s="7">
+        <v>0</v>
+      </c>
+      <c r="F589" s="7">
+        <v>2</v>
+      </c>
+      <c r="G589" s="7">
+        <v>10</v>
+      </c>
+      <c r="I589" s="7">
+        <v>5</v>
+      </c>
+      <c r="W589" s="7">
+        <v>15</v>
+      </c>
+      <c r="X589" s="7">
+        <v>70</v>
+      </c>
+      <c r="AH589" s="7">
+        <v>5</v>
+      </c>
+      <c r="AI589" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="590" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B590" s="7">
+        <v>12</v>
+      </c>
+      <c r="C590" s="7">
+        <v>25</v>
+      </c>
+      <c r="D590" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E590" s="7">
+        <v>0</v>
+      </c>
+      <c r="F590" s="7">
+        <v>2</v>
+      </c>
+      <c r="G590" s="7">
+        <v>15</v>
+      </c>
+      <c r="W590" s="7">
+        <v>10</v>
+      </c>
+      <c r="AI590" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="591" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A591" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B591" s="7">
+        <v>12</v>
+      </c>
+      <c r="C591" s="7">
+        <v>25</v>
+      </c>
+      <c r="D591" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E591" s="7">
+        <v>0</v>
+      </c>
+      <c r="F591" s="7">
+        <v>2</v>
+      </c>
+      <c r="G591" s="7">
+        <v>20</v>
+      </c>
+      <c r="I591" s="7">
+        <v>1</v>
+      </c>
+      <c r="W591" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG591" s="7">
+        <v>1</v>
+      </c>
+      <c r="AR591" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:59" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A592" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B592" s="7">
+        <v>12</v>
+      </c>
+      <c r="C592" s="7">
+        <v>25</v>
+      </c>
+      <c r="D592" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E592" s="7">
+        <v>0</v>
+      </c>
+      <c r="F592" s="7">
+        <v>2</v>
+      </c>
+      <c r="G592" s="7">
+        <v>25</v>
+      </c>
+      <c r="I592" s="7">
+        <v>2</v>
+      </c>
+      <c r="W592" s="7">
+        <v>1</v>
+      </c>
+      <c r="AG592" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A593" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B593" s="7">
+        <v>12</v>
+      </c>
+      <c r="C593" s="7">
+        <v>25</v>
+      </c>
+      <c r="D593" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E593" s="7">
+        <v>0</v>
+      </c>
+      <c r="F593" s="7">
+        <v>2</v>
+      </c>
+      <c r="G593" s="7">
+        <v>30</v>
+      </c>
+      <c r="I593" s="7">
+        <v>2</v>
+      </c>
+      <c r="W593" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG593" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH593" s="7">
+        <v>5</v>
+      </c>
+      <c r="AR593" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="594" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A594" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B594" s="7">
+        <v>12</v>
+      </c>
+      <c r="C594" s="7">
+        <v>25</v>
+      </c>
+      <c r="D594" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E594" s="7">
+        <v>0</v>
+      </c>
+      <c r="F594" s="7">
+        <v>2</v>
+      </c>
+      <c r="G594" s="7">
+        <v>35</v>
+      </c>
+      <c r="I594" s="7">
+        <v>10</v>
+      </c>
+      <c r="W594" s="7">
+        <v>5</v>
+      </c>
+      <c r="AG594" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH594" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="595" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A595" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B595" s="7">
+        <v>12</v>
+      </c>
+      <c r="C595" s="7">
+        <v>25</v>
+      </c>
+      <c r="D595" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E595" s="7">
+        <v>0</v>
+      </c>
+      <c r="F595" s="7">
+        <v>2</v>
+      </c>
+      <c r="G595" s="7">
+        <v>40</v>
+      </c>
+      <c r="I595" s="7">
+        <v>3</v>
+      </c>
+      <c r="W595" s="7">
+        <v>10</v>
+      </c>
+      <c r="AG595" s="7">
+        <v>30</v>
+      </c>
+      <c r="AH595" s="7">
+        <v>20</v>
+      </c>
+      <c r="AJ595" s="7">
+        <v>5</v>
+      </c>
+      <c r="AR595" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="596" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A596" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B596" s="7">
+        <v>12</v>
+      </c>
+      <c r="C596" s="7">
+        <v>25</v>
+      </c>
+      <c r="D596" s="8">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E596" s="7">
+        <v>0</v>
+      </c>
+      <c r="F596" s="7">
+        <v>3</v>
+      </c>
+      <c r="G596" s="7">
+        <v>0</v>
+      </c>
+      <c r="I596" s="7">
+        <v>75</v>
+      </c>
+      <c r="AG596" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH596" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="597" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A597" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B597" s="7">
+        <v>12</v>
+      </c>
+      <c r="C597" s="7">
+        <v>25</v>
+      </c>
+      <c r="D597" s="8">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E597" s="7">
+        <v>0</v>
+      </c>
+      <c r="F597" s="7">
+        <v>3</v>
+      </c>
+      <c r="G597" s="7">
+        <v>5</v>
+      </c>
+      <c r="W597" s="7">
+        <v>10</v>
+      </c>
+      <c r="X597" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH597" s="7">
+        <v>3</v>
+      </c>
+      <c r="AI597" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="598" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A598" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B598" s="7">
+        <v>12</v>
+      </c>
+      <c r="C598" s="7">
+        <v>25</v>
+      </c>
+      <c r="D598" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E598" s="7">
+        <v>0</v>
+      </c>
+      <c r="F598" s="7">
+        <v>3</v>
+      </c>
+      <c r="G598" s="7">
+        <v>10</v>
+      </c>
+      <c r="I598" s="7">
+        <v>2</v>
+      </c>
+      <c r="W598" s="7">
+        <v>10</v>
+      </c>
+      <c r="X598" s="7">
+        <v>20</v>
+      </c>
+      <c r="AG598" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI598" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A599" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B599" s="7">
+        <v>12</v>
+      </c>
+      <c r="C599" s="7">
+        <v>25</v>
+      </c>
+      <c r="D599" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E599" s="7">
+        <v>0</v>
+      </c>
+      <c r="F599" s="7">
+        <v>3</v>
+      </c>
+      <c r="G599" s="7">
+        <v>15</v>
+      </c>
+      <c r="I599" s="7">
+        <v>1</v>
+      </c>
+      <c r="W599" s="7">
+        <v>10</v>
+      </c>
+      <c r="X599" s="7">
+        <v>10</v>
+      </c>
+      <c r="AH599" s="7">
+        <v>2</v>
+      </c>
+      <c r="AL599" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A600" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B600" s="7">
+        <v>12</v>
+      </c>
+      <c r="C600" s="7">
+        <v>25</v>
+      </c>
+      <c r="D600" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E600" s="7">
+        <v>0</v>
+      </c>
+      <c r="F600" s="7">
+        <v>3</v>
+      </c>
+      <c r="G600" s="7">
+        <v>20</v>
+      </c>
+      <c r="I600" s="7">
+        <v>10</v>
+      </c>
+      <c r="W600" s="7">
+        <v>5</v>
+      </c>
+      <c r="X600" s="7">
+        <v>1</v>
+      </c>
+      <c r="AH600" s="7">
+        <v>1</v>
+      </c>
+      <c r="AI600" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL600" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A601" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B601" s="7">
+        <v>12</v>
+      </c>
+      <c r="C601" s="7">
+        <v>25</v>
+      </c>
+      <c r="D601" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E601" s="7">
+        <v>0</v>
+      </c>
+      <c r="F601" s="7">
+        <v>3</v>
+      </c>
+      <c r="G601" s="7">
+        <v>25</v>
+      </c>
+      <c r="I601" s="7">
+        <v>1</v>
+      </c>
+      <c r="AL601" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="602" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A602" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B602" s="7">
+        <v>12</v>
+      </c>
+      <c r="C602" s="7">
+        <v>25</v>
+      </c>
+      <c r="D602" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E602" s="7">
+        <v>0</v>
+      </c>
+      <c r="F602" s="7">
+        <v>3</v>
+      </c>
+      <c r="G602" s="7">
+        <v>30</v>
+      </c>
+      <c r="AH602" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="603" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A603" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B603" s="7">
+        <v>12</v>
+      </c>
+      <c r="C603" s="7">
+        <v>25</v>
+      </c>
+      <c r="D603" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E603" s="7">
+        <v>0</v>
+      </c>
+      <c r="F603" s="7">
+        <v>3</v>
+      </c>
+      <c r="G603" s="7">
+        <v>35</v>
+      </c>
+      <c r="AH603" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="604" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A604" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B604" s="7">
+        <v>12</v>
+      </c>
+      <c r="C604" s="7">
+        <v>25</v>
+      </c>
+      <c r="D604" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E604" s="7">
+        <v>0</v>
+      </c>
+      <c r="F604" s="7">
+        <v>3</v>
+      </c>
+      <c r="G604" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH604" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="605" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A605" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B605" s="7">
+        <v>12</v>
+      </c>
+      <c r="C605" s="7">
+        <v>25</v>
+      </c>
+      <c r="D605" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E605" s="7">
+        <v>0</v>
+      </c>
+      <c r="F605" s="7">
+        <v>3</v>
+      </c>
+      <c r="G605" s="7">
+        <v>45</v>
+      </c>
+      <c r="AG605" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH605" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="606" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A606" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B606" s="7">
+        <v>12</v>
+      </c>
+      <c r="C606" s="7">
+        <v>25</v>
+      </c>
+      <c r="D606" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E606" s="7">
+        <v>0</v>
+      </c>
+      <c r="F606" s="7">
+        <v>3</v>
+      </c>
+      <c r="G606" s="7">
+        <v>50</v>
+      </c>
+      <c r="AG606" s="7">
+        <v>5</v>
+      </c>
+      <c r="AH606" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A607" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B607" s="7">
+        <v>12</v>
+      </c>
+      <c r="C607" s="7">
+        <v>25</v>
+      </c>
+      <c r="D607" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E607" s="7">
+        <v>0</v>
+      </c>
+      <c r="F607" s="7">
+        <v>3</v>
+      </c>
+      <c r="G607" s="7">
+        <v>55</v>
+      </c>
+      <c r="AG607" s="7">
+        <v>15</v>
+      </c>
+      <c r="AH607" s="7">
+        <v>5</v>
+      </c>
+      <c r="AJ607" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608" spans="1:44" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A608" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B608" s="7">
+        <v>12</v>
+      </c>
+      <c r="C608" s="7">
+        <v>25</v>
+      </c>
+      <c r="D608" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E608" s="7">
+        <v>0</v>
+      </c>
+      <c r="F608" s="7">
+        <v>3</v>
+      </c>
+      <c r="G608" s="7">
+        <v>60</v>
+      </c>
+      <c r="I608" s="7">
+        <v>2</v>
+      </c>
+      <c r="AG608" s="7">
+        <v>30</v>
+      </c>
+      <c r="AH608" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="609" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A609" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B609" s="7">
+        <v>12</v>
+      </c>
+      <c r="C609" s="7">
+        <v>25</v>
+      </c>
+      <c r="D609" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E609" s="7">
+        <v>0</v>
+      </c>
+      <c r="F609" s="7">
+        <v>3</v>
+      </c>
+      <c r="G609" s="7">
+        <v>65</v>
+      </c>
+      <c r="J609" s="7">
+        <v>2</v>
+      </c>
+      <c r="W609" s="7">
+        <v>10</v>
+      </c>
+      <c r="AG609" s="7">
+        <v>3</v>
+      </c>
+      <c r="AH609" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="610" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A610" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B610" s="7">
+        <v>12</v>
+      </c>
+      <c r="C610" s="7">
+        <v>25</v>
+      </c>
+      <c r="D610" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E610" s="7">
+        <v>0</v>
+      </c>
+      <c r="F610" s="7">
+        <v>3</v>
+      </c>
+      <c r="G610" s="7">
+        <v>70</v>
+      </c>
+      <c r="I610" s="7">
+        <v>1</v>
+      </c>
+      <c r="W610" s="7">
+        <v>5</v>
+      </c>
+      <c r="AG610" s="7">
+        <v>10</v>
+      </c>
+      <c r="AH610" s="7">
+        <v>10</v>
+      </c>
+      <c r="AL610" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="611" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A611" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B611" s="7">
+        <v>12</v>
+      </c>
+      <c r="C611" s="7">
+        <v>25</v>
+      </c>
+      <c r="D611" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E611" s="7">
+        <v>0</v>
+      </c>
+      <c r="F611" s="7">
+        <v>3</v>
+      </c>
+      <c r="G611" s="7">
+        <v>75</v>
+      </c>
+      <c r="J611" s="7">
+        <v>20</v>
+      </c>
+      <c r="W611" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG611" s="7">
+        <v>10</v>
+      </c>
+      <c r="AH611" s="7">
+        <v>5</v>
+      </c>
+      <c r="AL611" s="7">
+        <v>5</v>
+      </c>
+      <c r="AR611" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="612" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A612" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B612" s="7">
+        <v>12</v>
+      </c>
+      <c r="C612" s="7">
+        <v>25</v>
+      </c>
+      <c r="D612" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E612" s="7">
+        <v>0</v>
+      </c>
+      <c r="F612" s="7">
+        <v>3</v>
+      </c>
+      <c r="G612" s="7">
+        <v>80</v>
+      </c>
+      <c r="J612" s="7">
+        <v>20</v>
+      </c>
+      <c r="W612" s="7">
+        <v>3</v>
+      </c>
+      <c r="AG612" s="7">
+        <v>10</v>
+      </c>
+      <c r="AH612" s="7">
+        <v>5</v>
+      </c>
+      <c r="AL612" s="7">
+        <v>5</v>
+      </c>
+      <c r="AR612" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="613" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A613" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B613" s="7">
+        <v>12</v>
+      </c>
+      <c r="C613" s="7">
+        <v>25</v>
+      </c>
+      <c r="D613" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E613" s="7">
+        <v>0</v>
+      </c>
+      <c r="F613" s="7">
+        <v>3</v>
+      </c>
+      <c r="G613" s="7">
+        <v>85</v>
+      </c>
+      <c r="J613" s="7">
+        <v>30</v>
+      </c>
+      <c r="W613" s="7">
+        <v>10</v>
+      </c>
+      <c r="AG613" s="7">
+        <v>20</v>
+      </c>
+      <c r="AH613" s="7">
+        <v>20</v>
+      </c>
+      <c r="AJ613" s="7">
+        <v>3</v>
+      </c>
+      <c r="AL613" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="614" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A614" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B614" s="7">
+        <v>12</v>
+      </c>
+      <c r="C614" s="7">
+        <v>25</v>
+      </c>
+      <c r="D614" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E614" s="7">
+        <v>0</v>
+      </c>
+      <c r="F614" s="7">
+        <v>3</v>
+      </c>
+      <c r="G614" s="7">
+        <v>90</v>
+      </c>
+      <c r="J614" s="7">
+        <v>20</v>
+      </c>
+      <c r="U614" s="7">
+        <v>2</v>
+      </c>
+      <c r="W614" s="7">
+        <v>15</v>
+      </c>
+      <c r="AG614" s="7">
+        <v>20</v>
+      </c>
+      <c r="AH614" s="7">
+        <v>5</v>
+      </c>
+      <c r="AJ614" s="7">
+        <v>10</v>
+      </c>
+      <c r="AL614" s="7">
+        <v>2</v>
+      </c>
+      <c r="AM614" s="7">
+        <v>5</v>
+      </c>
+      <c r="AO614" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:58" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A615" s="7">
+        <v>2022</v>
+      </c>
+      <c r="B615" s="7">
+        <v>12</v>
+      </c>
+      <c r="C615" s="7">
+        <v>25</v>
+      </c>
+      <c r="D615" s="8">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E615" s="7">
+        <v>0</v>
+      </c>
+      <c r="F615" s="7">
+        <v>3</v>
+      </c>
+      <c r="G615" s="7">
+        <v>95</v>
+      </c>
+      <c r="U615" s="7">
+        <v>40</v>
+      </c>
+      <c r="W615" s="7">
+        <v>15</v>
+      </c>
+      <c r="AJ615" s="7">
+        <v>15</v>
+      </c>
+      <c r="AL615" s="7">
+        <v>10</v>
+      </c>
+      <c r="AM615" s="7">
+        <v>5</v>
+      </c>
+      <c r="AV615" s="7">
+        <v>20</v>
+      </c>
+      <c r="BF615" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="616" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A616" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B616" s="5">
+        <v>12</v>
+      </c>
+      <c r="C616" s="5">
+        <v>25</v>
+      </c>
+      <c r="D616" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E616" s="5">
+        <v>0</v>
+      </c>
+      <c r="F616" s="5">
+        <v>4</v>
+      </c>
+      <c r="G616" s="5">
+        <v>0</v>
+      </c>
+      <c r="I616" s="5">
+        <v>40</v>
+      </c>
+      <c r="S616" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG616" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH616" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="617" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A617" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B617" s="5">
+        <v>12</v>
+      </c>
+      <c r="C617" s="5">
+        <v>25</v>
+      </c>
+      <c r="D617" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E617" s="5">
+        <v>0</v>
+      </c>
+      <c r="F617" s="5">
+        <v>4</v>
+      </c>
+      <c r="G617" s="5">
+        <v>5</v>
+      </c>
+      <c r="I617" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG617" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A618" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B618" s="5">
+        <v>12</v>
+      </c>
+      <c r="C618" s="5">
+        <v>25</v>
+      </c>
+      <c r="D618" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E618" s="5">
+        <v>0</v>
+      </c>
+      <c r="F618" s="5">
+        <v>4</v>
+      </c>
+      <c r="G618" s="5">
+        <v>10</v>
+      </c>
+      <c r="I618" s="5">
+        <v>3</v>
+      </c>
+      <c r="W618" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG618" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A619" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B619" s="5">
+        <v>12</v>
+      </c>
+      <c r="C619" s="5">
+        <v>25</v>
+      </c>
+      <c r="D619" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E619" s="5">
+        <v>0</v>
+      </c>
+      <c r="F619" s="5">
+        <v>4</v>
+      </c>
+      <c r="G619" s="5">
+        <v>15</v>
+      </c>
+      <c r="I619" s="5">
+        <v>3</v>
+      </c>
+      <c r="W619" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A620" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B620" s="5">
+        <v>12</v>
+      </c>
+      <c r="C620" s="5">
+        <v>25</v>
+      </c>
+      <c r="D620" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E620" s="5">
+        <v>0</v>
+      </c>
+      <c r="F620" s="5">
+        <v>4</v>
+      </c>
+      <c r="G620" s="5">
+        <v>20</v>
+      </c>
+      <c r="I620" s="5">
+        <v>3</v>
+      </c>
+      <c r="W620" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG620" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH620" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="621" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A621" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B621" s="5">
+        <v>12</v>
+      </c>
+      <c r="C621" s="5">
+        <v>25</v>
+      </c>
+      <c r="D621" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E621" s="5">
+        <v>0</v>
+      </c>
+      <c r="F621" s="5">
+        <v>4</v>
+      </c>
+      <c r="G621" s="5">
+        <v>25</v>
+      </c>
+      <c r="I621" s="5">
+        <v>1</v>
+      </c>
+      <c r="W621" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH621" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="622" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A622" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B622" s="5">
+        <v>12</v>
+      </c>
+      <c r="C622" s="5">
+        <v>25</v>
+      </c>
+      <c r="D622" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E622" s="5">
+        <v>0</v>
+      </c>
+      <c r="F622" s="5">
+        <v>4</v>
+      </c>
+      <c r="G622" s="5">
+        <v>30</v>
+      </c>
+      <c r="I622" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG622" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH622" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="623" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A623" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B623" s="5">
+        <v>12</v>
+      </c>
+      <c r="C623" s="5">
+        <v>25</v>
+      </c>
+      <c r="D623" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E623" s="5">
+        <v>0</v>
+      </c>
+      <c r="F623" s="5">
+        <v>4</v>
+      </c>
+      <c r="G623" s="5">
+        <v>35</v>
+      </c>
+      <c r="W623" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG623" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH623" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="624" spans="1:58" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A624" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B624" s="5">
+        <v>12</v>
+      </c>
+      <c r="C624" s="5">
+        <v>25</v>
+      </c>
+      <c r="D624" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E624" s="5">
+        <v>0</v>
+      </c>
+      <c r="F624" s="5">
+        <v>4</v>
+      </c>
+      <c r="G624" s="5">
+        <v>40</v>
+      </c>
+      <c r="W624" s="5">
+        <v>10</v>
+      </c>
+      <c r="AG624" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH624" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR624" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="625" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A625" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B625" s="5">
+        <v>12</v>
+      </c>
+      <c r="C625" s="5">
+        <v>25</v>
+      </c>
+      <c r="D625" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E625" s="5">
+        <v>0</v>
+      </c>
+      <c r="F625" s="5">
+        <v>4</v>
+      </c>
+      <c r="G625" s="5">
+        <v>45</v>
+      </c>
+      <c r="W625" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG625" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="626" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A626" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B626" s="5">
+        <v>12</v>
+      </c>
+      <c r="C626" s="5">
+        <v>25</v>
+      </c>
+      <c r="D626" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E626" s="5">
+        <v>0</v>
+      </c>
+      <c r="F626" s="5">
+        <v>4</v>
+      </c>
+      <c r="G626" s="5">
+        <v>50</v>
+      </c>
+      <c r="I626" s="5">
+        <v>2</v>
+      </c>
+      <c r="AG626" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH626" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="627" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A627" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B627" s="5">
+        <v>12</v>
+      </c>
+      <c r="C627" s="5">
+        <v>25</v>
+      </c>
+      <c r="D627" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E627" s="5">
+        <v>0</v>
+      </c>
+      <c r="F627" s="5">
+        <v>4</v>
+      </c>
+      <c r="G627" s="5">
+        <v>55</v>
+      </c>
+      <c r="J627" s="5">
+        <v>5</v>
+      </c>
+      <c r="W627" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG627" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH627" s="5">
+        <v>2</v>
+      </c>
+      <c r="AK627" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A628" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B628" s="5">
+        <v>12</v>
+      </c>
+      <c r="C628" s="5">
+        <v>25</v>
+      </c>
+      <c r="D628" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E628" s="5">
+        <v>0</v>
+      </c>
+      <c r="F628" s="5">
+        <v>4</v>
+      </c>
+      <c r="G628" s="5">
+        <v>60</v>
+      </c>
+      <c r="W628" s="5">
+        <v>5</v>
+      </c>
+      <c r="AG628" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH628" s="5">
+        <v>10</v>
+      </c>
+      <c r="AJ628" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO628" s="5">
+        <v>1</v>
+      </c>
+      <c r="AR628" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:44" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A629" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B629" s="5">
+        <v>12</v>
+      </c>
+      <c r="C629" s="5">
+        <v>25</v>
+      </c>
+      <c r="D629" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E629" s="5">
+        <v>0</v>
+      </c>
+      <c r="F629" s="5">
+        <v>4</v>
+      </c>
+      <c r="G629" s="5">
+        <v>65</v>
+      </c>
+      <c r="J629" s="5">
+        <v>1</v>
+      </c>
+      <c r="U629" s="5">
+        <v>5</v>
+      </c>
+      <c r="W629" s="5">
+        <v>10</v>
+      </c>
+      <c r="AG629" s="5">
+        <v>10</v>
+      </c>
+      <c r="AJ629" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK629" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL629" s="5">
+        <v>3</v>
+      </c>
+      <c r="AO629" s="5">
+        <v>3</v>
+      </c>
+      <c r="AR629" s="5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1318" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{18D9069F-F16C-40AA-BD37-79D26976A704}"/>
+  <xr:revisionPtr revIDLastSave="1320" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD51B5E2-475A-4BC2-8CEE-928D06AA7738}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,7 +457,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -655,6 +655,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -816,12 +822,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1177,30 +1185,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BJ632"/>
+  <dimension ref="A1:BT674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="W612" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR633" sqref="AR633"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A642" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Y660" sqref="Y660"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="11" max="18" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="19" max="22" width="9.140625" customWidth="1"/>
-    <col min="25" max="25" width="7.7109375" customWidth="1"/>
-    <col min="26" max="26" width="10.42578125" customWidth="1"/>
-    <col min="27" max="27" width="10.28515625" customWidth="1"/>
-    <col min="28" max="28" width="12.28515625" customWidth="1"/>
-    <col min="29" max="29" width="11.5703125" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
-    <col min="31" max="31" width="10.140625" customWidth="1"/>
-    <col min="32" max="32" width="11.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.5546875" customWidth="1"/>
+    <col min="11" max="18" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="19" max="22" width="9.109375" customWidth="1"/>
+    <col min="25" max="25" width="7.6640625" customWidth="1"/>
+    <col min="26" max="26" width="10.44140625" customWidth="1"/>
+    <col min="27" max="27" width="10.33203125" customWidth="1"/>
+    <col min="28" max="28" width="12.33203125" customWidth="1"/>
+    <col min="29" max="29" width="11.5546875" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
+    <col min="31" max="31" width="10.109375" customWidth="1"/>
+    <col min="32" max="32" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:62">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1388,7 +1396,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:62">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1423,7 +1431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:62">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1452,7 +1460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:62">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1481,7 +1489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:62">
+    <row r="5" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:62">
+    <row r="6" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1542,7 +1550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:62">
+    <row r="7" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1571,7 +1579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:62">
+    <row r="8" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1609,7 +1617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:62">
+    <row r="9" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -1644,7 +1652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:62">
+    <row r="10" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1676,7 +1684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:62">
+    <row r="11" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -1708,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:62">
+    <row r="12" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -1743,7 +1751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:62">
+    <row r="13" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1778,7 +1786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:62">
+    <row r="14" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -1813,7 +1821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:62">
+    <row r="15" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -1848,7 +1856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:62">
+    <row r="16" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -1883,7 +1891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:33">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -1915,7 +1923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -1950,7 +1958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:33">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -1982,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:33">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -2017,7 +2025,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:33">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -2049,7 +2057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:33">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -2081,7 +2089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:33">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -2110,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -2142,7 +2150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:33">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -2174,7 +2182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:33">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -2206,7 +2214,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:33">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -2238,7 +2246,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:33">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -2270,7 +2278,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:33">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2305,7 +2313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:33">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -2337,7 +2345,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:33">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -2366,7 +2374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -2401,7 +2409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:33">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2436,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2471,7 +2479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:33">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -2506,7 +2514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:33">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2541,7 +2549,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:33">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2576,7 +2584,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:33">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -2611,7 +2619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:33">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2646,7 +2654,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:33">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2681,7 +2689,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:33">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2713,7 +2721,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:33">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -2745,7 +2753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:33">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2780,7 +2788,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:33">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2815,7 +2823,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:33">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -2844,7 +2852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:33">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2879,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:33">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -2911,7 +2919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:33">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -2940,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:33">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -2975,7 +2983,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:33">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -3007,7 +3015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:33">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -3042,7 +3050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:33">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -3077,7 +3085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:33">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -3109,7 +3117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:33">
+    <row r="54" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:33">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -3179,7 +3187,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:33">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -3208,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:33">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -3243,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:33">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -3278,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:33">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -3313,7 +3321,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:33">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -3348,7 +3356,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:33">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -3383,7 +3391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:33">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -3415,7 +3423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:33">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -3444,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:33">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -3482,7 +3490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:33">
+    <row r="65" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -3517,7 +3525,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:33">
+    <row r="66" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -3552,7 +3560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:33">
+    <row r="67" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -3587,7 +3595,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:33">
+    <row r="68" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -3622,7 +3630,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:33">
+    <row r="69" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -3654,7 +3662,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:33">
+    <row r="70" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -3689,7 +3697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:33">
+    <row r="71" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -3718,7 +3726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:33">
+    <row r="72" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2021</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:33">
+    <row r="73" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -3785,7 +3793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:33">
+    <row r="74" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -3814,7 +3822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:33">
+    <row r="75" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2021</v>
       </c>
@@ -3849,7 +3857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:33">
+    <row r="76" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -3878,7 +3886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:33">
+    <row r="77" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2021</v>
       </c>
@@ -3916,7 +3924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:33">
+    <row r="78" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -3951,7 +3959,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:33">
+    <row r="79" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -3983,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:33">
+    <row r="80" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2021</v>
       </c>
@@ -4018,7 +4026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:36">
+    <row r="81" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2021</v>
       </c>
@@ -4047,7 +4055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:36">
+    <row r="82" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -4079,7 +4087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:36">
+    <row r="83" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -4117,7 +4125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:36">
+    <row r="84" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -4146,7 +4154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:36">
+    <row r="85" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -4187,7 +4195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:36">
+    <row r="86" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2021</v>
       </c>
@@ -4222,7 +4230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:36">
+    <row r="87" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2021</v>
       </c>
@@ -4251,7 +4259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:36">
+    <row r="88" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2021</v>
       </c>
@@ -4280,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:36">
+    <row r="89" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -4315,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:36">
+    <row r="90" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -4344,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:36">
+    <row r="91" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2021</v>
       </c>
@@ -4373,7 +4381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:36">
+    <row r="92" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -4402,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:36">
+    <row r="93" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -4434,7 +4442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:36">
+    <row r="94" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -4466,7 +4474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:36">
+    <row r="95" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -4498,7 +4506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:36">
+    <row r="96" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -4533,7 +4541,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:39">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2021</v>
       </c>
@@ -4568,7 +4576,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:39">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -4603,7 +4611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:39">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2021</v>
       </c>
@@ -4638,7 +4646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:39">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2021</v>
       </c>
@@ -4667,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:39">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -4696,7 +4704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:39">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -4731,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:39">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -4769,7 +4777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:39">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2021</v>
       </c>
@@ -4804,7 +4812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:39">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2021</v>
       </c>
@@ -4842,7 +4850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:39">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -4877,7 +4885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:39">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -4924,7 +4932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:39">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -4959,7 +4967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:39">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -4994,7 +5002,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:39">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -5029,7 +5037,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:39">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -5064,7 +5072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:39">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -5099,7 +5107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:58">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -5131,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:58">
+    <row r="114" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -5163,7 +5171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:58">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -5195,7 +5203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:58">
+    <row r="116" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -5236,7 +5244,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:58">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -5277,7 +5285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:58">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -5312,7 +5320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:58">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -5344,7 +5352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:58">
+    <row r="120" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -5373,7 +5381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:58">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -5408,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:58">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -5443,7 +5451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:58">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -5472,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:58">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -5507,7 +5515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:58">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -5545,7 +5553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:58">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -5583,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:58">
+    <row r="127" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -5624,7 +5632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:58">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -5659,7 +5667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:38">
+    <row r="129" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -5688,7 +5696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:38">
+    <row r="130" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -5720,7 +5728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:38">
+    <row r="131" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -5752,7 +5760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:38">
+    <row r="132" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -5781,7 +5789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:38">
+    <row r="133" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -5813,7 +5821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:38">
+    <row r="134" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -5842,7 +5850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:38">
+    <row r="135" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -5874,7 +5882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:38">
+    <row r="136" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -5909,7 +5917,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:38">
+    <row r="137" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -5953,7 +5961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:38">
+    <row r="138" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -5988,7 +5996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:38">
+    <row r="139" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -6017,7 +6025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:38">
+    <row r="140" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2021</v>
       </c>
@@ -6049,7 +6057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:38">
+    <row r="141" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2021</v>
       </c>
@@ -6078,7 +6086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:38">
+    <row r="142" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2021</v>
       </c>
@@ -6110,7 +6118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:38">
+    <row r="143" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -6139,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:38">
+    <row r="144" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -6168,7 +6176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:42">
+    <row r="145" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2021</v>
       </c>
@@ -6197,7 +6205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:42">
+    <row r="146" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2021</v>
       </c>
@@ -6226,7 +6234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:42">
+    <row r="147" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2021</v>
       </c>
@@ -6255,7 +6263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:42">
+    <row r="148" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2021</v>
       </c>
@@ -6287,7 +6295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:42">
+    <row r="149" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2021</v>
       </c>
@@ -6319,7 +6327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:42">
+    <row r="150" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2021</v>
       </c>
@@ -6351,7 +6359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:42">
+    <row r="151" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -6383,7 +6391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:42">
+    <row r="152" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2021</v>
       </c>
@@ -6421,7 +6429,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:42">
+    <row r="153" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2021</v>
       </c>
@@ -6462,7 +6470,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:42">
+    <row r="154" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -6497,7 +6505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:42">
+    <row r="155" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2021</v>
       </c>
@@ -6529,7 +6537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:42">
+    <row r="156" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2021</v>
       </c>
@@ -6561,7 +6569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:42">
+    <row r="157" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2021</v>
       </c>
@@ -6593,7 +6601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:42">
+    <row r="158" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2021</v>
       </c>
@@ -6625,7 +6633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:42">
+    <row r="159" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2021</v>
       </c>
@@ -6657,7 +6665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:42">
+    <row r="160" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2021</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:41">
+    <row r="161" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2021</v>
       </c>
@@ -6718,7 +6726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:41">
+    <row r="162" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2021</v>
       </c>
@@ -6750,7 +6758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:41">
+    <row r="163" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2021</v>
       </c>
@@ -6797,7 +6805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:41">
+    <row r="164" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2021</v>
       </c>
@@ -6832,7 +6840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:41">
+    <row r="165" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2021</v>
       </c>
@@ -6867,7 +6875,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:41">
+    <row r="166" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2021</v>
       </c>
@@ -6902,7 +6910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:41">
+    <row r="167" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2021</v>
       </c>
@@ -6937,7 +6945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:41">
+    <row r="168" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2021</v>
       </c>
@@ -6972,7 +6980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:41">
+    <row r="169" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2021</v>
       </c>
@@ -7004,7 +7012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:41">
+    <row r="170" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2021</v>
       </c>
@@ -7036,7 +7044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:41">
+    <row r="171" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2021</v>
       </c>
@@ -7068,7 +7076,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:41">
+    <row r="172" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2021</v>
       </c>
@@ -7109,7 +7117,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:41">
+    <row r="173" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2021</v>
       </c>
@@ -7150,7 +7158,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:41">
+    <row r="174" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2022</v>
       </c>
@@ -7185,7 +7193,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:41">
+    <row r="175" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2022</v>
       </c>
@@ -7217,7 +7225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:41">
+    <row r="176" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2022</v>
       </c>
@@ -7246,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:41">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -7278,7 +7286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:41">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2022</v>
       </c>
@@ -7310,7 +7318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:41">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2022</v>
       </c>
@@ -7342,7 +7350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:41">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2022</v>
       </c>
@@ -7380,7 +7388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:41">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2022</v>
       </c>
@@ -7418,7 +7426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:41">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2022</v>
       </c>
@@ -7453,7 +7461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:41">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2022</v>
       </c>
@@ -7482,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:41">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2022</v>
       </c>
@@ -7514,7 +7522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:41">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2022</v>
       </c>
@@ -7543,7 +7551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:41">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2022</v>
       </c>
@@ -7575,7 +7583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:41">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2022</v>
       </c>
@@ -7613,7 +7621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:41">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2022</v>
       </c>
@@ -7642,7 +7650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:41">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2022</v>
       </c>
@@ -7680,7 +7688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:41">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2022</v>
       </c>
@@ -7715,7 +7723,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:41">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2022</v>
       </c>
@@ -7747,7 +7755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:41">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2022</v>
       </c>
@@ -7779,7 +7787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:33">
+    <row r="193" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2022</v>
       </c>
@@ -7808,7 +7816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:33">
+    <row r="194" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2022</v>
       </c>
@@ -7837,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:33">
+    <row r="195" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2022</v>
       </c>
@@ -7866,7 +7874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:33">
+    <row r="196" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2022</v>
       </c>
@@ -7895,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:33">
+    <row r="197" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2022</v>
       </c>
@@ -7924,7 +7932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:33">
+    <row r="198" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2022</v>
       </c>
@@ -7953,7 +7961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:33">
+    <row r="199" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2022</v>
       </c>
@@ -7988,7 +7996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:33">
+    <row r="200" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2022</v>
       </c>
@@ -8020,7 +8028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:33">
+    <row r="201" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2022</v>
       </c>
@@ -8052,7 +8060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:33">
+    <row r="202" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2022</v>
       </c>
@@ -8084,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:33">
+    <row r="203" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2022</v>
       </c>
@@ -8116,7 +8124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:33">
+    <row r="204" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2022</v>
       </c>
@@ -8148,7 +8156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:33">
+    <row r="205" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2022</v>
       </c>
@@ -8180,7 +8188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:33">
+    <row r="206" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2022</v>
       </c>
@@ -8215,7 +8223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:33">
+    <row r="207" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2022</v>
       </c>
@@ -8244,7 +8252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:33">
+    <row r="208" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2022</v>
       </c>
@@ -8273,7 +8281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:44">
+    <row r="209" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2022</v>
       </c>
@@ -8314,7 +8322,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:44">
+    <row r="210" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2022</v>
       </c>
@@ -8349,7 +8357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:44">
+    <row r="211" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2022</v>
       </c>
@@ -8384,7 +8392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:44">
+    <row r="212" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2022</v>
       </c>
@@ -8419,7 +8427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:44">
+    <row r="213" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2022</v>
       </c>
@@ -8451,7 +8459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:44">
+    <row r="214" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2022</v>
       </c>
@@ -8480,7 +8488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:44">
+    <row r="215" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2022</v>
       </c>
@@ -8512,7 +8520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:44">
+    <row r="216" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2022</v>
       </c>
@@ -8547,7 +8555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:44">
+    <row r="217" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2022</v>
       </c>
@@ -8588,7 +8596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:44">
+    <row r="218" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2022</v>
       </c>
@@ -8629,7 +8637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:44">
+    <row r="219" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2022</v>
       </c>
@@ -8667,7 +8675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:44">
+    <row r="220" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2022</v>
       </c>
@@ -8708,7 +8716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:44">
+    <row r="221" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2022</v>
       </c>
@@ -8746,7 +8754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:44">
+    <row r="222" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2022</v>
       </c>
@@ -8775,7 +8783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:44">
+    <row r="223" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2022</v>
       </c>
@@ -8804,7 +8812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:44">
+    <row r="224" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2022</v>
       </c>
@@ -8839,7 +8847,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:44">
+    <row r="225" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2022</v>
       </c>
@@ -8880,7 +8888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:44">
+    <row r="226" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2022</v>
       </c>
@@ -8921,7 +8929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:44">
+    <row r="227" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2022</v>
       </c>
@@ -8953,7 +8961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:44">
+    <row r="228" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2022</v>
       </c>
@@ -8997,7 +9005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:44">
+    <row r="229" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2022</v>
       </c>
@@ -9029,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:44">
+    <row r="230" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2022</v>
       </c>
@@ -9073,7 +9081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:44">
+    <row r="231" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -9111,7 +9119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:44">
+    <row r="232" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2022</v>
       </c>
@@ -9149,7 +9157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:44">
+    <row r="233" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2022</v>
       </c>
@@ -9190,7 +9198,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:44">
+    <row r="234" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2022</v>
       </c>
@@ -9228,7 +9236,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:44">
+    <row r="235" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2022</v>
       </c>
@@ -9263,7 +9271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:44">
+    <row r="236" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2022</v>
       </c>
@@ -9295,7 +9303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:44">
+    <row r="237" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2022</v>
       </c>
@@ -9327,7 +9335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:44">
+    <row r="238" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2022</v>
       </c>
@@ -9359,7 +9367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:44">
+    <row r="239" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -9388,7 +9396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:44">
+    <row r="240" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -9420,7 +9428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:44">
+    <row r="241" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -9446,7 +9454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:44">
+    <row r="242" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2022</v>
       </c>
@@ -9490,7 +9498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:44">
+    <row r="243" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2022</v>
       </c>
@@ -9522,7 +9530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:44">
+    <row r="244" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2022</v>
       </c>
@@ -9557,7 +9565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:44">
+    <row r="245" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2022</v>
       </c>
@@ -9589,7 +9597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:44">
+    <row r="246" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2022</v>
       </c>
@@ -9621,7 +9629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:44">
+    <row r="247" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2022</v>
       </c>
@@ -9650,7 +9658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:44">
+    <row r="248" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2022</v>
       </c>
@@ -9682,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:44">
+    <row r="249" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2022</v>
       </c>
@@ -9711,7 +9719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:44">
+    <row r="250" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2022</v>
       </c>
@@ -9740,7 +9748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:44">
+    <row r="251" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2022</v>
       </c>
@@ -9775,7 +9783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:44">
+    <row r="252" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2022</v>
       </c>
@@ -9807,7 +9815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:44">
+    <row r="253" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2022</v>
       </c>
@@ -9836,7 +9844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:44">
+    <row r="254" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2022</v>
       </c>
@@ -9883,7 +9891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:44">
+    <row r="255" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2022</v>
       </c>
@@ -9924,7 +9932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:44">
+    <row r="256" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2022</v>
       </c>
@@ -9962,7 +9970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:44">
+    <row r="257" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2022</v>
       </c>
@@ -9994,7 +10002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:44">
+    <row r="258" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2022</v>
       </c>
@@ -10026,7 +10034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:44">
+    <row r="259" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2022</v>
       </c>
@@ -10055,7 +10063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:44">
+    <row r="260" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2022</v>
       </c>
@@ -10096,7 +10104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:44">
+    <row r="261" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2022</v>
       </c>
@@ -10128,7 +10136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:44">
+    <row r="262" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2022</v>
       </c>
@@ -10160,7 +10168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:44">
+    <row r="263" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2022</v>
       </c>
@@ -10195,7 +10203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:44">
+    <row r="264" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2022</v>
       </c>
@@ -10230,7 +10238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:44">
+    <row r="265" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2022</v>
       </c>
@@ -10277,7 +10285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:44">
+    <row r="266" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2022</v>
       </c>
@@ -10327,7 +10335,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:44">
+    <row r="267" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2022</v>
       </c>
@@ -10371,7 +10379,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:44">
+    <row r="268" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -10412,7 +10420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:44">
+    <row r="269" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -10450,7 +10458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:44">
+    <row r="270" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -10488,7 +10496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:44">
+    <row r="271" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -10538,7 +10546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:44">
+    <row r="272" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -10585,7 +10593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:44">
+    <row r="273" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -10629,7 +10637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:44">
+    <row r="274" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -10667,7 +10675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:44">
+    <row r="275" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -10711,7 +10719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:44">
+    <row r="276" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -10743,7 +10751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:44">
+    <row r="277" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -10781,7 +10789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:44">
+    <row r="278" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -10828,7 +10836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:44">
+    <row r="279" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -10869,7 +10877,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:44">
+    <row r="280" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -10907,7 +10915,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:44">
+    <row r="281" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -10951,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:44">
+    <row r="282" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -10983,7 +10991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:44">
+    <row r="283" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -11015,7 +11023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:44">
+    <row r="284" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -11044,7 +11052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:44">
+    <row r="285" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -11073,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:44">
+    <row r="286" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -11105,7 +11113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:44">
+    <row r="287" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -11131,7 +11139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:44">
+    <row r="288" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -11166,7 +11174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:44">
+    <row r="289" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -11210,7 +11218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:44">
+    <row r="290" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -11245,7 +11253,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:44">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -11277,7 +11285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:44">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -11321,7 +11329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:44">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -11365,7 +11373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:44">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -11400,7 +11408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:44">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -11435,7 +11443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:44">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -11467,7 +11475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:44">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -11499,7 +11507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:44">
+    <row r="298" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -11534,7 +11542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:44">
+    <row r="299" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -11566,7 +11574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:44">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -11595,7 +11603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:44">
+    <row r="301" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -11633,7 +11641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:44">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -11680,7 +11688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:44">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -11718,7 +11726,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:44">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -11756,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:45">
+    <row r="305" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -11791,7 +11799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:45">
+    <row r="306" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -11823,7 +11831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:45">
+    <row r="307" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -11855,7 +11863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:45">
+    <row r="308" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -11893,7 +11901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:45">
+    <row r="309" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -11928,7 +11936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:45">
+    <row r="310" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -11972,7 +11980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:45">
+    <row r="311" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -12016,7 +12024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:45">
+    <row r="312" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -12060,7 +12068,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:45">
+    <row r="313" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -12098,7 +12106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:45">
+    <row r="314" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -12139,7 +12147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:45">
+    <row r="315" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -12183,7 +12191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:45">
+    <row r="316" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -12227,7 +12235,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:45">
+    <row r="317" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -12277,7 +12285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:45">
+    <row r="318" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -12321,7 +12329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:45">
+    <row r="319" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -12359,7 +12367,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:45">
+    <row r="320" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -12403,7 +12411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:45">
+    <row r="321" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -12438,7 +12446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:45">
+    <row r="322" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -12476,7 +12484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:45">
+    <row r="323" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -12520,7 +12528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:45">
+    <row r="324" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -12564,7 +12572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:45">
+    <row r="325" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -12608,7 +12616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:45">
+    <row r="326" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -12655,7 +12663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:45">
+    <row r="327" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -12705,7 +12713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:45">
+    <row r="328" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -12740,7 +12748,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:45">
+    <row r="329" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -12775,7 +12783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:45">
+    <row r="330" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -12810,7 +12818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:45">
+    <row r="331" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -12845,7 +12853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:45">
+    <row r="332" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -12880,7 +12888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:45">
+    <row r="333" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -12915,7 +12923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:45">
+    <row r="334" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -12959,7 +12967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:45">
+    <row r="335" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -13006,7 +13014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:45">
+    <row r="336" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -13050,7 +13058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:60">
+    <row r="337" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -13100,7 +13108,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:60">
+    <row r="338" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -13144,7 +13152,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:60">
+    <row r="339" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -13197,7 +13205,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:60">
+    <row r="340" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -13244,7 +13252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:60">
+    <row r="341" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -13288,7 +13296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:60">
+    <row r="342" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -13344,7 +13352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="343" spans="1:60">
+    <row r="343" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -13391,7 +13399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="344" spans="1:60">
+    <row r="344" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -13441,7 +13449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="345" spans="1:60">
+    <row r="345" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2022</v>
       </c>
@@ -13476,7 +13484,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="346" spans="1:60">
+    <row r="346" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2022</v>
       </c>
@@ -13517,7 +13525,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="347" spans="1:60">
+    <row r="347" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -13567,7 +13575,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="348" spans="1:60">
+    <row r="348" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2022</v>
       </c>
@@ -13626,7 +13634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="349" spans="1:60">
+    <row r="349" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -13685,7 +13693,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="350" spans="1:60">
+    <row r="350" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -13744,7 +13752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="351" spans="1:60">
+    <row r="351" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -13797,7 +13805,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="352" spans="1:60">
+    <row r="352" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2022</v>
       </c>
@@ -13841,7 +13849,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="353" spans="1:60">
+    <row r="353" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2022</v>
       </c>
@@ -13882,7 +13890,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="354" spans="1:60">
+    <row r="354" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2022</v>
       </c>
@@ -13923,7 +13931,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="355" spans="1:60">
+    <row r="355" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -13970,7 +13978,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="356" spans="1:60">
+    <row r="356" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2022</v>
       </c>
@@ -14017,7 +14025,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="357" spans="1:60">
+    <row r="357" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2022</v>
       </c>
@@ -14061,7 +14069,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="358" spans="1:60">
+    <row r="358" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -14111,7 +14119,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="359" spans="1:60">
+    <row r="359" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2022</v>
       </c>
@@ -14164,7 +14172,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="360" spans="1:60">
+    <row r="360" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2022</v>
       </c>
@@ -14217,7 +14225,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="361" spans="1:60">
+    <row r="361" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2022</v>
       </c>
@@ -14276,7 +14284,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="362" spans="1:60">
+    <row r="362" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2022</v>
       </c>
@@ -14332,7 +14340,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="363" spans="1:60">
+    <row r="363" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2022</v>
       </c>
@@ -14391,7 +14399,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="364" spans="1:60">
+    <row r="364" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2022</v>
       </c>
@@ -14441,7 +14449,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="365" spans="1:60">
+    <row r="365" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2022</v>
       </c>
@@ -14497,7 +14505,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="366" spans="1:60">
+    <row r="366" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2022</v>
       </c>
@@ -14550,7 +14558,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="367" spans="1:60">
+    <row r="367" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2022</v>
       </c>
@@ -14612,7 +14620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="368" spans="1:60">
+    <row r="368" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2022</v>
       </c>
@@ -14680,7 +14688,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="369" spans="1:60">
+    <row r="369" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2022</v>
       </c>
@@ -14748,7 +14756,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="370" spans="1:60">
+    <row r="370" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2022</v>
       </c>
@@ -14798,7 +14806,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="371" spans="1:60">
+    <row r="371" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2022</v>
       </c>
@@ -14845,7 +14853,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="372" spans="1:60">
+    <row r="372" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2022</v>
       </c>
@@ -14892,7 +14900,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="373" spans="1:60">
+    <row r="373" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2022</v>
       </c>
@@ -14936,7 +14944,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="374" spans="1:60">
+    <row r="374" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2022</v>
       </c>
@@ -14980,7 +14988,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="375" spans="1:60">
+    <row r="375" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2022</v>
       </c>
@@ -15024,7 +15032,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="376" spans="1:60">
+    <row r="376" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2022</v>
       </c>
@@ -15071,7 +15079,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="377" spans="1:60">
+    <row r="377" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2022</v>
       </c>
@@ -15118,7 +15126,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="378" spans="1:60">
+    <row r="378" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2022</v>
       </c>
@@ -15174,7 +15182,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="379" spans="1:60">
+    <row r="379" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2022</v>
       </c>
@@ -15224,7 +15232,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="380" spans="1:60">
+    <row r="380" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2022</v>
       </c>
@@ -15277,7 +15285,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="381" spans="1:60">
+    <row r="381" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2022</v>
       </c>
@@ -15333,7 +15341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:60">
+    <row r="382" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2022</v>
       </c>
@@ -15380,7 +15388,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="383" spans="1:60">
+    <row r="383" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2022</v>
       </c>
@@ -15433,7 +15441,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="384" spans="1:60">
+    <row r="384" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2022</v>
       </c>
@@ -15477,7 +15485,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="385" spans="1:60">
+    <row r="385" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2022</v>
       </c>
@@ -15527,7 +15535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:60">
+    <row r="386" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2022</v>
       </c>
@@ -15664,7 +15672,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="387" spans="1:60">
+    <row r="387" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2022</v>
       </c>
@@ -15714,7 +15722,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:60">
+    <row r="388" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2022</v>
       </c>
@@ -15746,7 +15754,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:60">
+    <row r="389" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2022</v>
       </c>
@@ -15784,7 +15792,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:60">
+    <row r="390" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2022</v>
       </c>
@@ -15825,7 +15833,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:60">
+    <row r="391" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2022</v>
       </c>
@@ -15869,7 +15877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:60">
+    <row r="392" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2022</v>
       </c>
@@ -15913,7 +15921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:60">
+    <row r="393" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2022</v>
       </c>
@@ -15960,7 +15968,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:60">
+    <row r="394" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2022</v>
       </c>
@@ -16007,7 +16015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:60">
+    <row r="395" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2022</v>
       </c>
@@ -16063,7 +16071,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:60">
+    <row r="396" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2022</v>
       </c>
@@ -16137,7 +16145,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:60">
+    <row r="397" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2022</v>
       </c>
@@ -16184,7 +16192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:60">
+    <row r="398" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2022</v>
       </c>
@@ -16216,7 +16224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:60">
+    <row r="399" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2022</v>
       </c>
@@ -16254,7 +16262,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:60">
+    <row r="400" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2022</v>
       </c>
@@ -16292,7 +16300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:49">
+    <row r="401" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2022</v>
       </c>
@@ -16333,7 +16341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:49">
+    <row r="402" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2022</v>
       </c>
@@ -16377,7 +16385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:49">
+    <row r="403" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2022</v>
       </c>
@@ -16418,7 +16426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:49">
+    <row r="404" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2022</v>
       </c>
@@ -16459,7 +16467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:49">
+    <row r="405" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2022</v>
       </c>
@@ -16506,7 +16514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:49">
+    <row r="406" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2022</v>
       </c>
@@ -16559,7 +16567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:49">
+    <row r="407" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2022</v>
       </c>
@@ -16597,7 +16605,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:49">
+    <row r="408" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2022</v>
       </c>
@@ -16635,7 +16643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:49">
+    <row r="409" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2022</v>
       </c>
@@ -16679,7 +16687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:49">
+    <row r="410" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2022</v>
       </c>
@@ -16729,7 +16737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:49">
+    <row r="411" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2022</v>
       </c>
@@ -16782,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:49">
+    <row r="412" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2022</v>
       </c>
@@ -16832,7 +16840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:49">
+    <row r="413" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2022</v>
       </c>
@@ -16885,7 +16893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:49">
+    <row r="414" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2022</v>
       </c>
@@ -16953,7 +16961,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:49">
+    <row r="415" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2022</v>
       </c>
@@ -17021,7 +17029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:49">
+    <row r="416" spans="1:49" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2022</v>
       </c>
@@ -17059,7 +17067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:51">
+    <row r="417" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2022</v>
       </c>
@@ -17097,7 +17105,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:51">
+    <row r="418" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2022</v>
       </c>
@@ -17132,7 +17140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:51">
+    <row r="419" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2022</v>
       </c>
@@ -17167,7 +17175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:51">
+    <row r="420" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2022</v>
       </c>
@@ -17205,7 +17213,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:51">
+    <row r="421" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2022</v>
       </c>
@@ -17246,7 +17254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:51">
+    <row r="422" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2022</v>
       </c>
@@ -17290,7 +17298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:51">
+    <row r="423" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2022</v>
       </c>
@@ -17331,7 +17339,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:51">
+    <row r="424" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2022</v>
       </c>
@@ -17369,7 +17377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:51">
+    <row r="425" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2022</v>
       </c>
@@ -17419,7 +17427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:51">
+    <row r="426" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2022</v>
       </c>
@@ -17463,7 +17471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:51">
+    <row r="427" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2022</v>
       </c>
@@ -17507,7 +17515,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:51">
+    <row r="428" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2022</v>
       </c>
@@ -17560,7 +17568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:51">
+    <row r="429" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2022</v>
       </c>
@@ -17607,7 +17615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:51">
+    <row r="430" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2022</v>
       </c>
@@ -17648,7 +17656,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:51">
+    <row r="431" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2022</v>
       </c>
@@ -17698,7 +17706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:51">
+    <row r="432" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2022</v>
       </c>
@@ -17742,7 +17750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:52">
+    <row r="433" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2022</v>
       </c>
@@ -17798,7 +17806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:52">
+    <row r="434" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2022</v>
       </c>
@@ -17842,7 +17850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:52">
+    <row r="435" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2022</v>
       </c>
@@ -17877,7 +17885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:52">
+    <row r="436" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2022</v>
       </c>
@@ -17921,7 +17929,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:52">
+    <row r="437" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2022</v>
       </c>
@@ -17965,7 +17973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:52">
+    <row r="438" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2022</v>
       </c>
@@ -18003,7 +18011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:52">
+    <row r="439" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2022</v>
       </c>
@@ -18041,7 +18049,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:52">
+    <row r="440" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2022</v>
       </c>
@@ -18079,7 +18087,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:52">
+    <row r="441" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2022</v>
       </c>
@@ -18123,7 +18131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:52">
+    <row r="442" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2022</v>
       </c>
@@ -18182,7 +18190,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:52">
+    <row r="443" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2022</v>
       </c>
@@ -18226,7 +18234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:52">
+    <row r="444" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2022</v>
       </c>
@@ -18267,7 +18275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:52">
+    <row r="445" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2022</v>
       </c>
@@ -18311,7 +18319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:52">
+    <row r="446" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2022</v>
       </c>
@@ -18349,7 +18357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:52">
+    <row r="447" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2022</v>
       </c>
@@ -18384,7 +18392,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="448" spans="1:52">
+    <row r="448" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2022</v>
       </c>
@@ -18428,7 +18436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:56">
+    <row r="449" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2022</v>
       </c>
@@ -18466,7 +18474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:56">
+    <row r="450" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2022</v>
       </c>
@@ -18504,7 +18512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:56">
+    <row r="451" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2022</v>
       </c>
@@ -18554,7 +18562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:56">
+    <row r="452" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2022</v>
       </c>
@@ -18598,7 +18606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:56">
+    <row r="453" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2022</v>
       </c>
@@ -18645,7 +18653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:56">
+    <row r="454" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2022</v>
       </c>
@@ -18686,7 +18694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:56">
+    <row r="455" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2022</v>
       </c>
@@ -18733,7 +18741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:56">
+    <row r="456" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2022</v>
       </c>
@@ -18795,7 +18803,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:56">
+    <row r="457" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2022</v>
       </c>
@@ -18845,7 +18853,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:56">
+    <row r="458" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2022</v>
       </c>
@@ -18904,7 +18912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:56">
+    <row r="459" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2022</v>
       </c>
@@ -18963,7 +18971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:56">
+    <row r="460" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2022</v>
       </c>
@@ -19028,7 +19036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:56">
+    <row r="461" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2022</v>
       </c>
@@ -19090,7 +19098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:56">
+    <row r="462" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2022</v>
       </c>
@@ -19146,7 +19154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:56">
+    <row r="463" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2022</v>
       </c>
@@ -19187,7 +19195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:56">
+    <row r="464" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2022</v>
       </c>
@@ -19225,7 +19233,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:57">
+    <row r="465" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2022</v>
       </c>
@@ -19269,7 +19277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:57">
+    <row r="466" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2022</v>
       </c>
@@ -19310,7 +19318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:57">
+    <row r="467" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2022</v>
       </c>
@@ -19345,7 +19353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:57">
+    <row r="468" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2022</v>
       </c>
@@ -19380,7 +19388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:57">
+    <row r="469" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2022</v>
       </c>
@@ -19421,7 +19429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:57">
+    <row r="470" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2022</v>
       </c>
@@ -19459,7 +19467,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:57">
+    <row r="471" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2022</v>
       </c>
@@ -19494,7 +19502,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:57">
+    <row r="472" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2022</v>
       </c>
@@ -19532,7 +19540,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:57">
+    <row r="473" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2022</v>
       </c>
@@ -19576,7 +19584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:57">
+    <row r="474" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2022</v>
       </c>
@@ -19617,7 +19625,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:57">
+    <row r="475" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2022</v>
       </c>
@@ -19661,7 +19669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:57">
+    <row r="476" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2022</v>
       </c>
@@ -19705,7 +19713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:57">
+    <row r="477" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2022</v>
       </c>
@@ -19752,7 +19760,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:57">
+    <row r="478" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2022</v>
       </c>
@@ -19814,7 +19822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:57">
+    <row r="479" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2022</v>
       </c>
@@ -19885,7 +19893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:57">
+    <row r="480" spans="1:57" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2022</v>
       </c>
@@ -19920,7 +19928,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:44">
+    <row r="481" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2022</v>
       </c>
@@ -19952,7 +19960,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:44">
+    <row r="482" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2022</v>
       </c>
@@ -19987,7 +19995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:44">
+    <row r="483" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2022</v>
       </c>
@@ -20031,7 +20039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:44">
+    <row r="484" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2022</v>
       </c>
@@ -20066,7 +20074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:44">
+    <row r="485" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2022</v>
       </c>
@@ -20110,7 +20118,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:44">
+    <row r="486" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2022</v>
       </c>
@@ -20145,7 +20153,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:44">
+    <row r="487" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2022</v>
       </c>
@@ -20180,7 +20188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:44">
+    <row r="488" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2022</v>
       </c>
@@ -20218,7 +20226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:44">
+    <row r="489" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2022</v>
       </c>
@@ -20256,7 +20264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:44">
+    <row r="490" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2022</v>
       </c>
@@ -20294,7 +20302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:44">
+    <row r="491" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2022</v>
       </c>
@@ -20329,7 +20337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:44">
+    <row r="492" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2022</v>
       </c>
@@ -20364,7 +20372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:44">
+    <row r="493" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2022</v>
       </c>
@@ -20399,7 +20407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:44">
+    <row r="494" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2022</v>
       </c>
@@ -20437,7 +20445,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:44">
+    <row r="495" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2022</v>
       </c>
@@ -20469,7 +20477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:44">
+    <row r="496" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2022</v>
       </c>
@@ -20504,7 +20512,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:35">
+    <row r="497" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2022</v>
       </c>
@@ -20536,7 +20544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:35">
+    <row r="498" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2022</v>
       </c>
@@ -20571,7 +20579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:35">
+    <row r="499" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2022</v>
       </c>
@@ -20609,7 +20617,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:35">
+    <row r="500" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2022</v>
       </c>
@@ -20647,7 +20655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:35">
+    <row r="501" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2022</v>
       </c>
@@ -20685,7 +20693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:35">
+    <row r="502" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2022</v>
       </c>
@@ -20726,7 +20734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:35">
+    <row r="503" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2022</v>
       </c>
@@ -20764,7 +20772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:35">
+    <row r="504" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2022</v>
       </c>
@@ -20799,7 +20807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:35">
+    <row r="505" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2022</v>
       </c>
@@ -20837,7 +20845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:35">
+    <row r="506" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2022</v>
       </c>
@@ -20881,7 +20889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:35">
+    <row r="507" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2022</v>
       </c>
@@ -20913,7 +20921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:35">
+    <row r="508" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2022</v>
       </c>
@@ -20948,7 +20956,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:35">
+    <row r="509" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2022</v>
       </c>
@@ -20992,7 +21000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:35">
+    <row r="510" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2022</v>
       </c>
@@ -21033,7 +21041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:35">
+    <row r="511" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2022</v>
       </c>
@@ -21077,7 +21085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:35">
+    <row r="512" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2022</v>
       </c>
@@ -21118,7 +21126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:44">
+    <row r="513" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2022</v>
       </c>
@@ -21153,7 +21161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:44">
+    <row r="514" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2022</v>
       </c>
@@ -21188,7 +21196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:44">
+    <row r="515" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2022</v>
       </c>
@@ -21211,7 +21219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:44">
+    <row r="516" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2022</v>
       </c>
@@ -21255,7 +21263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:44">
+    <row r="517" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2022</v>
       </c>
@@ -21296,7 +21304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:44">
+    <row r="518" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2022</v>
       </c>
@@ -21337,7 +21345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:44">
+    <row r="519" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2022</v>
       </c>
@@ -21372,7 +21380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:44">
+    <row r="520" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2022</v>
       </c>
@@ -21407,7 +21415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:44">
+    <row r="521" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2022</v>
       </c>
@@ -21451,7 +21459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:44">
+    <row r="522" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2022</v>
       </c>
@@ -21492,7 +21500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:44">
+    <row r="523" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2022</v>
       </c>
@@ -21530,7 +21538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:44">
+    <row r="524" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2022</v>
       </c>
@@ -21568,7 +21576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:44">
+    <row r="525" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2022</v>
       </c>
@@ -21609,7 +21617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:44">
+    <row r="526" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2022</v>
       </c>
@@ -21650,7 +21658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:44">
+    <row r="527" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2022</v>
       </c>
@@ -21688,7 +21696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:44">
+    <row r="528" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2022</v>
       </c>
@@ -21729,7 +21737,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:36">
+    <row r="529" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2022</v>
       </c>
@@ -21770,7 +21778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:36">
+    <row r="530" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2022</v>
       </c>
@@ -21808,7 +21816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:36">
+    <row r="531" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2022</v>
       </c>
@@ -21849,7 +21857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:36">
+    <row r="532" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2022</v>
       </c>
@@ -21887,7 +21895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:36">
+    <row r="533" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2022</v>
       </c>
@@ -21925,7 +21933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:36">
+    <row r="534" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2022</v>
       </c>
@@ -21960,7 +21968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:36">
+    <row r="535" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2022</v>
       </c>
@@ -21998,7 +22006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:36">
+    <row r="536" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2022</v>
       </c>
@@ -22030,7 +22038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:36">
+    <row r="537" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2022</v>
       </c>
@@ -22065,7 +22073,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:36">
+    <row r="538" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2022</v>
       </c>
@@ -22100,7 +22108,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:36">
+    <row r="539" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2022</v>
       </c>
@@ -22123,7 +22131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:36">
+    <row r="540" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2022</v>
       </c>
@@ -22158,7 +22166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:36">
+    <row r="541" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2022</v>
       </c>
@@ -22196,7 +22204,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:36">
+    <row r="542" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2022</v>
       </c>
@@ -22231,7 +22239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:36">
+    <row r="543" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2022</v>
       </c>
@@ -22269,7 +22277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:36">
+    <row r="544" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2022</v>
       </c>
@@ -22307,7 +22315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:38">
+    <row r="545" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2022</v>
       </c>
@@ -22342,7 +22350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:38">
+    <row r="546" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2022</v>
       </c>
@@ -22380,7 +22388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:38">
+    <row r="547" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>2022</v>
       </c>
@@ -22421,7 +22429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:38">
+    <row r="548" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2022</v>
       </c>
@@ -22456,7 +22464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:38">
+    <row r="549" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>2022</v>
       </c>
@@ -22491,7 +22499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:38">
+    <row r="550" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2022</v>
       </c>
@@ -22535,7 +22543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:38">
+    <row r="551" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>2022</v>
       </c>
@@ -22576,7 +22584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:38">
+    <row r="552" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2022</v>
       </c>
@@ -22608,7 +22616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:38">
+    <row r="553" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>2022</v>
       </c>
@@ -22643,7 +22651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:38">
+    <row r="554" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2022</v>
       </c>
@@ -22675,7 +22683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:38">
+    <row r="555" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2022</v>
       </c>
@@ -22707,7 +22715,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="556" spans="1:38">
+    <row r="556" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2022</v>
       </c>
@@ -22736,7 +22744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:38">
+    <row r="557" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2022</v>
       </c>
@@ -22768,7 +22776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:38">
+    <row r="558" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>2022</v>
       </c>
@@ -22803,7 +22811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:38">
+    <row r="559" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>2022</v>
       </c>
@@ -22841,7 +22849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:38">
+    <row r="560" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2022</v>
       </c>
@@ -22876,7 +22884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="1:58">
+    <row r="561" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>2022</v>
       </c>
@@ -22914,7 +22922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:58">
+    <row r="562" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>2022</v>
       </c>
@@ -22937,7 +22945,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="563" spans="1:58">
+    <row r="563" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>2022</v>
       </c>
@@ -22978,7 +22986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:58">
+    <row r="564" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2022</v>
       </c>
@@ -23019,7 +23027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:58">
+    <row r="565" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>2022</v>
       </c>
@@ -23066,7 +23074,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:58">
+    <row r="566" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2022</v>
       </c>
@@ -23104,7 +23112,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:58">
+    <row r="567" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>2022</v>
       </c>
@@ -23133,7 +23141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:58">
+    <row r="568" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>2022</v>
       </c>
@@ -23174,7 +23182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:58">
+    <row r="569" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2022</v>
       </c>
@@ -23215,7 +23223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:58">
+    <row r="570" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>2022</v>
       </c>
@@ -23244,7 +23252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:58">
+    <row r="571" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2022</v>
       </c>
@@ -23279,7 +23287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:58">
+    <row r="572" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>2022</v>
       </c>
@@ -23311,7 +23319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:58">
+    <row r="573" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2022</v>
       </c>
@@ -23349,7 +23357,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="574" spans="1:58">
+    <row r="574" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>2022</v>
       </c>
@@ -23384,7 +23392,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:58">
+    <row r="575" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>2022</v>
       </c>
@@ -23413,7 +23421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:58">
+    <row r="576" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>2022</v>
       </c>
@@ -23451,7 +23459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:60">
+    <row r="577" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>2022</v>
       </c>
@@ -23486,7 +23494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:60">
+    <row r="578" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2022</v>
       </c>
@@ -23518,7 +23526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:60">
+    <row r="579" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2022</v>
       </c>
@@ -23553,7 +23561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:60">
+    <row r="580" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>2022</v>
       </c>
@@ -23582,7 +23590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:60">
+    <row r="581" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>2022</v>
       </c>
@@ -23617,7 +23625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:60">
+    <row r="582" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2022</v>
       </c>
@@ -23649,7 +23657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:60">
+    <row r="583" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>2022</v>
       </c>
@@ -23681,7 +23689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:60">
+    <row r="584" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2022</v>
       </c>
@@ -23719,7 +23727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:60">
+    <row r="585" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>2022</v>
       </c>
@@ -23754,7 +23762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:60">
+    <row r="586" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>2022</v>
       </c>
@@ -23798,8 +23806,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:60" s="1" customFormat="1"/>
-    <row r="588" spans="1:60">
+    <row r="587" spans="1:60" x14ac:dyDescent="0.3">
+      <c r="A587">
+        <v>2023</v>
+      </c>
+      <c r="B587">
+        <v>1</v>
+      </c>
+      <c r="C587">
+        <v>21</v>
+      </c>
+      <c r="D587" s="3">
+        <v>0.48402777777777778</v>
+      </c>
+      <c r="E587">
+        <v>0</v>
+      </c>
+      <c r="F587">
+        <v>2</v>
+      </c>
+      <c r="G587">
+        <v>0</v>
+      </c>
+      <c r="H587" t="s">
+        <v>62</v>
+      </c>
+      <c r="I587">
+        <v>50</v>
+      </c>
+      <c r="S587">
+        <v>3</v>
+      </c>
+      <c r="AG587">
+        <v>15</v>
+      </c>
+      <c r="AH587">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>2023</v>
       </c>
@@ -23819,25 +23864,16 @@
         <v>2</v>
       </c>
       <c r="G588">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H588" t="s">
-        <v>62</v>
-      </c>
-      <c r="I588">
-        <v>50</v>
-      </c>
-      <c r="S588">
-        <v>3</v>
-      </c>
-      <c r="AG588">
-        <v>15</v>
-      </c>
-      <c r="AH588">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="589" spans="1:60">
+        <v>65</v>
+      </c>
+      <c r="W588">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="589" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2023</v>
       </c>
@@ -23848,7 +23884,7 @@
         <v>21</v>
       </c>
       <c r="D589" s="3">
-        <v>0.48402777777777778</v>
+        <v>0.484027777777778</v>
       </c>
       <c r="E589">
         <v>0</v>
@@ -23857,16 +23893,25 @@
         <v>2</v>
       </c>
       <c r="G589">
-        <v>5</v>
-      </c>
-      <c r="H589" t="s">
-        <v>65</v>
-      </c>
-      <c r="W589">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="590" spans="1:60">
+        <v>10</v>
+      </c>
+      <c r="I589">
+        <v>5</v>
+      </c>
+      <c r="X589">
+        <v>20</v>
+      </c>
+      <c r="Y589">
+        <v>20</v>
+      </c>
+      <c r="AG589">
+        <v>1</v>
+      </c>
+      <c r="AI589">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="590" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>2023</v>
       </c>
@@ -23886,25 +23931,22 @@
         <v>2</v>
       </c>
       <c r="G590">
-        <v>10</v>
-      </c>
-      <c r="I590">
-        <v>5</v>
+        <v>15</v>
+      </c>
+      <c r="H590" t="s">
+        <v>65</v>
+      </c>
+      <c r="W590">
+        <v>2</v>
       </c>
       <c r="X590">
-        <v>20</v>
-      </c>
-      <c r="Y590">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="AG590">
         <v>1</v>
       </c>
-      <c r="AI590">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="591" spans="1:60">
+    </row>
+    <row r="591" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>2023</v>
       </c>
@@ -23924,22 +23966,19 @@
         <v>2</v>
       </c>
       <c r="G591">
-        <v>15</v>
-      </c>
-      <c r="H591" t="s">
-        <v>65</v>
+        <v>20</v>
+      </c>
+      <c r="I591">
+        <v>1</v>
       </c>
       <c r="W591">
-        <v>2</v>
-      </c>
-      <c r="X591">
-        <v>1</v>
-      </c>
-      <c r="AG591">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="592" spans="1:60">
+        <v>1</v>
+      </c>
+      <c r="AH591">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="592" spans="1:60" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>2023</v>
       </c>
@@ -23959,19 +23998,16 @@
         <v>2</v>
       </c>
       <c r="G592">
-        <v>20</v>
-      </c>
-      <c r="I592">
-        <v>1</v>
-      </c>
-      <c r="W592">
-        <v>1</v>
-      </c>
-      <c r="AH592">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="593" spans="1:62">
+        <v>25</v>
+      </c>
+      <c r="H592" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG592">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="593" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>2023</v>
       </c>
@@ -23991,16 +24027,25 @@
         <v>2</v>
       </c>
       <c r="G593">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H593" t="s">
-        <v>78</v>
+        <v>92</v>
+      </c>
+      <c r="I593">
+        <v>1</v>
+      </c>
+      <c r="W593">
+        <v>2</v>
       </c>
       <c r="AG593">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="594" spans="1:62">
+        <v>2</v>
+      </c>
+      <c r="AR593">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="594" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2023</v>
       </c>
@@ -24020,25 +24065,25 @@
         <v>2</v>
       </c>
       <c r="G594">
-        <v>30</v>
-      </c>
-      <c r="H594" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="I594">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="W594">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG594">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AH594">
+        <v>10</v>
       </c>
       <c r="AR594">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="595" spans="1:62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="595" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>2023</v>
       </c>
@@ -24058,25 +24103,31 @@
         <v>2</v>
       </c>
       <c r="G595">
-        <v>35</v>
+        <v>40</v>
+      </c>
+      <c r="H595" t="s">
+        <v>76</v>
       </c>
       <c r="I595">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="W595">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AG595">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AH595">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="AJ595">
+        <v>1</v>
       </c>
       <c r="AR595">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="596" spans="1:62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>2023</v>
       </c>
@@ -24096,31 +24147,43 @@
         <v>2</v>
       </c>
       <c r="G596">
-        <v>40</v>
-      </c>
-      <c r="H596" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="I596">
         <v>2</v>
       </c>
+      <c r="J596">
+        <v>2</v>
+      </c>
+      <c r="U596">
+        <v>10</v>
+      </c>
       <c r="W596">
-        <v>10</v>
-      </c>
-      <c r="AG596">
-        <v>15</v>
-      </c>
-      <c r="AH596">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="AJ596">
+        <v>10</v>
+      </c>
+      <c r="AN596">
+        <v>1</v>
+      </c>
+      <c r="AP596">
         <v>1</v>
       </c>
       <c r="AR596">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="597" spans="1:62">
+        <v>3</v>
+      </c>
+      <c r="AV596">
+        <v>5</v>
+      </c>
+      <c r="BF596">
+        <v>5</v>
+      </c>
+      <c r="BJ596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>2023</v>
       </c>
@@ -24137,46 +24200,28 @@
         <v>0</v>
       </c>
       <c r="F597">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G597">
-        <v>45</v>
+        <v>0</v>
+      </c>
+      <c r="H597" t="s">
+        <v>62</v>
       </c>
       <c r="I597">
-        <v>2</v>
-      </c>
-      <c r="J597">
-        <v>2</v>
-      </c>
-      <c r="U597">
-        <v>10</v>
-      </c>
-      <c r="W597">
-        <v>2</v>
-      </c>
-      <c r="AJ597">
-        <v>10</v>
-      </c>
-      <c r="AN597">
-        <v>1</v>
-      </c>
-      <c r="AP597">
-        <v>1</v>
-      </c>
-      <c r="AR597">
-        <v>3</v>
-      </c>
-      <c r="AV597">
-        <v>5</v>
-      </c>
-      <c r="BF597">
-        <v>5</v>
-      </c>
-      <c r="BJ597">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="598" spans="1:62">
+        <v>30</v>
+      </c>
+      <c r="S597">
+        <v>1</v>
+      </c>
+      <c r="AG597">
+        <v>1</v>
+      </c>
+      <c r="AH597">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="598" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>2023</v>
       </c>
@@ -24196,25 +24241,22 @@
         <v>3</v>
       </c>
       <c r="G598">
-        <v>0</v>
-      </c>
-      <c r="H598" t="s">
-        <v>62</v>
-      </c>
-      <c r="I598">
-        <v>30</v>
-      </c>
-      <c r="S598">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="W598">
+        <v>2</v>
+      </c>
+      <c r="X598">
+        <v>2</v>
       </c>
       <c r="AG598">
         <v>1</v>
       </c>
-      <c r="AH598">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="599" spans="1:62">
+      <c r="AI598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2023</v>
       </c>
@@ -24234,22 +24276,31 @@
         <v>3</v>
       </c>
       <c r="G599">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="H599" t="s">
+        <v>93</v>
+      </c>
+      <c r="I599">
+        <v>1</v>
       </c>
       <c r="W599">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="X599">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG599">
         <v>1</v>
       </c>
+      <c r="AH599">
+        <v>1</v>
+      </c>
       <c r="AI599">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="600" spans="1:62">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="600" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>2023</v>
       </c>
@@ -24269,31 +24320,25 @@
         <v>3</v>
       </c>
       <c r="G600">
-        <v>10</v>
-      </c>
-      <c r="H600" t="s">
-        <v>93</v>
+        <v>15</v>
       </c>
       <c r="I600">
         <v>1</v>
       </c>
+      <c r="T600">
+        <v>1</v>
+      </c>
       <c r="W600">
         <v>1</v>
       </c>
       <c r="X600">
         <v>1</v>
       </c>
-      <c r="AG600">
-        <v>1</v>
-      </c>
       <c r="AH600">
         <v>1</v>
       </c>
-      <c r="AI600">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="601" spans="1:62">
+    </row>
+    <row r="601" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2023</v>
       </c>
@@ -24313,25 +24358,19 @@
         <v>3</v>
       </c>
       <c r="G601">
-        <v>15</v>
-      </c>
-      <c r="I601">
-        <v>1</v>
-      </c>
-      <c r="T601">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="W601">
         <v>1</v>
       </c>
-      <c r="X601">
+      <c r="AG601">
         <v>1</v>
       </c>
       <c r="AH601">
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:62">
+    <row r="602" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2023</v>
       </c>
@@ -24351,7 +24390,7 @@
         <v>3</v>
       </c>
       <c r="G602">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="W602">
         <v>1</v>
@@ -24363,7 +24402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:62">
+    <row r="603" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2023</v>
       </c>
@@ -24383,7 +24422,7 @@
         <v>3</v>
       </c>
       <c r="G603">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="W603">
         <v>1</v>
@@ -24395,7 +24434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:62">
+    <row r="604" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2023</v>
       </c>
@@ -24415,10 +24454,7 @@
         <v>3</v>
       </c>
       <c r="G604">
-        <v>30</v>
-      </c>
-      <c r="W604">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="AG604">
         <v>1</v>
@@ -24427,7 +24463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:62">
+    <row r="605" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2023</v>
       </c>
@@ -24447,16 +24483,16 @@
         <v>3</v>
       </c>
       <c r="G605">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AG605">
         <v>1</v>
       </c>
       <c r="AH605">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="606" spans="1:62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2023</v>
       </c>
@@ -24476,7 +24512,7 @@
         <v>3</v>
       </c>
       <c r="G606">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG606">
         <v>1</v>
@@ -24485,7 +24521,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:62">
+    <row r="607" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2023</v>
       </c>
@@ -24505,16 +24541,22 @@
         <v>3</v>
       </c>
       <c r="G607">
-        <v>45</v>
+        <v>50</v>
+      </c>
+      <c r="H607" t="s">
+        <v>76</v>
+      </c>
+      <c r="I607">
+        <v>5</v>
       </c>
       <c r="AG607">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH607">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="608" spans="1:62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="608" spans="1:62" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2023</v>
       </c>
@@ -24534,22 +24576,25 @@
         <v>3</v>
       </c>
       <c r="G608">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H608" t="s">
         <v>76</v>
       </c>
       <c r="I608">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="W608">
+        <v>1</v>
       </c>
       <c r="AG608">
         <v>2</v>
       </c>
       <c r="AH608">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="609" spans="1:61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="609" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2023</v>
       </c>
@@ -24569,7 +24614,7 @@
         <v>3</v>
       </c>
       <c r="G609">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H609" t="s">
         <v>76</v>
@@ -24584,10 +24629,13 @@
         <v>2</v>
       </c>
       <c r="AH609">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="610" spans="1:61">
+        <v>15</v>
+      </c>
+      <c r="AR609">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="610" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2023</v>
       </c>
@@ -24607,28 +24655,31 @@
         <v>3</v>
       </c>
       <c r="G610">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H610" t="s">
         <v>76</v>
       </c>
-      <c r="I610">
+      <c r="J610">
         <v>1</v>
       </c>
       <c r="W610">
         <v>1</v>
       </c>
       <c r="AG610">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH610">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="AK610">
+        <v>1</v>
       </c>
       <c r="AR610">
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:61">
+    <row r="611" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>2023</v>
       </c>
@@ -24648,7 +24699,7 @@
         <v>3</v>
       </c>
       <c r="G611">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H611" t="s">
         <v>76</v>
@@ -24663,16 +24714,13 @@
         <v>1</v>
       </c>
       <c r="AH611">
-        <v>10</v>
-      </c>
-      <c r="AK611">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="AR611">
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:61">
+    <row r="612" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>2023</v>
       </c>
@@ -24692,28 +24740,34 @@
         <v>3</v>
       </c>
       <c r="G612">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H612" t="s">
         <v>76</v>
       </c>
+      <c r="I612">
+        <v>5</v>
+      </c>
       <c r="J612">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W612">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AG612">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AH612">
-        <v>30</v>
+        <v>40</v>
+      </c>
+      <c r="AL612">
+        <v>1</v>
       </c>
       <c r="AR612">
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:61">
+    <row r="613" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2023</v>
       </c>
@@ -24730,37 +24784,37 @@
         <v>0</v>
       </c>
       <c r="F613">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G613">
-        <v>75</v>
-      </c>
-      <c r="H613" t="s">
-        <v>76</v>
-      </c>
-      <c r="I613">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="J613">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="U613">
+        <v>1</v>
       </c>
       <c r="W613">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG613">
-        <v>10</v>
-      </c>
-      <c r="AH613">
-        <v>40</v>
+        <v>2</v>
+      </c>
+      <c r="AJ613">
+        <v>1</v>
       </c>
       <c r="AL613">
         <v>1</v>
       </c>
       <c r="AR613">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="614" spans="1:61">
+        <v>2</v>
+      </c>
+      <c r="BH613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>2023</v>
       </c>
@@ -24780,34 +24834,34 @@
         <v>4</v>
       </c>
       <c r="G614">
-        <v>80</v>
-      </c>
-      <c r="J614">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="U614">
         <v>1</v>
       </c>
       <c r="W614">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AG614">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="AH614">
+        <v>10</v>
       </c>
       <c r="AJ614">
         <v>1</v>
       </c>
       <c r="AL614">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR614">
-        <v>2</v>
-      </c>
-      <c r="BH614">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="615" spans="1:61">
+        <v>15</v>
+      </c>
+      <c r="AV614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>2023</v>
       </c>
@@ -24827,34 +24881,43 @@
         <v>4</v>
       </c>
       <c r="G615">
-        <v>85</v>
+        <v>90</v>
+      </c>
+      <c r="I615">
+        <v>1</v>
+      </c>
+      <c r="J615">
+        <v>5</v>
       </c>
       <c r="U615">
-        <v>1</v>
-      </c>
-      <c r="W615">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AG615">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AH615">
         <v>10</v>
       </c>
       <c r="AJ615">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="AK615">
+        <v>5</v>
       </c>
       <c r="AL615">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AR615">
-        <v>15</v>
-      </c>
-      <c r="AV615">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="616" spans="1:61">
+        <v>5</v>
+      </c>
+      <c r="BG615">
+        <v>1</v>
+      </c>
+      <c r="BI615">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="616" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>2023</v>
       </c>
@@ -24874,43 +24937,28 @@
         <v>4</v>
       </c>
       <c r="G616">
-        <v>90</v>
+        <v>0</v>
+      </c>
+      <c r="H616" t="s">
+        <v>62</v>
       </c>
       <c r="I616">
-        <v>1</v>
-      </c>
-      <c r="J616">
-        <v>5</v>
-      </c>
-      <c r="U616">
-        <v>10</v>
+        <v>30</v>
+      </c>
+      <c r="S616">
+        <v>1</v>
+      </c>
+      <c r="T616">
+        <v>1</v>
       </c>
       <c r="AG616">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH616">
-        <v>10</v>
-      </c>
-      <c r="AJ616">
-        <v>10</v>
-      </c>
-      <c r="AK616">
-        <v>5</v>
-      </c>
-      <c r="AL616">
-        <v>5</v>
-      </c>
-      <c r="AR616">
-        <v>5</v>
-      </c>
-      <c r="BG616">
-        <v>1</v>
-      </c>
-      <c r="BI616">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="617" spans="1:61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="617" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>2023</v>
       </c>
@@ -24930,28 +24978,16 @@
         <v>4</v>
       </c>
       <c r="G617">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H617" t="s">
         <v>62</v>
       </c>
       <c r="I617">
-        <v>30</v>
-      </c>
-      <c r="S617">
-        <v>1</v>
-      </c>
-      <c r="T617">
-        <v>1</v>
-      </c>
-      <c r="AG617">
-        <v>3</v>
-      </c>
-      <c r="AH617">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="618" spans="1:61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="618" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>2023</v>
       </c>
@@ -24971,16 +25007,31 @@
         <v>4</v>
       </c>
       <c r="G618">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H618" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I618">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="619" spans="1:61">
+        <v>1</v>
+      </c>
+      <c r="W618">
+        <v>1</v>
+      </c>
+      <c r="AG618">
+        <v>2</v>
+      </c>
+      <c r="AH618">
+        <v>1</v>
+      </c>
+      <c r="AI618">
+        <v>1</v>
+      </c>
+      <c r="AR618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>2023</v>
       </c>
@@ -25000,31 +25051,25 @@
         <v>4</v>
       </c>
       <c r="G619">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="H619" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="I619">
         <v>1</v>
       </c>
       <c r="W619">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AG619">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH619">
         <v>1</v>
       </c>
-      <c r="AI619">
-        <v>1</v>
-      </c>
-      <c r="AR619">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="620" spans="1:61">
+    </row>
+    <row r="620" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2023</v>
       </c>
@@ -25044,25 +25089,16 @@
         <v>4</v>
       </c>
       <c r="G620">
-        <v>15</v>
-      </c>
-      <c r="H620" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
       <c r="I620">
-        <v>1</v>
-      </c>
-      <c r="W620">
-        <v>3</v>
-      </c>
-      <c r="AG620">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AH620">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="621" spans="1:61">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="621" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>2023</v>
       </c>
@@ -25082,16 +25118,22 @@
         <v>4</v>
       </c>
       <c r="G621">
-        <v>20</v>
-      </c>
-      <c r="I621">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="H621" t="s">
+        <v>65</v>
+      </c>
+      <c r="W621">
+        <v>3</v>
+      </c>
+      <c r="AG621">
+        <v>1</v>
       </c>
       <c r="AH621">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="622" spans="1:61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2023</v>
       </c>
@@ -25111,22 +25153,25 @@
         <v>4</v>
       </c>
       <c r="G622">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="H622" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="W622">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG622">
         <v>1</v>
       </c>
-      <c r="AH622">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="623" spans="1:61">
+      <c r="AL622">
+        <v>1</v>
+      </c>
+      <c r="AR622">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="623" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>2023</v>
       </c>
@@ -25146,25 +25191,19 @@
         <v>4</v>
       </c>
       <c r="G623">
-        <v>30</v>
-      </c>
-      <c r="H623" t="s">
-        <v>92</v>
-      </c>
-      <c r="W623">
+        <v>35</v>
+      </c>
+      <c r="J623">
         <v>1</v>
       </c>
       <c r="AG623">
-        <v>1</v>
-      </c>
-      <c r="AL623">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AR623">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="624" spans="1:61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624" spans="1:61" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>2023</v>
       </c>
@@ -25184,19 +25223,22 @@
         <v>4</v>
       </c>
       <c r="G624">
-        <v>35</v>
-      </c>
-      <c r="J624">
-        <v>1</v>
+        <v>40</v>
+      </c>
+      <c r="W624">
+        <v>2</v>
       </c>
       <c r="AG624">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="AK624">
+        <v>2</v>
       </c>
       <c r="AR624">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="625" spans="1:44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="625" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2023</v>
       </c>
@@ -25216,22 +25258,25 @@
         <v>4</v>
       </c>
       <c r="G625">
-        <v>40</v>
-      </c>
-      <c r="W625">
-        <v>2</v>
+        <v>45</v>
+      </c>
+      <c r="H625" t="s">
+        <v>78</v>
+      </c>
+      <c r="I625">
+        <v>1</v>
       </c>
       <c r="AG625">
         <v>2</v>
       </c>
-      <c r="AK625">
-        <v>2</v>
+      <c r="AH625">
+        <v>1</v>
       </c>
       <c r="AR625">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="626" spans="1:44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="626" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2023</v>
       </c>
@@ -25251,25 +25296,22 @@
         <v>4</v>
       </c>
       <c r="G626">
-        <v>45</v>
-      </c>
-      <c r="H626" t="s">
-        <v>78</v>
-      </c>
-      <c r="I626">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="W626">
+        <v>2</v>
       </c>
       <c r="AG626">
         <v>2</v>
       </c>
       <c r="AH626">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR626">
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:44">
+    <row r="627" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2023</v>
       </c>
@@ -25289,22 +25331,34 @@
         <v>4</v>
       </c>
       <c r="G627">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="H627" t="s">
+        <v>92</v>
+      </c>
+      <c r="U627">
+        <v>1</v>
       </c>
       <c r="W627">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AG627">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AH627">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="AK627">
+        <v>3</v>
+      </c>
+      <c r="AO627">
+        <v>1</v>
       </c>
       <c r="AR627">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="628" spans="1:44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="628" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2023</v>
       </c>
@@ -25324,34 +25378,34 @@
         <v>4</v>
       </c>
       <c r="G628">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="H628" t="s">
-        <v>92</v>
+        <v>65</v>
+      </c>
+      <c r="J628">
+        <v>1</v>
       </c>
       <c r="U628">
         <v>1</v>
       </c>
       <c r="W628">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG628">
         <v>5</v>
       </c>
-      <c r="AH628">
-        <v>5</v>
-      </c>
-      <c r="AK628">
-        <v>3</v>
+      <c r="AM628">
+        <v>1</v>
       </c>
       <c r="AO628">
         <v>1</v>
       </c>
       <c r="AR628">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="629" spans="1:44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2023</v>
       </c>
@@ -25371,34 +25425,31 @@
         <v>4</v>
       </c>
       <c r="G629">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="H629" t="s">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="J629">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="U629">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="W629">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AG629">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AM629">
-        <v>1</v>
-      </c>
-      <c r="AO629">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR629">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="630" spans="1:44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="630" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2023</v>
       </c>
@@ -25418,31 +25469,31 @@
         <v>4</v>
       </c>
       <c r="G630">
-        <v>65</v>
-      </c>
-      <c r="H630" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="J630">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="U630">
         <v>5</v>
       </c>
       <c r="W630">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AG630">
-        <v>15</v>
-      </c>
-      <c r="AM630">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="AL630">
+        <v>3</v>
+      </c>
+      <c r="AO630">
+        <v>1</v>
       </c>
       <c r="AR630">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="631" spans="1:44">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2023</v>
       </c>
@@ -25462,70 +25513,2382 @@
         <v>4</v>
       </c>
       <c r="G631">
+        <v>75</v>
+      </c>
+      <c r="H631" t="s">
+        <v>92</v>
+      </c>
+      <c r="J631">
+        <v>10</v>
+      </c>
+      <c r="U631">
+        <v>10</v>
+      </c>
+      <c r="W631">
+        <v>1</v>
+      </c>
+      <c r="AL631">
+        <v>1</v>
+      </c>
+      <c r="AR631">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="632" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A632">
+        <v>2022</v>
+      </c>
+      <c r="B632">
+        <v>12</v>
+      </c>
+      <c r="C632">
+        <v>25</v>
+      </c>
+      <c r="D632" s="3">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E632">
+        <v>0</v>
+      </c>
+      <c r="F632">
+        <v>2</v>
+      </c>
+      <c r="G632">
+        <v>0</v>
+      </c>
+      <c r="I632">
+        <v>50</v>
+      </c>
+      <c r="S632">
+        <v>5</v>
+      </c>
+      <c r="AA632">
+        <v>2</v>
+      </c>
+      <c r="AG632">
+        <v>5</v>
+      </c>
+      <c r="AH632">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A633">
+        <v>2022</v>
+      </c>
+      <c r="B633">
+        <v>12</v>
+      </c>
+      <c r="C633">
+        <v>25</v>
+      </c>
+      <c r="D633" s="3">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E633">
+        <v>0</v>
+      </c>
+      <c r="F633">
+        <v>2</v>
+      </c>
+      <c r="G633">
+        <v>5</v>
+      </c>
+      <c r="W633">
+        <v>10</v>
+      </c>
+      <c r="X633">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="634" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A634">
+        <v>2022</v>
+      </c>
+      <c r="B634">
+        <v>12</v>
+      </c>
+      <c r="C634">
+        <v>25</v>
+      </c>
+      <c r="D634" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E634">
+        <v>0</v>
+      </c>
+      <c r="F634">
+        <v>2</v>
+      </c>
+      <c r="G634">
+        <v>10</v>
+      </c>
+      <c r="I634">
+        <v>5</v>
+      </c>
+      <c r="W634">
+        <v>15</v>
+      </c>
+      <c r="X634">
         <v>70</v>
       </c>
-      <c r="J631">
-        <v>1</v>
-      </c>
-      <c r="U631">
-        <v>5</v>
-      </c>
-      <c r="W631">
-        <v>2</v>
-      </c>
-      <c r="AG631">
-        <v>2</v>
-      </c>
-      <c r="AL631">
-        <v>3</v>
-      </c>
-      <c r="AO631">
-        <v>1</v>
-      </c>
-      <c r="AR631">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="632" spans="1:44">
-      <c r="A632">
-        <v>2023</v>
-      </c>
-      <c r="B632">
-        <v>1</v>
-      </c>
-      <c r="C632">
-        <v>21</v>
-      </c>
-      <c r="D632" s="3">
-        <v>0.484027777777778</v>
-      </c>
-      <c r="E632">
-        <v>0</v>
-      </c>
-      <c r="F632">
-        <v>4</v>
-      </c>
-      <c r="G632">
+      <c r="AH634">
+        <v>5</v>
+      </c>
+      <c r="AI634">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="635" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A635">
+        <v>2022</v>
+      </c>
+      <c r="B635">
+        <v>12</v>
+      </c>
+      <c r="C635">
+        <v>25</v>
+      </c>
+      <c r="D635" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E635">
+        <v>0</v>
+      </c>
+      <c r="F635">
+        <v>2</v>
+      </c>
+      <c r="G635">
+        <v>15</v>
+      </c>
+      <c r="W635">
+        <v>10</v>
+      </c>
+      <c r="AI635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A636">
+        <v>2022</v>
+      </c>
+      <c r="B636">
+        <v>12</v>
+      </c>
+      <c r="C636">
+        <v>25</v>
+      </c>
+      <c r="D636" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E636">
+        <v>0</v>
+      </c>
+      <c r="F636">
+        <v>2</v>
+      </c>
+      <c r="G636">
+        <v>20</v>
+      </c>
+      <c r="I636">
+        <v>1</v>
+      </c>
+      <c r="W636">
+        <v>1</v>
+      </c>
+      <c r="AG636">
+        <v>1</v>
+      </c>
+      <c r="AR636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A637">
+        <v>2022</v>
+      </c>
+      <c r="B637">
+        <v>12</v>
+      </c>
+      <c r="C637">
+        <v>25</v>
+      </c>
+      <c r="D637" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E637">
+        <v>0</v>
+      </c>
+      <c r="F637">
+        <v>2</v>
+      </c>
+      <c r="G637">
+        <v>25</v>
+      </c>
+      <c r="I637">
+        <v>2</v>
+      </c>
+      <c r="W637">
+        <v>1</v>
+      </c>
+      <c r="AG637">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A638">
+        <v>2022</v>
+      </c>
+      <c r="B638">
+        <v>12</v>
+      </c>
+      <c r="C638">
+        <v>25</v>
+      </c>
+      <c r="D638" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E638">
+        <v>0</v>
+      </c>
+      <c r="F638">
+        <v>2</v>
+      </c>
+      <c r="G638">
+        <v>30</v>
+      </c>
+      <c r="I638">
+        <v>2</v>
+      </c>
+      <c r="W638">
+        <v>3</v>
+      </c>
+      <c r="AG638">
+        <v>1</v>
+      </c>
+      <c r="AH638">
+        <v>5</v>
+      </c>
+      <c r="AR638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A639">
+        <v>2022</v>
+      </c>
+      <c r="B639">
+        <v>12</v>
+      </c>
+      <c r="C639">
+        <v>25</v>
+      </c>
+      <c r="D639" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E639">
+        <v>0</v>
+      </c>
+      <c r="F639">
+        <v>2</v>
+      </c>
+      <c r="G639">
+        <v>35</v>
+      </c>
+      <c r="I639">
+        <v>10</v>
+      </c>
+      <c r="W639">
+        <v>5</v>
+      </c>
+      <c r="AG639">
+        <v>5</v>
+      </c>
+      <c r="AH639">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="640" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A640">
+        <v>2022</v>
+      </c>
+      <c r="B640">
+        <v>12</v>
+      </c>
+      <c r="C640">
+        <v>25</v>
+      </c>
+      <c r="D640" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E640">
+        <v>0</v>
+      </c>
+      <c r="F640">
+        <v>2</v>
+      </c>
+      <c r="G640">
+        <v>40</v>
+      </c>
+      <c r="I640">
+        <v>3</v>
+      </c>
+      <c r="W640">
+        <v>10</v>
+      </c>
+      <c r="AG640">
+        <v>30</v>
+      </c>
+      <c r="AH640">
+        <v>20</v>
+      </c>
+      <c r="AJ640">
+        <v>5</v>
+      </c>
+      <c r="AR640">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="641" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A641">
+        <v>2022</v>
+      </c>
+      <c r="B641">
+        <v>12</v>
+      </c>
+      <c r="C641">
+        <v>25</v>
+      </c>
+      <c r="D641" s="3">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E641">
+        <v>0</v>
+      </c>
+      <c r="F641">
+        <v>3</v>
+      </c>
+      <c r="G641">
+        <v>0</v>
+      </c>
+      <c r="I641">
         <v>75</v>
       </c>
-      <c r="H632" t="s">
-        <v>92</v>
-      </c>
-      <c r="J632">
-        <v>10</v>
-      </c>
-      <c r="U632">
-        <v>10</v>
-      </c>
-      <c r="W632">
-        <v>1</v>
-      </c>
-      <c r="AL632">
-        <v>1</v>
-      </c>
-      <c r="AR632">
+      <c r="AG641">
+        <v>1</v>
+      </c>
+      <c r="AH641">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="642" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A642">
+        <v>2022</v>
+      </c>
+      <c r="B642">
+        <v>12</v>
+      </c>
+      <c r="C642">
+        <v>25</v>
+      </c>
+      <c r="D642" s="3">
+        <v>2.6388888888888889E-2</v>
+      </c>
+      <c r="E642">
+        <v>0</v>
+      </c>
+      <c r="F642">
+        <v>3</v>
+      </c>
+      <c r="G642">
+        <v>5</v>
+      </c>
+      <c r="W642">
+        <v>10</v>
+      </c>
+      <c r="X642">
+        <v>5</v>
+      </c>
+      <c r="AH642">
+        <v>3</v>
+      </c>
+      <c r="AI642">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="643" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A643">
+        <v>2022</v>
+      </c>
+      <c r="B643">
+        <v>12</v>
+      </c>
+      <c r="C643">
+        <v>25</v>
+      </c>
+      <c r="D643" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E643">
+        <v>0</v>
+      </c>
+      <c r="F643">
+        <v>3</v>
+      </c>
+      <c r="G643">
+        <v>10</v>
+      </c>
+      <c r="I643">
+        <v>2</v>
+      </c>
+      <c r="W643">
+        <v>10</v>
+      </c>
+      <c r="X643">
         <v>20</v>
       </c>
+      <c r="AG643">
+        <v>1</v>
+      </c>
+      <c r="AI643">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A644">
+        <v>2022</v>
+      </c>
+      <c r="B644">
+        <v>12</v>
+      </c>
+      <c r="C644">
+        <v>25</v>
+      </c>
+      <c r="D644" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E644">
+        <v>0</v>
+      </c>
+      <c r="F644">
+        <v>3</v>
+      </c>
+      <c r="G644">
+        <v>15</v>
+      </c>
+      <c r="I644">
+        <v>1</v>
+      </c>
+      <c r="W644">
+        <v>10</v>
+      </c>
+      <c r="X644">
+        <v>10</v>
+      </c>
+      <c r="AH644">
+        <v>2</v>
+      </c>
+      <c r="AL644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A645">
+        <v>2022</v>
+      </c>
+      <c r="B645">
+        <v>12</v>
+      </c>
+      <c r="C645">
+        <v>25</v>
+      </c>
+      <c r="D645" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E645">
+        <v>0</v>
+      </c>
+      <c r="F645">
+        <v>3</v>
+      </c>
+      <c r="G645">
+        <v>20</v>
+      </c>
+      <c r="I645">
+        <v>10</v>
+      </c>
+      <c r="W645">
+        <v>5</v>
+      </c>
+      <c r="X645">
+        <v>1</v>
+      </c>
+      <c r="AH645">
+        <v>1</v>
+      </c>
+      <c r="AI645">
+        <v>1</v>
+      </c>
+      <c r="AL645">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="646" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A646">
+        <v>2022</v>
+      </c>
+      <c r="B646">
+        <v>12</v>
+      </c>
+      <c r="C646">
+        <v>25</v>
+      </c>
+      <c r="D646" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E646">
+        <v>0</v>
+      </c>
+      <c r="F646">
+        <v>3</v>
+      </c>
+      <c r="G646">
+        <v>25</v>
+      </c>
+      <c r="I646">
+        <v>1</v>
+      </c>
+      <c r="AL646">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="647" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A647">
+        <v>2022</v>
+      </c>
+      <c r="B647">
+        <v>12</v>
+      </c>
+      <c r="C647">
+        <v>25</v>
+      </c>
+      <c r="D647" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E647">
+        <v>0</v>
+      </c>
+      <c r="F647">
+        <v>3</v>
+      </c>
+      <c r="G647">
+        <v>30</v>
+      </c>
+      <c r="AH647">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="648" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A648">
+        <v>2022</v>
+      </c>
+      <c r="B648">
+        <v>12</v>
+      </c>
+      <c r="C648">
+        <v>25</v>
+      </c>
+      <c r="D648" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E648">
+        <v>0</v>
+      </c>
+      <c r="F648">
+        <v>3</v>
+      </c>
+      <c r="G648">
+        <v>35</v>
+      </c>
+      <c r="AH648">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="649" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A649">
+        <v>2022</v>
+      </c>
+      <c r="B649">
+        <v>12</v>
+      </c>
+      <c r="C649">
+        <v>25</v>
+      </c>
+      <c r="D649" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E649">
+        <v>0</v>
+      </c>
+      <c r="F649">
+        <v>3</v>
+      </c>
+      <c r="G649">
+        <v>40</v>
+      </c>
+      <c r="AH649">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="650" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A650">
+        <v>2022</v>
+      </c>
+      <c r="B650">
+        <v>12</v>
+      </c>
+      <c r="C650">
+        <v>25</v>
+      </c>
+      <c r="D650" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E650">
+        <v>0</v>
+      </c>
+      <c r="F650">
+        <v>3</v>
+      </c>
+      <c r="G650">
+        <v>45</v>
+      </c>
+      <c r="AG650">
+        <v>5</v>
+      </c>
+      <c r="AH650">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="651" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A651">
+        <v>2022</v>
+      </c>
+      <c r="B651">
+        <v>12</v>
+      </c>
+      <c r="C651">
+        <v>25</v>
+      </c>
+      <c r="D651" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E651">
+        <v>0</v>
+      </c>
+      <c r="F651">
+        <v>3</v>
+      </c>
+      <c r="G651">
+        <v>50</v>
+      </c>
+      <c r="AG651">
+        <v>5</v>
+      </c>
+      <c r="AH651">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A652">
+        <v>2022</v>
+      </c>
+      <c r="B652">
+        <v>12</v>
+      </c>
+      <c r="C652">
+        <v>25</v>
+      </c>
+      <c r="D652" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E652">
+        <v>0</v>
+      </c>
+      <c r="F652">
+        <v>3</v>
+      </c>
+      <c r="G652">
+        <v>55</v>
+      </c>
+      <c r="AG652">
+        <v>15</v>
+      </c>
+      <c r="AH652">
+        <v>5</v>
+      </c>
+      <c r="AJ652">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A653">
+        <v>2022</v>
+      </c>
+      <c r="B653">
+        <v>12</v>
+      </c>
+      <c r="C653">
+        <v>25</v>
+      </c>
+      <c r="D653" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E653">
+        <v>0</v>
+      </c>
+      <c r="F653">
+        <v>3</v>
+      </c>
+      <c r="G653">
+        <v>60</v>
+      </c>
+      <c r="I653">
+        <v>2</v>
+      </c>
+      <c r="AG653">
+        <v>30</v>
+      </c>
+      <c r="AH653">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="654" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A654">
+        <v>2022</v>
+      </c>
+      <c r="B654">
+        <v>12</v>
+      </c>
+      <c r="C654">
+        <v>25</v>
+      </c>
+      <c r="D654" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E654">
+        <v>0</v>
+      </c>
+      <c r="F654">
+        <v>3</v>
+      </c>
+      <c r="G654">
+        <v>65</v>
+      </c>
+      <c r="J654">
+        <v>2</v>
+      </c>
+      <c r="W654">
+        <v>10</v>
+      </c>
+      <c r="AG654">
+        <v>3</v>
+      </c>
+      <c r="AH654">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="655" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A655">
+        <v>2022</v>
+      </c>
+      <c r="B655">
+        <v>12</v>
+      </c>
+      <c r="C655">
+        <v>25</v>
+      </c>
+      <c r="D655" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E655">
+        <v>0</v>
+      </c>
+      <c r="F655">
+        <v>3</v>
+      </c>
+      <c r="G655">
+        <v>70</v>
+      </c>
+      <c r="I655">
+        <v>1</v>
+      </c>
+      <c r="W655">
+        <v>5</v>
+      </c>
+      <c r="AG655">
+        <v>10</v>
+      </c>
+      <c r="AH655">
+        <v>10</v>
+      </c>
+      <c r="AL655">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="656" spans="1:44" x14ac:dyDescent="0.3">
+      <c r="A656">
+        <v>2022</v>
+      </c>
+      <c r="B656">
+        <v>12</v>
+      </c>
+      <c r="C656">
+        <v>25</v>
+      </c>
+      <c r="D656" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E656">
+        <v>0</v>
+      </c>
+      <c r="F656">
+        <v>3</v>
+      </c>
+      <c r="G656">
+        <v>75</v>
+      </c>
+      <c r="J656">
+        <v>20</v>
+      </c>
+      <c r="W656">
+        <v>3</v>
+      </c>
+      <c r="AG656">
+        <v>10</v>
+      </c>
+      <c r="AH656">
+        <v>5</v>
+      </c>
+      <c r="AL656">
+        <v>5</v>
+      </c>
+      <c r="AR656">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="657" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A657">
+        <v>2022</v>
+      </c>
+      <c r="B657">
+        <v>12</v>
+      </c>
+      <c r="C657">
+        <v>25</v>
+      </c>
+      <c r="D657" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E657">
+        <v>0</v>
+      </c>
+      <c r="F657">
+        <v>3</v>
+      </c>
+      <c r="G657">
+        <v>80</v>
+      </c>
+      <c r="J657">
+        <v>20</v>
+      </c>
+      <c r="W657">
+        <v>3</v>
+      </c>
+      <c r="AG657">
+        <v>10</v>
+      </c>
+      <c r="AH657">
+        <v>5</v>
+      </c>
+      <c r="AL657">
+        <v>5</v>
+      </c>
+      <c r="AR657">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="658" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A658">
+        <v>2022</v>
+      </c>
+      <c r="B658">
+        <v>12</v>
+      </c>
+      <c r="C658">
+        <v>25</v>
+      </c>
+      <c r="D658" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E658">
+        <v>0</v>
+      </c>
+      <c r="F658">
+        <v>3</v>
+      </c>
+      <c r="G658">
+        <v>85</v>
+      </c>
+      <c r="J658">
+        <v>30</v>
+      </c>
+      <c r="W658">
+        <v>10</v>
+      </c>
+      <c r="AG658">
+        <v>20</v>
+      </c>
+      <c r="AH658">
+        <v>20</v>
+      </c>
+      <c r="AJ658">
+        <v>3</v>
+      </c>
+      <c r="AL658">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="659" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A659">
+        <v>2022</v>
+      </c>
+      <c r="B659">
+        <v>12</v>
+      </c>
+      <c r="C659">
+        <v>25</v>
+      </c>
+      <c r="D659" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E659">
+        <v>0</v>
+      </c>
+      <c r="F659">
+        <v>3</v>
+      </c>
+      <c r="G659">
+        <v>90</v>
+      </c>
+      <c r="J659">
+        <v>20</v>
+      </c>
+      <c r="U659">
+        <v>2</v>
+      </c>
+      <c r="W659">
+        <v>15</v>
+      </c>
+      <c r="AG659">
+        <v>20</v>
+      </c>
+      <c r="AH659">
+        <v>5</v>
+      </c>
+      <c r="AJ659">
+        <v>10</v>
+      </c>
+      <c r="AL659">
+        <v>2</v>
+      </c>
+      <c r="AM659">
+        <v>5</v>
+      </c>
+      <c r="AO659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A660">
+        <v>2022</v>
+      </c>
+      <c r="B660">
+        <v>12</v>
+      </c>
+      <c r="C660">
+        <v>25</v>
+      </c>
+      <c r="D660" s="3">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E660">
+        <v>0</v>
+      </c>
+      <c r="F660">
+        <v>3</v>
+      </c>
+      <c r="G660">
+        <v>95</v>
+      </c>
+      <c r="U660">
+        <v>40</v>
+      </c>
+      <c r="W660">
+        <v>15</v>
+      </c>
+      <c r="AJ660">
+        <v>15</v>
+      </c>
+      <c r="AL660">
+        <v>10</v>
+      </c>
+      <c r="AM660">
+        <v>5</v>
+      </c>
+      <c r="AV660">
+        <v>20</v>
+      </c>
+      <c r="BF660">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="661" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A661" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B661" s="5">
+        <v>12</v>
+      </c>
+      <c r="C661" s="5">
+        <v>25</v>
+      </c>
+      <c r="D661" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E661" s="5">
+        <v>0</v>
+      </c>
+      <c r="F661" s="5">
+        <v>4</v>
+      </c>
+      <c r="G661" s="5">
+        <v>0</v>
+      </c>
+      <c r="H661" s="5"/>
+      <c r="I661" s="5">
+        <v>40</v>
+      </c>
+      <c r="J661" s="5"/>
+      <c r="K661" s="5"/>
+      <c r="L661" s="5"/>
+      <c r="M661" s="5"/>
+      <c r="N661" s="5"/>
+      <c r="O661" s="5"/>
+      <c r="P661" s="5"/>
+      <c r="Q661" s="5"/>
+      <c r="R661" s="5"/>
+      <c r="S661" s="5">
+        <v>1</v>
+      </c>
+      <c r="T661" s="5"/>
+      <c r="U661" s="5"/>
+      <c r="V661" s="5"/>
+      <c r="W661" s="5"/>
+      <c r="X661" s="5"/>
+      <c r="Y661" s="5"/>
+      <c r="Z661" s="5"/>
+      <c r="AA661" s="5"/>
+      <c r="AB661" s="5"/>
+      <c r="AC661" s="5"/>
+      <c r="AD661" s="5"/>
+      <c r="AE661" s="5"/>
+      <c r="AF661" s="5"/>
+      <c r="AG661" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH661" s="5">
+        <v>10</v>
+      </c>
+      <c r="AI661" s="5"/>
+      <c r="AJ661" s="5"/>
+      <c r="AK661" s="5"/>
+      <c r="AL661" s="5"/>
+      <c r="AM661" s="5"/>
+      <c r="AN661" s="5"/>
+      <c r="AO661" s="5"/>
+      <c r="AP661" s="5"/>
+      <c r="AQ661" s="5"/>
+      <c r="AR661" s="5"/>
+      <c r="AS661" s="5"/>
+      <c r="AT661" s="5"/>
+      <c r="AU661" s="5"/>
+      <c r="AV661" s="5"/>
+      <c r="AW661" s="5"/>
+      <c r="AX661" s="5"/>
+      <c r="AY661" s="5"/>
+      <c r="AZ661" s="5"/>
+      <c r="BA661" s="5"/>
+      <c r="BB661" s="5"/>
+      <c r="BC661" s="5"/>
+      <c r="BD661" s="5"/>
+      <c r="BE661" s="5"/>
+      <c r="BF661" s="5"/>
+      <c r="BG661" s="5"/>
+      <c r="BH661" s="5"/>
+      <c r="BI661" s="5"/>
+      <c r="BJ661" s="5"/>
+      <c r="BK661" s="5"/>
+      <c r="BL661" s="5"/>
+      <c r="BM661" s="5"/>
+      <c r="BN661" s="5"/>
+      <c r="BO661" s="5"/>
+      <c r="BP661" s="5"/>
+      <c r="BQ661" s="5"/>
+      <c r="BR661" s="5"/>
+      <c r="BS661" s="5"/>
+      <c r="BT661" s="5"/>
+    </row>
+    <row r="662" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A662" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B662" s="5">
+        <v>12</v>
+      </c>
+      <c r="C662" s="5">
+        <v>25</v>
+      </c>
+      <c r="D662" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E662" s="5">
+        <v>0</v>
+      </c>
+      <c r="F662" s="5">
+        <v>4</v>
+      </c>
+      <c r="G662" s="5">
+        <v>5</v>
+      </c>
+      <c r="H662" s="5"/>
+      <c r="I662" s="5">
+        <v>2</v>
+      </c>
+      <c r="J662" s="5"/>
+      <c r="K662" s="5"/>
+      <c r="L662" s="5"/>
+      <c r="M662" s="5"/>
+      <c r="N662" s="5"/>
+      <c r="O662" s="5"/>
+      <c r="P662" s="5"/>
+      <c r="Q662" s="5"/>
+      <c r="R662" s="5"/>
+      <c r="S662" s="5"/>
+      <c r="T662" s="5"/>
+      <c r="U662" s="5"/>
+      <c r="V662" s="5"/>
+      <c r="W662" s="5"/>
+      <c r="X662" s="5"/>
+      <c r="Y662" s="5"/>
+      <c r="Z662" s="5"/>
+      <c r="AA662" s="5"/>
+      <c r="AB662" s="5"/>
+      <c r="AC662" s="5"/>
+      <c r="AD662" s="5"/>
+      <c r="AE662" s="5"/>
+      <c r="AF662" s="5"/>
+      <c r="AG662" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH662" s="5"/>
+      <c r="AI662" s="5"/>
+      <c r="AJ662" s="5"/>
+      <c r="AK662" s="5"/>
+      <c r="AL662" s="5"/>
+      <c r="AM662" s="5"/>
+      <c r="AN662" s="5"/>
+      <c r="AO662" s="5"/>
+      <c r="AP662" s="5"/>
+      <c r="AQ662" s="5"/>
+      <c r="AR662" s="5"/>
+      <c r="AS662" s="5"/>
+      <c r="AT662" s="5"/>
+      <c r="AU662" s="5"/>
+      <c r="AV662" s="5"/>
+      <c r="AW662" s="5"/>
+      <c r="AX662" s="5"/>
+      <c r="AY662" s="5"/>
+      <c r="AZ662" s="5"/>
+      <c r="BA662" s="5"/>
+      <c r="BB662" s="5"/>
+      <c r="BC662" s="5"/>
+      <c r="BD662" s="5"/>
+      <c r="BE662" s="5"/>
+      <c r="BF662" s="5"/>
+      <c r="BG662" s="5"/>
+      <c r="BH662" s="5"/>
+      <c r="BI662" s="5"/>
+      <c r="BJ662" s="5"/>
+      <c r="BK662" s="5"/>
+      <c r="BL662" s="5"/>
+      <c r="BM662" s="5"/>
+      <c r="BN662" s="5"/>
+      <c r="BO662" s="5"/>
+      <c r="BP662" s="5"/>
+      <c r="BQ662" s="5"/>
+      <c r="BR662" s="5"/>
+      <c r="BS662" s="5"/>
+      <c r="BT662" s="5"/>
+    </row>
+    <row r="663" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A663" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B663" s="5">
+        <v>12</v>
+      </c>
+      <c r="C663" s="5">
+        <v>25</v>
+      </c>
+      <c r="D663" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E663" s="5">
+        <v>0</v>
+      </c>
+      <c r="F663" s="5">
+        <v>4</v>
+      </c>
+      <c r="G663" s="5">
+        <v>10</v>
+      </c>
+      <c r="H663" s="5"/>
+      <c r="I663" s="5">
+        <v>3</v>
+      </c>
+      <c r="J663" s="5"/>
+      <c r="K663" s="5"/>
+      <c r="L663" s="5"/>
+      <c r="M663" s="5"/>
+      <c r="N663" s="5"/>
+      <c r="O663" s="5"/>
+      <c r="P663" s="5"/>
+      <c r="Q663" s="5"/>
+      <c r="R663" s="5"/>
+      <c r="S663" s="5"/>
+      <c r="T663" s="5"/>
+      <c r="U663" s="5"/>
+      <c r="V663" s="5"/>
+      <c r="W663" s="5">
+        <v>2</v>
+      </c>
+      <c r="X663" s="5"/>
+      <c r="Y663" s="5"/>
+      <c r="Z663" s="5"/>
+      <c r="AA663" s="5"/>
+      <c r="AB663" s="5"/>
+      <c r="AC663" s="5"/>
+      <c r="AD663" s="5"/>
+      <c r="AE663" s="5"/>
+      <c r="AF663" s="5"/>
+      <c r="AG663" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH663" s="5"/>
+      <c r="AI663" s="5"/>
+      <c r="AJ663" s="5"/>
+      <c r="AK663" s="5"/>
+      <c r="AL663" s="5"/>
+      <c r="AM663" s="5"/>
+      <c r="AN663" s="5"/>
+      <c r="AO663" s="5"/>
+      <c r="AP663" s="5"/>
+      <c r="AQ663" s="5"/>
+      <c r="AR663" s="5"/>
+      <c r="AS663" s="5"/>
+      <c r="AT663" s="5"/>
+      <c r="AU663" s="5"/>
+      <c r="AV663" s="5"/>
+      <c r="AW663" s="5"/>
+      <c r="AX663" s="5"/>
+      <c r="AY663" s="5"/>
+      <c r="AZ663" s="5"/>
+      <c r="BA663" s="5"/>
+      <c r="BB663" s="5"/>
+      <c r="BC663" s="5"/>
+      <c r="BD663" s="5"/>
+      <c r="BE663" s="5"/>
+      <c r="BF663" s="5"/>
+      <c r="BG663" s="5"/>
+      <c r="BH663" s="5"/>
+      <c r="BI663" s="5"/>
+      <c r="BJ663" s="5"/>
+      <c r="BK663" s="5"/>
+      <c r="BL663" s="5"/>
+      <c r="BM663" s="5"/>
+      <c r="BN663" s="5"/>
+      <c r="BO663" s="5"/>
+      <c r="BP663" s="5"/>
+      <c r="BQ663" s="5"/>
+      <c r="BR663" s="5"/>
+      <c r="BS663" s="5"/>
+      <c r="BT663" s="5"/>
+    </row>
+    <row r="664" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A664" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B664" s="5">
+        <v>12</v>
+      </c>
+      <c r="C664" s="5">
+        <v>25</v>
+      </c>
+      <c r="D664" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E664" s="5">
+        <v>0</v>
+      </c>
+      <c r="F664" s="5">
+        <v>4</v>
+      </c>
+      <c r="G664" s="5">
+        <v>15</v>
+      </c>
+      <c r="H664" s="5"/>
+      <c r="I664" s="5">
+        <v>3</v>
+      </c>
+      <c r="J664" s="5"/>
+      <c r="K664" s="5"/>
+      <c r="L664" s="5"/>
+      <c r="M664" s="5"/>
+      <c r="N664" s="5"/>
+      <c r="O664" s="5"/>
+      <c r="P664" s="5"/>
+      <c r="Q664" s="5"/>
+      <c r="R664" s="5"/>
+      <c r="S664" s="5"/>
+      <c r="T664" s="5"/>
+      <c r="U664" s="5"/>
+      <c r="V664" s="5"/>
+      <c r="W664" s="5">
+        <v>5</v>
+      </c>
+      <c r="X664" s="5"/>
+      <c r="Y664" s="5"/>
+      <c r="Z664" s="5"/>
+      <c r="AA664" s="5"/>
+      <c r="AB664" s="5"/>
+      <c r="AC664" s="5"/>
+      <c r="AD664" s="5"/>
+      <c r="AE664" s="5"/>
+      <c r="AF664" s="5"/>
+      <c r="AG664" s="5"/>
+      <c r="AH664" s="5"/>
+      <c r="AI664" s="5"/>
+      <c r="AJ664" s="5"/>
+      <c r="AK664" s="5"/>
+      <c r="AL664" s="5"/>
+      <c r="AM664" s="5"/>
+      <c r="AN664" s="5"/>
+      <c r="AO664" s="5"/>
+      <c r="AP664" s="5"/>
+      <c r="AQ664" s="5"/>
+      <c r="AR664" s="5"/>
+      <c r="AS664" s="5"/>
+      <c r="AT664" s="5"/>
+      <c r="AU664" s="5"/>
+      <c r="AV664" s="5"/>
+      <c r="AW664" s="5"/>
+      <c r="AX664" s="5"/>
+      <c r="AY664" s="5"/>
+      <c r="AZ664" s="5"/>
+      <c r="BA664" s="5"/>
+      <c r="BB664" s="5"/>
+      <c r="BC664" s="5"/>
+      <c r="BD664" s="5"/>
+      <c r="BE664" s="5"/>
+      <c r="BF664" s="5"/>
+      <c r="BG664" s="5"/>
+      <c r="BH664" s="5"/>
+      <c r="BI664" s="5"/>
+      <c r="BJ664" s="5"/>
+      <c r="BK664" s="5"/>
+      <c r="BL664" s="5"/>
+      <c r="BM664" s="5"/>
+      <c r="BN664" s="5"/>
+      <c r="BO664" s="5"/>
+      <c r="BP664" s="5"/>
+      <c r="BQ664" s="5"/>
+      <c r="BR664" s="5"/>
+      <c r="BS664" s="5"/>
+      <c r="BT664" s="5"/>
+    </row>
+    <row r="665" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A665" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B665" s="5">
+        <v>12</v>
+      </c>
+      <c r="C665" s="5">
+        <v>25</v>
+      </c>
+      <c r="D665" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E665" s="5">
+        <v>0</v>
+      </c>
+      <c r="F665" s="5">
+        <v>4</v>
+      </c>
+      <c r="G665" s="5">
+        <v>20</v>
+      </c>
+      <c r="H665" s="5"/>
+      <c r="I665" s="5">
+        <v>3</v>
+      </c>
+      <c r="J665" s="5"/>
+      <c r="K665" s="5"/>
+      <c r="L665" s="5"/>
+      <c r="M665" s="5"/>
+      <c r="N665" s="5"/>
+      <c r="O665" s="5"/>
+      <c r="P665" s="5"/>
+      <c r="Q665" s="5"/>
+      <c r="R665" s="5"/>
+      <c r="S665" s="5"/>
+      <c r="T665" s="5"/>
+      <c r="U665" s="5"/>
+      <c r="V665" s="5"/>
+      <c r="W665" s="5">
+        <v>2</v>
+      </c>
+      <c r="X665" s="5"/>
+      <c r="Y665" s="5"/>
+      <c r="Z665" s="5"/>
+      <c r="AA665" s="5"/>
+      <c r="AB665" s="5"/>
+      <c r="AC665" s="5"/>
+      <c r="AD665" s="5"/>
+      <c r="AE665" s="5"/>
+      <c r="AF665" s="5"/>
+      <c r="AG665" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH665" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI665" s="5"/>
+      <c r="AJ665" s="5"/>
+      <c r="AK665" s="5"/>
+      <c r="AL665" s="5"/>
+      <c r="AM665" s="5"/>
+      <c r="AN665" s="5"/>
+      <c r="AO665" s="5"/>
+      <c r="AP665" s="5"/>
+      <c r="AQ665" s="5"/>
+      <c r="AR665" s="5"/>
+      <c r="AS665" s="5"/>
+      <c r="AT665" s="5"/>
+      <c r="AU665" s="5"/>
+      <c r="AV665" s="5"/>
+      <c r="AW665" s="5"/>
+      <c r="AX665" s="5"/>
+      <c r="AY665" s="5"/>
+      <c r="AZ665" s="5"/>
+      <c r="BA665" s="5"/>
+      <c r="BB665" s="5"/>
+      <c r="BC665" s="5"/>
+      <c r="BD665" s="5"/>
+      <c r="BE665" s="5"/>
+      <c r="BF665" s="5"/>
+      <c r="BG665" s="5"/>
+      <c r="BH665" s="5"/>
+      <c r="BI665" s="5"/>
+      <c r="BJ665" s="5"/>
+      <c r="BK665" s="5"/>
+      <c r="BL665" s="5"/>
+      <c r="BM665" s="5"/>
+      <c r="BN665" s="5"/>
+      <c r="BO665" s="5"/>
+      <c r="BP665" s="5"/>
+      <c r="BQ665" s="5"/>
+      <c r="BR665" s="5"/>
+      <c r="BS665" s="5"/>
+      <c r="BT665" s="5"/>
+    </row>
+    <row r="666" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A666" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B666" s="5">
+        <v>12</v>
+      </c>
+      <c r="C666" s="5">
+        <v>25</v>
+      </c>
+      <c r="D666" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E666" s="5">
+        <v>0</v>
+      </c>
+      <c r="F666" s="5">
+        <v>4</v>
+      </c>
+      <c r="G666" s="5">
+        <v>25</v>
+      </c>
+      <c r="H666" s="5"/>
+      <c r="I666" s="5">
+        <v>1</v>
+      </c>
+      <c r="J666" s="5"/>
+      <c r="K666" s="5"/>
+      <c r="L666" s="5"/>
+      <c r="M666" s="5"/>
+      <c r="N666" s="5"/>
+      <c r="O666" s="5"/>
+      <c r="P666" s="5"/>
+      <c r="Q666" s="5"/>
+      <c r="R666" s="5"/>
+      <c r="S666" s="5"/>
+      <c r="T666" s="5"/>
+      <c r="U666" s="5"/>
+      <c r="V666" s="5"/>
+      <c r="W666" s="5">
+        <v>2</v>
+      </c>
+      <c r="X666" s="5"/>
+      <c r="Y666" s="5"/>
+      <c r="Z666" s="5"/>
+      <c r="AA666" s="5"/>
+      <c r="AB666" s="5"/>
+      <c r="AC666" s="5"/>
+      <c r="AD666" s="5"/>
+      <c r="AE666" s="5"/>
+      <c r="AF666" s="5"/>
+      <c r="AG666" s="5"/>
+      <c r="AH666" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI666" s="5"/>
+      <c r="AJ666" s="5"/>
+      <c r="AK666" s="5"/>
+      <c r="AL666" s="5"/>
+      <c r="AM666" s="5"/>
+      <c r="AN666" s="5"/>
+      <c r="AO666" s="5"/>
+      <c r="AP666" s="5"/>
+      <c r="AQ666" s="5"/>
+      <c r="AR666" s="5"/>
+      <c r="AS666" s="5"/>
+      <c r="AT666" s="5"/>
+      <c r="AU666" s="5"/>
+      <c r="AV666" s="5"/>
+      <c r="AW666" s="5"/>
+      <c r="AX666" s="5"/>
+      <c r="AY666" s="5"/>
+      <c r="AZ666" s="5"/>
+      <c r="BA666" s="5"/>
+      <c r="BB666" s="5"/>
+      <c r="BC666" s="5"/>
+      <c r="BD666" s="5"/>
+      <c r="BE666" s="5"/>
+      <c r="BF666" s="5"/>
+      <c r="BG666" s="5"/>
+      <c r="BH666" s="5"/>
+      <c r="BI666" s="5"/>
+      <c r="BJ666" s="5"/>
+      <c r="BK666" s="5"/>
+      <c r="BL666" s="5"/>
+      <c r="BM666" s="5"/>
+      <c r="BN666" s="5"/>
+      <c r="BO666" s="5"/>
+      <c r="BP666" s="5"/>
+      <c r="BQ666" s="5"/>
+      <c r="BR666" s="5"/>
+      <c r="BS666" s="5"/>
+      <c r="BT666" s="5"/>
+    </row>
+    <row r="667" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A667" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B667" s="5">
+        <v>12</v>
+      </c>
+      <c r="C667" s="5">
+        <v>25</v>
+      </c>
+      <c r="D667" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E667" s="5">
+        <v>0</v>
+      </c>
+      <c r="F667" s="5">
+        <v>4</v>
+      </c>
+      <c r="G667" s="5">
+        <v>30</v>
+      </c>
+      <c r="H667" s="5"/>
+      <c r="I667" s="5">
+        <v>1</v>
+      </c>
+      <c r="J667" s="5"/>
+      <c r="K667" s="5"/>
+      <c r="L667" s="5"/>
+      <c r="M667" s="5"/>
+      <c r="N667" s="5"/>
+      <c r="O667" s="5"/>
+      <c r="P667" s="5"/>
+      <c r="Q667" s="5"/>
+      <c r="R667" s="5"/>
+      <c r="S667" s="5"/>
+      <c r="T667" s="5"/>
+      <c r="U667" s="5"/>
+      <c r="V667" s="5"/>
+      <c r="W667" s="5"/>
+      <c r="X667" s="5"/>
+      <c r="Y667" s="5"/>
+      <c r="Z667" s="5"/>
+      <c r="AA667" s="5"/>
+      <c r="AB667" s="5"/>
+      <c r="AC667" s="5"/>
+      <c r="AD667" s="5"/>
+      <c r="AE667" s="5"/>
+      <c r="AF667" s="5"/>
+      <c r="AG667" s="5">
+        <v>2</v>
+      </c>
+      <c r="AH667" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI667" s="5"/>
+      <c r="AJ667" s="5"/>
+      <c r="AK667" s="5"/>
+      <c r="AL667" s="5"/>
+      <c r="AM667" s="5"/>
+      <c r="AN667" s="5"/>
+      <c r="AO667" s="5"/>
+      <c r="AP667" s="5"/>
+      <c r="AQ667" s="5"/>
+      <c r="AR667" s="5"/>
+      <c r="AS667" s="5"/>
+      <c r="AT667" s="5"/>
+      <c r="AU667" s="5"/>
+      <c r="AV667" s="5"/>
+      <c r="AW667" s="5"/>
+      <c r="AX667" s="5"/>
+      <c r="AY667" s="5"/>
+      <c r="AZ667" s="5"/>
+      <c r="BA667" s="5"/>
+      <c r="BB667" s="5"/>
+      <c r="BC667" s="5"/>
+      <c r="BD667" s="5"/>
+      <c r="BE667" s="5"/>
+      <c r="BF667" s="5"/>
+      <c r="BG667" s="5"/>
+      <c r="BH667" s="5"/>
+      <c r="BI667" s="5"/>
+      <c r="BJ667" s="5"/>
+      <c r="BK667" s="5"/>
+      <c r="BL667" s="5"/>
+      <c r="BM667" s="5"/>
+      <c r="BN667" s="5"/>
+      <c r="BO667" s="5"/>
+      <c r="BP667" s="5"/>
+      <c r="BQ667" s="5"/>
+      <c r="BR667" s="5"/>
+      <c r="BS667" s="5"/>
+      <c r="BT667" s="5"/>
+    </row>
+    <row r="668" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A668" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B668" s="5">
+        <v>12</v>
+      </c>
+      <c r="C668" s="5">
+        <v>25</v>
+      </c>
+      <c r="D668" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E668" s="5">
+        <v>0</v>
+      </c>
+      <c r="F668" s="5">
+        <v>4</v>
+      </c>
+      <c r="G668" s="5">
+        <v>35</v>
+      </c>
+      <c r="H668" s="5"/>
+      <c r="I668" s="5"/>
+      <c r="J668" s="5"/>
+      <c r="K668" s="5"/>
+      <c r="L668" s="5"/>
+      <c r="M668" s="5"/>
+      <c r="N668" s="5"/>
+      <c r="O668" s="5"/>
+      <c r="P668" s="5"/>
+      <c r="Q668" s="5"/>
+      <c r="R668" s="5"/>
+      <c r="S668" s="5"/>
+      <c r="T668" s="5"/>
+      <c r="U668" s="5"/>
+      <c r="V668" s="5"/>
+      <c r="W668" s="5">
+        <v>5</v>
+      </c>
+      <c r="X668" s="5"/>
+      <c r="Y668" s="5"/>
+      <c r="Z668" s="5"/>
+      <c r="AA668" s="5"/>
+      <c r="AB668" s="5"/>
+      <c r="AC668" s="5"/>
+      <c r="AD668" s="5"/>
+      <c r="AE668" s="5"/>
+      <c r="AF668" s="5"/>
+      <c r="AG668" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH668" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI668" s="5"/>
+      <c r="AJ668" s="5"/>
+      <c r="AK668" s="5"/>
+      <c r="AL668" s="5"/>
+      <c r="AM668" s="5"/>
+      <c r="AN668" s="5"/>
+      <c r="AO668" s="5"/>
+      <c r="AP668" s="5"/>
+      <c r="AQ668" s="5"/>
+      <c r="AR668" s="5"/>
+      <c r="AS668" s="5"/>
+      <c r="AT668" s="5"/>
+      <c r="AU668" s="5"/>
+      <c r="AV668" s="5"/>
+      <c r="AW668" s="5"/>
+      <c r="AX668" s="5"/>
+      <c r="AY668" s="5"/>
+      <c r="AZ668" s="5"/>
+      <c r="BA668" s="5"/>
+      <c r="BB668" s="5"/>
+      <c r="BC668" s="5"/>
+      <c r="BD668" s="5"/>
+      <c r="BE668" s="5"/>
+      <c r="BF668" s="5"/>
+      <c r="BG668" s="5"/>
+      <c r="BH668" s="5"/>
+      <c r="BI668" s="5"/>
+      <c r="BJ668" s="5"/>
+      <c r="BK668" s="5"/>
+      <c r="BL668" s="5"/>
+      <c r="BM668" s="5"/>
+      <c r="BN668" s="5"/>
+      <c r="BO668" s="5"/>
+      <c r="BP668" s="5"/>
+      <c r="BQ668" s="5"/>
+      <c r="BR668" s="5"/>
+      <c r="BS668" s="5"/>
+      <c r="BT668" s="5"/>
+    </row>
+    <row r="669" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A669" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B669" s="5">
+        <v>12</v>
+      </c>
+      <c r="C669" s="5">
+        <v>25</v>
+      </c>
+      <c r="D669" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E669" s="5">
+        <v>0</v>
+      </c>
+      <c r="F669" s="5">
+        <v>4</v>
+      </c>
+      <c r="G669" s="5">
+        <v>40</v>
+      </c>
+      <c r="H669" s="5"/>
+      <c r="I669" s="5"/>
+      <c r="J669" s="5"/>
+      <c r="K669" s="5"/>
+      <c r="L669" s="5"/>
+      <c r="M669" s="5"/>
+      <c r="N669" s="5"/>
+      <c r="O669" s="5"/>
+      <c r="P669" s="5"/>
+      <c r="Q669" s="5"/>
+      <c r="R669" s="5"/>
+      <c r="S669" s="5"/>
+      <c r="T669" s="5"/>
+      <c r="U669" s="5"/>
+      <c r="V669" s="5"/>
+      <c r="W669" s="5">
+        <v>10</v>
+      </c>
+      <c r="X669" s="5"/>
+      <c r="Y669" s="5"/>
+      <c r="Z669" s="5"/>
+      <c r="AA669" s="5"/>
+      <c r="AB669" s="5"/>
+      <c r="AC669" s="5"/>
+      <c r="AD669" s="5"/>
+      <c r="AE669" s="5"/>
+      <c r="AF669" s="5"/>
+      <c r="AG669" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH669" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI669" s="5"/>
+      <c r="AJ669" s="5"/>
+      <c r="AK669" s="5"/>
+      <c r="AL669" s="5"/>
+      <c r="AM669" s="5"/>
+      <c r="AN669" s="5"/>
+      <c r="AO669" s="5"/>
+      <c r="AP669" s="5"/>
+      <c r="AQ669" s="5"/>
+      <c r="AR669" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS669" s="5"/>
+      <c r="AT669" s="5"/>
+      <c r="AU669" s="5"/>
+      <c r="AV669" s="5"/>
+      <c r="AW669" s="5"/>
+      <c r="AX669" s="5"/>
+      <c r="AY669" s="5"/>
+      <c r="AZ669" s="5"/>
+      <c r="BA669" s="5"/>
+      <c r="BB669" s="5"/>
+      <c r="BC669" s="5"/>
+      <c r="BD669" s="5"/>
+      <c r="BE669" s="5"/>
+      <c r="BF669" s="5"/>
+      <c r="BG669" s="5"/>
+      <c r="BH669" s="5"/>
+      <c r="BI669" s="5"/>
+      <c r="BJ669" s="5"/>
+      <c r="BK669" s="5"/>
+      <c r="BL669" s="5"/>
+      <c r="BM669" s="5"/>
+      <c r="BN669" s="5"/>
+      <c r="BO669" s="5"/>
+      <c r="BP669" s="5"/>
+      <c r="BQ669" s="5"/>
+      <c r="BR669" s="5"/>
+      <c r="BS669" s="5"/>
+      <c r="BT669" s="5"/>
+    </row>
+    <row r="670" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A670" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B670" s="5">
+        <v>12</v>
+      </c>
+      <c r="C670" s="5">
+        <v>25</v>
+      </c>
+      <c r="D670" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E670" s="5">
+        <v>0</v>
+      </c>
+      <c r="F670" s="5">
+        <v>4</v>
+      </c>
+      <c r="G670" s="5">
+        <v>45</v>
+      </c>
+      <c r="H670" s="5"/>
+      <c r="I670" s="5"/>
+      <c r="J670" s="5"/>
+      <c r="K670" s="5"/>
+      <c r="L670" s="5"/>
+      <c r="M670" s="5"/>
+      <c r="N670" s="5"/>
+      <c r="O670" s="5"/>
+      <c r="P670" s="5"/>
+      <c r="Q670" s="5"/>
+      <c r="R670" s="5"/>
+      <c r="S670" s="5"/>
+      <c r="T670" s="5"/>
+      <c r="U670" s="5"/>
+      <c r="V670" s="5"/>
+      <c r="W670" s="5">
+        <v>1</v>
+      </c>
+      <c r="X670" s="5"/>
+      <c r="Y670" s="5"/>
+      <c r="Z670" s="5"/>
+      <c r="AA670" s="5"/>
+      <c r="AB670" s="5"/>
+      <c r="AC670" s="5"/>
+      <c r="AD670" s="5"/>
+      <c r="AE670" s="5"/>
+      <c r="AF670" s="5"/>
+      <c r="AG670" s="5">
+        <v>4</v>
+      </c>
+      <c r="AH670" s="5"/>
+      <c r="AI670" s="5"/>
+      <c r="AJ670" s="5"/>
+      <c r="AK670" s="5"/>
+      <c r="AL670" s="5"/>
+      <c r="AM670" s="5"/>
+      <c r="AN670" s="5"/>
+      <c r="AO670" s="5"/>
+      <c r="AP670" s="5"/>
+      <c r="AQ670" s="5"/>
+      <c r="AR670" s="5"/>
+      <c r="AS670" s="5"/>
+      <c r="AT670" s="5"/>
+      <c r="AU670" s="5"/>
+      <c r="AV670" s="5"/>
+      <c r="AW670" s="5"/>
+      <c r="AX670" s="5"/>
+      <c r="AY670" s="5"/>
+      <c r="AZ670" s="5"/>
+      <c r="BA670" s="5"/>
+      <c r="BB670" s="5"/>
+      <c r="BC670" s="5"/>
+      <c r="BD670" s="5"/>
+      <c r="BE670" s="5"/>
+      <c r="BF670" s="5"/>
+      <c r="BG670" s="5"/>
+      <c r="BH670" s="5"/>
+      <c r="BI670" s="5"/>
+      <c r="BJ670" s="5"/>
+      <c r="BK670" s="5"/>
+      <c r="BL670" s="5"/>
+      <c r="BM670" s="5"/>
+      <c r="BN670" s="5"/>
+      <c r="BO670" s="5"/>
+      <c r="BP670" s="5"/>
+      <c r="BQ670" s="5"/>
+      <c r="BR670" s="5"/>
+      <c r="BS670" s="5"/>
+      <c r="BT670" s="5"/>
+    </row>
+    <row r="671" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A671" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B671" s="5">
+        <v>12</v>
+      </c>
+      <c r="C671" s="5">
+        <v>25</v>
+      </c>
+      <c r="D671" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E671" s="5">
+        <v>0</v>
+      </c>
+      <c r="F671" s="5">
+        <v>4</v>
+      </c>
+      <c r="G671" s="5">
+        <v>50</v>
+      </c>
+      <c r="H671" s="5"/>
+      <c r="I671" s="5">
+        <v>2</v>
+      </c>
+      <c r="J671" s="5"/>
+      <c r="K671" s="5"/>
+      <c r="L671" s="5"/>
+      <c r="M671" s="5"/>
+      <c r="N671" s="5"/>
+      <c r="O671" s="5"/>
+      <c r="P671" s="5"/>
+      <c r="Q671" s="5"/>
+      <c r="R671" s="5"/>
+      <c r="S671" s="5"/>
+      <c r="T671" s="5"/>
+      <c r="U671" s="5"/>
+      <c r="V671" s="5"/>
+      <c r="W671" s="5"/>
+      <c r="X671" s="5"/>
+      <c r="Y671" s="5"/>
+      <c r="Z671" s="5"/>
+      <c r="AA671" s="5"/>
+      <c r="AB671" s="5"/>
+      <c r="AC671" s="5"/>
+      <c r="AD671" s="5"/>
+      <c r="AE671" s="5"/>
+      <c r="AF671" s="5"/>
+      <c r="AG671" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH671" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI671" s="5"/>
+      <c r="AJ671" s="5"/>
+      <c r="AK671" s="5"/>
+      <c r="AL671" s="5"/>
+      <c r="AM671" s="5"/>
+      <c r="AN671" s="5"/>
+      <c r="AO671" s="5"/>
+      <c r="AP671" s="5"/>
+      <c r="AQ671" s="5"/>
+      <c r="AR671" s="5"/>
+      <c r="AS671" s="5"/>
+      <c r="AT671" s="5"/>
+      <c r="AU671" s="5"/>
+      <c r="AV671" s="5"/>
+      <c r="AW671" s="5"/>
+      <c r="AX671" s="5"/>
+      <c r="AY671" s="5"/>
+      <c r="AZ671" s="5"/>
+      <c r="BA671" s="5"/>
+      <c r="BB671" s="5"/>
+      <c r="BC671" s="5"/>
+      <c r="BD671" s="5"/>
+      <c r="BE671" s="5"/>
+      <c r="BF671" s="5"/>
+      <c r="BG671" s="5"/>
+      <c r="BH671" s="5"/>
+      <c r="BI671" s="5"/>
+      <c r="BJ671" s="5"/>
+      <c r="BK671" s="5"/>
+      <c r="BL671" s="5"/>
+      <c r="BM671" s="5"/>
+      <c r="BN671" s="5"/>
+      <c r="BO671" s="5"/>
+      <c r="BP671" s="5"/>
+      <c r="BQ671" s="5"/>
+      <c r="BR671" s="5"/>
+      <c r="BS671" s="5"/>
+      <c r="BT671" s="5"/>
+    </row>
+    <row r="672" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A672" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B672" s="5">
+        <v>12</v>
+      </c>
+      <c r="C672" s="5">
+        <v>25</v>
+      </c>
+      <c r="D672" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E672" s="5">
+        <v>0</v>
+      </c>
+      <c r="F672" s="5">
+        <v>4</v>
+      </c>
+      <c r="G672" s="5">
+        <v>55</v>
+      </c>
+      <c r="H672" s="5"/>
+      <c r="I672" s="5"/>
+      <c r="J672" s="5">
+        <v>5</v>
+      </c>
+      <c r="K672" s="5"/>
+      <c r="L672" s="5"/>
+      <c r="M672" s="5"/>
+      <c r="N672" s="5"/>
+      <c r="O672" s="5"/>
+      <c r="P672" s="5"/>
+      <c r="Q672" s="5"/>
+      <c r="R672" s="5"/>
+      <c r="S672" s="5"/>
+      <c r="T672" s="5"/>
+      <c r="U672" s="5"/>
+      <c r="V672" s="5"/>
+      <c r="W672" s="5">
+        <v>5</v>
+      </c>
+      <c r="X672" s="5"/>
+      <c r="Y672" s="5"/>
+      <c r="Z672" s="5"/>
+      <c r="AA672" s="5"/>
+      <c r="AB672" s="5"/>
+      <c r="AC672" s="5"/>
+      <c r="AD672" s="5"/>
+      <c r="AE672" s="5"/>
+      <c r="AF672" s="5"/>
+      <c r="AG672" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH672" s="5">
+        <v>2</v>
+      </c>
+      <c r="AI672" s="5"/>
+      <c r="AJ672" s="5"/>
+      <c r="AK672" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL672" s="5"/>
+      <c r="AM672" s="5"/>
+      <c r="AN672" s="5"/>
+      <c r="AO672" s="5"/>
+      <c r="AP672" s="5"/>
+      <c r="AQ672" s="5"/>
+      <c r="AR672" s="5"/>
+      <c r="AS672" s="5"/>
+      <c r="AT672" s="5"/>
+      <c r="AU672" s="5"/>
+      <c r="AV672" s="5"/>
+      <c r="AW672" s="5"/>
+      <c r="AX672" s="5"/>
+      <c r="AY672" s="5"/>
+      <c r="AZ672" s="5"/>
+      <c r="BA672" s="5"/>
+      <c r="BB672" s="5"/>
+      <c r="BC672" s="5"/>
+      <c r="BD672" s="5"/>
+      <c r="BE672" s="5"/>
+      <c r="BF672" s="5"/>
+      <c r="BG672" s="5"/>
+      <c r="BH672" s="5"/>
+      <c r="BI672" s="5"/>
+      <c r="BJ672" s="5"/>
+      <c r="BK672" s="5"/>
+      <c r="BL672" s="5"/>
+      <c r="BM672" s="5"/>
+      <c r="BN672" s="5"/>
+      <c r="BO672" s="5"/>
+      <c r="BP672" s="5"/>
+      <c r="BQ672" s="5"/>
+      <c r="BR672" s="5"/>
+      <c r="BS672" s="5"/>
+      <c r="BT672" s="5"/>
+    </row>
+    <row r="673" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A673" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B673" s="5">
+        <v>12</v>
+      </c>
+      <c r="C673" s="5">
+        <v>25</v>
+      </c>
+      <c r="D673" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E673" s="5">
+        <v>0</v>
+      </c>
+      <c r="F673" s="5">
+        <v>4</v>
+      </c>
+      <c r="G673" s="5">
+        <v>60</v>
+      </c>
+      <c r="H673" s="5"/>
+      <c r="I673" s="5"/>
+      <c r="J673" s="5"/>
+      <c r="K673" s="5"/>
+      <c r="L673" s="5"/>
+      <c r="M673" s="5"/>
+      <c r="N673" s="5"/>
+      <c r="O673" s="5"/>
+      <c r="P673" s="5"/>
+      <c r="Q673" s="5"/>
+      <c r="R673" s="5"/>
+      <c r="S673" s="5"/>
+      <c r="T673" s="5"/>
+      <c r="U673" s="5"/>
+      <c r="V673" s="5"/>
+      <c r="W673" s="5">
+        <v>5</v>
+      </c>
+      <c r="X673" s="5"/>
+      <c r="Y673" s="5"/>
+      <c r="Z673" s="5"/>
+      <c r="AA673" s="5"/>
+      <c r="AB673" s="5"/>
+      <c r="AC673" s="5"/>
+      <c r="AD673" s="5"/>
+      <c r="AE673" s="5"/>
+      <c r="AF673" s="5"/>
+      <c r="AG673" s="5">
+        <v>5</v>
+      </c>
+      <c r="AH673" s="5">
+        <v>10</v>
+      </c>
+      <c r="AI673" s="5"/>
+      <c r="AJ673" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK673" s="5"/>
+      <c r="AL673" s="5"/>
+      <c r="AM673" s="5"/>
+      <c r="AN673" s="5"/>
+      <c r="AO673" s="5">
+        <v>1</v>
+      </c>
+      <c r="AP673" s="5"/>
+      <c r="AQ673" s="5"/>
+      <c r="AR673" s="5">
+        <v>1</v>
+      </c>
+      <c r="AS673" s="5"/>
+      <c r="AT673" s="5"/>
+      <c r="AU673" s="5"/>
+      <c r="AV673" s="5"/>
+      <c r="AW673" s="5"/>
+      <c r="AX673" s="5"/>
+      <c r="AY673" s="5"/>
+      <c r="AZ673" s="5"/>
+      <c r="BA673" s="5"/>
+      <c r="BB673" s="5"/>
+      <c r="BC673" s="5"/>
+      <c r="BD673" s="5"/>
+      <c r="BE673" s="5"/>
+      <c r="BF673" s="5"/>
+      <c r="BG673" s="5"/>
+      <c r="BH673" s="5"/>
+      <c r="BI673" s="5"/>
+      <c r="BJ673" s="5"/>
+      <c r="BK673" s="5"/>
+      <c r="BL673" s="5"/>
+      <c r="BM673" s="5"/>
+      <c r="BN673" s="5"/>
+      <c r="BO673" s="5"/>
+      <c r="BP673" s="5"/>
+      <c r="BQ673" s="5"/>
+      <c r="BR673" s="5"/>
+      <c r="BS673" s="5"/>
+      <c r="BT673" s="5"/>
+    </row>
+    <row r="674" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A674" s="5">
+        <v>2022</v>
+      </c>
+      <c r="B674" s="5">
+        <v>12</v>
+      </c>
+      <c r="C674" s="5">
+        <v>25</v>
+      </c>
+      <c r="D674" s="6">
+        <v>2.6388888888888899E-2</v>
+      </c>
+      <c r="E674" s="5">
+        <v>0</v>
+      </c>
+      <c r="F674" s="5">
+        <v>4</v>
+      </c>
+      <c r="G674" s="5">
+        <v>65</v>
+      </c>
+      <c r="H674" s="5"/>
+      <c r="I674" s="5"/>
+      <c r="J674" s="5">
+        <v>1</v>
+      </c>
+      <c r="K674" s="5"/>
+      <c r="L674" s="5"/>
+      <c r="M674" s="5"/>
+      <c r="N674" s="5"/>
+      <c r="O674" s="5"/>
+      <c r="P674" s="5"/>
+      <c r="Q674" s="5"/>
+      <c r="R674" s="5"/>
+      <c r="S674" s="5"/>
+      <c r="T674" s="5"/>
+      <c r="U674" s="5">
+        <v>5</v>
+      </c>
+      <c r="V674" s="5"/>
+      <c r="W674" s="5">
+        <v>10</v>
+      </c>
+      <c r="X674" s="5"/>
+      <c r="Y674" s="5"/>
+      <c r="Z674" s="5"/>
+      <c r="AA674" s="5"/>
+      <c r="AB674" s="5"/>
+      <c r="AC674" s="5"/>
+      <c r="AD674" s="5"/>
+      <c r="AE674" s="5"/>
+      <c r="AF674" s="5"/>
+      <c r="AG674" s="5">
+        <v>10</v>
+      </c>
+      <c r="AH674" s="5"/>
+      <c r="AI674" s="5"/>
+      <c r="AJ674" s="5">
+        <v>5</v>
+      </c>
+      <c r="AK674" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL674" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM674" s="5"/>
+      <c r="AN674" s="5"/>
+      <c r="AO674" s="5">
+        <v>3</v>
+      </c>
+      <c r="AP674" s="5"/>
+      <c r="AQ674" s="5"/>
+      <c r="AR674" s="5">
+        <v>2</v>
+      </c>
+      <c r="AS674" s="5"/>
+      <c r="AT674" s="5"/>
+      <c r="AU674" s="5"/>
+      <c r="AV674" s="5"/>
+      <c r="AW674" s="5"/>
+      <c r="AX674" s="5"/>
+      <c r="AY674" s="5"/>
+      <c r="AZ674" s="5"/>
+      <c r="BA674" s="5"/>
+      <c r="BB674" s="5"/>
+      <c r="BC674" s="5"/>
+      <c r="BD674" s="5"/>
+      <c r="BE674" s="5"/>
+      <c r="BF674" s="5"/>
+      <c r="BG674" s="5"/>
+      <c r="BH674" s="5"/>
+      <c r="BI674" s="5"/>
+      <c r="BJ674" s="5"/>
+      <c r="BK674" s="5"/>
+      <c r="BL674" s="5"/>
+      <c r="BM674" s="5"/>
+      <c r="BN674" s="5"/>
+      <c r="BO674" s="5"/>
+      <c r="BP674" s="5"/>
+      <c r="BQ674" s="5"/>
+      <c r="BR674" s="5"/>
+      <c r="BS674" s="5"/>
+      <c r="BT674" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26704"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3087" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75DBF0F4-140E-4A23-B8FB-EBFA68E550EE}"/>
+  <xr:revisionPtr revIDLastSave="3441" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D731B6D7-9427-4C8F-B107-70F18950A033}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="113">
   <si>
     <t>year</t>
   </si>
@@ -369,6 +369,9 @@
   </si>
   <si>
     <t>saccharina_sp</t>
+  </si>
+  <si>
+    <t>prionitis_sternbergii</t>
   </si>
 </sst>
 </file>
@@ -1231,24 +1234,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT919"/>
+  <dimension ref="A1:BT966"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="E865" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AN881" sqref="AN881"/>
+      <pane ySplit="1" topLeftCell="A920" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM922" sqref="AM922"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="11" max="13" width="9.140625" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="4.7109375" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.85546875" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" customWidth="1"/>
+    <col min="11" max="11" width="4.85546875" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" customWidth="1"/>
+    <col min="13" max="14" width="9.140625" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="15.5703125" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="13.28515625" hidden="1" customWidth="1"/>
     <col min="18" max="20" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="21" max="24" width="9.140625" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="5.7109375" customWidth="1"/>
+    <col min="23" max="23" width="5.28515625" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
     <col min="25" max="26" width="0" hidden="1" customWidth="1"/>
     <col min="27" max="27" width="7.7109375" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="10.42578125" hidden="1" customWidth="1"/>
@@ -1257,9 +1272,42 @@
     <col min="31" max="31" width="11.5703125" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="13.7109375" hidden="1" customWidth="1"/>
     <col min="33" max="34" width="10.140625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="14.42578125" customWidth="1"/>
+    <col min="35" max="35" width="13.5703125" customWidth="1"/>
     <col min="36" max="36" width="14.28515625" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="6.140625" customWidth="1"/>
+    <col min="39" max="39" width="5.85546875" customWidth="1"/>
+    <col min="40" max="40" width="5.140625" customWidth="1"/>
+    <col min="41" max="41" width="5.28515625" customWidth="1"/>
+    <col min="42" max="42" width="5.42578125" customWidth="1"/>
+    <col min="43" max="43" width="6.42578125" customWidth="1"/>
+    <col min="44" max="44" width="4.28515625" customWidth="1"/>
+    <col min="47" max="47" width="6.85546875" customWidth="1"/>
+    <col min="48" max="48" width="5.5703125" customWidth="1"/>
+    <col min="49" max="49" width="7.85546875" customWidth="1"/>
+    <col min="50" max="50" width="6.85546875" customWidth="1"/>
+    <col min="51" max="51" width="7.42578125" customWidth="1"/>
+    <col min="52" max="52" width="7.28515625" customWidth="1"/>
+    <col min="53" max="53" width="6.140625" customWidth="1"/>
+    <col min="54" max="54" width="7.5703125" customWidth="1"/>
+    <col min="55" max="55" width="7" customWidth="1"/>
+    <col min="56" max="56" width="6.42578125" customWidth="1"/>
+    <col min="57" max="57" width="6" customWidth="1"/>
+    <col min="58" max="58" width="6.28515625" customWidth="1"/>
+    <col min="59" max="59" width="6.140625" customWidth="1"/>
+    <col min="60" max="60" width="6.7109375" customWidth="1"/>
+    <col min="61" max="61" width="6.28515625" customWidth="1"/>
+    <col min="62" max="62" width="5.5703125" customWidth="1"/>
+    <col min="63" max="63" width="6.28515625" customWidth="1"/>
+    <col min="64" max="64" width="6.7109375" customWidth="1"/>
+    <col min="65" max="65" width="5.85546875" customWidth="1"/>
+    <col min="66" max="66" width="7" customWidth="1"/>
+    <col min="67" max="67" width="6.5703125" customWidth="1"/>
+    <col min="68" max="68" width="6.140625" customWidth="1"/>
+    <col min="69" max="69" width="4.42578125" customWidth="1"/>
+    <col min="70" max="70" width="4.140625" customWidth="1"/>
+    <col min="71" max="71" width="5.85546875" customWidth="1"/>
+    <col min="72" max="72" width="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:72">
@@ -36295,7 +36343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:7">
+    <row r="881" spans="1:50">
       <c r="A881">
         <v>2023</v>
       </c>
@@ -36317,8 +36365,29 @@
       <c r="G881">
         <v>30</v>
       </c>
-    </row>
-    <row r="882" spans="1:7">
+      <c r="H881" t="s">
+        <v>110</v>
+      </c>
+      <c r="I881">
+        <v>3</v>
+      </c>
+      <c r="O881">
+        <v>1</v>
+      </c>
+      <c r="X881">
+        <v>50</v>
+      </c>
+      <c r="AL881">
+        <v>5</v>
+      </c>
+      <c r="AV881">
+        <v>1</v>
+      </c>
+      <c r="AW881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:50">
       <c r="A882">
         <v>2023</v>
       </c>
@@ -36340,8 +36409,23 @@
       <c r="G882">
         <v>35</v>
       </c>
-    </row>
-    <row r="883" spans="1:7">
+      <c r="H882" t="s">
+        <v>110</v>
+      </c>
+      <c r="I882">
+        <v>10</v>
+      </c>
+      <c r="X882">
+        <v>70</v>
+      </c>
+      <c r="AL882">
+        <v>15</v>
+      </c>
+      <c r="AM882">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="883" spans="1:50">
       <c r="A883">
         <v>2023</v>
       </c>
@@ -36363,8 +36447,26 @@
       <c r="G883">
         <v>40</v>
       </c>
-    </row>
-    <row r="884" spans="1:7">
+      <c r="I883">
+        <v>5</v>
+      </c>
+      <c r="J883">
+        <v>2</v>
+      </c>
+      <c r="X883">
+        <v>20</v>
+      </c>
+      <c r="AL883">
+        <v>20</v>
+      </c>
+      <c r="AQ883">
+        <v>2</v>
+      </c>
+      <c r="AX883">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="884" spans="1:50">
       <c r="A884">
         <v>2023</v>
       </c>
@@ -36386,8 +36488,23 @@
       <c r="G884">
         <v>0</v>
       </c>
-    </row>
-    <row r="885" spans="1:7">
+      <c r="I884">
+        <v>5</v>
+      </c>
+      <c r="X884">
+        <v>5</v>
+      </c>
+      <c r="AL884">
+        <v>3</v>
+      </c>
+      <c r="AM884">
+        <v>2</v>
+      </c>
+      <c r="AN884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:50">
       <c r="A885">
         <v>2023</v>
       </c>
@@ -36409,8 +36526,23 @@
       <c r="G885">
         <v>5</v>
       </c>
-    </row>
-    <row r="886" spans="1:7">
+      <c r="H885" t="s">
+        <v>110</v>
+      </c>
+      <c r="I885">
+        <v>2</v>
+      </c>
+      <c r="X885">
+        <v>70</v>
+      </c>
+      <c r="AL885">
+        <v>1</v>
+      </c>
+      <c r="AN885">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="886" spans="1:50">
       <c r="A886">
         <v>2023</v>
       </c>
@@ -36432,8 +36564,23 @@
       <c r="G886">
         <v>10</v>
       </c>
-    </row>
-    <row r="887" spans="1:7">
+      <c r="H886" t="s">
+        <v>110</v>
+      </c>
+      <c r="I886">
+        <v>2</v>
+      </c>
+      <c r="X886">
+        <v>80</v>
+      </c>
+      <c r="AL886">
+        <v>2</v>
+      </c>
+      <c r="AN886">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="887" spans="1:50">
       <c r="A887">
         <v>2023</v>
       </c>
@@ -36455,8 +36602,23 @@
       <c r="G887">
         <v>15</v>
       </c>
-    </row>
-    <row r="888" spans="1:7">
+      <c r="H887" t="s">
+        <v>110</v>
+      </c>
+      <c r="I887">
+        <v>3</v>
+      </c>
+      <c r="X887">
+        <v>70</v>
+      </c>
+      <c r="AL887">
+        <v>1</v>
+      </c>
+      <c r="AN887">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="888" spans="1:50">
       <c r="A888">
         <v>2023</v>
       </c>
@@ -36478,8 +36640,17 @@
       <c r="G888">
         <v>20</v>
       </c>
-    </row>
-    <row r="889" spans="1:7">
+      <c r="H888" t="s">
+        <v>110</v>
+      </c>
+      <c r="X888">
+        <v>70</v>
+      </c>
+      <c r="AN888">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="889" spans="1:50">
       <c r="A889">
         <v>2023</v>
       </c>
@@ -36501,8 +36672,20 @@
       <c r="G889">
         <v>25</v>
       </c>
-    </row>
-    <row r="890" spans="1:7">
+      <c r="H889" t="s">
+        <v>110</v>
+      </c>
+      <c r="I889">
+        <v>1</v>
+      </c>
+      <c r="X889">
+        <v>40</v>
+      </c>
+      <c r="AL889">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="890" spans="1:50">
       <c r="A890">
         <v>2023</v>
       </c>
@@ -36524,8 +36707,26 @@
       <c r="G890">
         <v>30</v>
       </c>
-    </row>
-    <row r="891" spans="1:7">
+      <c r="H890" t="s">
+        <v>110</v>
+      </c>
+      <c r="I890">
+        <v>1</v>
+      </c>
+      <c r="X890">
+        <v>30</v>
+      </c>
+      <c r="AL890">
+        <v>1</v>
+      </c>
+      <c r="AN890">
+        <v>1</v>
+      </c>
+      <c r="AO890">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="891" spans="1:50">
       <c r="A891">
         <v>2023</v>
       </c>
@@ -36547,8 +36748,17 @@
       <c r="G891">
         <v>35</v>
       </c>
-    </row>
-    <row r="892" spans="1:7">
+      <c r="H891" t="s">
+        <v>110</v>
+      </c>
+      <c r="X891">
+        <v>10</v>
+      </c>
+      <c r="AL891">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="892" spans="1:50">
       <c r="A892">
         <v>2023</v>
       </c>
@@ -36570,8 +36780,23 @@
       <c r="G892">
         <v>40</v>
       </c>
-    </row>
-    <row r="893" spans="1:7">
+      <c r="H892" t="s">
+        <v>110</v>
+      </c>
+      <c r="J892">
+        <v>2</v>
+      </c>
+      <c r="X892">
+        <v>10</v>
+      </c>
+      <c r="AL892">
+        <v>1</v>
+      </c>
+      <c r="AM892">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="893" spans="1:50">
       <c r="A893">
         <v>2023</v>
       </c>
@@ -36593,8 +36818,20 @@
       <c r="G893">
         <v>45</v>
       </c>
-    </row>
-    <row r="894" spans="1:7">
+      <c r="H893" t="s">
+        <v>110</v>
+      </c>
+      <c r="J893">
+        <v>1</v>
+      </c>
+      <c r="X893">
+        <v>40</v>
+      </c>
+      <c r="AL893">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="894" spans="1:50">
       <c r="A894">
         <v>2023</v>
       </c>
@@ -36616,8 +36853,23 @@
       <c r="G894">
         <v>50</v>
       </c>
-    </row>
-    <row r="895" spans="1:7">
+      <c r="H894" t="s">
+        <v>110</v>
+      </c>
+      <c r="I894">
+        <v>5</v>
+      </c>
+      <c r="X894">
+        <v>40</v>
+      </c>
+      <c r="AL894">
+        <v>5</v>
+      </c>
+      <c r="AM894">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="895" spans="1:50">
       <c r="A895">
         <v>2023</v>
       </c>
@@ -36639,8 +36891,26 @@
       <c r="G895">
         <v>55</v>
       </c>
-    </row>
-    <row r="896" spans="1:7">
+      <c r="H895" t="s">
+        <v>110</v>
+      </c>
+      <c r="I895">
+        <v>1</v>
+      </c>
+      <c r="J895">
+        <v>2</v>
+      </c>
+      <c r="X895">
+        <v>60</v>
+      </c>
+      <c r="AL895">
+        <v>5</v>
+      </c>
+      <c r="AV895">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="896" spans="1:50">
       <c r="A896">
         <v>2023</v>
       </c>
@@ -36662,8 +36932,29 @@
       <c r="G896">
         <v>60</v>
       </c>
-    </row>
-    <row r="897" spans="1:7">
+      <c r="H896" t="s">
+        <v>110</v>
+      </c>
+      <c r="I896">
+        <v>1</v>
+      </c>
+      <c r="J896">
+        <v>5</v>
+      </c>
+      <c r="X896">
+        <v>80</v>
+      </c>
+      <c r="AL896">
+        <v>3</v>
+      </c>
+      <c r="AV896">
+        <v>1</v>
+      </c>
+      <c r="AX896">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="897" spans="1:69">
       <c r="A897">
         <v>2023</v>
       </c>
@@ -36685,8 +36976,17 @@
       <c r="G897">
         <v>65</v>
       </c>
-    </row>
-    <row r="898" spans="1:7">
+      <c r="H897" t="s">
+        <v>110</v>
+      </c>
+      <c r="J897">
+        <v>5</v>
+      </c>
+      <c r="X897">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="898" spans="1:69">
       <c r="A898">
         <v>2023</v>
       </c>
@@ -36708,8 +37008,20 @@
       <c r="G898">
         <v>70</v>
       </c>
-    </row>
-    <row r="899" spans="1:7">
+      <c r="H898" t="s">
+        <v>110</v>
+      </c>
+      <c r="J898">
+        <v>10</v>
+      </c>
+      <c r="X898">
+        <v>90</v>
+      </c>
+      <c r="BP898">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="899" spans="1:69">
       <c r="A899">
         <v>2023</v>
       </c>
@@ -36731,8 +37043,26 @@
       <c r="G899">
         <v>75</v>
       </c>
-    </row>
-    <row r="900" spans="1:7">
+      <c r="H899" t="s">
+        <v>93</v>
+      </c>
+      <c r="J899">
+        <v>60</v>
+      </c>
+      <c r="AP899">
+        <v>5</v>
+      </c>
+      <c r="AQ899">
+        <v>10</v>
+      </c>
+      <c r="AS899">
+        <v>1</v>
+      </c>
+      <c r="AX899">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="900" spans="1:69">
       <c r="A900">
         <v>2023</v>
       </c>
@@ -36754,8 +37084,50 @@
       <c r="G900">
         <v>80</v>
       </c>
-    </row>
-    <row r="901" spans="1:7">
+      <c r="H900" t="s">
+        <v>93</v>
+      </c>
+      <c r="I900">
+        <v>2</v>
+      </c>
+      <c r="J900">
+        <v>30</v>
+      </c>
+      <c r="K900">
+        <v>1</v>
+      </c>
+      <c r="L900">
+        <v>3</v>
+      </c>
+      <c r="X900">
+        <v>2</v>
+      </c>
+      <c r="AL900">
+        <v>2</v>
+      </c>
+      <c r="AP900">
+        <v>1</v>
+      </c>
+      <c r="AQ900">
+        <v>3</v>
+      </c>
+      <c r="AS900">
+        <v>1</v>
+      </c>
+      <c r="AV900">
+        <v>5</v>
+      </c>
+      <c r="AX900">
+        <v>2</v>
+      </c>
+      <c r="BC900">
+        <v>5</v>
+      </c>
+      <c r="BO900">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="901" spans="1:69">
       <c r="A901">
         <v>2023</v>
       </c>
@@ -36777,8 +37149,47 @@
       <c r="G901">
         <v>85</v>
       </c>
-    </row>
-    <row r="902" spans="1:7">
+      <c r="H901" t="s">
+        <v>112</v>
+      </c>
+      <c r="J901">
+        <v>3</v>
+      </c>
+      <c r="K901">
+        <v>5</v>
+      </c>
+      <c r="L901">
+        <v>1</v>
+      </c>
+      <c r="X901">
+        <v>15</v>
+      </c>
+      <c r="AL901">
+        <v>5</v>
+      </c>
+      <c r="AM901">
+        <v>3</v>
+      </c>
+      <c r="AQ901">
+        <v>2</v>
+      </c>
+      <c r="AR901">
+        <v>15</v>
+      </c>
+      <c r="AS901">
+        <v>20</v>
+      </c>
+      <c r="BC901">
+        <v>2</v>
+      </c>
+      <c r="BL901">
+        <v>1</v>
+      </c>
+      <c r="BO901">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="902" spans="1:69">
       <c r="A902">
         <v>2023</v>
       </c>
@@ -36800,8 +37211,50 @@
       <c r="G902">
         <v>90</v>
       </c>
-    </row>
-    <row r="903" spans="1:7">
+      <c r="H902" t="s">
+        <v>96</v>
+      </c>
+      <c r="I902">
+        <v>5</v>
+      </c>
+      <c r="J902">
+        <v>20</v>
+      </c>
+      <c r="K902">
+        <v>100</v>
+      </c>
+      <c r="L902">
+        <v>15</v>
+      </c>
+      <c r="X902">
+        <v>15</v>
+      </c>
+      <c r="AL902">
+        <v>10</v>
+      </c>
+      <c r="AM902">
+        <v>10</v>
+      </c>
+      <c r="AP902">
+        <v>1</v>
+      </c>
+      <c r="AQ902">
+        <v>5</v>
+      </c>
+      <c r="AV902">
+        <v>2</v>
+      </c>
+      <c r="AX902">
+        <v>1</v>
+      </c>
+      <c r="BC902">
+        <v>1</v>
+      </c>
+      <c r="BO902">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="903" spans="1:69">
       <c r="A903">
         <v>2023</v>
       </c>
@@ -36823,8 +37276,23 @@
       <c r="G903">
         <v>0</v>
       </c>
-    </row>
-    <row r="904" spans="1:7">
+      <c r="I903">
+        <v>7</v>
+      </c>
+      <c r="X903">
+        <v>10</v>
+      </c>
+      <c r="AL903">
+        <v>5</v>
+      </c>
+      <c r="AV903">
+        <v>1</v>
+      </c>
+      <c r="AW903">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="904" spans="1:69">
       <c r="A904">
         <v>2023</v>
       </c>
@@ -36846,8 +37314,17 @@
       <c r="G904">
         <v>5</v>
       </c>
-    </row>
-    <row r="905" spans="1:7">
+      <c r="H904" t="s">
+        <v>110</v>
+      </c>
+      <c r="X904">
+        <v>20</v>
+      </c>
+      <c r="AL904">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="905" spans="1:69">
       <c r="A905">
         <v>2023</v>
       </c>
@@ -36869,8 +37346,23 @@
       <c r="G905">
         <v>10</v>
       </c>
-    </row>
-    <row r="906" spans="1:7">
+      <c r="H905" t="s">
+        <v>110</v>
+      </c>
+      <c r="X905">
+        <v>85</v>
+      </c>
+      <c r="AL905">
+        <v>1</v>
+      </c>
+      <c r="AN905">
+        <v>2</v>
+      </c>
+      <c r="AV905">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="906" spans="1:69">
       <c r="A906">
         <v>2023</v>
       </c>
@@ -36892,8 +37384,26 @@
       <c r="G906">
         <v>15</v>
       </c>
-    </row>
-    <row r="907" spans="1:7">
+      <c r="H906" t="s">
+        <v>110</v>
+      </c>
+      <c r="I906">
+        <v>1</v>
+      </c>
+      <c r="X906">
+        <v>75</v>
+      </c>
+      <c r="AL906">
+        <v>2</v>
+      </c>
+      <c r="AN906">
+        <v>1</v>
+      </c>
+      <c r="AV906">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="907" spans="1:69">
       <c r="A907">
         <v>2023</v>
       </c>
@@ -36915,8 +37425,23 @@
       <c r="G907">
         <v>20</v>
       </c>
-    </row>
-    <row r="908" spans="1:7">
+      <c r="H907" t="s">
+        <v>110</v>
+      </c>
+      <c r="I907">
+        <v>3</v>
+      </c>
+      <c r="X907">
+        <v>60</v>
+      </c>
+      <c r="AL907">
+        <v>5</v>
+      </c>
+      <c r="AN907">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="908" spans="1:69">
       <c r="A908">
         <v>2023</v>
       </c>
@@ -36938,8 +37463,20 @@
       <c r="G908">
         <v>25</v>
       </c>
-    </row>
-    <row r="909" spans="1:7">
+      <c r="H908" t="s">
+        <v>110</v>
+      </c>
+      <c r="X908">
+        <v>80</v>
+      </c>
+      <c r="AI908">
+        <v>1</v>
+      </c>
+      <c r="AL908">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="909" spans="1:69">
       <c r="A909">
         <v>2023</v>
       </c>
@@ -36961,8 +37498,26 @@
       <c r="G909">
         <v>30</v>
       </c>
-    </row>
-    <row r="910" spans="1:7">
+      <c r="H909" t="s">
+        <v>110</v>
+      </c>
+      <c r="I909">
+        <v>1</v>
+      </c>
+      <c r="X909">
+        <v>70</v>
+      </c>
+      <c r="AL909">
+        <v>2</v>
+      </c>
+      <c r="AV909">
+        <v>1</v>
+      </c>
+      <c r="AX909">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="910" spans="1:69">
       <c r="A910">
         <v>2023</v>
       </c>
@@ -36984,8 +37539,23 @@
       <c r="G910">
         <v>35</v>
       </c>
-    </row>
-    <row r="911" spans="1:7">
+      <c r="H910" t="s">
+        <v>110</v>
+      </c>
+      <c r="X910">
+        <v>35</v>
+      </c>
+      <c r="AL910">
+        <v>5</v>
+      </c>
+      <c r="AM910">
+        <v>1</v>
+      </c>
+      <c r="AX910">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="911" spans="1:69">
       <c r="A911">
         <v>2023</v>
       </c>
@@ -37007,8 +37577,26 @@
       <c r="G911">
         <v>40</v>
       </c>
-    </row>
-    <row r="912" spans="1:7">
+      <c r="H911" t="s">
+        <v>110</v>
+      </c>
+      <c r="X911">
+        <v>60</v>
+      </c>
+      <c r="AL911">
+        <v>3</v>
+      </c>
+      <c r="AM911">
+        <v>1</v>
+      </c>
+      <c r="AV911">
+        <v>1</v>
+      </c>
+      <c r="BQ911">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="912" spans="1:69">
       <c r="A912">
         <v>2023</v>
       </c>
@@ -37030,8 +37618,29 @@
       <c r="G912">
         <v>45</v>
       </c>
-    </row>
-    <row r="913" spans="1:7">
+      <c r="H912" t="s">
+        <v>110</v>
+      </c>
+      <c r="J912">
+        <v>2</v>
+      </c>
+      <c r="X912">
+        <v>70</v>
+      </c>
+      <c r="AL912">
+        <v>3</v>
+      </c>
+      <c r="AM912">
+        <v>1</v>
+      </c>
+      <c r="AV912">
+        <v>1</v>
+      </c>
+      <c r="AX912">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="913" spans="1:67">
       <c r="A913">
         <v>2023</v>
       </c>
@@ -37053,8 +37662,26 @@
       <c r="G913">
         <v>50</v>
       </c>
-    </row>
-    <row r="914" spans="1:7">
+      <c r="H913" t="s">
+        <v>110</v>
+      </c>
+      <c r="X913">
+        <v>75</v>
+      </c>
+      <c r="AL913">
+        <v>1</v>
+      </c>
+      <c r="AN913">
+        <v>3</v>
+      </c>
+      <c r="AV913">
+        <v>1</v>
+      </c>
+      <c r="AX913">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="914" spans="1:67">
       <c r="A914">
         <v>2023</v>
       </c>
@@ -37076,8 +37703,26 @@
       <c r="G914">
         <v>55</v>
       </c>
-    </row>
-    <row r="915" spans="1:7">
+      <c r="H914" t="s">
+        <v>110</v>
+      </c>
+      <c r="I914">
+        <v>1</v>
+      </c>
+      <c r="J914">
+        <v>5</v>
+      </c>
+      <c r="X914">
+        <v>55</v>
+      </c>
+      <c r="AL914">
+        <v>3</v>
+      </c>
+      <c r="AX914">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="915" spans="1:67">
       <c r="A915">
         <v>2023</v>
       </c>
@@ -37099,8 +37744,29 @@
       <c r="G915">
         <v>60</v>
       </c>
-    </row>
-    <row r="916" spans="1:7">
+      <c r="H915" t="s">
+        <v>110</v>
+      </c>
+      <c r="I915">
+        <v>2</v>
+      </c>
+      <c r="J915">
+        <v>5</v>
+      </c>
+      <c r="X915">
+        <v>40</v>
+      </c>
+      <c r="AL915">
+        <v>10</v>
+      </c>
+      <c r="AV915">
+        <v>30</v>
+      </c>
+      <c r="AX915">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="916" spans="1:67">
       <c r="A916">
         <v>2023</v>
       </c>
@@ -37122,8 +37788,29 @@
       <c r="G916">
         <v>65</v>
       </c>
-    </row>
-    <row r="917" spans="1:7">
+      <c r="H916" t="s">
+        <v>110</v>
+      </c>
+      <c r="J916">
+        <v>20</v>
+      </c>
+      <c r="K916">
+        <v>5</v>
+      </c>
+      <c r="X916">
+        <v>70</v>
+      </c>
+      <c r="AL916">
+        <v>1</v>
+      </c>
+      <c r="AX916">
+        <v>2</v>
+      </c>
+      <c r="BO916">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="917" spans="1:67">
       <c r="A917">
         <v>2023</v>
       </c>
@@ -37145,8 +37832,32 @@
       <c r="G917">
         <v>70</v>
       </c>
-    </row>
-    <row r="918" spans="1:7">
+      <c r="H917" t="s">
+        <v>110</v>
+      </c>
+      <c r="J917">
+        <v>20</v>
+      </c>
+      <c r="U917">
+        <v>1</v>
+      </c>
+      <c r="X917">
+        <v>70</v>
+      </c>
+      <c r="AL917">
+        <v>1</v>
+      </c>
+      <c r="AS917">
+        <v>1</v>
+      </c>
+      <c r="AX917">
+        <v>2</v>
+      </c>
+      <c r="BO917">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="918" spans="1:67">
       <c r="A918">
         <v>2023</v>
       </c>
@@ -37168,8 +37879,38 @@
       <c r="G918">
         <v>75</v>
       </c>
-    </row>
-    <row r="919" spans="1:7">
+      <c r="H918" t="s">
+        <v>93</v>
+      </c>
+      <c r="J918">
+        <v>30</v>
+      </c>
+      <c r="K918">
+        <v>20</v>
+      </c>
+      <c r="X918">
+        <v>20</v>
+      </c>
+      <c r="AL918">
+        <v>5</v>
+      </c>
+      <c r="AQ918">
+        <v>5</v>
+      </c>
+      <c r="AR918">
+        <v>5</v>
+      </c>
+      <c r="AV918">
+        <v>1</v>
+      </c>
+      <c r="AX918">
+        <v>10</v>
+      </c>
+      <c r="BO918">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="919" spans="1:67">
       <c r="A919">
         <v>2023</v>
       </c>
@@ -37190,6 +37931,1159 @@
       </c>
       <c r="G919">
         <v>80</v>
+      </c>
+      <c r="H919" t="s">
+        <v>110</v>
+      </c>
+      <c r="J919">
+        <v>15</v>
+      </c>
+      <c r="U919">
+        <v>1</v>
+      </c>
+      <c r="X919">
+        <v>90</v>
+      </c>
+      <c r="AL919">
+        <v>2</v>
+      </c>
+      <c r="AR919">
+        <v>2</v>
+      </c>
+      <c r="AV919">
+        <v>1</v>
+      </c>
+      <c r="AX919">
+        <v>2</v>
+      </c>
+      <c r="BO919">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="920" spans="1:67">
+      <c r="A920">
+        <v>2023</v>
+      </c>
+      <c r="B920">
+        <v>7</v>
+      </c>
+      <c r="C920">
+        <v>4</v>
+      </c>
+      <c r="D920" s="3">
+        <v>0.55416666666666703</v>
+      </c>
+      <c r="E920">
+        <v>0</v>
+      </c>
+      <c r="F920">
+        <v>4</v>
+      </c>
+      <c r="G920">
+        <v>85</v>
+      </c>
+      <c r="H920" t="s">
+        <v>93</v>
+      </c>
+      <c r="J920">
+        <v>30</v>
+      </c>
+      <c r="U920">
+        <v>15</v>
+      </c>
+      <c r="X920">
+        <v>5</v>
+      </c>
+      <c r="AP920">
+        <v>2</v>
+      </c>
+      <c r="AQ920">
+        <v>2</v>
+      </c>
+      <c r="AS920">
+        <v>5</v>
+      </c>
+      <c r="AX920">
+        <v>1</v>
+      </c>
+      <c r="BC920">
+        <v>5</v>
+      </c>
+      <c r="BD920">
+        <v>10</v>
+      </c>
+      <c r="BL920">
+        <v>2</v>
+      </c>
+      <c r="BO920">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="921" spans="1:67">
+      <c r="A921">
+        <v>2023</v>
+      </c>
+      <c r="B921">
+        <v>8</v>
+      </c>
+      <c r="C921">
+        <v>1</v>
+      </c>
+      <c r="D921" s="3">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="E921">
+        <v>0.1</v>
+      </c>
+      <c r="F921">
+        <v>2</v>
+      </c>
+      <c r="G921">
+        <v>0</v>
+      </c>
+      <c r="H921" t="s">
+        <v>72</v>
+      </c>
+      <c r="I921">
+        <v>10</v>
+      </c>
+      <c r="AM921">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="922" spans="1:67">
+      <c r="A922">
+        <v>2023</v>
+      </c>
+      <c r="B922">
+        <v>8</v>
+      </c>
+      <c r="C922">
+        <v>1</v>
+      </c>
+      <c r="D922" s="3">
+        <v>0.51111111111111118</v>
+      </c>
+      <c r="E922">
+        <v>0.1</v>
+      </c>
+      <c r="F922">
+        <v>2</v>
+      </c>
+      <c r="G922">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="923" spans="1:67">
+      <c r="A923">
+        <v>2023</v>
+      </c>
+      <c r="B923">
+        <v>8</v>
+      </c>
+      <c r="C923">
+        <v>1</v>
+      </c>
+      <c r="D923" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E923">
+        <v>0.1</v>
+      </c>
+      <c r="F923">
+        <v>2</v>
+      </c>
+      <c r="G923">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="924" spans="1:67">
+      <c r="A924">
+        <v>2023</v>
+      </c>
+      <c r="B924">
+        <v>8</v>
+      </c>
+      <c r="C924">
+        <v>1</v>
+      </c>
+      <c r="D924" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E924">
+        <v>0.1</v>
+      </c>
+      <c r="F924">
+        <v>2</v>
+      </c>
+      <c r="G924">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="925" spans="1:67">
+      <c r="A925">
+        <v>2023</v>
+      </c>
+      <c r="B925">
+        <v>8</v>
+      </c>
+      <c r="C925">
+        <v>1</v>
+      </c>
+      <c r="D925" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E925">
+        <v>0.1</v>
+      </c>
+      <c r="F925">
+        <v>2</v>
+      </c>
+      <c r="G925">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="926" spans="1:67">
+      <c r="A926">
+        <v>2023</v>
+      </c>
+      <c r="B926">
+        <v>8</v>
+      </c>
+      <c r="C926">
+        <v>1</v>
+      </c>
+      <c r="D926" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E926">
+        <v>0.1</v>
+      </c>
+      <c r="F926">
+        <v>2</v>
+      </c>
+      <c r="G926">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="927" spans="1:67">
+      <c r="A927">
+        <v>2023</v>
+      </c>
+      <c r="B927">
+        <v>8</v>
+      </c>
+      <c r="C927">
+        <v>1</v>
+      </c>
+      <c r="D927" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E927">
+        <v>0.1</v>
+      </c>
+      <c r="F927">
+        <v>2</v>
+      </c>
+      <c r="G927">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="928" spans="1:67">
+      <c r="A928">
+        <v>2023</v>
+      </c>
+      <c r="B928">
+        <v>8</v>
+      </c>
+      <c r="C928">
+        <v>1</v>
+      </c>
+      <c r="D928" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E928">
+        <v>0.1</v>
+      </c>
+      <c r="F928">
+        <v>2</v>
+      </c>
+      <c r="G928">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="929" spans="1:7">
+      <c r="A929">
+        <v>2023</v>
+      </c>
+      <c r="B929">
+        <v>8</v>
+      </c>
+      <c r="C929">
+        <v>1</v>
+      </c>
+      <c r="D929" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E929">
+        <v>0.1</v>
+      </c>
+      <c r="F929">
+        <v>2</v>
+      </c>
+      <c r="G929">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="930" spans="1:7">
+      <c r="A930">
+        <v>2023</v>
+      </c>
+      <c r="B930">
+        <v>8</v>
+      </c>
+      <c r="C930">
+        <v>1</v>
+      </c>
+      <c r="D930" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E930">
+        <v>0.1</v>
+      </c>
+      <c r="F930">
+        <v>3</v>
+      </c>
+      <c r="G930">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="931" spans="1:7">
+      <c r="A931">
+        <v>2023</v>
+      </c>
+      <c r="B931">
+        <v>8</v>
+      </c>
+      <c r="C931">
+        <v>1</v>
+      </c>
+      <c r="D931" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E931">
+        <v>0.1</v>
+      </c>
+      <c r="F931">
+        <v>3</v>
+      </c>
+      <c r="G931">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="932" spans="1:7">
+      <c r="A932">
+        <v>2023</v>
+      </c>
+      <c r="B932">
+        <v>8</v>
+      </c>
+      <c r="C932">
+        <v>1</v>
+      </c>
+      <c r="D932" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E932">
+        <v>0.1</v>
+      </c>
+      <c r="F932">
+        <v>3</v>
+      </c>
+      <c r="G932">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="933" spans="1:7">
+      <c r="A933">
+        <v>2023</v>
+      </c>
+      <c r="B933">
+        <v>8</v>
+      </c>
+      <c r="C933">
+        <v>1</v>
+      </c>
+      <c r="D933" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E933">
+        <v>0.1</v>
+      </c>
+      <c r="F933">
+        <v>3</v>
+      </c>
+      <c r="G933">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="934" spans="1:7">
+      <c r="A934">
+        <v>2023</v>
+      </c>
+      <c r="B934">
+        <v>8</v>
+      </c>
+      <c r="C934">
+        <v>1</v>
+      </c>
+      <c r="D934" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E934">
+        <v>0.1</v>
+      </c>
+      <c r="F934">
+        <v>3</v>
+      </c>
+      <c r="G934">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="935" spans="1:7">
+      <c r="A935">
+        <v>2023</v>
+      </c>
+      <c r="B935">
+        <v>8</v>
+      </c>
+      <c r="C935">
+        <v>1</v>
+      </c>
+      <c r="D935" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E935">
+        <v>0.1</v>
+      </c>
+      <c r="F935">
+        <v>3</v>
+      </c>
+      <c r="G935">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="936" spans="1:7">
+      <c r="A936">
+        <v>2023</v>
+      </c>
+      <c r="B936">
+        <v>8</v>
+      </c>
+      <c r="C936">
+        <v>1</v>
+      </c>
+      <c r="D936" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E936">
+        <v>0.1</v>
+      </c>
+      <c r="F936">
+        <v>3</v>
+      </c>
+      <c r="G936">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="937" spans="1:7">
+      <c r="A937">
+        <v>2023</v>
+      </c>
+      <c r="B937">
+        <v>8</v>
+      </c>
+      <c r="C937">
+        <v>1</v>
+      </c>
+      <c r="D937" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E937">
+        <v>0.1</v>
+      </c>
+      <c r="F937">
+        <v>3</v>
+      </c>
+      <c r="G937">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="938" spans="1:7">
+      <c r="A938">
+        <v>2023</v>
+      </c>
+      <c r="B938">
+        <v>8</v>
+      </c>
+      <c r="C938">
+        <v>1</v>
+      </c>
+      <c r="D938" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E938">
+        <v>0.1</v>
+      </c>
+      <c r="F938">
+        <v>3</v>
+      </c>
+      <c r="G938">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="939" spans="1:7">
+      <c r="A939">
+        <v>2023</v>
+      </c>
+      <c r="B939">
+        <v>8</v>
+      </c>
+      <c r="C939">
+        <v>1</v>
+      </c>
+      <c r="D939" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E939">
+        <v>0.1</v>
+      </c>
+      <c r="F939">
+        <v>3</v>
+      </c>
+      <c r="G939">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="940" spans="1:7">
+      <c r="A940">
+        <v>2023</v>
+      </c>
+      <c r="B940">
+        <v>8</v>
+      </c>
+      <c r="C940">
+        <v>1</v>
+      </c>
+      <c r="D940" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E940">
+        <v>0.1</v>
+      </c>
+      <c r="F940">
+        <v>3</v>
+      </c>
+      <c r="G940">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="941" spans="1:7">
+      <c r="A941">
+        <v>2023</v>
+      </c>
+      <c r="B941">
+        <v>8</v>
+      </c>
+      <c r="C941">
+        <v>1</v>
+      </c>
+      <c r="D941" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E941">
+        <v>0.1</v>
+      </c>
+      <c r="F941">
+        <v>3</v>
+      </c>
+      <c r="G941">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="942" spans="1:7">
+      <c r="A942">
+        <v>2023</v>
+      </c>
+      <c r="B942">
+        <v>8</v>
+      </c>
+      <c r="C942">
+        <v>1</v>
+      </c>
+      <c r="D942" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E942">
+        <v>0.1</v>
+      </c>
+      <c r="F942">
+        <v>3</v>
+      </c>
+      <c r="G942">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="943" spans="1:7">
+      <c r="A943">
+        <v>2023</v>
+      </c>
+      <c r="B943">
+        <v>8</v>
+      </c>
+      <c r="C943">
+        <v>1</v>
+      </c>
+      <c r="D943" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E943">
+        <v>0.1</v>
+      </c>
+      <c r="F943">
+        <v>3</v>
+      </c>
+      <c r="G943">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="944" spans="1:7">
+      <c r="A944">
+        <v>2023</v>
+      </c>
+      <c r="B944">
+        <v>8</v>
+      </c>
+      <c r="C944">
+        <v>1</v>
+      </c>
+      <c r="D944" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E944">
+        <v>0.1</v>
+      </c>
+      <c r="F944">
+        <v>3</v>
+      </c>
+      <c r="G944">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="945" spans="1:7">
+      <c r="A945">
+        <v>2023</v>
+      </c>
+      <c r="B945">
+        <v>8</v>
+      </c>
+      <c r="C945">
+        <v>1</v>
+      </c>
+      <c r="D945" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E945">
+        <v>0.1</v>
+      </c>
+      <c r="F945">
+        <v>3</v>
+      </c>
+      <c r="G945">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="946" spans="1:7">
+      <c r="A946">
+        <v>2023</v>
+      </c>
+      <c r="B946">
+        <v>8</v>
+      </c>
+      <c r="C946">
+        <v>1</v>
+      </c>
+      <c r="D946" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E946">
+        <v>0.1</v>
+      </c>
+      <c r="F946">
+        <v>3</v>
+      </c>
+      <c r="G946">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="947" spans="1:7">
+      <c r="A947">
+        <v>2023</v>
+      </c>
+      <c r="B947">
+        <v>8</v>
+      </c>
+      <c r="C947">
+        <v>1</v>
+      </c>
+      <c r="D947" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E947">
+        <v>0.1</v>
+      </c>
+      <c r="F947">
+        <v>3</v>
+      </c>
+      <c r="G947">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="948" spans="1:7">
+      <c r="A948">
+        <v>2023</v>
+      </c>
+      <c r="B948">
+        <v>8</v>
+      </c>
+      <c r="C948">
+        <v>1</v>
+      </c>
+      <c r="D948" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E948">
+        <v>0.1</v>
+      </c>
+      <c r="F948">
+        <v>3</v>
+      </c>
+      <c r="G948">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="949" spans="1:7">
+      <c r="A949">
+        <v>2023</v>
+      </c>
+      <c r="B949">
+        <v>8</v>
+      </c>
+      <c r="C949">
+        <v>1</v>
+      </c>
+      <c r="D949" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E949">
+        <v>0.1</v>
+      </c>
+      <c r="F949">
+        <v>4</v>
+      </c>
+      <c r="G949">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="950" spans="1:7">
+      <c r="A950">
+        <v>2023</v>
+      </c>
+      <c r="B950">
+        <v>8</v>
+      </c>
+      <c r="C950">
+        <v>1</v>
+      </c>
+      <c r="D950" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E950">
+        <v>0.1</v>
+      </c>
+      <c r="F950">
+        <v>4</v>
+      </c>
+      <c r="G950">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="951" spans="1:7">
+      <c r="A951">
+        <v>2023</v>
+      </c>
+      <c r="B951">
+        <v>8</v>
+      </c>
+      <c r="C951">
+        <v>1</v>
+      </c>
+      <c r="D951" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E951">
+        <v>0.1</v>
+      </c>
+      <c r="F951">
+        <v>4</v>
+      </c>
+      <c r="G951">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="952" spans="1:7">
+      <c r="A952">
+        <v>2023</v>
+      </c>
+      <c r="B952">
+        <v>8</v>
+      </c>
+      <c r="C952">
+        <v>1</v>
+      </c>
+      <c r="D952" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E952">
+        <v>0.1</v>
+      </c>
+      <c r="F952">
+        <v>4</v>
+      </c>
+      <c r="G952">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="953" spans="1:7">
+      <c r="A953">
+        <v>2023</v>
+      </c>
+      <c r="B953">
+        <v>8</v>
+      </c>
+      <c r="C953">
+        <v>1</v>
+      </c>
+      <c r="D953" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E953">
+        <v>0.1</v>
+      </c>
+      <c r="F953">
+        <v>4</v>
+      </c>
+      <c r="G953">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="954" spans="1:7">
+      <c r="A954">
+        <v>2023</v>
+      </c>
+      <c r="B954">
+        <v>8</v>
+      </c>
+      <c r="C954">
+        <v>1</v>
+      </c>
+      <c r="D954" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E954">
+        <v>0.1</v>
+      </c>
+      <c r="F954">
+        <v>4</v>
+      </c>
+      <c r="G954">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="955" spans="1:7">
+      <c r="A955">
+        <v>2023</v>
+      </c>
+      <c r="B955">
+        <v>8</v>
+      </c>
+      <c r="C955">
+        <v>1</v>
+      </c>
+      <c r="D955" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E955">
+        <v>0.1</v>
+      </c>
+      <c r="F955">
+        <v>4</v>
+      </c>
+      <c r="G955">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="956" spans="1:7">
+      <c r="A956">
+        <v>2023</v>
+      </c>
+      <c r="B956">
+        <v>8</v>
+      </c>
+      <c r="C956">
+        <v>1</v>
+      </c>
+      <c r="D956" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E956">
+        <v>0.1</v>
+      </c>
+      <c r="F956">
+        <v>4</v>
+      </c>
+      <c r="G956">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="957" spans="1:7">
+      <c r="A957">
+        <v>2023</v>
+      </c>
+      <c r="B957">
+        <v>8</v>
+      </c>
+      <c r="C957">
+        <v>1</v>
+      </c>
+      <c r="D957" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E957">
+        <v>0.1</v>
+      </c>
+      <c r="F957">
+        <v>4</v>
+      </c>
+      <c r="G957">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="958" spans="1:7">
+      <c r="A958">
+        <v>2023</v>
+      </c>
+      <c r="B958">
+        <v>8</v>
+      </c>
+      <c r="C958">
+        <v>1</v>
+      </c>
+      <c r="D958" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E958">
+        <v>0.1</v>
+      </c>
+      <c r="F958">
+        <v>4</v>
+      </c>
+      <c r="G958">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="959" spans="1:7">
+      <c r="A959">
+        <v>2023</v>
+      </c>
+      <c r="B959">
+        <v>8</v>
+      </c>
+      <c r="C959">
+        <v>1</v>
+      </c>
+      <c r="D959" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E959">
+        <v>0.1</v>
+      </c>
+      <c r="F959">
+        <v>4</v>
+      </c>
+      <c r="G959">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="960" spans="1:7">
+      <c r="A960">
+        <v>2023</v>
+      </c>
+      <c r="B960">
+        <v>8</v>
+      </c>
+      <c r="C960">
+        <v>1</v>
+      </c>
+      <c r="D960" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E960">
+        <v>0.1</v>
+      </c>
+      <c r="F960">
+        <v>4</v>
+      </c>
+      <c r="G960">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="961" spans="1:7">
+      <c r="A961">
+        <v>2023</v>
+      </c>
+      <c r="B961">
+        <v>8</v>
+      </c>
+      <c r="C961">
+        <v>1</v>
+      </c>
+      <c r="D961" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E961">
+        <v>0.1</v>
+      </c>
+      <c r="F961">
+        <v>4</v>
+      </c>
+      <c r="G961">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="962" spans="1:7">
+      <c r="A962">
+        <v>2023</v>
+      </c>
+      <c r="B962">
+        <v>8</v>
+      </c>
+      <c r="C962">
+        <v>1</v>
+      </c>
+      <c r="D962" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E962">
+        <v>0.1</v>
+      </c>
+      <c r="F962">
+        <v>4</v>
+      </c>
+      <c r="G962">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="963" spans="1:7">
+      <c r="A963">
+        <v>2023</v>
+      </c>
+      <c r="B963">
+        <v>8</v>
+      </c>
+      <c r="C963">
+        <v>1</v>
+      </c>
+      <c r="D963" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E963">
+        <v>0.1</v>
+      </c>
+      <c r="F963">
+        <v>4</v>
+      </c>
+      <c r="G963">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="964" spans="1:7">
+      <c r="A964">
+        <v>2023</v>
+      </c>
+      <c r="B964">
+        <v>8</v>
+      </c>
+      <c r="C964">
+        <v>1</v>
+      </c>
+      <c r="D964" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E964">
+        <v>0.1</v>
+      </c>
+      <c r="F964">
+        <v>4</v>
+      </c>
+      <c r="G964">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="965" spans="1:7">
+      <c r="A965">
+        <v>2023</v>
+      </c>
+      <c r="B965">
+        <v>8</v>
+      </c>
+      <c r="C965">
+        <v>1</v>
+      </c>
+      <c r="D965" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E965">
+        <v>0.1</v>
+      </c>
+      <c r="F965">
+        <v>4</v>
+      </c>
+      <c r="G965">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="966" spans="1:7">
+      <c r="A966">
+        <v>2023</v>
+      </c>
+      <c r="B966">
+        <v>8</v>
+      </c>
+      <c r="C966">
+        <v>1</v>
+      </c>
+      <c r="D966" s="3">
+        <v>0.51111111111111096</v>
+      </c>
+      <c r="E966">
+        <v>0.1</v>
+      </c>
+      <c r="F966">
+        <v>4</v>
+      </c>
+      <c r="G966">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26803"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3441" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D731B6D7-9427-4C8F-B107-70F18950A033}"/>
+  <xr:revisionPtr revIDLastSave="3703" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C6439E20-A8A2-4052-B5B8-9B355BF3A389}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="916" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="115">
   <si>
     <t>year</t>
   </si>
@@ -246,6 +246,12 @@
   </si>
   <si>
     <t>ahnfeltia_sp__red</t>
+  </si>
+  <si>
+    <t>haraldiophyllum_nottii__red</t>
+  </si>
+  <si>
+    <t>ceramium_pacificum_red</t>
   </si>
   <si>
     <t>unknown__red</t>
@@ -1234,11 +1240,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BT966"/>
+  <dimension ref="A1:BW966"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AX1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A920" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM922" sqref="AM922"/>
+      <pane ySplit="1" topLeftCell="E954" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AM965" sqref="AM965"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1306,11 +1312,11 @@
     <col min="68" max="68" width="6.140625" customWidth="1"/>
     <col min="69" max="69" width="4.42578125" customWidth="1"/>
     <col min="70" max="70" width="4.140625" customWidth="1"/>
-    <col min="71" max="71" width="5.85546875" customWidth="1"/>
-    <col min="72" max="72" width="5" customWidth="1"/>
+    <col min="71" max="73" width="5.85546875" customWidth="1"/>
+    <col min="74" max="75" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:72">
+    <row r="1" spans="1:75">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1527,8 +1533,15 @@
       <c r="BT1" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="2" spans="1:72">
+      <c r="BU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" s="1"/>
+    </row>
+    <row r="2" spans="1:75">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1551,7 +1564,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -1563,7 +1576,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:72">
+    <row r="3" spans="1:75">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1586,13 +1599,13 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:72">
+    <row r="4" spans="1:75">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1615,13 +1628,13 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:72">
+    <row r="5" spans="1:75">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1644,7 +1657,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1653,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:72">
+    <row r="6" spans="1:75">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1676,13 +1689,13 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:72">
+    <row r="7" spans="1:75">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1705,13 +1718,13 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:72">
+    <row r="8" spans="1:75">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1734,7 +1747,7 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1749,7 +1762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:72">
+    <row r="9" spans="1:75">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -1772,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I9">
         <v>40</v>
@@ -1784,7 +1797,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:72">
+    <row r="10" spans="1:75">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1807,7 +1820,7 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1816,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:72">
+    <row r="11" spans="1:75">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -1839,7 +1852,7 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -1848,7 +1861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:72">
+    <row r="12" spans="1:75">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -1871,7 +1884,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1883,7 +1896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:72">
+    <row r="13" spans="1:75">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1906,7 +1919,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1918,7 +1931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:72">
+    <row r="14" spans="1:75">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -1941,7 +1954,7 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -1953,7 +1966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:72">
+    <row r="15" spans="1:75">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -1976,7 +1989,7 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1988,7 +2001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:72">
+    <row r="16" spans="1:75">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -2011,7 +2024,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I16">
         <v>70</v>
@@ -2046,7 +2059,7 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2078,7 +2091,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2113,7 +2126,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2145,7 +2158,7 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2180,7 +2193,7 @@
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2212,7 +2225,7 @@
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2244,7 +2257,7 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2273,7 +2286,7 @@
         <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2305,7 +2318,7 @@
         <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2337,7 +2350,7 @@
         <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2369,7 +2382,7 @@
         <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2401,7 +2414,7 @@
         <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2433,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I29">
         <v>70</v>
@@ -2468,7 +2481,7 @@
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2500,7 +2513,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2529,7 +2542,7 @@
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2564,7 +2577,7 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2599,7 +2612,7 @@
         <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2634,7 +2647,7 @@
         <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -2669,7 +2682,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I36">
         <v>20</v>
@@ -2704,7 +2717,7 @@
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I37">
         <v>25</v>
@@ -2739,7 +2752,7 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -2774,7 +2787,7 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -2809,7 +2822,7 @@
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2844,7 +2857,7 @@
         <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2876,7 +2889,7 @@
         <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2908,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I43">
         <v>30</v>
@@ -2943,7 +2956,7 @@
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -2978,7 +2991,7 @@
         <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3007,7 +3020,7 @@
         <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -3042,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I47">
         <v>5</v>
@@ -3074,7 +3087,7 @@
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3103,7 +3116,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I49">
         <v>40</v>
@@ -3138,7 +3151,7 @@
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3170,7 +3183,7 @@
         <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I51">
         <v>20</v>
@@ -3205,7 +3218,7 @@
         <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I52">
         <v>10</v>
@@ -3240,7 +3253,7 @@
         <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3272,7 +3285,7 @@
         <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I54">
         <v>5</v>
@@ -3307,7 +3320,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I55">
         <v>40</v>
@@ -3342,7 +3355,7 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3371,7 +3384,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3406,7 +3419,7 @@
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3441,7 +3454,7 @@
         <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I59">
         <v>5</v>
@@ -3476,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I60">
         <v>70</v>
@@ -3511,7 +3524,7 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3546,7 +3559,7 @@
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3578,7 +3591,7 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3607,7 +3620,7 @@
         <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I64">
         <v>10</v>
@@ -3645,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I65">
         <v>40</v>
@@ -3680,7 +3693,7 @@
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I66">
         <v>30</v>
@@ -3715,7 +3728,7 @@
         <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I67">
         <v>10</v>
@@ -3750,7 +3763,7 @@
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I68">
         <v>5</v>
@@ -3817,7 +3830,7 @@
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -3852,7 +3865,7 @@
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3913,7 +3926,7 @@
         <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -3948,7 +3961,7 @@
         <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -3977,7 +3990,7 @@
         <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I75">
         <v>5</v>
@@ -4012,7 +4025,7 @@
         <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4041,7 +4054,7 @@
         <v>40</v>
       </c>
       <c r="H77" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -4079,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I78">
         <v>40</v>
@@ -4114,7 +4127,7 @@
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4146,7 +4159,7 @@
         <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I80">
         <v>15</v>
@@ -4181,7 +4194,7 @@
         <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4210,7 +4223,7 @@
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4242,7 +4255,7 @@
         <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I83">
         <v>3</v>
@@ -4309,7 +4322,7 @@
         <v>35</v>
       </c>
       <c r="H85" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I85">
         <v>20</v>
@@ -4350,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I86">
         <v>35</v>
@@ -4385,7 +4398,7 @@
         <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4414,7 +4427,7 @@
         <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4443,7 +4456,7 @@
         <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -4478,7 +4491,7 @@
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4507,7 +4520,7 @@
         <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4536,7 +4549,7 @@
         <v>30</v>
       </c>
       <c r="H92" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4565,7 +4578,7 @@
         <v>35</v>
       </c>
       <c r="H93" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4597,7 +4610,7 @@
         <v>40</v>
       </c>
       <c r="H94" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4629,7 +4642,7 @@
         <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4661,7 +4674,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -4696,7 +4709,7 @@
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -4731,7 +4744,7 @@
         <v>10</v>
       </c>
       <c r="H98" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -4766,7 +4779,7 @@
         <v>15</v>
       </c>
       <c r="H99" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -4801,7 +4814,7 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -4830,7 +4843,7 @@
         <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -4859,7 +4872,7 @@
         <v>30</v>
       </c>
       <c r="H102" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -4894,7 +4907,7 @@
         <v>35</v>
       </c>
       <c r="H103" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -4932,7 +4945,7 @@
         <v>40</v>
       </c>
       <c r="H104" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -4967,7 +4980,7 @@
         <v>45</v>
       </c>
       <c r="H105" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -5005,7 +5018,7 @@
         <v>50</v>
       </c>
       <c r="H106" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5040,7 +5053,7 @@
         <v>55</v>
       </c>
       <c r="H107" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5087,7 +5100,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I108">
         <v>10</v>
@@ -5122,7 +5135,7 @@
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I109">
         <v>10</v>
@@ -5157,7 +5170,7 @@
         <v>10</v>
       </c>
       <c r="H110" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I110">
         <v>5</v>
@@ -5192,7 +5205,7 @@
         <v>15</v>
       </c>
       <c r="H111" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5227,7 +5240,7 @@
         <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -5262,7 +5275,7 @@
         <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -5294,7 +5307,7 @@
         <v>30</v>
       </c>
       <c r="H114" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -5326,7 +5339,7 @@
         <v>35</v>
       </c>
       <c r="H115" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5358,7 +5371,7 @@
         <v>40</v>
       </c>
       <c r="H116" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I116">
         <v>5</v>
@@ -5399,7 +5412,7 @@
         <v>45</v>
       </c>
       <c r="H117" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -5440,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I118">
         <v>15</v>
@@ -5507,7 +5520,7 @@
         <v>10</v>
       </c>
       <c r="H120" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5536,7 +5549,7 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -5571,7 +5584,7 @@
         <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -5606,7 +5619,7 @@
         <v>25</v>
       </c>
       <c r="H123" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5635,7 +5648,7 @@
         <v>30</v>
       </c>
       <c r="H124" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I124">
         <v>5</v>
@@ -5670,7 +5683,7 @@
         <v>35</v>
       </c>
       <c r="H125" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -5746,7 +5759,7 @@
         <v>45</v>
       </c>
       <c r="H127" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -5787,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I128">
         <v>30</v>
@@ -5822,7 +5835,7 @@
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -5851,7 +5864,7 @@
         <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I130">
         <v>3</v>
@@ -5883,7 +5896,7 @@
         <v>15</v>
       </c>
       <c r="H131" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5915,7 +5928,7 @@
         <v>20</v>
       </c>
       <c r="H132" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5944,7 +5957,7 @@
         <v>25</v>
       </c>
       <c r="H133" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -5976,7 +5989,7 @@
         <v>30</v>
       </c>
       <c r="H134" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -6005,7 +6018,7 @@
         <v>35</v>
       </c>
       <c r="H135" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I135">
         <v>4</v>
@@ -6116,7 +6129,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I138">
         <v>35</v>
@@ -6151,7 +6164,7 @@
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -6212,7 +6225,7 @@
         <v>15</v>
       </c>
       <c r="H141" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -6241,7 +6254,7 @@
         <v>20</v>
       </c>
       <c r="H142" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -6273,7 +6286,7 @@
         <v>25</v>
       </c>
       <c r="H143" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -6302,7 +6315,7 @@
         <v>30</v>
       </c>
       <c r="H144" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -6331,7 +6344,7 @@
         <v>35</v>
       </c>
       <c r="H145" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -6360,7 +6373,7 @@
         <v>40</v>
       </c>
       <c r="H146" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -6389,7 +6402,7 @@
         <v>45</v>
       </c>
       <c r="H147" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6418,7 +6431,7 @@
         <v>50</v>
       </c>
       <c r="H148" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -6450,7 +6463,7 @@
         <v>55</v>
       </c>
       <c r="H149" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -6482,7 +6495,7 @@
         <v>60</v>
       </c>
       <c r="H150" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -6546,7 +6559,7 @@
         <v>70</v>
       </c>
       <c r="H152" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -6584,7 +6597,7 @@
         <v>75</v>
       </c>
       <c r="H153" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -6625,7 +6638,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I154">
         <v>85</v>
@@ -6660,7 +6673,7 @@
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -6692,7 +6705,7 @@
         <v>10</v>
       </c>
       <c r="H156" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6756,7 +6769,7 @@
         <v>20</v>
       </c>
       <c r="H158" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -6788,7 +6801,7 @@
         <v>25</v>
       </c>
       <c r="H159" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -6820,7 +6833,7 @@
         <v>30</v>
       </c>
       <c r="H160" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -6881,7 +6894,7 @@
         <v>40</v>
       </c>
       <c r="H162" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -6960,7 +6973,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I164">
         <v>10</v>
@@ -6995,7 +7008,7 @@
         <v>5</v>
       </c>
       <c r="H165" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -7030,7 +7043,7 @@
         <v>10</v>
       </c>
       <c r="H166" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I166">
         <v>5</v>
@@ -7065,7 +7078,7 @@
         <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -7100,7 +7113,7 @@
         <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -7135,7 +7148,7 @@
         <v>25</v>
       </c>
       <c r="H169" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -7167,7 +7180,7 @@
         <v>30</v>
       </c>
       <c r="H170" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7199,7 +7212,7 @@
         <v>35</v>
       </c>
       <c r="H171" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7231,7 +7244,7 @@
         <v>40</v>
       </c>
       <c r="H172" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I172">
         <v>5</v>
@@ -7272,7 +7285,7 @@
         <v>45</v>
       </c>
       <c r="H173" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -7313,7 +7326,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I174">
         <v>3</v>
@@ -7348,7 +7361,7 @@
         <v>5</v>
       </c>
       <c r="H175" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -7380,7 +7393,7 @@
         <v>10</v>
       </c>
       <c r="H176" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -7409,7 +7422,7 @@
         <v>15</v>
       </c>
       <c r="H177" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -7441,7 +7454,7 @@
         <v>20</v>
       </c>
       <c r="H178" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -7473,7 +7486,7 @@
         <v>25</v>
       </c>
       <c r="H179" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -7505,7 +7518,7 @@
         <v>30</v>
       </c>
       <c r="H180" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I180">
         <v>5</v>
@@ -7543,7 +7556,7 @@
         <v>35</v>
       </c>
       <c r="H181" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -7581,7 +7594,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I182">
         <v>20</v>
@@ -7616,7 +7629,7 @@
         <v>5</v>
       </c>
       <c r="H183" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -7645,7 +7658,7 @@
         <v>10</v>
       </c>
       <c r="H184" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7677,7 +7690,7 @@
         <v>15</v>
       </c>
       <c r="H185" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -7706,7 +7719,7 @@
         <v>20</v>
       </c>
       <c r="H186" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I186">
         <v>3</v>
@@ -7738,7 +7751,7 @@
         <v>25</v>
       </c>
       <c r="H187" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -7843,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I190">
         <v>25</v>
@@ -7878,7 +7891,7 @@
         <v>5</v>
       </c>
       <c r="H191" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -7910,7 +7923,7 @@
         <v>10</v>
       </c>
       <c r="H192" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -7942,7 +7955,7 @@
         <v>15</v>
       </c>
       <c r="H193" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -7971,7 +7984,7 @@
         <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -8000,7 +8013,7 @@
         <v>25</v>
       </c>
       <c r="H195" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -8029,7 +8042,7 @@
         <v>30</v>
       </c>
       <c r="H196" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -8058,7 +8071,7 @@
         <v>35</v>
       </c>
       <c r="H197" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -8087,7 +8100,7 @@
         <v>40</v>
       </c>
       <c r="H198" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -8116,7 +8129,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I199">
         <v>40</v>
@@ -8151,7 +8164,7 @@
         <v>5</v>
       </c>
       <c r="H200" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -8183,7 +8196,7 @@
         <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -8215,7 +8228,7 @@
         <v>15</v>
       </c>
       <c r="H202" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -8279,7 +8292,7 @@
         <v>25</v>
       </c>
       <c r="H204" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -8311,7 +8324,7 @@
         <v>30</v>
       </c>
       <c r="H205" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -8343,7 +8356,7 @@
         <v>35</v>
       </c>
       <c r="H206" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -8378,7 +8391,7 @@
         <v>40</v>
       </c>
       <c r="H207" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -8436,7 +8449,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I209">
         <v>20</v>
@@ -8477,7 +8490,7 @@
         <v>5</v>
       </c>
       <c r="H210" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I210">
         <v>10</v>
@@ -8512,7 +8525,7 @@
         <v>10</v>
       </c>
       <c r="H211" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I211">
         <v>5</v>
@@ -8582,7 +8595,7 @@
         <v>20</v>
       </c>
       <c r="H213" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -8614,7 +8627,7 @@
         <v>25</v>
       </c>
       <c r="H214" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -8643,7 +8656,7 @@
         <v>30</v>
       </c>
       <c r="H215" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -8675,7 +8688,7 @@
         <v>35</v>
       </c>
       <c r="H216" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -8710,7 +8723,7 @@
         <v>40</v>
       </c>
       <c r="H217" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -8751,7 +8764,7 @@
         <v>45</v>
       </c>
       <c r="H218" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -8830,7 +8843,7 @@
         <v>5</v>
       </c>
       <c r="H220" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -8871,7 +8884,7 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -8909,7 +8922,7 @@
         <v>15</v>
       </c>
       <c r="H222" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -8938,7 +8951,7 @@
         <v>20</v>
       </c>
       <c r="H223" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -9002,7 +9015,7 @@
         <v>30</v>
       </c>
       <c r="H225" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -9043,7 +9056,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I226">
         <v>35</v>
@@ -9084,7 +9097,7 @@
         <v>5</v>
       </c>
       <c r="H227" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -9116,7 +9129,7 @@
         <v>10</v>
       </c>
       <c r="H228" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I228">
         <v>5</v>
@@ -9160,7 +9173,7 @@
         <v>15</v>
       </c>
       <c r="H229" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -9274,7 +9287,7 @@
         <v>30</v>
       </c>
       <c r="H232" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -9353,7 +9366,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I234">
         <v>45</v>
@@ -9426,7 +9439,7 @@
         <v>10</v>
       </c>
       <c r="H236" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -9522,7 +9535,7 @@
         <v>25</v>
       </c>
       <c r="H239" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -9551,7 +9564,7 @@
         <v>30</v>
       </c>
       <c r="H240" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J240">
         <v>0</v>
@@ -9609,7 +9622,7 @@
         <v>40</v>
       </c>
       <c r="H242" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -9653,7 +9666,7 @@
         <v>45</v>
       </c>
       <c r="H243" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -9685,7 +9698,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I244">
         <v>40</v>
@@ -9720,7 +9733,7 @@
         <v>5</v>
       </c>
       <c r="H245" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J245">
         <v>0</v>
@@ -9784,7 +9797,7 @@
         <v>15</v>
       </c>
       <c r="H247" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -9903,7 +9916,7 @@
         <v>35</v>
       </c>
       <c r="H251" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -9970,7 +9983,7 @@
         <v>45</v>
       </c>
       <c r="H253" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J253">
         <v>0</v>
@@ -9999,7 +10012,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I254">
         <v>25</v>
@@ -10046,7 +10059,7 @@
         <v>5</v>
       </c>
       <c r="H255" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I255">
         <v>5</v>
@@ -10087,7 +10100,7 @@
         <v>10</v>
       </c>
       <c r="H256" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I256">
         <v>5</v>
@@ -10218,7 +10231,7 @@
         <v>30</v>
       </c>
       <c r="H260" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J260">
         <v>0</v>
@@ -10323,7 +10336,7 @@
         <v>45</v>
       </c>
       <c r="H263" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J263">
         <v>0</v>
@@ -10358,7 +10371,7 @@
         <v>50</v>
       </c>
       <c r="H264" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J264">
         <v>0</v>
@@ -10393,7 +10406,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I265">
         <v>15</v>
@@ -10440,7 +10453,7 @@
         <v>5</v>
       </c>
       <c r="H266" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -10490,7 +10503,7 @@
         <v>10</v>
       </c>
       <c r="H267" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -10534,7 +10547,7 @@
         <v>15</v>
       </c>
       <c r="H268" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I268">
         <v>5</v>
@@ -10575,7 +10588,7 @@
         <v>20</v>
       </c>
       <c r="H269" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -10613,7 +10626,7 @@
         <v>25</v>
       </c>
       <c r="H270" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -10651,7 +10664,7 @@
         <v>30</v>
       </c>
       <c r="H271" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I271">
         <v>5</v>
@@ -10748,7 +10761,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I273">
         <v>30</v>
@@ -10792,7 +10805,7 @@
         <v>5</v>
       </c>
       <c r="H274" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="J274">
         <v>0</v>
@@ -10830,7 +10843,7 @@
         <v>10</v>
       </c>
       <c r="H275" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I275">
         <v>5</v>
@@ -10874,7 +10887,7 @@
         <v>15</v>
       </c>
       <c r="H276" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -10906,7 +10919,7 @@
         <v>20</v>
       </c>
       <c r="H277" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -10944,7 +10957,7 @@
         <v>25</v>
       </c>
       <c r="H278" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I278">
         <v>1</v>
@@ -10991,7 +11004,7 @@
         <v>30</v>
       </c>
       <c r="H279" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J279">
         <v>0</v>
@@ -11070,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I281">
         <v>20</v>
@@ -11114,7 +11127,7 @@
         <v>5</v>
       </c>
       <c r="H282" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -11146,7 +11159,7 @@
         <v>10</v>
       </c>
       <c r="H283" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -11178,7 +11191,7 @@
         <v>15</v>
       </c>
       <c r="H284" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J284">
         <v>0</v>
@@ -11207,7 +11220,7 @@
         <v>20</v>
       </c>
       <c r="H285" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="J285">
         <v>0</v>
@@ -11294,7 +11307,7 @@
         <v>35</v>
       </c>
       <c r="H288" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J288">
         <v>0</v>
@@ -11329,7 +11342,7 @@
         <v>40</v>
       </c>
       <c r="H289" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -11440,7 +11453,7 @@
         <v>55</v>
       </c>
       <c r="H292" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="J292">
         <v>0</v>
@@ -11484,7 +11497,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I293">
         <v>40</v>
@@ -11528,7 +11541,7 @@
         <v>5</v>
       </c>
       <c r="H294" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -11758,7 +11771,7 @@
         <v>40</v>
       </c>
       <c r="H301" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="J301">
         <v>0</v>
@@ -11796,7 +11809,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I302">
         <v>25</v>
@@ -11843,7 +11856,7 @@
         <v>5</v>
       </c>
       <c r="H303" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I303">
         <v>10</v>
@@ -11881,7 +11894,7 @@
         <v>10</v>
       </c>
       <c r="H304" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I304">
         <v>5</v>
@@ -12091,7 +12104,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I310">
         <v>10</v>
@@ -12135,7 +12148,7 @@
         <v>5</v>
       </c>
       <c r="H311" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -12179,7 +12192,7 @@
         <v>10</v>
       </c>
       <c r="H312" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J312">
         <v>0</v>
@@ -12223,7 +12236,7 @@
         <v>15</v>
       </c>
       <c r="H313" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J313">
         <v>0</v>
@@ -12261,7 +12274,7 @@
         <v>20</v>
       </c>
       <c r="H314" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J314">
         <v>0</v>
@@ -12302,7 +12315,7 @@
         <v>25</v>
       </c>
       <c r="H315" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="T315">
         <v>2</v>
@@ -12346,7 +12359,7 @@
         <v>30</v>
       </c>
       <c r="H316" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I316">
         <v>10</v>
@@ -12390,7 +12403,7 @@
         <v>35</v>
       </c>
       <c r="H317" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J317">
         <v>30</v>
@@ -12440,7 +12453,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I318">
         <v>20</v>
@@ -12484,7 +12497,7 @@
         <v>5</v>
       </c>
       <c r="H319" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y319">
         <v>10</v>
@@ -12522,7 +12535,7 @@
         <v>10</v>
       </c>
       <c r="H320" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I320">
         <v>5</v>
@@ -12566,7 +12579,7 @@
         <v>15</v>
       </c>
       <c r="H321" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y321">
         <v>1</v>
@@ -12601,7 +12614,7 @@
         <v>20</v>
       </c>
       <c r="H322" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R322">
         <v>1</v>
@@ -12639,7 +12652,7 @@
         <v>25</v>
       </c>
       <c r="H323" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I323">
         <v>3</v>
@@ -12683,7 +12696,7 @@
         <v>30</v>
       </c>
       <c r="H324" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J324">
         <v>15</v>
@@ -12771,7 +12784,7 @@
         <v>40</v>
       </c>
       <c r="H326" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J326">
         <v>90</v>
@@ -12818,7 +12831,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I327">
         <v>25</v>
@@ -12868,7 +12881,7 @@
         <v>5</v>
       </c>
       <c r="H328" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y328">
         <v>5</v>
@@ -12903,7 +12916,7 @@
         <v>10</v>
       </c>
       <c r="H329" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y329">
         <v>2</v>
@@ -12938,7 +12951,7 @@
         <v>15</v>
       </c>
       <c r="H330" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Z330">
         <v>40</v>
@@ -12973,7 +12986,7 @@
         <v>20</v>
       </c>
       <c r="H331" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J331">
         <v>2</v>
@@ -13043,7 +13056,7 @@
         <v>30</v>
       </c>
       <c r="H333" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Y333">
         <v>1</v>
@@ -13078,7 +13091,7 @@
         <v>35</v>
       </c>
       <c r="H334" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J334">
         <v>70</v>
@@ -13122,7 +13135,7 @@
         <v>40</v>
       </c>
       <c r="H335" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J335">
         <v>20</v>
@@ -13169,7 +13182,7 @@
         <v>45</v>
       </c>
       <c r="H336" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J336">
         <v>40</v>
@@ -13213,7 +13226,7 @@
         <v>50</v>
       </c>
       <c r="H337" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J337">
         <v>100</v>
@@ -13263,7 +13276,7 @@
         <v>55</v>
       </c>
       <c r="H338" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J338">
         <v>90</v>
@@ -13307,7 +13320,7 @@
         <v>60</v>
       </c>
       <c r="H339" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J339">
         <v>40</v>
@@ -13360,7 +13373,7 @@
         <v>65</v>
       </c>
       <c r="H340" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J340">
         <v>50</v>
@@ -13407,7 +13420,7 @@
         <v>70</v>
       </c>
       <c r="H341" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J341">
         <v>95</v>
@@ -13451,13 +13464,13 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I342">
         <v>30</v>
       </c>
       <c r="Q342" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S342">
         <v>2</v>
@@ -13481,7 +13494,7 @@
         <v>5</v>
       </c>
       <c r="BO342" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="343" spans="1:67">
@@ -13507,13 +13520,13 @@
         <v>5</v>
       </c>
       <c r="H343" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I343">
         <v>2</v>
       </c>
       <c r="Q343" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y343">
         <v>10</v>
@@ -13528,7 +13541,7 @@
         <v>2</v>
       </c>
       <c r="BO343" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="344" spans="1:67">
@@ -13554,13 +13567,13 @@
         <v>10</v>
       </c>
       <c r="H344" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I344">
         <v>10</v>
       </c>
       <c r="Q344" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y344">
         <v>10</v>
@@ -13578,7 +13591,7 @@
         <v>15</v>
       </c>
       <c r="BO344" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="345" spans="1:67">
@@ -13604,7 +13617,7 @@
         <v>15</v>
       </c>
       <c r="Q345" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y345">
         <v>3</v>
@@ -13613,7 +13626,7 @@
         <v>3</v>
       </c>
       <c r="BO345" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="346" spans="1:67">
@@ -13639,10 +13652,10 @@
         <v>20</v>
       </c>
       <c r="H346" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q346" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y346">
         <v>20</v>
@@ -13654,7 +13667,7 @@
         <v>1</v>
       </c>
       <c r="BO346" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="347" spans="1:67">
@@ -13680,13 +13693,13 @@
         <v>25</v>
       </c>
       <c r="H347" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I347">
         <v>3</v>
       </c>
       <c r="Q347" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y347">
         <v>10</v>
@@ -13704,7 +13717,7 @@
         <v>2</v>
       </c>
       <c r="BO347" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="348" spans="1:67">
@@ -13730,7 +13743,7 @@
         <v>30</v>
       </c>
       <c r="H348" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J348">
         <v>20</v>
@@ -13739,7 +13752,7 @@
         <v>1</v>
       </c>
       <c r="Q348" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y348">
         <v>15</v>
@@ -13763,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="BO348" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="349" spans="1:67">
@@ -13789,7 +13802,7 @@
         <v>35</v>
       </c>
       <c r="H349" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I349">
         <v>5</v>
@@ -13801,7 +13814,7 @@
         <v>5</v>
       </c>
       <c r="Q349" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AL349">
         <v>10</v>
@@ -13822,7 +13835,7 @@
         <v>1</v>
       </c>
       <c r="BO349" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="350" spans="1:67">
@@ -13848,7 +13861,7 @@
         <v>40</v>
       </c>
       <c r="H350" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J350">
         <v>80</v>
@@ -13863,7 +13876,7 @@
         <v>60</v>
       </c>
       <c r="Q350" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U350">
         <v>20</v>
@@ -13881,7 +13894,7 @@
         <v>5</v>
       </c>
       <c r="BO350" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="351" spans="1:67">
@@ -13907,13 +13920,13 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I351">
         <v>35</v>
       </c>
       <c r="Q351" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S351">
         <v>1</v>
@@ -13934,7 +13947,7 @@
         <v>10</v>
       </c>
       <c r="BO351" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="352" spans="1:67">
@@ -13960,10 +13973,10 @@
         <v>5</v>
       </c>
       <c r="H352" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q352" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y352">
         <v>10</v>
@@ -13978,7 +13991,7 @@
         <v>2</v>
       </c>
       <c r="BO352" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="353" spans="1:67">
@@ -14004,10 +14017,10 @@
         <v>10</v>
       </c>
       <c r="H353" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q353" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y353">
         <v>5</v>
@@ -14019,7 +14032,7 @@
         <v>1</v>
       </c>
       <c r="BO353" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="354" spans="1:67">
@@ -14045,10 +14058,10 @@
         <v>15</v>
       </c>
       <c r="H354" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q354" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y354">
         <v>25</v>
@@ -14060,7 +14073,7 @@
         <v>5</v>
       </c>
       <c r="BO354" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="355" spans="1:67">
@@ -14086,13 +14099,13 @@
         <v>20</v>
       </c>
       <c r="H355" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N355">
         <v>1</v>
       </c>
       <c r="Q355" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y355">
         <v>15</v>
@@ -14107,7 +14120,7 @@
         <v>1</v>
       </c>
       <c r="BO355" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="356" spans="1:67">
@@ -14136,7 +14149,7 @@
         <v>5</v>
       </c>
       <c r="Q356" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T356">
         <v>1</v>
@@ -14154,7 +14167,7 @@
         <v>2</v>
       </c>
       <c r="BO356" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="357" spans="1:67">
@@ -14180,13 +14193,13 @@
         <v>30</v>
       </c>
       <c r="H357" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N357">
         <v>1</v>
       </c>
       <c r="Q357" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y357">
         <v>10</v>
@@ -14198,7 +14211,7 @@
         <v>1</v>
       </c>
       <c r="BO357" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="358" spans="1:67">
@@ -14224,13 +14237,13 @@
         <v>35</v>
       </c>
       <c r="H358" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N358">
         <v>1</v>
       </c>
       <c r="Q358" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y358">
         <v>10</v>
@@ -14248,7 +14261,7 @@
         <v>2</v>
       </c>
       <c r="BO358" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="359" spans="1:67">
@@ -14274,13 +14287,13 @@
         <v>40</v>
       </c>
       <c r="H359" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J359">
         <v>5</v>
       </c>
       <c r="Q359" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R359">
         <v>1</v>
@@ -14301,7 +14314,7 @@
         <v>1</v>
       </c>
       <c r="BO359" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="360" spans="1:67">
@@ -14327,7 +14340,7 @@
         <v>45</v>
       </c>
       <c r="H360" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J360">
         <v>25</v>
@@ -14336,7 +14349,7 @@
         <v>10</v>
       </c>
       <c r="Q360" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y360">
         <v>5</v>
@@ -14354,7 +14367,7 @@
         <v>1</v>
       </c>
       <c r="BO360" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="361" spans="1:67">
@@ -14380,7 +14393,7 @@
         <v>50</v>
       </c>
       <c r="H361" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J361">
         <v>50</v>
@@ -14392,7 +14405,7 @@
         <v>1</v>
       </c>
       <c r="Q361" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y361">
         <v>5</v>
@@ -14413,7 +14426,7 @@
         <v>1</v>
       </c>
       <c r="BO361" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="362" spans="1:67">
@@ -14439,7 +14452,7 @@
         <v>55</v>
       </c>
       <c r="H362" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J362">
         <v>70</v>
@@ -14448,7 +14461,7 @@
         <v>1</v>
       </c>
       <c r="Q362" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y362">
         <v>1</v>
@@ -14469,7 +14482,7 @@
         <v>1</v>
       </c>
       <c r="BO362" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="363" spans="1:67">
@@ -14495,7 +14508,7 @@
         <v>60</v>
       </c>
       <c r="H363" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J363">
         <v>100</v>
@@ -14510,7 +14523,7 @@
         <v>1</v>
       </c>
       <c r="Q363" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AC363">
         <v>2</v>
@@ -14528,7 +14541,7 @@
         <v>1</v>
       </c>
       <c r="BO363" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="364" spans="1:67">
@@ -14554,7 +14567,7 @@
         <v>65</v>
       </c>
       <c r="H364" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J364">
         <v>100</v>
@@ -14566,7 +14579,7 @@
         <v>5</v>
       </c>
       <c r="Q364" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z364">
         <v>2</v>
@@ -14578,7 +14591,7 @@
         <v>2</v>
       </c>
       <c r="BO364" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="365" spans="1:67">
@@ -14604,7 +14617,7 @@
         <v>70</v>
       </c>
       <c r="H365" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J365">
         <v>100</v>
@@ -14619,7 +14632,7 @@
         <v>1</v>
       </c>
       <c r="Q365" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y365">
         <v>1</v>
@@ -14634,7 +14647,7 @@
         <v>1</v>
       </c>
       <c r="BO365" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="366" spans="1:67">
@@ -14660,7 +14673,7 @@
         <v>75</v>
       </c>
       <c r="H366" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J366">
         <v>100</v>
@@ -14675,7 +14688,7 @@
         <v>1</v>
       </c>
       <c r="Q366" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AL366">
         <v>5</v>
@@ -14687,7 +14700,7 @@
         <v>1</v>
       </c>
       <c r="BO366" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="367" spans="1:67">
@@ -14728,7 +14741,7 @@
         <v>1</v>
       </c>
       <c r="Q367" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y367">
         <v>5</v>
@@ -14749,7 +14762,7 @@
         <v>8</v>
       </c>
       <c r="BO367" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="368" spans="1:67">
@@ -14787,7 +14800,7 @@
         <v>2</v>
       </c>
       <c r="Q368" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U368">
         <v>1</v>
@@ -14817,7 +14830,7 @@
         <v>1</v>
       </c>
       <c r="BO368" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="369" spans="1:67">
@@ -14843,7 +14856,7 @@
         <v>90</v>
       </c>
       <c r="H369" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J369">
         <v>40</v>
@@ -14858,7 +14871,7 @@
         <v>2</v>
       </c>
       <c r="Q369" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U369">
         <v>10</v>
@@ -14885,7 +14898,7 @@
         <v>1</v>
       </c>
       <c r="BO369" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="370" spans="1:67">
@@ -14911,13 +14924,13 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I370">
         <v>75</v>
       </c>
       <c r="Q370" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S370">
         <v>2</v>
@@ -14935,7 +14948,7 @@
         <v>5</v>
       </c>
       <c r="BO370" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="371" spans="1:67">
@@ -14961,7 +14974,7 @@
         <v>5</v>
       </c>
       <c r="H371" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I371">
         <v>1</v>
@@ -14970,7 +14983,7 @@
         <v>10</v>
       </c>
       <c r="Q371" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y371">
         <v>1</v>
@@ -14982,7 +14995,7 @@
         <v>3</v>
       </c>
       <c r="BO371" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="372" spans="1:67">
@@ -15008,13 +15021,13 @@
         <v>10</v>
       </c>
       <c r="H372" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="Q372" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y372">
         <v>40</v>
@@ -15029,7 +15042,7 @@
         <v>1</v>
       </c>
       <c r="BO372" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="373" spans="1:67">
@@ -15055,10 +15068,10 @@
         <v>15</v>
       </c>
       <c r="H373" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q373" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y373">
         <v>5</v>
@@ -15073,7 +15086,7 @@
         <v>1</v>
       </c>
       <c r="BO373" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="374" spans="1:67">
@@ -15099,10 +15112,10 @@
         <v>20</v>
       </c>
       <c r="H374" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q374" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y374">
         <v>25</v>
@@ -15117,7 +15130,7 @@
         <v>1</v>
       </c>
       <c r="BO374" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="375" spans="1:67">
@@ -15149,7 +15162,7 @@
         <v>1</v>
       </c>
       <c r="Q375" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y375">
         <v>5</v>
@@ -15161,7 +15174,7 @@
         <v>1</v>
       </c>
       <c r="BO375" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="376" spans="1:67">
@@ -15187,7 +15200,7 @@
         <v>30</v>
       </c>
       <c r="H376" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I376">
         <v>1</v>
@@ -15196,7 +15209,7 @@
         <v>1</v>
       </c>
       <c r="Q376" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y376">
         <v>1</v>
@@ -15208,7 +15221,7 @@
         <v>2</v>
       </c>
       <c r="BO376" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="377" spans="1:67">
@@ -15234,7 +15247,7 @@
         <v>35</v>
       </c>
       <c r="H377" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I377">
         <v>2</v>
@@ -15243,7 +15256,7 @@
         <v>5</v>
       </c>
       <c r="Q377" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y377">
         <v>20</v>
@@ -15255,7 +15268,7 @@
         <v>1</v>
       </c>
       <c r="BO377" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="378" spans="1:67">
@@ -15290,7 +15303,7 @@
         <v>2</v>
       </c>
       <c r="Q378" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R378">
         <v>1</v>
@@ -15311,7 +15324,7 @@
         <v>4</v>
       </c>
       <c r="BO378" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="379" spans="1:67">
@@ -15337,13 +15350,13 @@
         <v>45</v>
       </c>
       <c r="H379" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J379">
         <v>5</v>
       </c>
       <c r="Q379" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y379">
         <v>10</v>
@@ -15361,7 +15374,7 @@
         <v>5</v>
       </c>
       <c r="BO379" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="380" spans="1:67">
@@ -15387,7 +15400,7 @@
         <v>50</v>
       </c>
       <c r="H380" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J380">
         <v>90</v>
@@ -15402,7 +15415,7 @@
         <v>5</v>
       </c>
       <c r="Q380" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y380">
         <v>3</v>
@@ -15414,7 +15427,7 @@
         <v>1</v>
       </c>
       <c r="BO380" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="381" spans="1:67">
@@ -15440,7 +15453,7 @@
         <v>55</v>
       </c>
       <c r="H381" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J381">
         <v>100</v>
@@ -15496,7 +15509,7 @@
         <v>60</v>
       </c>
       <c r="H382" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J382">
         <v>100</v>
@@ -15508,7 +15521,7 @@
         <v>5</v>
       </c>
       <c r="Q382" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y382">
         <v>5</v>
@@ -15517,7 +15530,7 @@
         <v>2</v>
       </c>
       <c r="BO382" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="383" spans="1:67">
@@ -15543,7 +15556,7 @@
         <v>65</v>
       </c>
       <c r="H383" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J383">
         <v>100</v>
@@ -15558,7 +15571,7 @@
         <v>3</v>
       </c>
       <c r="Q383" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U383">
         <v>5</v>
@@ -15570,7 +15583,7 @@
         <v>1</v>
       </c>
       <c r="BO383" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="384" spans="1:67">
@@ -15596,7 +15609,7 @@
         <v>70</v>
       </c>
       <c r="H384" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J384">
         <v>80</v>
@@ -15605,7 +15618,7 @@
         <v>3</v>
       </c>
       <c r="Q384" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AL384">
         <v>3</v>
@@ -15614,7 +15627,7 @@
         <v>2</v>
       </c>
       <c r="BO384" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="385" spans="1:67">
@@ -15652,7 +15665,7 @@
         <v>5</v>
       </c>
       <c r="Q385" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U385">
         <v>10</v>
@@ -15690,7 +15703,7 @@
         <v>80</v>
       </c>
       <c r="H386" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J386">
         <v>70</v>
@@ -15699,109 +15712,109 @@
         <v>70</v>
       </c>
       <c r="L386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M386">
         <v>50</v>
       </c>
       <c r="N386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U386">
         <v>5</v>
       </c>
       <c r="Y386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AA386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AC386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AK386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AL386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AM386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AN386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AP386">
         <v>10</v>
       </c>
       <c r="AQ386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AR386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AS386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AT386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AU386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AV386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AW386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AX386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AY386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BA386">
         <v>10</v>
       </c>
       <c r="BB386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BC386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BD386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BM386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="BO386" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="387" spans="1:67">
@@ -15827,7 +15840,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I387">
         <v>60</v>
@@ -15909,7 +15922,7 @@
         <v>10</v>
       </c>
       <c r="H389" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I389">
         <v>20</v>
@@ -15947,7 +15960,7 @@
         <v>15</v>
       </c>
       <c r="H390" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y390">
         <v>15</v>
@@ -15988,7 +16001,7 @@
         <v>20</v>
       </c>
       <c r="H391" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y391">
         <v>60</v>
@@ -16032,7 +16045,7 @@
         <v>25</v>
       </c>
       <c r="H392" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I392">
         <v>3</v>
@@ -16076,7 +16089,7 @@
         <v>30</v>
       </c>
       <c r="H393" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y393">
         <v>50</v>
@@ -16123,7 +16136,7 @@
         <v>35</v>
       </c>
       <c r="H394" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y394">
         <v>30</v>
@@ -16170,7 +16183,7 @@
         <v>40</v>
       </c>
       <c r="H395" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J395">
         <v>100</v>
@@ -16226,7 +16239,7 @@
         <v>45</v>
       </c>
       <c r="H396" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J396">
         <v>50</v>
@@ -16300,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I397">
         <v>60</v>
@@ -16379,7 +16392,7 @@
         <v>10</v>
       </c>
       <c r="H399" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Y399">
         <v>10</v>
@@ -16417,7 +16430,7 @@
         <v>15</v>
       </c>
       <c r="H400" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y400">
         <v>40</v>
@@ -16455,7 +16468,7 @@
         <v>20</v>
       </c>
       <c r="H401" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N401">
         <v>1</v>
@@ -16496,7 +16509,7 @@
         <v>25</v>
       </c>
       <c r="H402" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R402">
         <v>1</v>
@@ -16540,7 +16553,7 @@
         <v>30</v>
       </c>
       <c r="H403" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y403">
         <v>15</v>
@@ -16581,7 +16594,7 @@
         <v>35</v>
       </c>
       <c r="H404" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y404">
         <v>15</v>
@@ -16622,7 +16635,7 @@
         <v>40</v>
       </c>
       <c r="H405" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N405">
         <v>1</v>
@@ -16669,7 +16682,7 @@
         <v>45</v>
       </c>
       <c r="H406" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J406">
         <v>10</v>
@@ -16722,7 +16735,7 @@
         <v>50</v>
       </c>
       <c r="H407" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J407">
         <v>5</v>
@@ -16842,7 +16855,7 @@
         <v>65</v>
       </c>
       <c r="H410" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J410">
         <v>50</v>
@@ -16892,7 +16905,7 @@
         <v>70</v>
       </c>
       <c r="H411" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J411">
         <v>60</v>
@@ -16945,7 +16958,7 @@
         <v>75</v>
       </c>
       <c r="H412" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J412">
         <v>70</v>
@@ -16995,7 +17008,7 @@
         <v>80</v>
       </c>
       <c r="H413" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -17048,7 +17061,7 @@
         <v>85</v>
       </c>
       <c r="H414" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J414">
         <v>30</v>
@@ -17116,7 +17129,7 @@
         <v>90</v>
       </c>
       <c r="H415" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="J415">
         <v>20</v>
@@ -17184,7 +17197,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I416">
         <v>50</v>
@@ -17222,7 +17235,7 @@
         <v>5</v>
       </c>
       <c r="H417" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I417">
         <v>5</v>
@@ -17295,7 +17308,7 @@
         <v>15</v>
       </c>
       <c r="H419" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y419">
         <v>10</v>
@@ -17330,7 +17343,7 @@
         <v>20</v>
       </c>
       <c r="H420" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y420">
         <v>70</v>
@@ -17368,7 +17381,7 @@
         <v>25</v>
       </c>
       <c r="H421" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y421">
         <v>60</v>
@@ -17409,7 +17422,7 @@
         <v>30</v>
       </c>
       <c r="H422" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I422">
         <v>2</v>
@@ -17453,7 +17466,7 @@
         <v>35</v>
       </c>
       <c r="H423" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y423">
         <v>20</v>
@@ -17494,7 +17507,7 @@
         <v>40</v>
       </c>
       <c r="H424" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y424">
         <v>40</v>
@@ -17532,7 +17545,7 @@
         <v>45</v>
       </c>
       <c r="H425" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I425">
         <v>1</v>
@@ -17582,7 +17595,7 @@
         <v>50</v>
       </c>
       <c r="H426" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J426">
         <v>10</v>
@@ -17626,7 +17639,7 @@
         <v>55</v>
       </c>
       <c r="H427" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J427">
         <v>80</v>
@@ -17670,7 +17683,7 @@
         <v>60</v>
       </c>
       <c r="H428" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J428">
         <v>65</v>
@@ -17723,7 +17736,7 @@
         <v>65</v>
       </c>
       <c r="H429" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J429">
         <v>90</v>
@@ -17770,7 +17783,7 @@
         <v>70</v>
       </c>
       <c r="H430" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J430">
         <v>100</v>
@@ -17811,7 +17824,7 @@
         <v>75</v>
       </c>
       <c r="H431" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J431">
         <v>80</v>
@@ -17861,7 +17874,7 @@
         <v>80</v>
       </c>
       <c r="H432" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K432">
         <v>95</v>
@@ -17905,7 +17918,7 @@
         <v>85</v>
       </c>
       <c r="H433" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K433">
         <v>50</v>
@@ -17961,7 +17974,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I434">
         <v>50</v>
@@ -18005,7 +18018,7 @@
         <v>5</v>
       </c>
       <c r="H435" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I435">
         <v>1</v>
@@ -18040,7 +18053,7 @@
         <v>10</v>
       </c>
       <c r="H436" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I436">
         <v>10</v>
@@ -18084,7 +18097,7 @@
         <v>15</v>
       </c>
       <c r="H437" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y437">
         <v>10</v>
@@ -18128,7 +18141,7 @@
         <v>20</v>
       </c>
       <c r="H438" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y438">
         <v>50</v>
@@ -18166,7 +18179,7 @@
         <v>25</v>
       </c>
       <c r="H439" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I439">
         <v>5</v>
@@ -18204,7 +18217,7 @@
         <v>30</v>
       </c>
       <c r="H440" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y440">
         <v>20</v>
@@ -18242,7 +18255,7 @@
         <v>35</v>
       </c>
       <c r="H441" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I441">
         <v>3</v>
@@ -18286,7 +18299,7 @@
         <v>40</v>
       </c>
       <c r="H442" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J442">
         <v>20</v>
@@ -18345,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I443">
         <v>40</v>
@@ -18389,7 +18402,7 @@
         <v>5</v>
       </c>
       <c r="H444" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I444">
         <v>1</v>
@@ -18430,7 +18443,7 @@
         <v>10</v>
       </c>
       <c r="H445" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I445">
         <v>1</v>
@@ -18474,7 +18487,7 @@
         <v>15</v>
       </c>
       <c r="H446" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y446">
         <v>15</v>
@@ -18512,7 +18525,7 @@
         <v>20</v>
       </c>
       <c r="H447" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y447">
         <v>40</v>
@@ -18521,7 +18534,7 @@
         <v>15</v>
       </c>
       <c r="AA447" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="448" spans="1:59">
@@ -18547,7 +18560,7 @@
         <v>25</v>
       </c>
       <c r="H448" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I448">
         <v>1</v>
@@ -18591,7 +18604,7 @@
         <v>30</v>
       </c>
       <c r="H449" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y449">
         <v>25</v>
@@ -18629,7 +18642,7 @@
         <v>35</v>
       </c>
       <c r="H450" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y450">
         <v>10</v>
@@ -18667,7 +18680,7 @@
         <v>40</v>
       </c>
       <c r="H451" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I451">
         <v>1</v>
@@ -18717,7 +18730,7 @@
         <v>45</v>
       </c>
       <c r="H452" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J452">
         <v>1</v>
@@ -18761,7 +18774,7 @@
         <v>50</v>
       </c>
       <c r="H453" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I453">
         <v>2</v>
@@ -18849,7 +18862,7 @@
         <v>60</v>
       </c>
       <c r="H455" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J455">
         <v>5</v>
@@ -18896,7 +18909,7 @@
         <v>65</v>
       </c>
       <c r="H456" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J456">
         <v>60</v>
@@ -18958,7 +18971,7 @@
         <v>70</v>
       </c>
       <c r="H457" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J457">
         <v>10</v>
@@ -19008,7 +19021,7 @@
         <v>75</v>
       </c>
       <c r="H458" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J458">
         <v>10</v>
@@ -19067,7 +19080,7 @@
         <v>80</v>
       </c>
       <c r="H459" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J459">
         <v>20</v>
@@ -19126,7 +19139,7 @@
         <v>85</v>
       </c>
       <c r="H460" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J460">
         <v>30</v>
@@ -19191,7 +19204,7 @@
         <v>90</v>
       </c>
       <c r="H461" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J461">
         <v>30</v>
@@ -19253,7 +19266,7 @@
         <v>95</v>
       </c>
       <c r="H462" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K462">
         <v>50</v>
@@ -19309,7 +19322,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I463">
         <v>30</v>
@@ -19350,7 +19363,7 @@
         <v>5</v>
       </c>
       <c r="H464" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I464">
         <v>5</v>
@@ -19388,7 +19401,7 @@
         <v>10</v>
       </c>
       <c r="H465" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I465">
         <v>3</v>
@@ -19432,7 +19445,7 @@
         <v>15</v>
       </c>
       <c r="H466" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="I466">
         <v>5</v>
@@ -19543,7 +19556,7 @@
         <v>30</v>
       </c>
       <c r="H469" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y469">
         <v>20</v>
@@ -19584,7 +19597,7 @@
         <v>35</v>
       </c>
       <c r="H470" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Y470">
         <v>15</v>
@@ -19622,7 +19635,7 @@
         <v>40</v>
       </c>
       <c r="H471" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y471">
         <v>15</v>
@@ -19657,7 +19670,7 @@
         <v>45</v>
       </c>
       <c r="H472" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J472">
         <v>1</v>
@@ -19695,7 +19708,7 @@
         <v>50</v>
       </c>
       <c r="H473" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J473">
         <v>1</v>
@@ -19739,7 +19752,7 @@
         <v>55</v>
       </c>
       <c r="H474" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="J474">
         <v>5</v>
@@ -19780,7 +19793,7 @@
         <v>60</v>
       </c>
       <c r="H475" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="J475">
         <v>10</v>
@@ -19824,7 +19837,7 @@
         <v>65</v>
       </c>
       <c r="H476" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J476">
         <v>30</v>
@@ -19868,7 +19881,7 @@
         <v>70</v>
       </c>
       <c r="H477" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J477">
         <v>80</v>
@@ -19915,7 +19928,7 @@
         <v>75</v>
       </c>
       <c r="H478" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J478">
         <v>80</v>
@@ -19977,7 +19990,7 @@
         <v>80</v>
       </c>
       <c r="H479" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J479">
         <v>50</v>
@@ -20048,7 +20061,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I480">
         <v>60</v>
@@ -20083,7 +20096,7 @@
         <v>5</v>
       </c>
       <c r="H481" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I481">
         <v>1</v>
@@ -20115,7 +20128,7 @@
         <v>10</v>
       </c>
       <c r="H482" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y482">
         <v>50</v>
@@ -20150,7 +20163,7 @@
         <v>15</v>
       </c>
       <c r="H483" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y483">
         <v>80</v>
@@ -20194,7 +20207,7 @@
         <v>20</v>
       </c>
       <c r="H484" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y484">
         <v>70</v>
@@ -20229,7 +20242,7 @@
         <v>25</v>
       </c>
       <c r="H485" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -20308,7 +20321,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I487">
         <v>40</v>
@@ -20343,7 +20356,7 @@
         <v>5</v>
       </c>
       <c r="H488" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y488">
         <v>20</v>
@@ -20381,7 +20394,7 @@
         <v>10</v>
       </c>
       <c r="H489" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I489">
         <v>10</v>
@@ -20419,7 +20432,7 @@
         <v>15</v>
       </c>
       <c r="H490" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I490">
         <v>1</v>
@@ -20457,7 +20470,7 @@
         <v>20</v>
       </c>
       <c r="H491" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -20492,7 +20505,7 @@
         <v>25</v>
       </c>
       <c r="H492" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y492">
         <v>25</v>
@@ -20527,7 +20540,7 @@
         <v>30</v>
       </c>
       <c r="H493" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y493">
         <v>20</v>
@@ -20562,7 +20575,7 @@
         <v>35</v>
       </c>
       <c r="H494" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y494">
         <v>15</v>
@@ -20600,7 +20613,7 @@
         <v>40</v>
       </c>
       <c r="H495" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y495">
         <v>10</v>
@@ -20632,7 +20645,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I496">
         <v>40</v>
@@ -20699,7 +20712,7 @@
         <v>10</v>
       </c>
       <c r="H498" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I498">
         <v>1</v>
@@ -20889,7 +20902,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I503">
         <v>50</v>
@@ -20927,7 +20940,7 @@
         <v>5</v>
       </c>
       <c r="H504" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y504">
         <v>5</v>
@@ -20962,7 +20975,7 @@
         <v>10</v>
       </c>
       <c r="H505" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I505">
         <v>5</v>
@@ -21000,7 +21013,7 @@
         <v>15</v>
       </c>
       <c r="H506" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I506">
         <v>2</v>
@@ -21044,7 +21057,7 @@
         <v>20</v>
       </c>
       <c r="H507" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I507">
         <v>20</v>
@@ -21076,7 +21089,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I508">
         <v>40</v>
@@ -21111,7 +21124,7 @@
         <v>5</v>
       </c>
       <c r="H509" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y509">
         <v>30</v>
@@ -21155,7 +21168,7 @@
         <v>10</v>
       </c>
       <c r="H510" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I510">
         <v>10</v>
@@ -21196,7 +21209,7 @@
         <v>15</v>
       </c>
       <c r="H511" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I511">
         <v>5</v>
@@ -21240,7 +21253,7 @@
         <v>20</v>
       </c>
       <c r="H512" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -21281,7 +21294,7 @@
         <v>25</v>
       </c>
       <c r="H513" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y513">
         <v>10</v>
@@ -21316,7 +21329,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I514">
         <v>25</v>
@@ -21374,7 +21387,7 @@
         <v>10</v>
       </c>
       <c r="H516" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I516">
         <v>2</v>
@@ -21418,7 +21431,7 @@
         <v>15</v>
       </c>
       <c r="H517" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I517">
         <v>15</v>
@@ -21459,7 +21472,7 @@
         <v>20</v>
       </c>
       <c r="H518" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I518">
         <v>1</v>
@@ -21500,7 +21513,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I519">
         <v>50</v>
@@ -21535,7 +21548,7 @@
         <v>5</v>
       </c>
       <c r="H520" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I520">
         <v>1</v>
@@ -21570,7 +21583,7 @@
         <v>10</v>
       </c>
       <c r="H521" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I521">
         <v>5</v>
@@ -21614,7 +21627,7 @@
         <v>15</v>
       </c>
       <c r="H522" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I522">
         <v>2</v>
@@ -21655,7 +21668,7 @@
         <v>20</v>
       </c>
       <c r="H523" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I523">
         <v>3</v>
@@ -21693,7 +21706,7 @@
         <v>25</v>
       </c>
       <c r="H524" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I524">
         <v>1</v>
@@ -21731,7 +21744,7 @@
         <v>30</v>
       </c>
       <c r="H525" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I525">
         <v>1</v>
@@ -21813,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I527">
         <v>50</v>
@@ -21851,7 +21864,7 @@
         <v>5</v>
       </c>
       <c r="H528" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y528">
         <v>25</v>
@@ -21892,7 +21905,7 @@
         <v>10</v>
       </c>
       <c r="H529" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I529">
         <v>10</v>
@@ -21933,7 +21946,7 @@
         <v>15</v>
       </c>
       <c r="H530" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I530">
         <v>1</v>
@@ -21971,7 +21984,7 @@
         <v>20</v>
       </c>
       <c r="H531" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I531">
         <v>5</v>
@@ -22012,7 +22025,7 @@
         <v>25</v>
       </c>
       <c r="H532" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y532">
         <v>10</v>
@@ -22050,7 +22063,7 @@
         <v>30</v>
       </c>
       <c r="H533" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I533">
         <v>1</v>
@@ -22088,7 +22101,7 @@
         <v>35</v>
       </c>
       <c r="H534" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y534">
         <v>5</v>
@@ -22123,7 +22136,7 @@
         <v>40</v>
       </c>
       <c r="H535" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I535">
         <v>1</v>
@@ -22161,7 +22174,7 @@
         <v>45</v>
       </c>
       <c r="H536" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y536">
         <v>5</v>
@@ -22193,7 +22206,7 @@
         <v>50</v>
       </c>
       <c r="H537" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I537">
         <v>5</v>
@@ -22228,7 +22241,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="I538">
         <v>40</v>
@@ -22286,7 +22299,7 @@
         <v>10</v>
       </c>
       <c r="H540" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I540">
         <v>5</v>
@@ -22321,7 +22334,7 @@
         <v>15</v>
       </c>
       <c r="H541" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I541">
         <v>5</v>
@@ -22359,7 +22372,7 @@
         <v>20</v>
       </c>
       <c r="H542" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I542">
         <v>2</v>
@@ -22394,7 +22407,7 @@
         <v>25</v>
       </c>
       <c r="H543" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I543">
         <v>1</v>
@@ -22432,7 +22445,7 @@
         <v>30</v>
       </c>
       <c r="H544" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y544">
         <v>5</v>
@@ -22470,7 +22483,7 @@
         <v>35</v>
       </c>
       <c r="H545" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I545">
         <v>1</v>
@@ -22505,7 +22518,7 @@
         <v>40</v>
       </c>
       <c r="H546" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y546">
         <v>15</v>
@@ -22543,7 +22556,7 @@
         <v>45</v>
       </c>
       <c r="H547" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I547">
         <v>2</v>
@@ -22584,7 +22597,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I548">
         <v>50</v>
@@ -22619,7 +22632,7 @@
         <v>5</v>
       </c>
       <c r="H549" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y549">
         <v>10</v>
@@ -22654,7 +22667,7 @@
         <v>10</v>
       </c>
       <c r="H550" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I550">
         <v>1</v>
@@ -22698,7 +22711,7 @@
         <v>15</v>
       </c>
       <c r="H551" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I551">
         <v>1</v>
@@ -22739,7 +22752,7 @@
         <v>20</v>
       </c>
       <c r="H552" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I552">
         <v>1</v>
@@ -22771,7 +22784,7 @@
         <v>25</v>
       </c>
       <c r="H553" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y553">
         <v>2</v>
@@ -22806,7 +22819,7 @@
         <v>30</v>
       </c>
       <c r="H554" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y554">
         <v>1</v>
@@ -22838,7 +22851,7 @@
         <v>35</v>
       </c>
       <c r="H555" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y555">
         <v>1</v>
@@ -22870,7 +22883,7 @@
         <v>40</v>
       </c>
       <c r="H556" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AM556">
         <v>10</v>
@@ -22899,7 +22912,7 @@
         <v>45</v>
       </c>
       <c r="H557" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="AL557">
         <v>1</v>
@@ -22931,7 +22944,7 @@
         <v>50</v>
       </c>
       <c r="H558" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I558">
         <v>1</v>
@@ -22966,7 +22979,7 @@
         <v>55</v>
       </c>
       <c r="H559" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J559">
         <v>10</v>
@@ -23004,7 +23017,7 @@
         <v>60</v>
       </c>
       <c r="H560" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Y560">
         <v>3</v>
@@ -23039,7 +23052,7 @@
         <v>65</v>
       </c>
       <c r="H561" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I561">
         <v>3</v>
@@ -23100,7 +23113,7 @@
         <v>75</v>
       </c>
       <c r="H563" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J563">
         <v>1</v>
@@ -23141,7 +23154,7 @@
         <v>80</v>
       </c>
       <c r="H564" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I564">
         <v>1</v>
@@ -23182,7 +23195,7 @@
         <v>85</v>
       </c>
       <c r="H565" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I565">
         <v>2</v>
@@ -23229,7 +23242,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I566">
         <v>40</v>
@@ -23296,7 +23309,7 @@
         <v>10</v>
       </c>
       <c r="H568" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I568">
         <v>2</v>
@@ -23337,7 +23350,7 @@
         <v>15</v>
       </c>
       <c r="H569" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I569">
         <v>1</v>
@@ -23474,7 +23487,7 @@
         <v>35</v>
       </c>
       <c r="H573" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I573">
         <v>5</v>
@@ -23512,7 +23525,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I574">
         <v>25</v>
@@ -23547,7 +23560,7 @@
         <v>5</v>
       </c>
       <c r="H575" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I575">
         <v>1</v>
@@ -23576,7 +23589,7 @@
         <v>10</v>
       </c>
       <c r="H576" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I576">
         <v>2</v>
@@ -23681,7 +23694,7 @@
         <v>25</v>
       </c>
       <c r="H579" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I579">
         <v>1</v>
@@ -23716,7 +23729,7 @@
         <v>30</v>
       </c>
       <c r="H580" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y580">
         <v>1</v>
@@ -23745,7 +23758,7 @@
         <v>35</v>
       </c>
       <c r="H581" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I581">
         <v>1</v>
@@ -23780,7 +23793,7 @@
         <v>40</v>
       </c>
       <c r="H582" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y582">
         <v>2</v>
@@ -23844,7 +23857,7 @@
         <v>50</v>
       </c>
       <c r="H584" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I584">
         <v>1</v>
@@ -23917,7 +23930,7 @@
         <v>60</v>
       </c>
       <c r="H586" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J586">
         <v>2</v>
@@ -23961,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I587">
         <v>50</v>
@@ -23999,7 +24012,7 @@
         <v>5</v>
       </c>
       <c r="H588" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y588">
         <v>2</v>
@@ -24066,7 +24079,7 @@
         <v>15</v>
       </c>
       <c r="H590" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y590">
         <v>2</v>
@@ -24133,13 +24146,13 @@
         <v>25</v>
       </c>
       <c r="H592" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="AL592">
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:72">
+    <row r="593" spans="1:74">
       <c r="A593">
         <v>2023</v>
       </c>
@@ -24162,7 +24175,7 @@
         <v>30</v>
       </c>
       <c r="H593" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I593">
         <v>1</v>
@@ -24177,7 +24190,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:72">
+    <row r="594" spans="1:74">
       <c r="A594">
         <v>2023</v>
       </c>
@@ -24215,7 +24228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:72">
+    <row r="595" spans="1:74">
       <c r="A595">
         <v>2023</v>
       </c>
@@ -24238,7 +24251,7 @@
         <v>40</v>
       </c>
       <c r="H595" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I595">
         <v>2</v>
@@ -24259,7 +24272,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:72">
+    <row r="596" spans="1:74">
       <c r="A596">
         <v>2023</v>
       </c>
@@ -24311,11 +24324,11 @@
       <c r="BM596">
         <v>5</v>
       </c>
-      <c r="BT596">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="597" spans="1:72">
+      <c r="BV596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:74">
       <c r="A597">
         <v>2023</v>
       </c>
@@ -24338,7 +24351,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I597">
         <v>30</v>
@@ -24353,7 +24366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:72">
+    <row r="598" spans="1:74">
       <c r="A598">
         <v>2023</v>
       </c>
@@ -24388,7 +24401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:72">
+    <row r="599" spans="1:74">
       <c r="A599">
         <v>2023</v>
       </c>
@@ -24411,7 +24424,7 @@
         <v>10</v>
       </c>
       <c r="H599" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I599">
         <v>1</v>
@@ -24432,7 +24445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:72">
+    <row r="600" spans="1:74">
       <c r="A600">
         <v>2023</v>
       </c>
@@ -24470,7 +24483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:72">
+    <row r="601" spans="1:74">
       <c r="A601">
         <v>2023</v>
       </c>
@@ -24502,7 +24515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:72">
+    <row r="602" spans="1:74">
       <c r="A602">
         <v>2023</v>
       </c>
@@ -24534,7 +24547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:72">
+    <row r="603" spans="1:74">
       <c r="A603">
         <v>2023</v>
       </c>
@@ -24566,7 +24579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:72">
+    <row r="604" spans="1:74">
       <c r="A604">
         <v>2023</v>
       </c>
@@ -24595,7 +24608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:72">
+    <row r="605" spans="1:74">
       <c r="A605">
         <v>2023</v>
       </c>
@@ -24624,7 +24637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:72">
+    <row r="606" spans="1:74">
       <c r="A606">
         <v>2023</v>
       </c>
@@ -24653,7 +24666,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:72">
+    <row r="607" spans="1:74">
       <c r="A607">
         <v>2023</v>
       </c>
@@ -24676,7 +24689,7 @@
         <v>50</v>
       </c>
       <c r="H607" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I607">
         <v>5</v>
@@ -24688,7 +24701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:72">
+    <row r="608" spans="1:74">
       <c r="A608">
         <v>2023</v>
       </c>
@@ -24711,7 +24724,7 @@
         <v>55</v>
       </c>
       <c r="H608" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I608">
         <v>1</v>
@@ -24749,7 +24762,7 @@
         <v>60</v>
       </c>
       <c r="H609" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I609">
         <v>1</v>
@@ -24790,7 +24803,7 @@
         <v>65</v>
       </c>
       <c r="H610" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J610">
         <v>1</v>
@@ -24834,7 +24847,7 @@
         <v>70</v>
       </c>
       <c r="H611" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="J611">
         <v>1</v>
@@ -24875,7 +24888,7 @@
         <v>75</v>
       </c>
       <c r="H612" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="I612">
         <v>5</v>
@@ -25072,7 +25085,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I616">
         <v>30</v>
@@ -25113,7 +25126,7 @@
         <v>5</v>
       </c>
       <c r="H617" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I617">
         <v>2</v>
@@ -25142,7 +25155,7 @@
         <v>10</v>
       </c>
       <c r="H618" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I618">
         <v>1</v>
@@ -25186,7 +25199,7 @@
         <v>15</v>
       </c>
       <c r="H619" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I619">
         <v>1</v>
@@ -25253,7 +25266,7 @@
         <v>25</v>
       </c>
       <c r="H621" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y621">
         <v>3</v>
@@ -25288,7 +25301,7 @@
         <v>30</v>
       </c>
       <c r="H622" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Y622">
         <v>1</v>
@@ -25393,7 +25406,7 @@
         <v>45</v>
       </c>
       <c r="H625" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I625">
         <v>1</v>
@@ -25466,7 +25479,7 @@
         <v>55</v>
       </c>
       <c r="H627" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="U627">
         <v>1</v>
@@ -25513,7 +25526,7 @@
         <v>60</v>
       </c>
       <c r="H628" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J628">
         <v>1</v>
@@ -25560,7 +25573,7 @@
         <v>65</v>
       </c>
       <c r="H629" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J629">
         <v>10</v>
@@ -25648,7 +25661,7 @@
         <v>75</v>
       </c>
       <c r="H631" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="J631">
         <v>10</v>
@@ -27188,7 +27201,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I675">
         <v>30</v>
@@ -27252,7 +27265,7 @@
         <v>10</v>
       </c>
       <c r="H677" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I677">
         <v>5</v>
@@ -27293,7 +27306,7 @@
         <v>15</v>
       </c>
       <c r="H678" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I678">
         <v>1</v>
@@ -27337,7 +27350,7 @@
         <v>20</v>
       </c>
       <c r="H679" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I679">
         <v>1</v>
@@ -27387,7 +27400,7 @@
         <v>25</v>
       </c>
       <c r="H680" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Y680">
         <v>3</v>
@@ -27466,7 +27479,7 @@
         <v>35</v>
       </c>
       <c r="H682" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="I682">
         <v>10</v>
@@ -27510,7 +27523,7 @@
         <v>40</v>
       </c>
       <c r="H683" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I683">
         <v>5</v>
@@ -27560,7 +27573,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I684">
         <v>25</v>
@@ -27598,7 +27611,7 @@
         <v>5</v>
       </c>
       <c r="H685" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I685">
         <v>1</v>
@@ -27636,7 +27649,7 @@
         <v>10</v>
       </c>
       <c r="H686" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y686">
         <v>2</v>
@@ -27893,7 +27906,7 @@
         <v>45</v>
       </c>
       <c r="H693" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I693">
         <v>1</v>
@@ -28028,7 +28041,7 @@
         <v>60</v>
       </c>
       <c r="H696" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T696">
         <v>1</v>
@@ -28072,7 +28085,7 @@
         <v>65</v>
       </c>
       <c r="H697" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="N697">
         <v>1</v>
@@ -28122,7 +28135,7 @@
         <v>70</v>
       </c>
       <c r="H698" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="O698">
         <v>1</v>
@@ -28169,7 +28182,7 @@
         <v>75</v>
       </c>
       <c r="H699" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J699">
         <v>5</v>
@@ -28219,7 +28232,7 @@
         <v>80</v>
       </c>
       <c r="H700" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="J700">
         <v>1</v>
@@ -28278,7 +28291,7 @@
         <v>85</v>
       </c>
       <c r="H701" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J701">
         <v>5</v>
@@ -28340,7 +28353,7 @@
         <v>90</v>
       </c>
       <c r="H702" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="U702">
         <v>10</v>
@@ -28399,7 +28412,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I703">
         <v>20</v>
@@ -28440,7 +28453,7 @@
         <v>5</v>
       </c>
       <c r="H704" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I704">
         <v>1</v>
@@ -28469,7 +28482,7 @@
         <v>10</v>
       </c>
       <c r="H705" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I705">
         <v>5</v>
@@ -28650,7 +28663,7 @@
         <v>35</v>
       </c>
       <c r="H710" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I710">
         <v>1</v>
@@ -28791,7 +28804,7 @@
         <v>50</v>
       </c>
       <c r="H713" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="N713">
         <v>1</v>
@@ -28841,7 +28854,7 @@
         <v>55</v>
       </c>
       <c r="H714" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N714">
         <v>1</v>
@@ -28888,7 +28901,7 @@
         <v>60</v>
       </c>
       <c r="H715" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J715">
         <v>1</v>
@@ -28982,7 +28995,7 @@
         <v>70</v>
       </c>
       <c r="H717" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="J717">
         <v>1</v>
@@ -29032,7 +29045,7 @@
         <v>75</v>
       </c>
       <c r="H718" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J718">
         <v>1</v>
@@ -29085,7 +29098,7 @@
         <v>80</v>
       </c>
       <c r="H719" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J719">
         <v>5</v>
@@ -29147,7 +29160,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I720">
         <v>30</v>
@@ -29191,7 +29204,7 @@
         <v>5</v>
       </c>
       <c r="H721" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="J721">
         <v>1</v>
@@ -29229,7 +29242,7 @@
         <v>10</v>
       </c>
       <c r="H722" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I722">
         <v>5</v>
@@ -29276,7 +29289,7 @@
         <v>15</v>
       </c>
       <c r="H723" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I723">
         <v>2</v>
@@ -29320,7 +29333,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I724">
         <v>30</v>
@@ -29358,7 +29371,7 @@
         <v>5</v>
       </c>
       <c r="H725" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y725">
         <v>5</v>
@@ -29399,7 +29412,7 @@
         <v>10</v>
       </c>
       <c r="H726" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I726">
         <v>1</v>
@@ -29446,7 +29459,7 @@
         <v>15</v>
       </c>
       <c r="H727" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I727">
         <v>1</v>
@@ -29487,7 +29500,7 @@
         <v>20</v>
       </c>
       <c r="H728" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T728">
         <v>2</v>
@@ -29525,7 +29538,7 @@
         <v>0</v>
       </c>
       <c r="H729" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I729">
         <v>20</v>
@@ -29703,7 +29716,7 @@
         <v>0</v>
       </c>
       <c r="H734" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I734">
         <v>40</v>
@@ -29753,7 +29766,7 @@
         <v>5</v>
       </c>
       <c r="H735" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Y735">
         <v>3</v>
@@ -29791,7 +29804,7 @@
         <v>10</v>
       </c>
       <c r="H736" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I736">
         <v>5</v>
@@ -29832,7 +29845,7 @@
         <v>15</v>
       </c>
       <c r="H737" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I737">
         <v>1</v>
@@ -29935,7 +29948,7 @@
         <v>25</v>
       </c>
       <c r="H739" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J739">
         <v>15</v>
@@ -29979,7 +29992,7 @@
         <v>30</v>
       </c>
       <c r="H740" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="I740">
         <v>15</v>
@@ -30023,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I741">
         <v>30</v>
@@ -30061,7 +30074,7 @@
         <v>5</v>
       </c>
       <c r="H742" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="T742">
         <v>1</v>
@@ -30099,7 +30112,7 @@
         <v>10</v>
       </c>
       <c r="H743" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="R743">
         <v>1</v>
@@ -30184,7 +30197,7 @@
         <v>20</v>
       </c>
       <c r="H745" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I745">
         <v>1</v>
@@ -30237,7 +30250,7 @@
         <v>25</v>
       </c>
       <c r="H746" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I746">
         <v>1</v>
@@ -30287,7 +30300,7 @@
         <v>30</v>
       </c>
       <c r="H747" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N747">
         <v>5</v>
@@ -30331,7 +30344,7 @@
         <v>35</v>
       </c>
       <c r="H748" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="N748">
         <v>5</v>
@@ -30546,7 +30559,7 @@
         <v>55</v>
       </c>
       <c r="H752" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="J752">
         <v>5</v>
@@ -30602,7 +30615,7 @@
         <v>0</v>
       </c>
       <c r="H753" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I753">
         <v>10</v>
@@ -30646,7 +30659,7 @@
         <v>5</v>
       </c>
       <c r="H754" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I754">
         <v>1</v>
@@ -30675,7 +30688,7 @@
         <v>10</v>
       </c>
       <c r="H755" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="I755">
         <v>1</v>
@@ -30803,7 +30816,7 @@
         <v>30</v>
       </c>
       <c r="H759" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J759">
         <v>10</v>
@@ -30847,7 +30860,7 @@
         <v>35</v>
       </c>
       <c r="H760" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J760">
         <v>10</v>
@@ -30891,7 +30904,7 @@
         <v>40</v>
       </c>
       <c r="H761" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J761">
         <v>5</v>
@@ -30938,7 +30951,7 @@
         <v>45</v>
       </c>
       <c r="H762" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J762">
         <v>3</v>
@@ -30982,7 +30995,7 @@
         <v>0</v>
       </c>
       <c r="H763" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I763">
         <v>30</v>
@@ -31026,7 +31039,7 @@
         <v>5</v>
       </c>
       <c r="H764" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I764">
         <v>3</v>
@@ -31067,7 +31080,7 @@
         <v>10</v>
       </c>
       <c r="H765" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R765">
         <v>5</v>
@@ -31117,7 +31130,7 @@
         <v>15</v>
       </c>
       <c r="H766" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J766">
         <v>10</v>
@@ -31223,7 +31236,7 @@
         <v>25</v>
       </c>
       <c r="H768" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J768">
         <v>50</v>
@@ -31273,7 +31286,7 @@
         <v>30</v>
       </c>
       <c r="H769" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I769">
         <v>20</v>
@@ -31338,7 +31351,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I770">
         <v>30</v>
@@ -31391,7 +31404,7 @@
         <v>5</v>
       </c>
       <c r="H771" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J771">
         <v>5</v>
@@ -31435,7 +31448,7 @@
         <v>10</v>
       </c>
       <c r="H772" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R772">
         <v>2</v>
@@ -31611,7 +31624,7 @@
         <v>30</v>
       </c>
       <c r="H776" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J776">
         <v>15</v>
@@ -31661,7 +31674,7 @@
         <v>35</v>
       </c>
       <c r="H777" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J777">
         <v>15</v>
@@ -31720,7 +31733,7 @@
         <v>40</v>
       </c>
       <c r="H778" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J778">
         <v>60</v>
@@ -31773,7 +31786,7 @@
         <v>0</v>
       </c>
       <c r="H779" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I779">
         <v>20</v>
@@ -31817,7 +31830,7 @@
         <v>5</v>
       </c>
       <c r="H780" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T780">
         <v>1</v>
@@ -31855,7 +31868,7 @@
         <v>10</v>
       </c>
       <c r="H781" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T781">
         <v>5</v>
@@ -31893,7 +31906,7 @@
         <v>15</v>
       </c>
       <c r="H782" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="T782">
         <v>5</v>
@@ -31937,7 +31950,7 @@
         <v>20</v>
       </c>
       <c r="H783" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I783">
         <v>1</v>
@@ -31984,7 +31997,7 @@
         <v>25</v>
       </c>
       <c r="H784" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J784">
         <v>10</v>
@@ -32037,7 +32050,7 @@
         <v>30</v>
       </c>
       <c r="H785" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J785">
         <v>80</v>
@@ -32084,7 +32097,7 @@
         <v>35</v>
       </c>
       <c r="H786" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J786">
         <v>40</v>
@@ -32134,7 +32147,7 @@
         <v>0</v>
       </c>
       <c r="H787" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I787">
         <v>5</v>
@@ -32178,7 +32191,7 @@
         <v>5</v>
       </c>
       <c r="H788" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X788">
         <v>5</v>
@@ -32207,7 +32220,7 @@
         <v>10</v>
       </c>
       <c r="H789" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I789">
         <v>3</v>
@@ -32245,7 +32258,7 @@
         <v>15</v>
       </c>
       <c r="H790" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R790">
         <v>2</v>
@@ -32286,7 +32299,7 @@
         <v>20</v>
       </c>
       <c r="H791" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I791">
         <v>1</v>
@@ -32330,7 +32343,7 @@
         <v>25</v>
       </c>
       <c r="H792" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R792">
         <v>1</v>
@@ -32374,7 +32387,7 @@
         <v>30</v>
       </c>
       <c r="H793" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J793">
         <v>10</v>
@@ -32430,7 +32443,7 @@
         <v>35</v>
       </c>
       <c r="H794" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I794">
         <v>15</v>
@@ -32480,7 +32493,7 @@
         <v>40</v>
       </c>
       <c r="H795" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J795">
         <v>50</v>
@@ -32533,7 +32546,7 @@
         <v>0</v>
       </c>
       <c r="H796" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I796">
         <v>10</v>
@@ -32580,7 +32593,7 @@
         <v>5</v>
       </c>
       <c r="H797" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I797">
         <v>1</v>
@@ -32624,7 +32637,7 @@
         <v>10</v>
       </c>
       <c r="H798" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R798">
         <v>1</v>
@@ -32662,7 +32675,7 @@
         <v>15</v>
       </c>
       <c r="H799" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I799">
         <v>1</v>
@@ -32709,7 +32722,7 @@
         <v>20</v>
       </c>
       <c r="H800" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J800">
         <v>1</v>
@@ -32759,7 +32772,7 @@
         <v>25</v>
       </c>
       <c r="H801" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I801">
         <v>1</v>
@@ -32812,7 +32825,7 @@
         <v>30</v>
       </c>
       <c r="H802" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I802">
         <v>1</v>
@@ -32862,7 +32875,7 @@
         <v>35</v>
       </c>
       <c r="H803" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J803">
         <v>10</v>
@@ -32909,7 +32922,7 @@
         <v>40</v>
       </c>
       <c r="H804" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J804">
         <v>40</v>
@@ -32962,7 +32975,7 @@
         <v>45</v>
       </c>
       <c r="H805" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I805">
         <v>1</v>
@@ -33015,7 +33028,7 @@
         <v>50</v>
       </c>
       <c r="H806" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J806">
         <v>95</v>
@@ -33112,7 +33125,7 @@
         <v>60</v>
       </c>
       <c r="H808" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J808">
         <v>100</v>
@@ -33156,7 +33169,7 @@
         <v>65</v>
       </c>
       <c r="H809" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J809">
         <v>90</v>
@@ -33359,7 +33372,7 @@
         <v>85</v>
       </c>
       <c r="H813" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J813">
         <v>60</v>
@@ -33415,7 +33428,7 @@
         <v>0</v>
       </c>
       <c r="H814" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I814">
         <v>5</v>
@@ -33456,7 +33469,7 @@
         <v>5</v>
       </c>
       <c r="H815" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I815">
         <v>1</v>
@@ -33491,7 +33504,7 @@
         <v>10</v>
       </c>
       <c r="H816" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X816">
         <v>45</v>
@@ -33529,7 +33542,7 @@
         <v>15</v>
       </c>
       <c r="H817" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X817">
         <v>10</v>
@@ -33570,7 +33583,7 @@
         <v>20</v>
       </c>
       <c r="H818" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X818">
         <v>15</v>
@@ -33646,7 +33659,7 @@
         <v>30</v>
       </c>
       <c r="H820" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I820">
         <v>1</v>
@@ -33687,7 +33700,7 @@
         <v>35</v>
       </c>
       <c r="H821" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J821">
         <v>25</v>
@@ -33725,7 +33738,7 @@
         <v>40</v>
       </c>
       <c r="H822" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J822">
         <v>35</v>
@@ -33763,7 +33776,7 @@
         <v>45</v>
       </c>
       <c r="H823" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J823">
         <v>100</v>
@@ -33819,7 +33832,7 @@
         <v>50</v>
       </c>
       <c r="H824" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J824">
         <v>100</v>
@@ -33875,7 +33888,7 @@
         <v>55</v>
       </c>
       <c r="H825" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J825">
         <v>100</v>
@@ -33928,7 +33941,7 @@
         <v>60</v>
       </c>
       <c r="H826" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J826">
         <v>100</v>
@@ -33978,7 +33991,7 @@
         <v>65</v>
       </c>
       <c r="H827" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J827">
         <v>100</v>
@@ -34031,7 +34044,7 @@
         <v>70</v>
       </c>
       <c r="H828" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J828">
         <v>80</v>
@@ -34096,7 +34109,7 @@
         <v>0</v>
       </c>
       <c r="H829" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I829">
         <v>15</v>
@@ -34137,7 +34150,7 @@
         <v>5</v>
       </c>
       <c r="H830" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X830">
         <v>20</v>
@@ -34169,7 +34182,7 @@
         <v>10</v>
       </c>
       <c r="H831" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I831">
         <v>1</v>
@@ -34207,7 +34220,7 @@
         <v>15</v>
       </c>
       <c r="H832" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I832">
         <v>2</v>
@@ -34228,7 +34241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:72">
+    <row r="833" spans="1:74">
       <c r="A833">
         <v>2023</v>
       </c>
@@ -34251,7 +34264,7 @@
         <v>20</v>
       </c>
       <c r="H833" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I833">
         <v>1</v>
@@ -34266,7 +34279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:72">
+    <row r="834" spans="1:74">
       <c r="A834">
         <v>2023</v>
       </c>
@@ -34289,7 +34302,7 @@
         <v>25</v>
       </c>
       <c r="H834" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I834">
         <v>1</v>
@@ -34307,7 +34320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="835" spans="1:72">
+    <row r="835" spans="1:74">
       <c r="A835">
         <v>2023</v>
       </c>
@@ -34330,7 +34343,7 @@
         <v>30</v>
       </c>
       <c r="H835" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I835">
         <v>1</v>
@@ -34347,11 +34360,11 @@
       <c r="AW835">
         <v>1</v>
       </c>
-      <c r="BT835">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="836" spans="1:72">
+      <c r="BV835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:74">
       <c r="A836">
         <v>2023</v>
       </c>
@@ -34374,7 +34387,7 @@
         <v>35</v>
       </c>
       <c r="H836" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I836">
         <v>7</v>
@@ -34401,7 +34414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="837" spans="1:72">
+    <row r="837" spans="1:74">
       <c r="A837">
         <v>2023</v>
       </c>
@@ -34454,7 +34467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:72">
+    <row r="838" spans="1:74">
       <c r="A838">
         <v>2023</v>
       </c>
@@ -34477,7 +34490,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I838">
         <v>20</v>
@@ -34495,7 +34508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:72">
+    <row r="839" spans="1:74">
       <c r="A839">
         <v>2023</v>
       </c>
@@ -34518,7 +34531,7 @@
         <v>5</v>
       </c>
       <c r="H839" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X839">
         <v>80</v>
@@ -34533,7 +34546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:72">
+    <row r="840" spans="1:74">
       <c r="A840">
         <v>2023</v>
       </c>
@@ -34556,7 +34569,7 @@
         <v>10</v>
       </c>
       <c r="H840" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I840">
         <v>1</v>
@@ -34574,7 +34587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:72">
+    <row r="841" spans="1:74">
       <c r="A841">
         <v>2023</v>
       </c>
@@ -34597,7 +34610,7 @@
         <v>15</v>
       </c>
       <c r="H841" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I841">
         <v>1</v>
@@ -34618,7 +34631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:72">
+    <row r="842" spans="1:74">
       <c r="A842">
         <v>2023</v>
       </c>
@@ -34641,7 +34654,7 @@
         <v>20</v>
       </c>
       <c r="H842" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -34653,7 +34666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="843" spans="1:72">
+    <row r="843" spans="1:74">
       <c r="A843">
         <v>2023</v>
       </c>
@@ -34676,7 +34689,7 @@
         <v>25</v>
       </c>
       <c r="H843" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I843">
         <v>3</v>
@@ -34691,7 +34704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:72">
+    <row r="844" spans="1:74">
       <c r="A844">
         <v>2023</v>
       </c>
@@ -34714,7 +34727,7 @@
         <v>30</v>
       </c>
       <c r="H844" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X844">
         <v>45</v>
@@ -34729,7 +34742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:72">
+    <row r="845" spans="1:74">
       <c r="A845">
         <v>2023</v>
       </c>
@@ -34752,7 +34765,7 @@
         <v>35</v>
       </c>
       <c r="H845" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J845">
         <v>4</v>
@@ -34767,7 +34780,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="846" spans="1:72">
+    <row r="846" spans="1:74">
       <c r="A846">
         <v>2023</v>
       </c>
@@ -34790,7 +34803,7 @@
         <v>40</v>
       </c>
       <c r="H846" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J846">
         <v>5</v>
@@ -34805,7 +34818,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:72">
+    <row r="847" spans="1:74">
       <c r="A847">
         <v>2023</v>
       </c>
@@ -34828,7 +34841,7 @@
         <v>45</v>
       </c>
       <c r="H847" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J847">
         <v>20</v>
@@ -34840,7 +34853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="848" spans="1:72">
+    <row r="848" spans="1:74">
       <c r="A848">
         <v>2023</v>
       </c>
@@ -34863,7 +34876,7 @@
         <v>50</v>
       </c>
       <c r="H848" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I848">
         <v>3</v>
@@ -34907,7 +34920,7 @@
         <v>55</v>
       </c>
       <c r="H849" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J849">
         <v>45</v>
@@ -34945,7 +34958,7 @@
         <v>60</v>
       </c>
       <c r="H850" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J850">
         <v>90</v>
@@ -34986,7 +34999,7 @@
         <v>65</v>
       </c>
       <c r="H851" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I851">
         <v>1</v>
@@ -35030,7 +35043,7 @@
         <v>70</v>
       </c>
       <c r="H852" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J852">
         <v>85</v>
@@ -35077,7 +35090,7 @@
         <v>75</v>
       </c>
       <c r="H853" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J853">
         <v>75</v>
@@ -35133,7 +35146,7 @@
         <v>80</v>
       </c>
       <c r="H854" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J854">
         <v>30</v>
@@ -35189,7 +35202,7 @@
         <v>85</v>
       </c>
       <c r="H855" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J855">
         <v>40</v>
@@ -35245,7 +35258,7 @@
         <v>90</v>
       </c>
       <c r="H856" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J856">
         <v>50</v>
@@ -35313,7 +35326,7 @@
         <v>95</v>
       </c>
       <c r="H857" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="J857">
         <v>10</v>
@@ -35390,7 +35403,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I858">
         <v>10</v>
@@ -35425,7 +35438,7 @@
         <v>5</v>
       </c>
       <c r="H859" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I859">
         <v>1</v>
@@ -35457,7 +35470,7 @@
         <v>10</v>
       </c>
       <c r="H860" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I860">
         <v>1</v>
@@ -35495,7 +35508,7 @@
         <v>15</v>
       </c>
       <c r="H861" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X861">
         <v>50</v>
@@ -35527,7 +35540,7 @@
         <v>20</v>
       </c>
       <c r="H862" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I862">
         <v>1</v>
@@ -35568,7 +35581,7 @@
         <v>25</v>
       </c>
       <c r="H863" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I863">
         <v>1</v>
@@ -35606,7 +35619,7 @@
         <v>30</v>
       </c>
       <c r="H864" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J864">
         <v>2</v>
@@ -35647,7 +35660,7 @@
         <v>35</v>
       </c>
       <c r="H865" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J865">
         <v>3</v>
@@ -35688,7 +35701,7 @@
         <v>40</v>
       </c>
       <c r="H866" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J866">
         <v>3</v>
@@ -35726,7 +35739,7 @@
         <v>45</v>
       </c>
       <c r="H867" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J867">
         <v>10</v>
@@ -35764,7 +35777,7 @@
         <v>50</v>
       </c>
       <c r="H868" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J868">
         <v>25</v>
@@ -35802,7 +35815,7 @@
         <v>55</v>
       </c>
       <c r="H869" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J869">
         <v>35</v>
@@ -35855,7 +35868,7 @@
         <v>60</v>
       </c>
       <c r="H870" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J870">
         <v>40</v>
@@ -35908,7 +35921,7 @@
         <v>65</v>
       </c>
       <c r="H871" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J871">
         <v>75</v>
@@ -35967,7 +35980,7 @@
         <v>70</v>
       </c>
       <c r="H872" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I872">
         <v>1</v>
@@ -36026,7 +36039,7 @@
         <v>75</v>
       </c>
       <c r="H873" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J873">
         <v>75</v>
@@ -36085,7 +36098,7 @@
         <v>80</v>
       </c>
       <c r="H874" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="K874">
         <v>20</v>
@@ -36144,7 +36157,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I875">
         <v>15</v>
@@ -36179,7 +36192,7 @@
         <v>5</v>
       </c>
       <c r="H876" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X876">
         <v>25</v>
@@ -36211,7 +36224,7 @@
         <v>10</v>
       </c>
       <c r="H877" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I877">
         <v>3</v>
@@ -36249,7 +36262,7 @@
         <v>15</v>
       </c>
       <c r="H878" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X878">
         <v>90</v>
@@ -36284,7 +36297,7 @@
         <v>20</v>
       </c>
       <c r="H879" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I879">
         <v>5</v>
@@ -36325,7 +36338,7 @@
         <v>25</v>
       </c>
       <c r="H880" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I880">
         <v>3</v>
@@ -36366,7 +36379,7 @@
         <v>30</v>
       </c>
       <c r="H881" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I881">
         <v>3</v>
@@ -36410,7 +36423,7 @@
         <v>35</v>
       </c>
       <c r="H882" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I882">
         <v>10</v>
@@ -36527,7 +36540,7 @@
         <v>5</v>
       </c>
       <c r="H885" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I885">
         <v>2</v>
@@ -36565,7 +36578,7 @@
         <v>10</v>
       </c>
       <c r="H886" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I886">
         <v>2</v>
@@ -36603,7 +36616,7 @@
         <v>15</v>
       </c>
       <c r="H887" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I887">
         <v>3</v>
@@ -36641,7 +36654,7 @@
         <v>20</v>
       </c>
       <c r="H888" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X888">
         <v>70</v>
@@ -36673,7 +36686,7 @@
         <v>25</v>
       </c>
       <c r="H889" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I889">
         <v>1</v>
@@ -36708,7 +36721,7 @@
         <v>30</v>
       </c>
       <c r="H890" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I890">
         <v>1</v>
@@ -36749,7 +36762,7 @@
         <v>35</v>
       </c>
       <c r="H891" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X891">
         <v>10</v>
@@ -36781,7 +36794,7 @@
         <v>40</v>
       </c>
       <c r="H892" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J892">
         <v>2</v>
@@ -36819,7 +36832,7 @@
         <v>45</v>
       </c>
       <c r="H893" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J893">
         <v>1</v>
@@ -36854,7 +36867,7 @@
         <v>50</v>
       </c>
       <c r="H894" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I894">
         <v>5</v>
@@ -36892,7 +36905,7 @@
         <v>55</v>
       </c>
       <c r="H895" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I895">
         <v>1</v>
@@ -36933,7 +36946,7 @@
         <v>60</v>
       </c>
       <c r="H896" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I896">
         <v>1</v>
@@ -36977,7 +36990,7 @@
         <v>65</v>
       </c>
       <c r="H897" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J897">
         <v>5</v>
@@ -37009,7 +37022,7 @@
         <v>70</v>
       </c>
       <c r="H898" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J898">
         <v>10</v>
@@ -37044,7 +37057,7 @@
         <v>75</v>
       </c>
       <c r="H899" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J899">
         <v>60</v>
@@ -37085,7 +37098,7 @@
         <v>80</v>
       </c>
       <c r="H900" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="I900">
         <v>2</v>
@@ -37150,7 +37163,7 @@
         <v>85</v>
       </c>
       <c r="H901" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J901">
         <v>3</v>
@@ -37212,7 +37225,7 @@
         <v>90</v>
       </c>
       <c r="H902" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I902">
         <v>5</v>
@@ -37315,7 +37328,7 @@
         <v>5</v>
       </c>
       <c r="H904" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X904">
         <v>20</v>
@@ -37347,7 +37360,7 @@
         <v>10</v>
       </c>
       <c r="H905" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X905">
         <v>85</v>
@@ -37385,7 +37398,7 @@
         <v>15</v>
       </c>
       <c r="H906" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I906">
         <v>1</v>
@@ -37426,7 +37439,7 @@
         <v>20</v>
       </c>
       <c r="H907" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I907">
         <v>3</v>
@@ -37464,7 +37477,7 @@
         <v>25</v>
       </c>
       <c r="H908" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X908">
         <v>80</v>
@@ -37499,7 +37512,7 @@
         <v>30</v>
       </c>
       <c r="H909" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I909">
         <v>1</v>
@@ -37540,7 +37553,7 @@
         <v>35</v>
       </c>
       <c r="H910" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X910">
         <v>35</v>
@@ -37578,7 +37591,7 @@
         <v>40</v>
       </c>
       <c r="H911" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X911">
         <v>60</v>
@@ -37619,7 +37632,7 @@
         <v>45</v>
       </c>
       <c r="H912" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J912">
         <v>2</v>
@@ -37663,7 +37676,7 @@
         <v>50</v>
       </c>
       <c r="H913" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="X913">
         <v>75</v>
@@ -37704,7 +37717,7 @@
         <v>55</v>
       </c>
       <c r="H914" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I914">
         <v>1</v>
@@ -37745,7 +37758,7 @@
         <v>60</v>
       </c>
       <c r="H915" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="I915">
         <v>2</v>
@@ -37789,7 +37802,7 @@
         <v>65</v>
       </c>
       <c r="H916" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J916">
         <v>20</v>
@@ -37833,7 +37846,7 @@
         <v>70</v>
       </c>
       <c r="H917" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J917">
         <v>20</v>
@@ -37880,7 +37893,7 @@
         <v>75</v>
       </c>
       <c r="H918" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J918">
         <v>30</v>
@@ -37933,7 +37946,7 @@
         <v>80</v>
       </c>
       <c r="H919" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J919">
         <v>15</v>
@@ -37983,7 +37996,7 @@
         <v>85</v>
       </c>
       <c r="H920" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J920">
         <v>30</v>
@@ -38042,7 +38055,7 @@
         <v>0</v>
       </c>
       <c r="H921" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I921">
         <v>10</v>
@@ -38073,6 +38086,18 @@
       <c r="G922">
         <v>5</v>
       </c>
+      <c r="H922" t="s">
+        <v>112</v>
+      </c>
+      <c r="I922">
+        <v>1</v>
+      </c>
+      <c r="X922">
+        <v>20</v>
+      </c>
+      <c r="AN922">
+        <v>1</v>
+      </c>
     </row>
     <row r="923" spans="1:67">
       <c r="A923">
@@ -38096,6 +38121,21 @@
       <c r="G923">
         <v>10</v>
       </c>
+      <c r="H923" t="s">
+        <v>96</v>
+      </c>
+      <c r="I923">
+        <v>2</v>
+      </c>
+      <c r="X923">
+        <v>25</v>
+      </c>
+      <c r="AL923">
+        <v>2</v>
+      </c>
+      <c r="AN923">
+        <v>40</v>
+      </c>
     </row>
     <row r="924" spans="1:67">
       <c r="A924">
@@ -38119,6 +38159,21 @@
       <c r="G924">
         <v>15</v>
       </c>
+      <c r="H924" t="s">
+        <v>112</v>
+      </c>
+      <c r="I924">
+        <v>5</v>
+      </c>
+      <c r="X924">
+        <v>85</v>
+      </c>
+      <c r="AL924">
+        <v>1</v>
+      </c>
+      <c r="AN924">
+        <v>10</v>
+      </c>
     </row>
     <row r="925" spans="1:67">
       <c r="A925">
@@ -38142,6 +38197,24 @@
       <c r="G925">
         <v>20</v>
       </c>
+      <c r="H925" t="s">
+        <v>112</v>
+      </c>
+      <c r="I925">
+        <v>2</v>
+      </c>
+      <c r="X925">
+        <v>45</v>
+      </c>
+      <c r="AL925">
+        <v>1</v>
+      </c>
+      <c r="AM925">
+        <v>1</v>
+      </c>
+      <c r="AN925">
+        <v>4</v>
+      </c>
     </row>
     <row r="926" spans="1:67">
       <c r="A926">
@@ -38165,6 +38238,24 @@
       <c r="G926">
         <v>25</v>
       </c>
+      <c r="H926" t="s">
+        <v>112</v>
+      </c>
+      <c r="I926">
+        <v>6</v>
+      </c>
+      <c r="X926">
+        <v>30</v>
+      </c>
+      <c r="AL926">
+        <v>10</v>
+      </c>
+      <c r="AM926">
+        <v>25</v>
+      </c>
+      <c r="AQ926">
+        <v>1</v>
+      </c>
     </row>
     <row r="927" spans="1:67">
       <c r="A927">
@@ -38188,6 +38279,18 @@
       <c r="G927">
         <v>30</v>
       </c>
+      <c r="H927" t="s">
+        <v>112</v>
+      </c>
+      <c r="I927">
+        <v>1</v>
+      </c>
+      <c r="X927">
+        <v>25</v>
+      </c>
+      <c r="AL927">
+        <v>3</v>
+      </c>
     </row>
     <row r="928" spans="1:67">
       <c r="A928">
@@ -38211,8 +38314,23 @@
       <c r="G928">
         <v>35</v>
       </c>
-    </row>
-    <row r="929" spans="1:7">
+      <c r="H928" t="s">
+        <v>112</v>
+      </c>
+      <c r="I928">
+        <v>10</v>
+      </c>
+      <c r="X928">
+        <v>35</v>
+      </c>
+      <c r="AL928">
+        <v>20</v>
+      </c>
+      <c r="AM928">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="929" spans="1:68">
       <c r="A929">
         <v>2023</v>
       </c>
@@ -38234,8 +38352,32 @@
       <c r="G929">
         <v>40</v>
       </c>
-    </row>
-    <row r="930" spans="1:7">
+      <c r="H929" t="s">
+        <v>112</v>
+      </c>
+      <c r="I929">
+        <v>5</v>
+      </c>
+      <c r="J929">
+        <v>2</v>
+      </c>
+      <c r="X929">
+        <v>50</v>
+      </c>
+      <c r="AL929">
+        <v>15</v>
+      </c>
+      <c r="AM929">
+        <v>1</v>
+      </c>
+      <c r="AX929">
+        <v>10</v>
+      </c>
+      <c r="BJ929">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="930" spans="1:68">
       <c r="A930">
         <v>2023</v>
       </c>
@@ -38257,8 +38399,23 @@
       <c r="G930">
         <v>0</v>
       </c>
-    </row>
-    <row r="931" spans="1:7">
+      <c r="H930" t="s">
+        <v>74</v>
+      </c>
+      <c r="I930">
+        <v>10</v>
+      </c>
+      <c r="X930">
+        <v>2</v>
+      </c>
+      <c r="AL930">
+        <v>5</v>
+      </c>
+      <c r="AM930">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="931" spans="1:68">
       <c r="A931">
         <v>2023</v>
       </c>
@@ -38280,8 +38437,20 @@
       <c r="G931">
         <v>5</v>
       </c>
-    </row>
-    <row r="932" spans="1:7">
+      <c r="H931" t="s">
+        <v>112</v>
+      </c>
+      <c r="X931">
+        <v>75</v>
+      </c>
+      <c r="AL931">
+        <v>2</v>
+      </c>
+      <c r="AN931">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="932" spans="1:68">
       <c r="A932">
         <v>2023</v>
       </c>
@@ -38303,8 +38472,20 @@
       <c r="G932">
         <v>10</v>
       </c>
-    </row>
-    <row r="933" spans="1:7">
+      <c r="H932" t="s">
+        <v>112</v>
+      </c>
+      <c r="X932">
+        <v>60</v>
+      </c>
+      <c r="AL932">
+        <v>10</v>
+      </c>
+      <c r="AN932">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="933" spans="1:68">
       <c r="A933">
         <v>2023</v>
       </c>
@@ -38326,8 +38507,20 @@
       <c r="G933">
         <v>15</v>
       </c>
-    </row>
-    <row r="934" spans="1:7">
+      <c r="H933" t="s">
+        <v>112</v>
+      </c>
+      <c r="X933">
+        <v>50</v>
+      </c>
+      <c r="AL933">
+        <v>2</v>
+      </c>
+      <c r="AN933">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="934" spans="1:68">
       <c r="A934">
         <v>2023</v>
       </c>
@@ -38349,8 +38542,23 @@
       <c r="G934">
         <v>20</v>
       </c>
-    </row>
-    <row r="935" spans="1:7">
+      <c r="H934" t="s">
+        <v>112</v>
+      </c>
+      <c r="I934">
+        <v>2</v>
+      </c>
+      <c r="X934">
+        <v>30</v>
+      </c>
+      <c r="AL934">
+        <v>1</v>
+      </c>
+      <c r="AN934">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="935" spans="1:68">
       <c r="A935">
         <v>2023</v>
       </c>
@@ -38372,8 +38580,20 @@
       <c r="G935">
         <v>25</v>
       </c>
-    </row>
-    <row r="936" spans="1:7">
+      <c r="H935" t="s">
+        <v>112</v>
+      </c>
+      <c r="I935">
+        <v>1</v>
+      </c>
+      <c r="X935">
+        <v>30</v>
+      </c>
+      <c r="AL935">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="936" spans="1:68">
       <c r="A936">
         <v>2023</v>
       </c>
@@ -38395,8 +38615,17 @@
       <c r="G936">
         <v>30</v>
       </c>
-    </row>
-    <row r="937" spans="1:7">
+      <c r="H936" t="s">
+        <v>112</v>
+      </c>
+      <c r="X936">
+        <v>20</v>
+      </c>
+      <c r="AL936">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="937" spans="1:68">
       <c r="A937">
         <v>2023</v>
       </c>
@@ -38418,8 +38647,17 @@
       <c r="G937">
         <v>35</v>
       </c>
-    </row>
-    <row r="938" spans="1:7">
+      <c r="H937" t="s">
+        <v>112</v>
+      </c>
+      <c r="X937">
+        <v>15</v>
+      </c>
+      <c r="AL937">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="938" spans="1:68">
       <c r="A938">
         <v>2023</v>
       </c>
@@ -38441,8 +38679,17 @@
       <c r="G938">
         <v>40</v>
       </c>
-    </row>
-    <row r="939" spans="1:7">
+      <c r="H938" t="s">
+        <v>112</v>
+      </c>
+      <c r="X938">
+        <v>15</v>
+      </c>
+      <c r="AL938">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="939" spans="1:68">
       <c r="A939">
         <v>2023</v>
       </c>
@@ -38464,8 +38711,23 @@
       <c r="G939">
         <v>45</v>
       </c>
-    </row>
-    <row r="940" spans="1:7">
+      <c r="H939" t="s">
+        <v>112</v>
+      </c>
+      <c r="X939">
+        <v>30</v>
+      </c>
+      <c r="AL939">
+        <v>10</v>
+      </c>
+      <c r="AM939">
+        <v>1</v>
+      </c>
+      <c r="AN939">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="940" spans="1:68">
       <c r="A940">
         <v>2023</v>
       </c>
@@ -38487,8 +38749,20 @@
       <c r="G940">
         <v>50</v>
       </c>
-    </row>
-    <row r="941" spans="1:7">
+      <c r="H940" t="s">
+        <v>112</v>
+      </c>
+      <c r="X940">
+        <v>25</v>
+      </c>
+      <c r="AL940">
+        <v>3</v>
+      </c>
+      <c r="BO940">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="941" spans="1:68">
       <c r="A941">
         <v>2023</v>
       </c>
@@ -38510,8 +38784,20 @@
       <c r="G941">
         <v>55</v>
       </c>
-    </row>
-    <row r="942" spans="1:7">
+      <c r="H941" t="s">
+        <v>112</v>
+      </c>
+      <c r="X941">
+        <v>25</v>
+      </c>
+      <c r="AL941">
+        <v>10</v>
+      </c>
+      <c r="AM941">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="942" spans="1:68">
       <c r="A942">
         <v>2023</v>
       </c>
@@ -38533,8 +38819,20 @@
       <c r="G942">
         <v>60</v>
       </c>
-    </row>
-    <row r="943" spans="1:7">
+      <c r="H942" t="s">
+        <v>112</v>
+      </c>
+      <c r="X942">
+        <v>30</v>
+      </c>
+      <c r="AL942">
+        <v>15</v>
+      </c>
+      <c r="AM942">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="943" spans="1:68">
       <c r="A943">
         <v>2023</v>
       </c>
@@ -38556,8 +38854,20 @@
       <c r="G943">
         <v>65</v>
       </c>
-    </row>
-    <row r="944" spans="1:7">
+      <c r="H943" t="s">
+        <v>112</v>
+      </c>
+      <c r="X943">
+        <v>15</v>
+      </c>
+      <c r="AL943">
+        <v>2</v>
+      </c>
+      <c r="BP943">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="944" spans="1:68">
       <c r="A944">
         <v>2023</v>
       </c>
@@ -38579,8 +38889,26 @@
       <c r="G944">
         <v>70</v>
       </c>
-    </row>
-    <row r="945" spans="1:7">
+      <c r="H944" t="s">
+        <v>112</v>
+      </c>
+      <c r="X944">
+        <v>20</v>
+      </c>
+      <c r="AL944">
+        <v>1</v>
+      </c>
+      <c r="AM944">
+        <v>1</v>
+      </c>
+      <c r="AR944">
+        <v>1</v>
+      </c>
+      <c r="BO944">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="945" spans="1:72">
       <c r="A945">
         <v>2023</v>
       </c>
@@ -38602,8 +38930,32 @@
       <c r="G945">
         <v>75</v>
       </c>
-    </row>
-    <row r="946" spans="1:7">
+      <c r="H945" t="s">
+        <v>112</v>
+      </c>
+      <c r="I945">
+        <v>1</v>
+      </c>
+      <c r="J945">
+        <v>20</v>
+      </c>
+      <c r="X945">
+        <v>40</v>
+      </c>
+      <c r="AL945">
+        <v>5</v>
+      </c>
+      <c r="AM945">
+        <v>2</v>
+      </c>
+      <c r="AR945">
+        <v>1</v>
+      </c>
+      <c r="BO945">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="946" spans="1:72">
       <c r="A946">
         <v>2023</v>
       </c>
@@ -38625,8 +38977,38 @@
       <c r="G946">
         <v>80</v>
       </c>
-    </row>
-    <row r="947" spans="1:7">
+      <c r="H946" t="s">
+        <v>112</v>
+      </c>
+      <c r="I946">
+        <v>3</v>
+      </c>
+      <c r="J946">
+        <v>15</v>
+      </c>
+      <c r="X946">
+        <v>70</v>
+      </c>
+      <c r="AL946">
+        <v>1</v>
+      </c>
+      <c r="AM946">
+        <v>1</v>
+      </c>
+      <c r="AQ946">
+        <v>3</v>
+      </c>
+      <c r="AR946">
+        <v>5</v>
+      </c>
+      <c r="AS946">
+        <v>5</v>
+      </c>
+      <c r="BO946">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="947" spans="1:72">
       <c r="A947">
         <v>2023</v>
       </c>
@@ -38648,8 +39030,35 @@
       <c r="G947">
         <v>85</v>
       </c>
-    </row>
-    <row r="948" spans="1:7">
+      <c r="H947" t="s">
+        <v>112</v>
+      </c>
+      <c r="U947">
+        <v>2</v>
+      </c>
+      <c r="X947">
+        <v>60</v>
+      </c>
+      <c r="AL947">
+        <v>20</v>
+      </c>
+      <c r="AM947">
+        <v>2</v>
+      </c>
+      <c r="AP947">
+        <v>1</v>
+      </c>
+      <c r="AR947">
+        <v>10</v>
+      </c>
+      <c r="BC947">
+        <v>2</v>
+      </c>
+      <c r="BF947">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="948" spans="1:72">
       <c r="A948">
         <v>2023</v>
       </c>
@@ -38671,8 +39080,44 @@
       <c r="G948">
         <v>90</v>
       </c>
-    </row>
-    <row r="949" spans="1:7">
+      <c r="H948" t="s">
+        <v>76</v>
+      </c>
+      <c r="I948">
+        <v>20</v>
+      </c>
+      <c r="J948">
+        <v>15</v>
+      </c>
+      <c r="K948">
+        <v>45</v>
+      </c>
+      <c r="X948">
+        <v>30</v>
+      </c>
+      <c r="AL948">
+        <v>60</v>
+      </c>
+      <c r="AM948">
+        <v>35</v>
+      </c>
+      <c r="AN948">
+        <v>1</v>
+      </c>
+      <c r="AQ948">
+        <v>3</v>
+      </c>
+      <c r="AR948">
+        <v>3</v>
+      </c>
+      <c r="AS948">
+        <v>1</v>
+      </c>
+      <c r="BC948">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="949" spans="1:72">
       <c r="A949">
         <v>2023</v>
       </c>
@@ -38694,8 +39139,17 @@
       <c r="G949">
         <v>0</v>
       </c>
-    </row>
-    <row r="950" spans="1:7">
+      <c r="I949">
+        <v>5</v>
+      </c>
+      <c r="AL949">
+        <v>5</v>
+      </c>
+      <c r="AV949">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="950" spans="1:72">
       <c r="A950">
         <v>2023</v>
       </c>
@@ -38717,8 +39171,17 @@
       <c r="G950">
         <v>5</v>
       </c>
-    </row>
-    <row r="951" spans="1:7">
+      <c r="H950" t="s">
+        <v>112</v>
+      </c>
+      <c r="X950">
+        <v>25</v>
+      </c>
+      <c r="AL950">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="951" spans="1:72">
       <c r="A951">
         <v>2023</v>
       </c>
@@ -38740,8 +39203,23 @@
       <c r="G951">
         <v>10</v>
       </c>
-    </row>
-    <row r="952" spans="1:7">
+      <c r="H951" t="s">
+        <v>112</v>
+      </c>
+      <c r="X951">
+        <v>80</v>
+      </c>
+      <c r="AL951">
+        <v>1</v>
+      </c>
+      <c r="AN951">
+        <v>3</v>
+      </c>
+      <c r="AV951">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="952" spans="1:72">
       <c r="A952">
         <v>2023</v>
       </c>
@@ -38763,8 +39241,23 @@
       <c r="G952">
         <v>15</v>
       </c>
-    </row>
-    <row r="953" spans="1:7">
+      <c r="H952" t="s">
+        <v>112</v>
+      </c>
+      <c r="I952">
+        <v>1</v>
+      </c>
+      <c r="X952">
+        <v>70</v>
+      </c>
+      <c r="AL952">
+        <v>2</v>
+      </c>
+      <c r="AN952">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="953" spans="1:72">
       <c r="A953">
         <v>2023</v>
       </c>
@@ -38786,8 +39279,23 @@
       <c r="G953">
         <v>20</v>
       </c>
-    </row>
-    <row r="954" spans="1:7">
+      <c r="H953" t="s">
+        <v>112</v>
+      </c>
+      <c r="I953">
+        <v>10</v>
+      </c>
+      <c r="X953">
+        <v>70</v>
+      </c>
+      <c r="AL953">
+        <v>10</v>
+      </c>
+      <c r="AN953">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="954" spans="1:72">
       <c r="A954">
         <v>2023</v>
       </c>
@@ -38809,8 +39317,23 @@
       <c r="G954">
         <v>25</v>
       </c>
-    </row>
-    <row r="955" spans="1:7">
+      <c r="H954" t="s">
+        <v>112</v>
+      </c>
+      <c r="X954">
+        <v>40</v>
+      </c>
+      <c r="AL954">
+        <v>1</v>
+      </c>
+      <c r="AN954">
+        <v>1</v>
+      </c>
+      <c r="AV954">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="955" spans="1:72">
       <c r="A955">
         <v>2023</v>
       </c>
@@ -38832,8 +39355,20 @@
       <c r="G955">
         <v>30</v>
       </c>
-    </row>
-    <row r="956" spans="1:7">
+      <c r="H955" t="s">
+        <v>112</v>
+      </c>
+      <c r="I955">
+        <v>2</v>
+      </c>
+      <c r="X955">
+        <v>20</v>
+      </c>
+      <c r="AL955">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="956" spans="1:72">
       <c r="A956">
         <v>2023</v>
       </c>
@@ -38855,8 +39390,17 @@
       <c r="G956">
         <v>35</v>
       </c>
-    </row>
-    <row r="957" spans="1:7">
+      <c r="H956" t="s">
+        <v>112</v>
+      </c>
+      <c r="X956">
+        <v>15</v>
+      </c>
+      <c r="AV956">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="957" spans="1:72">
       <c r="A957">
         <v>2023</v>
       </c>
@@ -38878,8 +39422,20 @@
       <c r="G957">
         <v>40</v>
       </c>
-    </row>
-    <row r="958" spans="1:7">
+      <c r="H957" t="s">
+        <v>112</v>
+      </c>
+      <c r="J957">
+        <v>1</v>
+      </c>
+      <c r="X957">
+        <v>20</v>
+      </c>
+      <c r="AV957">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="958" spans="1:72">
       <c r="A958">
         <v>2023</v>
       </c>
@@ -38901,8 +39457,23 @@
       <c r="G958">
         <v>45</v>
       </c>
-    </row>
-    <row r="959" spans="1:7">
+      <c r="H958" t="s">
+        <v>112</v>
+      </c>
+      <c r="X958">
+        <v>25</v>
+      </c>
+      <c r="AL958">
+        <v>5</v>
+      </c>
+      <c r="AV958">
+        <v>2</v>
+      </c>
+      <c r="BT958">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="959" spans="1:72">
       <c r="A959">
         <v>2023</v>
       </c>
@@ -38924,8 +39495,29 @@
       <c r="G959">
         <v>50</v>
       </c>
-    </row>
-    <row r="960" spans="1:7">
+      <c r="H959" t="s">
+        <v>112</v>
+      </c>
+      <c r="J959">
+        <v>1</v>
+      </c>
+      <c r="X959">
+        <v>15</v>
+      </c>
+      <c r="AL959">
+        <v>3</v>
+      </c>
+      <c r="AV959">
+        <v>2</v>
+      </c>
+      <c r="BC959">
+        <v>1</v>
+      </c>
+      <c r="BO959">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="960" spans="1:72">
       <c r="A960">
         <v>2023</v>
       </c>
@@ -38947,8 +39539,26 @@
       <c r="G960">
         <v>55</v>
       </c>
-    </row>
-    <row r="961" spans="1:7">
+      <c r="H960" t="s">
+        <v>112</v>
+      </c>
+      <c r="J960">
+        <v>2</v>
+      </c>
+      <c r="X960">
+        <v>10</v>
+      </c>
+      <c r="AL960">
+        <v>1</v>
+      </c>
+      <c r="AM960">
+        <v>1</v>
+      </c>
+      <c r="AV960">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="961" spans="1:73">
       <c r="A961">
         <v>2023</v>
       </c>
@@ -38970,8 +39580,26 @@
       <c r="G961">
         <v>60</v>
       </c>
-    </row>
-    <row r="962" spans="1:7">
+      <c r="H961" t="s">
+        <v>112</v>
+      </c>
+      <c r="J961">
+        <v>3</v>
+      </c>
+      <c r="X961">
+        <v>35</v>
+      </c>
+      <c r="AL961">
+        <v>3</v>
+      </c>
+      <c r="AV961">
+        <v>2</v>
+      </c>
+      <c r="BO961">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="962" spans="1:73">
       <c r="A962">
         <v>2023</v>
       </c>
@@ -38993,8 +39621,26 @@
       <c r="G962">
         <v>65</v>
       </c>
-    </row>
-    <row r="963" spans="1:7">
+      <c r="H962" t="s">
+        <v>112</v>
+      </c>
+      <c r="J962">
+        <v>6</v>
+      </c>
+      <c r="X962">
+        <v>45</v>
+      </c>
+      <c r="AL962">
+        <v>1</v>
+      </c>
+      <c r="BO962">
+        <v>5</v>
+      </c>
+      <c r="BP962">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="963" spans="1:73">
       <c r="A963">
         <v>2023</v>
       </c>
@@ -39016,8 +39662,35 @@
       <c r="G963">
         <v>70</v>
       </c>
-    </row>
-    <row r="964" spans="1:7">
+      <c r="H963" t="s">
+        <v>112</v>
+      </c>
+      <c r="J963">
+        <v>2</v>
+      </c>
+      <c r="U963">
+        <v>1</v>
+      </c>
+      <c r="X963">
+        <v>50</v>
+      </c>
+      <c r="AL963">
+        <v>3</v>
+      </c>
+      <c r="AQ963">
+        <v>8</v>
+      </c>
+      <c r="AS963">
+        <v>1</v>
+      </c>
+      <c r="BO963">
+        <v>4</v>
+      </c>
+      <c r="BP963">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="964" spans="1:73">
       <c r="A964">
         <v>2023</v>
       </c>
@@ -39039,8 +39712,38 @@
       <c r="G964">
         <v>75</v>
       </c>
-    </row>
-    <row r="965" spans="1:7">
+      <c r="H964" t="s">
+        <v>112</v>
+      </c>
+      <c r="I964">
+        <v>1</v>
+      </c>
+      <c r="J964">
+        <v>10</v>
+      </c>
+      <c r="X964">
+        <v>90</v>
+      </c>
+      <c r="AL964">
+        <v>5</v>
+      </c>
+      <c r="AR964">
+        <v>5</v>
+      </c>
+      <c r="AV964">
+        <v>2</v>
+      </c>
+      <c r="BO964">
+        <v>3</v>
+      </c>
+      <c r="BP964">
+        <v>2</v>
+      </c>
+      <c r="BU964">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="965" spans="1:73">
       <c r="A965">
         <v>2023</v>
       </c>
@@ -39062,8 +39765,35 @@
       <c r="G965">
         <v>80</v>
       </c>
-    </row>
-    <row r="966" spans="1:7">
+      <c r="H965" t="s">
+        <v>95</v>
+      </c>
+      <c r="J965">
+        <v>30</v>
+      </c>
+      <c r="U965">
+        <v>1</v>
+      </c>
+      <c r="X965">
+        <v>20</v>
+      </c>
+      <c r="AL965">
+        <v>2</v>
+      </c>
+      <c r="AQ965">
+        <v>2</v>
+      </c>
+      <c r="AR965">
+        <v>5</v>
+      </c>
+      <c r="AV965">
+        <v>2</v>
+      </c>
+      <c r="BO965">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="966" spans="1:73">
       <c r="A966">
         <v>2023</v>
       </c>
@@ -39084,6 +39814,39 @@
       </c>
       <c r="G966">
         <v>85</v>
+      </c>
+      <c r="H966" t="s">
+        <v>95</v>
+      </c>
+      <c r="J966">
+        <v>80</v>
+      </c>
+      <c r="L966">
+        <v>15</v>
+      </c>
+      <c r="U966">
+        <v>60</v>
+      </c>
+      <c r="X966">
+        <v>30</v>
+      </c>
+      <c r="AQ966">
+        <v>10</v>
+      </c>
+      <c r="AR966">
+        <v>10</v>
+      </c>
+      <c r="AS966">
+        <v>3</v>
+      </c>
+      <c r="BD966">
+        <v>2</v>
+      </c>
+      <c r="BO966">
+        <v>8</v>
+      </c>
+      <c r="BU966">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3731" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD8E5F2-EB7C-4C45-B714-13FA8F736B19}"/>
+  <xr:revisionPtr revIDLastSave="3888" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{163E2BBB-A906-4A5B-B523-3EA53C995653}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -523,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -721,6 +721,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -882,12 +888,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="36" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1243,11 +1251,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW966"/>
+  <dimension ref="A1:BW988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BI13" sqref="BI13"/>
+    <sheetView tabSelected="1" topLeftCell="AR1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A971" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BQ989" sqref="BQ989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,34 +1268,35 @@
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
     <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="5.88671875" customWidth="1"/>
-    <col min="10" max="10" width="4.5546875" customWidth="1"/>
-    <col min="11" max="11" width="4.88671875" customWidth="1"/>
-    <col min="12" max="12" width="5.33203125" customWidth="1"/>
-    <col min="13" max="14" width="9.109375" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="16" max="16" width="15.33203125" customWidth="1"/>
-    <col min="17" max="17" width="13.33203125" customWidth="1"/>
-    <col min="18" max="20" width="9.109375" customWidth="1"/>
+    <col min="9" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
     <col min="21" max="21" width="4.5546875" customWidth="1"/>
     <col min="22" max="22" width="5.6640625" customWidth="1"/>
     <col min="23" max="23" width="24.6640625" customWidth="1"/>
     <col min="24" max="24" width="10.109375" customWidth="1"/>
-    <col min="25" max="26" width="8.88671875" customWidth="1"/>
-    <col min="27" max="27" width="7.6640625" customWidth="1"/>
-    <col min="28" max="28" width="10.44140625" customWidth="1"/>
-    <col min="29" max="29" width="10.33203125" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" customWidth="1"/>
-    <col min="31" max="31" width="11.5546875" customWidth="1"/>
-    <col min="32" max="32" width="13.6640625" customWidth="1"/>
-    <col min="33" max="34" width="10.109375" customWidth="1"/>
-    <col min="35" max="35" width="13.5546875" customWidth="1"/>
-    <col min="36" max="36" width="14.33203125" customWidth="1"/>
-    <col min="37" max="37" width="11.33203125" customWidth="1"/>
-    <col min="38" max="38" width="6.109375" customWidth="1"/>
-    <col min="39" max="39" width="5.88671875" customWidth="1"/>
-    <col min="40" max="40" width="5.109375" customWidth="1"/>
-    <col min="41" max="41" width="5.33203125" customWidth="1"/>
+    <col min="25" max="26" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5546875" hidden="1" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="10.109375" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="13.5546875" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="15.21875" customWidth="1"/>
+    <col min="39" max="39" width="15" customWidth="1"/>
+    <col min="40" max="40" width="10.77734375" customWidth="1"/>
+    <col min="41" max="41" width="11.77734375" customWidth="1"/>
     <col min="42" max="42" width="5.44140625" customWidth="1"/>
     <col min="43" max="43" width="6.44140625" customWidth="1"/>
     <col min="44" max="44" width="4.33203125" customWidth="1"/>
@@ -39852,6 +39861,788 @@
         <v>1</v>
       </c>
     </row>
+    <row r="967" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A967">
+        <v>2023</v>
+      </c>
+      <c r="B967">
+        <v>9</v>
+      </c>
+      <c r="C967">
+        <v>1</v>
+      </c>
+      <c r="D967" s="3">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="E967">
+        <v>0.9</v>
+      </c>
+      <c r="F967">
+        <v>2</v>
+      </c>
+      <c r="G967">
+        <v>0</v>
+      </c>
+      <c r="I967">
+        <v>5</v>
+      </c>
+      <c r="AL967">
+        <v>5</v>
+      </c>
+      <c r="AM967">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="968" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A968">
+        <v>2023</v>
+      </c>
+      <c r="B968">
+        <v>9</v>
+      </c>
+      <c r="C968">
+        <v>1</v>
+      </c>
+      <c r="D968" s="3">
+        <v>0.55763888888888891</v>
+      </c>
+      <c r="E968">
+        <v>0.9</v>
+      </c>
+      <c r="F968">
+        <v>2</v>
+      </c>
+      <c r="G968">
+        <v>5</v>
+      </c>
+      <c r="X968">
+        <v>25</v>
+      </c>
+      <c r="AL968">
+        <v>1</v>
+      </c>
+      <c r="AN968">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="969" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A969">
+        <v>2023</v>
+      </c>
+      <c r="B969">
+        <v>9</v>
+      </c>
+      <c r="C969">
+        <v>1</v>
+      </c>
+      <c r="D969" s="3">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E969">
+        <v>0.9</v>
+      </c>
+      <c r="F969">
+        <v>2</v>
+      </c>
+      <c r="G969">
+        <v>10</v>
+      </c>
+      <c r="I969">
+        <v>10</v>
+      </c>
+      <c r="X969">
+        <v>80</v>
+      </c>
+      <c r="AL969">
+        <v>3</v>
+      </c>
+      <c r="AN969">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="970" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A970">
+        <v>2023</v>
+      </c>
+      <c r="B970">
+        <v>9</v>
+      </c>
+      <c r="C970">
+        <v>1</v>
+      </c>
+      <c r="D970" s="3">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E970">
+        <v>0.9</v>
+      </c>
+      <c r="F970">
+        <v>2</v>
+      </c>
+      <c r="G970">
+        <v>15</v>
+      </c>
+      <c r="I970">
+        <v>2</v>
+      </c>
+      <c r="X970">
+        <v>60</v>
+      </c>
+      <c r="AL970">
+        <v>1</v>
+      </c>
+      <c r="AM970">
+        <v>3</v>
+      </c>
+      <c r="AN970">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="971" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A971">
+        <v>2023</v>
+      </c>
+      <c r="B971">
+        <v>9</v>
+      </c>
+      <c r="C971">
+        <v>1</v>
+      </c>
+      <c r="D971" s="3">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E971">
+        <v>0.9</v>
+      </c>
+      <c r="F971">
+        <v>2</v>
+      </c>
+      <c r="G971">
+        <v>20</v>
+      </c>
+      <c r="I971">
+        <v>2</v>
+      </c>
+      <c r="X971">
+        <v>20</v>
+      </c>
+      <c r="AL971">
+        <v>10</v>
+      </c>
+      <c r="AM971">
+        <v>1</v>
+      </c>
+      <c r="AN971">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="972" spans="1:73" x14ac:dyDescent="0.3">
+      <c r="A972">
+        <v>2023</v>
+      </c>
+      <c r="B972">
+        <v>9</v>
+      </c>
+      <c r="C972">
+        <v>1</v>
+      </c>
+      <c r="D972" s="3">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E972">
+        <v>0.9</v>
+      </c>
+      <c r="F972">
+        <v>2</v>
+      </c>
+      <c r="G972">
+        <v>25</v>
+      </c>
+      <c r="I972">
+        <v>5</v>
+      </c>
+      <c r="X972">
+        <v>20</v>
+      </c>
+      <c r="AL972">
+        <v>10</v>
+      </c>
+      <c r="AM972">
+        <v>10</v>
+      </c>
+      <c r="AN972">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="973" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A973" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B973" s="5">
+        <v>9</v>
+      </c>
+      <c r="C973" s="5">
+        <v>1</v>
+      </c>
+      <c r="D973" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E973" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F973" s="5">
+        <v>3</v>
+      </c>
+      <c r="G973" s="5">
+        <v>0</v>
+      </c>
+      <c r="I973" s="5">
+        <v>5</v>
+      </c>
+      <c r="X973" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL973" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM973" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="974" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A974" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B974" s="5">
+        <v>9</v>
+      </c>
+      <c r="C974" s="5">
+        <v>1</v>
+      </c>
+      <c r="D974" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E974" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F974" s="5">
+        <v>3</v>
+      </c>
+      <c r="G974" s="5">
+        <v>5</v>
+      </c>
+      <c r="X974" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL974" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN974" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="975" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A975" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B975" s="5">
+        <v>9</v>
+      </c>
+      <c r="C975" s="5">
+        <v>1</v>
+      </c>
+      <c r="D975" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E975" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F975" s="5">
+        <v>3</v>
+      </c>
+      <c r="G975" s="5">
+        <v>10</v>
+      </c>
+      <c r="I975" s="5">
+        <v>2</v>
+      </c>
+      <c r="X975" s="5">
+        <v>30</v>
+      </c>
+      <c r="AL975" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM975" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN975" s="5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="976" spans="1:73" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A976" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B976" s="5">
+        <v>9</v>
+      </c>
+      <c r="C976" s="5">
+        <v>1</v>
+      </c>
+      <c r="D976" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E976" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F976" s="5">
+        <v>3</v>
+      </c>
+      <c r="G976" s="5">
+        <v>15</v>
+      </c>
+      <c r="I976" s="5">
+        <v>2</v>
+      </c>
+      <c r="X976" s="5">
+        <v>30</v>
+      </c>
+      <c r="AL976" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM976" s="5">
+        <v>5</v>
+      </c>
+      <c r="AN976" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="977" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A977" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B977" s="5">
+        <v>9</v>
+      </c>
+      <c r="C977" s="5">
+        <v>1</v>
+      </c>
+      <c r="D977" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E977" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F977" s="5">
+        <v>3</v>
+      </c>
+      <c r="G977" s="5">
+        <v>20</v>
+      </c>
+      <c r="I977" s="5">
+        <v>1</v>
+      </c>
+      <c r="T977" s="5">
+        <v>1</v>
+      </c>
+      <c r="X977" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL977" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN977" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="978" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A978" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B978" s="5">
+        <v>9</v>
+      </c>
+      <c r="C978" s="5">
+        <v>1</v>
+      </c>
+      <c r="D978" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E978" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F978" s="5">
+        <v>3</v>
+      </c>
+      <c r="G978" s="5">
+        <v>25</v>
+      </c>
+      <c r="I978" s="5">
+        <v>5</v>
+      </c>
+      <c r="X978" s="5">
+        <v>15</v>
+      </c>
+      <c r="AL978" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN978" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV978" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="979" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A979" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B979" s="5">
+        <v>9</v>
+      </c>
+      <c r="C979" s="5">
+        <v>1</v>
+      </c>
+      <c r="D979" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E979" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F979" s="5">
+        <v>3</v>
+      </c>
+      <c r="G979" s="5">
+        <v>30</v>
+      </c>
+      <c r="X979" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL979" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="980" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A980" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B980" s="5">
+        <v>9</v>
+      </c>
+      <c r="C980" s="5">
+        <v>1</v>
+      </c>
+      <c r="D980" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E980" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F980" s="5">
+        <v>3</v>
+      </c>
+      <c r="G980" s="5">
+        <v>35</v>
+      </c>
+      <c r="I980" s="5">
+        <v>5</v>
+      </c>
+      <c r="X980" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL980" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN980" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="981" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A981" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B981" s="5">
+        <v>9</v>
+      </c>
+      <c r="C981" s="5">
+        <v>1</v>
+      </c>
+      <c r="D981" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E981" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F981" s="5">
+        <v>3</v>
+      </c>
+      <c r="G981" s="5">
+        <v>40</v>
+      </c>
+      <c r="I981" s="5">
+        <v>1</v>
+      </c>
+      <c r="X981" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL981" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN981" s="5">
+        <v>1</v>
+      </c>
+      <c r="AV981" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="982" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A982" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B982" s="5">
+        <v>9</v>
+      </c>
+      <c r="C982" s="5">
+        <v>1</v>
+      </c>
+      <c r="D982" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E982" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F982" s="5">
+        <v>4</v>
+      </c>
+      <c r="G982" s="5">
+        <v>0</v>
+      </c>
+      <c r="I982" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL982" s="5">
+        <v>3</v>
+      </c>
+      <c r="AM982" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="983" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A983" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B983" s="5">
+        <v>9</v>
+      </c>
+      <c r="C983" s="5">
+        <v>1</v>
+      </c>
+      <c r="D983" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E983" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F983" s="5">
+        <v>4</v>
+      </c>
+      <c r="G983" s="5">
+        <v>5</v>
+      </c>
+      <c r="X983" s="5">
+        <v>10</v>
+      </c>
+      <c r="AL983" s="5">
+        <v>2</v>
+      </c>
+      <c r="AN983" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="984" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A984" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B984" s="5">
+        <v>9</v>
+      </c>
+      <c r="C984" s="5">
+        <v>1</v>
+      </c>
+      <c r="D984" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E984" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F984" s="5">
+        <v>4</v>
+      </c>
+      <c r="G984" s="5">
+        <v>10</v>
+      </c>
+      <c r="X984" s="5">
+        <v>20</v>
+      </c>
+      <c r="AL984" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM984" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN984" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="985" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A985" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B985" s="5">
+        <v>9</v>
+      </c>
+      <c r="C985" s="5">
+        <v>1</v>
+      </c>
+      <c r="D985" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E985" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F985" s="5">
+        <v>4</v>
+      </c>
+      <c r="G985" s="5">
+        <v>15</v>
+      </c>
+      <c r="I985" s="5">
+        <v>1</v>
+      </c>
+      <c r="X985" s="5">
+        <v>30</v>
+      </c>
+      <c r="AL985" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM985" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN985" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="986" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A986" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B986" s="5">
+        <v>9</v>
+      </c>
+      <c r="C986" s="5">
+        <v>1</v>
+      </c>
+      <c r="D986" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E986" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F986" s="5">
+        <v>4</v>
+      </c>
+      <c r="G986" s="5">
+        <v>20</v>
+      </c>
+      <c r="I986" s="5">
+        <v>1</v>
+      </c>
+      <c r="X986" s="5">
+        <v>30</v>
+      </c>
+      <c r="AL986" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN986" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="987" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A987" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B987" s="5">
+        <v>9</v>
+      </c>
+      <c r="C987" s="5">
+        <v>1</v>
+      </c>
+      <c r="D987" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E987" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F987" s="5">
+        <v>4</v>
+      </c>
+      <c r="G987" s="5">
+        <v>25</v>
+      </c>
+      <c r="I987" s="5">
+        <v>1</v>
+      </c>
+      <c r="X987" s="5">
+        <v>30</v>
+      </c>
+      <c r="AL987" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM987" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN987" s="5">
+        <v>1</v>
+      </c>
+      <c r="AO987" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="988" spans="1:69" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A988" s="5">
+        <v>2023</v>
+      </c>
+      <c r="B988" s="5">
+        <v>9</v>
+      </c>
+      <c r="C988" s="5">
+        <v>1</v>
+      </c>
+      <c r="D988" s="6">
+        <v>0.55763888888888902</v>
+      </c>
+      <c r="E988" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="F988" s="5">
+        <v>4</v>
+      </c>
+      <c r="G988" s="5">
+        <v>30</v>
+      </c>
+      <c r="I988" s="5">
+        <v>1</v>
+      </c>
+      <c r="X988" s="5">
+        <v>40</v>
+      </c>
+      <c r="AL988" s="5">
+        <v>2</v>
+      </c>
+      <c r="BQ988" s="5">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:BW966" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A25:BW958">

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4251" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AE47436A-DDCD-41C9-AC9B-657F29ADDD8E}"/>
+  <xr:revisionPtr revIDLastSave="4252" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1596900-1083-43C3-B55D-8288FC497DD8}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -390,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1248,82 +1248,82 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="AB1025" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AU1045" sqref="AU1045"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BW1" sqref="BW1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.42578125" customWidth="1"/>
-    <col min="2" max="2" width="4.7109375" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.44140625" customWidth="1"/>
+    <col min="2" max="2" width="4.6640625" customWidth="1"/>
+    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="11.109375" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="11" hidden="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="15.28515625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="13.28515625" hidden="1" customWidth="1"/>
-    <col min="18" max="19" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="4.5703125" customWidth="1"/>
-    <col min="22" max="22" width="5.7109375" customWidth="1"/>
-    <col min="23" max="23" width="24.7109375" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="10.140625" customWidth="1"/>
-    <col min="25" max="26" width="8.85546875" customWidth="1"/>
-    <col min="27" max="27" width="7.7109375" customWidth="1"/>
-    <col min="28" max="28" width="10.42578125" customWidth="1"/>
-    <col min="29" max="29" width="10.28515625" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" customWidth="1"/>
-    <col min="31" max="31" width="11.5703125" customWidth="1"/>
-    <col min="32" max="32" width="13.7109375" customWidth="1"/>
-    <col min="33" max="34" width="10.140625" customWidth="1"/>
-    <col min="35" max="35" width="13.5703125" customWidth="1"/>
-    <col min="36" max="36" width="14.28515625" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" customWidth="1"/>
-    <col min="38" max="38" width="15.28515625" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="15.33203125" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="13.33203125" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9.109375" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.109375" customWidth="1"/>
+    <col min="21" max="21" width="4.5546875" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" customWidth="1"/>
+    <col min="23" max="23" width="24.6640625" customWidth="1"/>
+    <col min="24" max="24" width="10.109375" customWidth="1"/>
+    <col min="25" max="26" width="8.88671875" customWidth="1"/>
+    <col min="27" max="27" width="7.6640625" customWidth="1"/>
+    <col min="28" max="28" width="10.44140625" customWidth="1"/>
+    <col min="29" max="29" width="10.33203125" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" customWidth="1"/>
+    <col min="31" max="31" width="11.5546875" customWidth="1"/>
+    <col min="32" max="32" width="13.6640625" customWidth="1"/>
+    <col min="33" max="34" width="10.109375" customWidth="1"/>
+    <col min="35" max="35" width="13.5546875" customWidth="1"/>
+    <col min="36" max="36" width="14.33203125" customWidth="1"/>
+    <col min="37" max="37" width="11.33203125" customWidth="1"/>
+    <col min="38" max="38" width="15.33203125" customWidth="1"/>
     <col min="39" max="39" width="15" customWidth="1"/>
-    <col min="40" max="40" width="10.7109375" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" customWidth="1"/>
-    <col min="42" max="42" width="5.42578125" customWidth="1"/>
-    <col min="43" max="43" width="6.42578125" customWidth="1"/>
-    <col min="44" max="44" width="4.28515625" customWidth="1"/>
-    <col min="47" max="47" width="6.85546875" customWidth="1"/>
-    <col min="48" max="48" width="5.5703125" customWidth="1"/>
-    <col min="49" max="49" width="7.85546875" customWidth="1"/>
-    <col min="50" max="50" width="6.85546875" customWidth="1"/>
-    <col min="51" max="51" width="14.42578125" customWidth="1"/>
-    <col min="52" max="52" width="18.7109375" customWidth="1"/>
-    <col min="53" max="53" width="6.140625" customWidth="1"/>
-    <col min="54" max="54" width="7.5703125" customWidth="1"/>
+    <col min="40" max="40" width="10.6640625" customWidth="1"/>
+    <col min="41" max="41" width="11.6640625" customWidth="1"/>
+    <col min="42" max="42" width="5.44140625" customWidth="1"/>
+    <col min="43" max="43" width="6.44140625" customWidth="1"/>
+    <col min="44" max="44" width="4.33203125" customWidth="1"/>
+    <col min="47" max="47" width="6.88671875" customWidth="1"/>
+    <col min="48" max="48" width="5.5546875" customWidth="1"/>
+    <col min="49" max="49" width="7.88671875" customWidth="1"/>
+    <col min="50" max="50" width="6.88671875" customWidth="1"/>
+    <col min="51" max="51" width="14.44140625" customWidth="1"/>
+    <col min="52" max="52" width="18.6640625" customWidth="1"/>
+    <col min="53" max="53" width="6.109375" customWidth="1"/>
+    <col min="54" max="54" width="7.5546875" customWidth="1"/>
     <col min="55" max="55" width="7" customWidth="1"/>
-    <col min="56" max="56" width="6.42578125" customWidth="1"/>
+    <col min="56" max="56" width="6.44140625" customWidth="1"/>
     <col min="57" max="57" width="6" customWidth="1"/>
-    <col min="58" max="58" width="6.28515625" customWidth="1"/>
-    <col min="59" max="59" width="6.140625" customWidth="1"/>
-    <col min="60" max="60" width="6.7109375" customWidth="1"/>
-    <col min="61" max="61" width="6.28515625" customWidth="1"/>
-    <col min="62" max="62" width="5.5703125" customWidth="1"/>
-    <col min="63" max="63" width="6.28515625" customWidth="1"/>
-    <col min="64" max="64" width="6.7109375" customWidth="1"/>
-    <col min="65" max="65" width="5.85546875" customWidth="1"/>
+    <col min="58" max="58" width="6.33203125" customWidth="1"/>
+    <col min="59" max="59" width="6.109375" customWidth="1"/>
+    <col min="60" max="60" width="6.6640625" customWidth="1"/>
+    <col min="61" max="61" width="6.33203125" customWidth="1"/>
+    <col min="62" max="62" width="5.5546875" customWidth="1"/>
+    <col min="63" max="63" width="6.33203125" customWidth="1"/>
+    <col min="64" max="64" width="6.6640625" customWidth="1"/>
+    <col min="65" max="65" width="5.88671875" customWidth="1"/>
     <col min="66" max="66" width="7" customWidth="1"/>
-    <col min="67" max="67" width="6.5703125" customWidth="1"/>
-    <col min="68" max="68" width="6.140625" customWidth="1"/>
-    <col min="69" max="69" width="4.42578125" customWidth="1"/>
-    <col min="70" max="70" width="4.140625" customWidth="1"/>
-    <col min="71" max="73" width="5.85546875" customWidth="1"/>
+    <col min="67" max="67" width="6.5546875" customWidth="1"/>
+    <col min="68" max="68" width="6.109375" customWidth="1"/>
+    <col min="69" max="69" width="4.44140625" customWidth="1"/>
+    <col min="70" max="70" width="4.109375" customWidth="1"/>
+    <col min="71" max="73" width="5.88671875" customWidth="1"/>
     <col min="74" max="75" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:75">
+    <row r="1" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="BW1" s="1"/>
     </row>
-    <row r="2" spans="1:75">
+    <row r="2" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1583,7 +1583,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:75">
+    <row r="3" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:75">
+    <row r="4" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:75">
+    <row r="5" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:75">
+    <row r="6" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:75">
+    <row r="7" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:75">
+    <row r="8" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:75">
+    <row r="9" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:75">
+    <row r="10" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1836,7 +1836,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:75">
+    <row r="11" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:75">
+    <row r="12" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -1903,7 +1903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:75">
+    <row r="13" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:75">
+    <row r="14" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:75">
+    <row r="15" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:75">
+    <row r="16" spans="1:75" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -2043,7 +2043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:38">
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2021</v>
       </c>
@@ -2075,7 +2075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:38">
+    <row r="18" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2021</v>
       </c>
@@ -2110,7 +2110,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:38">
+    <row r="19" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2021</v>
       </c>
@@ -2142,7 +2142,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:38">
+    <row r="20" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -2177,7 +2177,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:38">
+    <row r="21" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>2021</v>
       </c>
@@ -2209,7 +2209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:38">
+    <row r="22" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -2241,7 +2241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:38">
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2021</v>
       </c>
@@ -2270,7 +2270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:38">
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:38">
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2021</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:38">
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2021</v>
       </c>
@@ -2366,7 +2366,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:38">
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2021</v>
       </c>
@@ -2398,7 +2398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:38">
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2021</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:38">
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2021</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:38">
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2021</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:38">
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2021</v>
       </c>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:38">
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>2021</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:38">
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2021</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:38">
+    <row r="34" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2021</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:38">
+    <row r="35" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2021</v>
       </c>
@@ -2666,7 +2666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:38">
+    <row r="36" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>2021</v>
       </c>
@@ -2701,7 +2701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:38">
+    <row r="37" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>2021</v>
       </c>
@@ -2736,7 +2736,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:38">
+    <row r="38" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2021</v>
       </c>
@@ -2771,7 +2771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:38">
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2021</v>
       </c>
@@ -2806,7 +2806,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:38">
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2021</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="41" spans="1:38">
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2021</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:38">
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2021</v>
       </c>
@@ -2905,7 +2905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:38">
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2021</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:38">
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>2021</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="45" spans="1:38">
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2021</v>
       </c>
@@ -3004,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:38">
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:38">
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:38">
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>2021</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:38">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:38">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>2021</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:38">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2021</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:38">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2021</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:38">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2021</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:38">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>2021</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:38">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2021</v>
       </c>
@@ -3339,7 +3339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:38">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2021</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2021</v>
       </c>
@@ -3403,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:38">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>2021</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:38">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2021</v>
       </c>
@@ -3473,7 +3473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:38">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2021</v>
       </c>
@@ -3508,7 +3508,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:38">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>2021</v>
       </c>
@@ -3543,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:38">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>2021</v>
       </c>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>2021</v>
       </c>
@@ -3604,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>2021</v>
       </c>
@@ -3642,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:38">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>2021</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="66" spans="1:38">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2021</v>
       </c>
@@ -3712,7 +3712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="67" spans="1:38">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2021</v>
       </c>
@@ -3747,7 +3747,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68" spans="1:38">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>2021</v>
       </c>
@@ -3782,7 +3782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:38">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2021</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:38">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2021</v>
       </c>
@@ -3849,7 +3849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:38">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2021</v>
       </c>
@@ -3878,7 +3878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:38">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>2021</v>
       </c>
@@ -3910,7 +3910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:38">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>2021</v>
       </c>
@@ -3945,7 +3945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:38">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:38">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>2021</v>
       </c>
@@ -4009,7 +4009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:38">
+    <row r="76" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2021</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:38">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>2021</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:38">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>2021</v>
       </c>
@@ -4111,7 +4111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:38">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>2021</v>
       </c>
@@ -4143,7 +4143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:38">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>2021</v>
       </c>
@@ -4178,7 +4178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:42">
+    <row r="81" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>2021</v>
       </c>
@@ -4207,7 +4207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:42">
+    <row r="82" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>2021</v>
       </c>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:42">
+    <row r="83" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>2021</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:42">
+    <row r="84" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>2021</v>
       </c>
@@ -4306,7 +4306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:42">
+    <row r="85" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>2021</v>
       </c>
@@ -4347,7 +4347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:42">
+    <row r="86" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>2021</v>
       </c>
@@ -4382,7 +4382,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:42">
+    <row r="87" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>2021</v>
       </c>
@@ -4411,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:42">
+    <row r="88" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>2021</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:42">
+    <row r="89" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>2021</v>
       </c>
@@ -4475,7 +4475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:42">
+    <row r="90" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>2021</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:42">
+    <row r="91" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>2021</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:42">
+    <row r="92" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>2021</v>
       </c>
@@ -4562,7 +4562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:42">
+    <row r="93" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>2021</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:42">
+    <row r="94" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>2021</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:42">
+    <row r="95" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>2021</v>
       </c>
@@ -4658,7 +4658,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:42">
+    <row r="96" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>2021</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:45">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>2021</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:45">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>2021</v>
       </c>
@@ -4763,7 +4763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:45">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>2021</v>
       </c>
@@ -4798,7 +4798,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:45">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>2021</v>
       </c>
@@ -4827,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:45">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>2021</v>
       </c>
@@ -4856,7 +4856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:45">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>2021</v>
       </c>
@@ -4891,7 +4891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:45">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>2021</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:45">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>2021</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:45">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>2021</v>
       </c>
@@ -5002,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:45">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2021</v>
       </c>
@@ -5037,7 +5037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:45">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>2021</v>
       </c>
@@ -5084,7 +5084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:45">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>2021</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:45">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>2021</v>
       </c>
@@ -5154,7 +5154,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:45">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>2021</v>
       </c>
@@ -5189,7 +5189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:45">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>2021</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:45">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>2021</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:65">
+    <row r="113" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>2021</v>
       </c>
@@ -5291,7 +5291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:65">
+    <row r="114" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>2021</v>
       </c>
@@ -5323,7 +5323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:65">
+    <row r="115" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>2021</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" spans="1:65">
+    <row r="116" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>2021</v>
       </c>
@@ -5396,7 +5396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="117" spans="1:65">
+    <row r="117" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>2021</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:65">
+    <row r="118" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>2021</v>
       </c>
@@ -5472,7 +5472,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:65">
+    <row r="119" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>2021</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:65">
+    <row r="120" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>2021</v>
       </c>
@@ -5533,7 +5533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:65">
+    <row r="121" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>2021</v>
       </c>
@@ -5568,7 +5568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:65">
+    <row r="122" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>2021</v>
       </c>
@@ -5603,7 +5603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:65">
+    <row r="123" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>2021</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:65">
+    <row r="124" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>2021</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:65">
+    <row r="125" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>2021</v>
       </c>
@@ -5705,7 +5705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:65">
+    <row r="126" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>2021</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:65">
+    <row r="127" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>2021</v>
       </c>
@@ -5784,7 +5784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:65">
+    <row r="128" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>2021</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="129" spans="1:44">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>2021</v>
       </c>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:44">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>2021</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:44">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>2021</v>
       </c>
@@ -5912,7 +5912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:44">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>2021</v>
       </c>
@@ -5941,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:44">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>2021</v>
       </c>
@@ -5973,7 +5973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:44">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>2021</v>
       </c>
@@ -6002,7 +6002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:44">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>2021</v>
       </c>
@@ -6034,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:44">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>2021</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:44">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>2021</v>
       </c>
@@ -6113,7 +6113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:44">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>2021</v>
       </c>
@@ -6148,7 +6148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="139" spans="1:44">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>2021</v>
       </c>
@@ -6177,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:44">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>2021</v>
       </c>
@@ -6209,7 +6209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:44">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>2021</v>
       </c>
@@ -6238,7 +6238,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:44">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>2021</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:44">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>2021</v>
       </c>
@@ -6299,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:44">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>2021</v>
       </c>
@@ -6328,7 +6328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:48">
+    <row r="145" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>2021</v>
       </c>
@@ -6357,7 +6357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:48">
+    <row r="146" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>2021</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:48">
+    <row r="147" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>2021</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:48">
+    <row r="148" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>2021</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:48">
+    <row r="149" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>2021</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:48">
+    <row r="150" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>2021</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:48">
+    <row r="151" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>2021</v>
       </c>
@@ -6543,7 +6543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:48">
+    <row r="152" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>2021</v>
       </c>
@@ -6581,7 +6581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" spans="1:48">
+    <row r="153" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>2021</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="154" spans="1:48">
+    <row r="154" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>2021</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:48">
+    <row r="155" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>2021</v>
       </c>
@@ -6689,7 +6689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:48">
+    <row r="156" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>2021</v>
       </c>
@@ -6721,7 +6721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:48">
+    <row r="157" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>2021</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:48">
+    <row r="158" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>2021</v>
       </c>
@@ -6785,7 +6785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:48">
+    <row r="159" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>2021</v>
       </c>
@@ -6817,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:48">
+    <row r="160" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>2021</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:47">
+    <row r="161" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>2021</v>
       </c>
@@ -6878,7 +6878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:47">
+    <row r="162" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>2021</v>
       </c>
@@ -6910,7 +6910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:47">
+    <row r="163" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>2021</v>
       </c>
@@ -6957,7 +6957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:47">
+    <row r="164" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>2021</v>
       </c>
@@ -6992,7 +6992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:47">
+    <row r="165" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>2021</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:47">
+    <row r="166" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>2021</v>
       </c>
@@ -7062,7 +7062,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="167" spans="1:47">
+    <row r="167" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>2021</v>
       </c>
@@ -7097,7 +7097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="168" spans="1:47">
+    <row r="168" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>2021</v>
       </c>
@@ -7132,7 +7132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:47">
+    <row r="169" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>2021</v>
       </c>
@@ -7164,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:47">
+    <row r="170" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>2021</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:47">
+    <row r="171" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>2021</v>
       </c>
@@ -7228,7 +7228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="172" spans="1:47">
+    <row r="172" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>2021</v>
       </c>
@@ -7269,7 +7269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:47">
+    <row r="173" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>2021</v>
       </c>
@@ -7310,7 +7310,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="174" spans="1:47">
+    <row r="174" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>2022</v>
       </c>
@@ -7345,7 +7345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="175" spans="1:47">
+    <row r="175" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>2022</v>
       </c>
@@ -7377,7 +7377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:47">
+    <row r="176" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>2022</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:47">
+    <row r="177" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>2022</v>
       </c>
@@ -7438,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:47">
+    <row r="178" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>2022</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:47">
+    <row r="179" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>2022</v>
       </c>
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:47">
+    <row r="180" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>2022</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:47">
+    <row r="181" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>2022</v>
       </c>
@@ -7578,7 +7578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:47">
+    <row r="182" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>2022</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="183" spans="1:47">
+    <row r="183" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>2022</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:47">
+    <row r="184" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>2022</v>
       </c>
@@ -7674,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:47">
+    <row r="185" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>2022</v>
       </c>
@@ -7703,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:47">
+    <row r="186" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>2022</v>
       </c>
@@ -7735,7 +7735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:47">
+    <row r="187" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>2022</v>
       </c>
@@ -7773,7 +7773,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="188" spans="1:47">
+    <row r="188" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>2022</v>
       </c>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:47">
+    <row r="189" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>2022</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:47">
+    <row r="190" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>2022</v>
       </c>
@@ -7875,7 +7875,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="191" spans="1:47">
+    <row r="191" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>2022</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:47">
+    <row r="192" spans="1:47" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>2022</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:38">
+    <row r="193" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>2022</v>
       </c>
@@ -7968,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:38">
+    <row r="194" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>2022</v>
       </c>
@@ -7997,7 +7997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:38">
+    <row r="195" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>2022</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:38">
+    <row r="196" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>2022</v>
       </c>
@@ -8055,7 +8055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:38">
+    <row r="197" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>2022</v>
       </c>
@@ -8084,7 +8084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:38">
+    <row r="198" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>2022</v>
       </c>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:38">
+    <row r="199" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>2022</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="200" spans="1:38">
+    <row r="200" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>2022</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:38">
+    <row r="201" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>2022</v>
       </c>
@@ -8212,7 +8212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:38">
+    <row r="202" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>2022</v>
       </c>
@@ -8244,7 +8244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:38">
+    <row r="203" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>2022</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:38">
+    <row r="204" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>2022</v>
       </c>
@@ -8308,7 +8308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:38">
+    <row r="205" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>2022</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:38">
+    <row r="206" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>2022</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:38">
+    <row r="207" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>2022</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:38">
+    <row r="208" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>2022</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:50">
+    <row r="209" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>2022</v>
       </c>
@@ -8474,7 +8474,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="210" spans="1:50">
+    <row r="210" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>2022</v>
       </c>
@@ -8509,7 +8509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="211" spans="1:50">
+    <row r="211" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>2022</v>
       </c>
@@ -8544,7 +8544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:50">
+    <row r="212" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>2022</v>
       </c>
@@ -8579,7 +8579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:50">
+    <row r="213" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>2022</v>
       </c>
@@ -8611,7 +8611,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="214" spans="1:50">
+    <row r="214" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>2022</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:50">
+    <row r="215" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>2022</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:50">
+    <row r="216" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>2022</v>
       </c>
@@ -8707,7 +8707,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="217" spans="1:50">
+    <row r="217" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>2022</v>
       </c>
@@ -8748,7 +8748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:50">
+    <row r="218" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>2022</v>
       </c>
@@ -8789,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:50">
+    <row r="219" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>2022</v>
       </c>
@@ -8827,7 +8827,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="220" spans="1:50">
+    <row r="220" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>2022</v>
       </c>
@@ -8868,7 +8868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:50">
+    <row r="221" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>2022</v>
       </c>
@@ -8906,7 +8906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="222" spans="1:50">
+    <row r="222" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>2022</v>
       </c>
@@ -8935,7 +8935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:50">
+    <row r="223" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>2022</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:50">
+    <row r="224" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>2022</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:50">
+    <row r="225" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>2022</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="226" spans="1:50">
+    <row r="226" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>2022</v>
       </c>
@@ -9081,7 +9081,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:50">
+    <row r="227" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>2022</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:50">
+    <row r="228" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>2022</v>
       </c>
@@ -9157,7 +9157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:50">
+    <row r="229" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>2022</v>
       </c>
@@ -9189,7 +9189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:50">
+    <row r="230" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>2022</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:50">
+    <row r="231" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>2022</v>
       </c>
@@ -9271,7 +9271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="232" spans="1:50">
+    <row r="232" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>2022</v>
       </c>
@@ -9309,7 +9309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="233" spans="1:50">
+    <row r="233" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>2022</v>
       </c>
@@ -9350,7 +9350,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="234" spans="1:50">
+    <row r="234" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>2022</v>
       </c>
@@ -9388,7 +9388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="235" spans="1:50">
+    <row r="235" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>2022</v>
       </c>
@@ -9423,7 +9423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:50">
+    <row r="236" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>2022</v>
       </c>
@@ -9455,7 +9455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:50">
+    <row r="237" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>2022</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:50">
+    <row r="238" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>2022</v>
       </c>
@@ -9519,7 +9519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:50">
+    <row r="239" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>2022</v>
       </c>
@@ -9548,7 +9548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:50">
+    <row r="240" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>2022</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:50">
+    <row r="241" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>2022</v>
       </c>
@@ -9606,7 +9606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:50">
+    <row r="242" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>2022</v>
       </c>
@@ -9650,7 +9650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="243" spans="1:50">
+    <row r="243" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>2022</v>
       </c>
@@ -9682,7 +9682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:50">
+    <row r="244" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>2022</v>
       </c>
@@ -9717,7 +9717,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="245" spans="1:50">
+    <row r="245" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>2022</v>
       </c>
@@ -9749,7 +9749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:50">
+    <row r="246" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>2022</v>
       </c>
@@ -9781,7 +9781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:50">
+    <row r="247" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>2022</v>
       </c>
@@ -9810,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:50">
+    <row r="248" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>2022</v>
       </c>
@@ -9842,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:50">
+    <row r="249" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>2022</v>
       </c>
@@ -9871,7 +9871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:50">
+    <row r="250" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>2022</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:50">
+    <row r="251" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>2022</v>
       </c>
@@ -9935,7 +9935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:50">
+    <row r="252" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>2022</v>
       </c>
@@ -9967,7 +9967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:50">
+    <row r="253" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>2022</v>
       </c>
@@ -9996,7 +9996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:50">
+    <row r="254" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>2022</v>
       </c>
@@ -10043,7 +10043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:50">
+    <row r="255" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>2022</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:50">
+    <row r="256" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>2022</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:50">
+    <row r="257" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>2022</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:50">
+    <row r="258" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>2022</v>
       </c>
@@ -10186,7 +10186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:50">
+    <row r="259" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>2022</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:50">
+    <row r="260" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>2022</v>
       </c>
@@ -10256,7 +10256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:50">
+    <row r="261" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>2022</v>
       </c>
@@ -10288,7 +10288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:50">
+    <row r="262" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>2022</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:50">
+    <row r="263" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>2022</v>
       </c>
@@ -10355,7 +10355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:50">
+    <row r="264" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>2022</v>
       </c>
@@ -10390,7 +10390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:50">
+    <row r="265" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>2022</v>
       </c>
@@ -10437,7 +10437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="266" spans="1:50">
+    <row r="266" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>2022</v>
       </c>
@@ -10487,7 +10487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:50">
+    <row r="267" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>2022</v>
       </c>
@@ -10531,7 +10531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="268" spans="1:50">
+    <row r="268" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>2022</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:50">
+    <row r="269" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>2022</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:50">
+    <row r="270" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>2022</v>
       </c>
@@ -10648,7 +10648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:50">
+    <row r="271" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>2022</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="272" spans="1:50">
+    <row r="272" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>2022</v>
       </c>
@@ -10745,7 +10745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:50">
+    <row r="273" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>2022</v>
       </c>
@@ -10789,7 +10789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="274" spans="1:50">
+    <row r="274" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>2022</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="275" spans="1:50">
+    <row r="275" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>2022</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="276" spans="1:50">
+    <row r="276" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>2022</v>
       </c>
@@ -10903,7 +10903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:50">
+    <row r="277" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>2022</v>
       </c>
@@ -10941,7 +10941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:50">
+    <row r="278" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>2022</v>
       </c>
@@ -10988,7 +10988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:50">
+    <row r="279" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>2022</v>
       </c>
@@ -11029,7 +11029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="280" spans="1:50">
+    <row r="280" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>2022</v>
       </c>
@@ -11067,7 +11067,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="281" spans="1:50">
+    <row r="281" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>2022</v>
       </c>
@@ -11111,7 +11111,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:50">
+    <row r="282" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>2022</v>
       </c>
@@ -11143,7 +11143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:50">
+    <row r="283" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>2022</v>
       </c>
@@ -11175,7 +11175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:50">
+    <row r="284" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>2022</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:50">
+    <row r="285" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>2022</v>
       </c>
@@ -11233,7 +11233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:50">
+    <row r="286" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>2022</v>
       </c>
@@ -11265,7 +11265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:50">
+    <row r="287" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>2022</v>
       </c>
@@ -11291,7 +11291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:50">
+    <row r="288" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>2022</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:50">
+    <row r="289" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>2022</v>
       </c>
@@ -11370,7 +11370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:50">
+    <row r="290" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>2022</v>
       </c>
@@ -11405,7 +11405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:50">
+    <row r="291" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>2022</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:50">
+    <row r="292" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>2022</v>
       </c>
@@ -11481,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:50">
+    <row r="293" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>2022</v>
       </c>
@@ -11525,7 +11525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="294" spans="1:50">
+    <row r="294" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>2022</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="295" spans="1:50">
+    <row r="295" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>2022</v>
       </c>
@@ -11595,7 +11595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:50">
+    <row r="296" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>2022</v>
       </c>
@@ -11627,7 +11627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:50">
+    <row r="297" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>2022</v>
       </c>
@@ -11659,7 +11659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:50">
+    <row r="298" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>2022</v>
       </c>
@@ -11694,7 +11694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:50">
+    <row r="299" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>2022</v>
       </c>
@@ -11726,7 +11726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:50">
+    <row r="300" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>2022</v>
       </c>
@@ -11755,7 +11755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:50">
+    <row r="301" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>2022</v>
       </c>
@@ -11793,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:50">
+    <row r="302" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>2022</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:50">
+    <row r="303" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>2022</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="304" spans="1:50">
+    <row r="304" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>2022</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:51">
+    <row r="305" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>2022</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:51">
+    <row r="306" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>2022</v>
       </c>
@@ -11983,7 +11983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:51">
+    <row r="307" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>2022</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:51">
+    <row r="308" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>2022</v>
       </c>
@@ -12053,7 +12053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:51">
+    <row r="309" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>2022</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="310" spans="1:51">
+    <row r="310" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>2022</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:51">
+    <row r="311" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>2022</v>
       </c>
@@ -12176,7 +12176,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="312" spans="1:51">
+    <row r="312" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>2022</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="313" spans="1:51">
+    <row r="313" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>2022</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="314" spans="1:51">
+    <row r="314" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>2022</v>
       </c>
@@ -12299,7 +12299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:51">
+    <row r="315" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>2022</v>
       </c>
@@ -12343,7 +12343,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="316" spans="1:51">
+    <row r="316" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>2022</v>
       </c>
@@ -12387,7 +12387,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="317" spans="1:51">
+    <row r="317" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>2022</v>
       </c>
@@ -12437,7 +12437,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="318" spans="1:51">
+    <row r="318" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>2022</v>
       </c>
@@ -12481,7 +12481,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:51">
+    <row r="319" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>2022</v>
       </c>
@@ -12519,7 +12519,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="320" spans="1:51">
+    <row r="320" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>2022</v>
       </c>
@@ -12563,7 +12563,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="321" spans="1:51">
+    <row r="321" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>2022</v>
       </c>
@@ -12598,7 +12598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:51">
+    <row r="322" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>2022</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:51">
+    <row r="323" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>2022</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:51">
+    <row r="324" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>2022</v>
       </c>
@@ -12724,7 +12724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:51">
+    <row r="325" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>2022</v>
       </c>
@@ -12768,7 +12768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:51">
+    <row r="326" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>2022</v>
       </c>
@@ -12815,7 +12815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="327" spans="1:51">
+    <row r="327" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>2022</v>
       </c>
@@ -12865,7 +12865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:51">
+    <row r="328" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>2022</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="329" spans="1:51">
+    <row r="329" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>2022</v>
       </c>
@@ -12935,7 +12935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="330" spans="1:51">
+    <row r="330" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>2022</v>
       </c>
@@ -12970,7 +12970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:51">
+    <row r="331" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>2022</v>
       </c>
@@ -13005,7 +13005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:51">
+    <row r="332" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>2022</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:51">
+    <row r="333" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>2022</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="334" spans="1:51">
+    <row r="334" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>2022</v>
       </c>
@@ -13119,7 +13119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="335" spans="1:51">
+    <row r="335" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>2022</v>
       </c>
@@ -13166,7 +13166,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:51">
+    <row r="336" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>2022</v>
       </c>
@@ -13210,7 +13210,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="337" spans="1:67">
+    <row r="337" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>2022</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="338" spans="1:67">
+    <row r="338" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>2022</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="339" spans="1:67">
+    <row r="339" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>2022</v>
       </c>
@@ -13357,7 +13357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="340" spans="1:67">
+    <row r="340" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>2022</v>
       </c>
@@ -13404,7 +13404,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="341" spans="1:67">
+    <row r="341" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>2022</v>
       </c>
@@ -13448,7 +13448,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="342" spans="1:67">
+    <row r="342" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>2022</v>
       </c>
@@ -13504,7 +13504,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="343" spans="1:67">
+    <row r="343" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>2022</v>
       </c>
@@ -13551,7 +13551,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="344" spans="1:67">
+    <row r="344" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>2022</v>
       </c>
@@ -13601,7 +13601,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="345" spans="1:67">
+    <row r="345" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>2022</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="346" spans="1:67">
+    <row r="346" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>2022</v>
       </c>
@@ -13677,7 +13677,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="347" spans="1:67">
+    <row r="347" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>2022</v>
       </c>
@@ -13727,7 +13727,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="348" spans="1:67">
+    <row r="348" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>2022</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="349" spans="1:67">
+    <row r="349" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>2022</v>
       </c>
@@ -13845,7 +13845,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="350" spans="1:67">
+    <row r="350" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>2022</v>
       </c>
@@ -13904,7 +13904,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="351" spans="1:67">
+    <row r="351" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>2022</v>
       </c>
@@ -13957,7 +13957,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="352" spans="1:67">
+    <row r="352" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>2022</v>
       </c>
@@ -14001,7 +14001,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="353" spans="1:67">
+    <row r="353" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>2022</v>
       </c>
@@ -14042,7 +14042,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="354" spans="1:67">
+    <row r="354" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>2022</v>
       </c>
@@ -14083,7 +14083,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="355" spans="1:67">
+    <row r="355" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>2022</v>
       </c>
@@ -14130,7 +14130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="356" spans="1:67">
+    <row r="356" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>2022</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="357" spans="1:67">
+    <row r="357" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>2022</v>
       </c>
@@ -14221,7 +14221,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="358" spans="1:67">
+    <row r="358" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>2022</v>
       </c>
@@ -14271,7 +14271,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="359" spans="1:67">
+    <row r="359" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>2022</v>
       </c>
@@ -14324,7 +14324,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="360" spans="1:67">
+    <row r="360" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>2022</v>
       </c>
@@ -14377,7 +14377,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="361" spans="1:67">
+    <row r="361" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>2022</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="362" spans="1:67">
+    <row r="362" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>2022</v>
       </c>
@@ -14492,7 +14492,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="363" spans="1:67">
+    <row r="363" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>2022</v>
       </c>
@@ -14551,7 +14551,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="364" spans="1:67">
+    <row r="364" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>2022</v>
       </c>
@@ -14601,7 +14601,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="365" spans="1:67">
+    <row r="365" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>2022</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="366" spans="1:67">
+    <row r="366" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>2022</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="367" spans="1:67">
+    <row r="367" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>2022</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="368" spans="1:67">
+    <row r="368" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>2022</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="369" spans="1:67">
+    <row r="369" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>2022</v>
       </c>
@@ -14908,7 +14908,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="370" spans="1:67">
+    <row r="370" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>2022</v>
       </c>
@@ -14958,7 +14958,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="371" spans="1:67">
+    <row r="371" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>2022</v>
       </c>
@@ -15005,7 +15005,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="372" spans="1:67">
+    <row r="372" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>2022</v>
       </c>
@@ -15052,7 +15052,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="373" spans="1:67">
+    <row r="373" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>2022</v>
       </c>
@@ -15096,7 +15096,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="374" spans="1:67">
+    <row r="374" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>2022</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="375" spans="1:67">
+    <row r="375" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>2022</v>
       </c>
@@ -15184,7 +15184,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="376" spans="1:67">
+    <row r="376" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>2022</v>
       </c>
@@ -15231,7 +15231,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="377" spans="1:67">
+    <row r="377" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>2022</v>
       </c>
@@ -15278,7 +15278,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="378" spans="1:67">
+    <row r="378" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>2022</v>
       </c>
@@ -15334,7 +15334,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="379" spans="1:67">
+    <row r="379" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>2022</v>
       </c>
@@ -15384,7 +15384,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="380" spans="1:67">
+    <row r="380" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>2022</v>
       </c>
@@ -15437,7 +15437,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="381" spans="1:67">
+    <row r="381" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>2022</v>
       </c>
@@ -15493,7 +15493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:67">
+    <row r="382" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>2022</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="383" spans="1:67">
+    <row r="383" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>2022</v>
       </c>
@@ -15593,7 +15593,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="384" spans="1:67">
+    <row r="384" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>2022</v>
       </c>
@@ -15637,7 +15637,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="385" spans="1:67">
+    <row r="385" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>2022</v>
       </c>
@@ -15687,7 +15687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:67">
+    <row r="386" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>2022</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="387" spans="1:67">
+    <row r="387" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>2022</v>
       </c>
@@ -15874,7 +15874,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="388" spans="1:67">
+    <row r="388" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>2022</v>
       </c>
@@ -15906,7 +15906,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="389" spans="1:67">
+    <row r="389" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>2022</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="390" spans="1:67">
+    <row r="390" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>2022</v>
       </c>
@@ -15985,7 +15985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:67">
+    <row r="391" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>2022</v>
       </c>
@@ -16029,7 +16029,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="392" spans="1:67">
+    <row r="392" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>2022</v>
       </c>
@@ -16073,7 +16073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:67">
+    <row r="393" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>2022</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="394" spans="1:67">
+    <row r="394" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>2022</v>
       </c>
@@ -16167,7 +16167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="395" spans="1:67">
+    <row r="395" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>2022</v>
       </c>
@@ -16223,7 +16223,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="396" spans="1:67">
+    <row r="396" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>2022</v>
       </c>
@@ -16297,7 +16297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="397" spans="1:67">
+    <row r="397" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>2022</v>
       </c>
@@ -16344,7 +16344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:67">
+    <row r="398" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>2022</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="399" spans="1:67">
+    <row r="399" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>2022</v>
       </c>
@@ -16414,7 +16414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:67">
+    <row r="400" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>2022</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:56">
+    <row r="401" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>2022</v>
       </c>
@@ -16493,7 +16493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:56">
+    <row r="402" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>2022</v>
       </c>
@@ -16537,7 +16537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="403" spans="1:56">
+    <row r="403" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>2022</v>
       </c>
@@ -16578,7 +16578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:56">
+    <row r="404" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>2022</v>
       </c>
@@ -16619,7 +16619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="405" spans="1:56">
+    <row r="405" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>2022</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:56">
+    <row r="406" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>2022</v>
       </c>
@@ -16719,7 +16719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:56">
+    <row r="407" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>2022</v>
       </c>
@@ -16757,7 +16757,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="408" spans="1:56">
+    <row r="408" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>2022</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:56">
+    <row r="409" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>2022</v>
       </c>
@@ -16839,7 +16839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="410" spans="1:56">
+    <row r="410" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>2022</v>
       </c>
@@ -16889,7 +16889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:56">
+    <row r="411" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>2022</v>
       </c>
@@ -16942,7 +16942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="412" spans="1:56">
+    <row r="412" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>2022</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="413" spans="1:56">
+    <row r="413" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>2022</v>
       </c>
@@ -17045,7 +17045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:56">
+    <row r="414" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>2022</v>
       </c>
@@ -17113,7 +17113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="415" spans="1:56">
+    <row r="415" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>2022</v>
       </c>
@@ -17181,7 +17181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="416" spans="1:56">
+    <row r="416" spans="1:56" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>2022</v>
       </c>
@@ -17219,7 +17219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:58">
+    <row r="417" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>2022</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="418" spans="1:58">
+    <row r="418" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>2022</v>
       </c>
@@ -17292,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:58">
+    <row r="419" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>2022</v>
       </c>
@@ -17327,7 +17327,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:58">
+    <row r="420" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>2022</v>
       </c>
@@ -17365,7 +17365,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="421" spans="1:58">
+    <row r="421" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>2022</v>
       </c>
@@ -17406,7 +17406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:58">
+    <row r="422" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>2022</v>
       </c>
@@ -17450,7 +17450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:58">
+    <row r="423" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>2022</v>
       </c>
@@ -17491,7 +17491,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="424" spans="1:58">
+    <row r="424" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>2022</v>
       </c>
@@ -17529,7 +17529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="425" spans="1:58">
+    <row r="425" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>2022</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:58">
+    <row r="426" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>2022</v>
       </c>
@@ -17623,7 +17623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="427" spans="1:58">
+    <row r="427" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>2022</v>
       </c>
@@ -17667,7 +17667,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="428" spans="1:58">
+    <row r="428" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>2022</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:58">
+    <row r="429" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>2022</v>
       </c>
@@ -17767,7 +17767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:58">
+    <row r="430" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>2022</v>
       </c>
@@ -17808,7 +17808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:58">
+    <row r="431" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>2022</v>
       </c>
@@ -17858,7 +17858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:58">
+    <row r="432" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>2022</v>
       </c>
@@ -17902,7 +17902,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="433" spans="1:59">
+    <row r="433" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>2022</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:59">
+    <row r="434" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>2022</v>
       </c>
@@ -18002,7 +18002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:59">
+    <row r="435" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>2022</v>
       </c>
@@ -18037,7 +18037,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="436" spans="1:59">
+    <row r="436" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>2022</v>
       </c>
@@ -18081,7 +18081,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:59">
+    <row r="437" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>2022</v>
       </c>
@@ -18125,7 +18125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:59">
+    <row r="438" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>2022</v>
       </c>
@@ -18163,7 +18163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="439" spans="1:59">
+    <row r="439" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>2022</v>
       </c>
@@ -18201,7 +18201,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="440" spans="1:59">
+    <row r="440" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>2022</v>
       </c>
@@ -18239,7 +18239,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="441" spans="1:59">
+    <row r="441" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>2022</v>
       </c>
@@ -18283,7 +18283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="442" spans="1:59">
+    <row r="442" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>2022</v>
       </c>
@@ -18342,7 +18342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:59">
+    <row r="443" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>2022</v>
       </c>
@@ -18386,7 +18386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:59">
+    <row r="444" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>2022</v>
       </c>
@@ -18427,7 +18427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:59">
+    <row r="445" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>2022</v>
       </c>
@@ -18471,7 +18471,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:59">
+    <row r="446" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>2022</v>
       </c>
@@ -18509,7 +18509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="447" spans="1:59">
+    <row r="447" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>2022</v>
       </c>
@@ -18544,7 +18544,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="448" spans="1:59">
+    <row r="448" spans="1:59" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>2022</v>
       </c>
@@ -18588,7 +18588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:63">
+    <row r="449" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>2022</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:63">
+    <row r="450" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>2022</v>
       </c>
@@ -18664,7 +18664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="451" spans="1:63">
+    <row r="451" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>2022</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:63">
+    <row r="452" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>2022</v>
       </c>
@@ -18758,7 +18758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:63">
+    <row r="453" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>2022</v>
       </c>
@@ -18805,7 +18805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:63">
+    <row r="454" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>2022</v>
       </c>
@@ -18846,7 +18846,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="455" spans="1:63">
+    <row r="455" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>2022</v>
       </c>
@@ -18893,7 +18893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:63">
+    <row r="456" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>2022</v>
       </c>
@@ -18955,7 +18955,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:63">
+    <row r="457" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>2022</v>
       </c>
@@ -19005,7 +19005,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="458" spans="1:63">
+    <row r="458" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>2022</v>
       </c>
@@ -19064,7 +19064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:63">
+    <row r="459" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>2022</v>
       </c>
@@ -19123,7 +19123,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="460" spans="1:63">
+    <row r="460" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>2022</v>
       </c>
@@ -19188,7 +19188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:63">
+    <row r="461" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>2022</v>
       </c>
@@ -19250,7 +19250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:63">
+    <row r="462" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>2022</v>
       </c>
@@ -19306,7 +19306,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="463" spans="1:63">
+    <row r="463" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>2022</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:63">
+    <row r="464" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>2022</v>
       </c>
@@ -19385,7 +19385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="465" spans="1:64">
+    <row r="465" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>2022</v>
       </c>
@@ -19429,7 +19429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="466" spans="1:64">
+    <row r="466" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>2022</v>
       </c>
@@ -19470,7 +19470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:64">
+    <row r="467" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>2022</v>
       </c>
@@ -19505,7 +19505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="468" spans="1:64">
+    <row r="468" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>2022</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="469" spans="1:64">
+    <row r="469" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>2022</v>
       </c>
@@ -19581,7 +19581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="470" spans="1:64">
+    <row r="470" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>2022</v>
       </c>
@@ -19619,7 +19619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="471" spans="1:64">
+    <row r="471" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>2022</v>
       </c>
@@ -19654,7 +19654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="472" spans="1:64">
+    <row r="472" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>2022</v>
       </c>
@@ -19692,7 +19692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="473" spans="1:64">
+    <row r="473" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>2022</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:64">
+    <row r="474" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>2022</v>
       </c>
@@ -19777,7 +19777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="475" spans="1:64">
+    <row r="475" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>2022</v>
       </c>
@@ -19821,7 +19821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:64">
+    <row r="476" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>2022</v>
       </c>
@@ -19865,7 +19865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:64">
+    <row r="477" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>2022</v>
       </c>
@@ -19912,7 +19912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="478" spans="1:64">
+    <row r="478" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>2022</v>
       </c>
@@ -19974,7 +19974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:64">
+    <row r="479" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>2022</v>
       </c>
@@ -20045,7 +20045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:64">
+    <row r="480" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>2022</v>
       </c>
@@ -20080,7 +20080,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="481" spans="1:50">
+    <row r="481" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>2022</v>
       </c>
@@ -20112,7 +20112,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="482" spans="1:50">
+    <row r="482" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>2022</v>
       </c>
@@ -20147,7 +20147,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="483" spans="1:50">
+    <row r="483" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>2022</v>
       </c>
@@ -20191,7 +20191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="484" spans="1:50">
+    <row r="484" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>2022</v>
       </c>
@@ -20226,7 +20226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="485" spans="1:50">
+    <row r="485" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>2022</v>
       </c>
@@ -20270,7 +20270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:50">
+    <row r="486" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>2022</v>
       </c>
@@ -20305,7 +20305,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="487" spans="1:50">
+    <row r="487" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>2022</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:50">
+    <row r="488" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>2022</v>
       </c>
@@ -20378,7 +20378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:50">
+    <row r="489" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>2022</v>
       </c>
@@ -20416,7 +20416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="490" spans="1:50">
+    <row r="490" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>2022</v>
       </c>
@@ -20454,7 +20454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:50">
+    <row r="491" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>2022</v>
       </c>
@@ -20489,7 +20489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:50">
+    <row r="492" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>2022</v>
       </c>
@@ -20524,7 +20524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:50">
+    <row r="493" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>2022</v>
       </c>
@@ -20559,7 +20559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="494" spans="1:50">
+    <row r="494" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>2022</v>
       </c>
@@ -20597,7 +20597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="495" spans="1:50">
+    <row r="495" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>2022</v>
       </c>
@@ -20629,7 +20629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:50">
+    <row r="496" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>2022</v>
       </c>
@@ -20664,7 +20664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="497" spans="1:40">
+    <row r="497" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>2022</v>
       </c>
@@ -20696,7 +20696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:40">
+    <row r="498" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>2022</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="499" spans="1:40">
+    <row r="499" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>2022</v>
       </c>
@@ -20769,7 +20769,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:40">
+    <row r="500" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>2022</v>
       </c>
@@ -20807,7 +20807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="501" spans="1:40">
+    <row r="501" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>2022</v>
       </c>
@@ -20845,7 +20845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="502" spans="1:40">
+    <row r="502" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>2022</v>
       </c>
@@ -20886,7 +20886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="503" spans="1:40">
+    <row r="503" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>2022</v>
       </c>
@@ -20924,7 +20924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="504" spans="1:40">
+    <row r="504" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>2022</v>
       </c>
@@ -20959,7 +20959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="505" spans="1:40">
+    <row r="505" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>2022</v>
       </c>
@@ -20997,7 +20997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="506" spans="1:40">
+    <row r="506" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>2022</v>
       </c>
@@ -21041,7 +21041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:40">
+    <row r="507" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>2022</v>
       </c>
@@ -21073,7 +21073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:40">
+    <row r="508" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>2022</v>
       </c>
@@ -21108,7 +21108,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="509" spans="1:40">
+    <row r="509" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>2022</v>
       </c>
@@ -21152,7 +21152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:40">
+    <row r="510" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>2022</v>
       </c>
@@ -21193,7 +21193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:40">
+    <row r="511" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>2022</v>
       </c>
@@ -21237,7 +21237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="512" spans="1:40">
+    <row r="512" spans="1:40" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>2022</v>
       </c>
@@ -21278,7 +21278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:50">
+    <row r="513" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>2022</v>
       </c>
@@ -21313,7 +21313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:50">
+    <row r="514" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>2022</v>
       </c>
@@ -21348,7 +21348,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="515" spans="1:50">
+    <row r="515" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>2022</v>
       </c>
@@ -21371,7 +21371,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="516" spans="1:50">
+    <row r="516" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>2022</v>
       </c>
@@ -21415,7 +21415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:50">
+    <row r="517" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>2022</v>
       </c>
@@ -21456,7 +21456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:50">
+    <row r="518" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>2022</v>
       </c>
@@ -21497,7 +21497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:50">
+    <row r="519" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>2022</v>
       </c>
@@ -21532,7 +21532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:50">
+    <row r="520" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>2022</v>
       </c>
@@ -21567,7 +21567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="521" spans="1:50">
+    <row r="521" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>2022</v>
       </c>
@@ -21611,7 +21611,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="522" spans="1:50">
+    <row r="522" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>2022</v>
       </c>
@@ -21652,7 +21652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="523" spans="1:50">
+    <row r="523" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>2022</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="524" spans="1:50">
+    <row r="524" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>2022</v>
       </c>
@@ -21728,7 +21728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="525" spans="1:50">
+    <row r="525" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>2022</v>
       </c>
@@ -21769,7 +21769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="526" spans="1:50">
+    <row r="526" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>2022</v>
       </c>
@@ -21810,7 +21810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="527" spans="1:50">
+    <row r="527" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>2022</v>
       </c>
@@ -21848,7 +21848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="528" spans="1:50">
+    <row r="528" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>2022</v>
       </c>
@@ -21889,7 +21889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="529" spans="1:42">
+    <row r="529" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>2022</v>
       </c>
@@ -21930,7 +21930,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="530" spans="1:42">
+    <row r="530" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>2022</v>
       </c>
@@ -21968,7 +21968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="531" spans="1:42">
+    <row r="531" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>2022</v>
       </c>
@@ -22009,7 +22009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="532" spans="1:42">
+    <row r="532" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>2022</v>
       </c>
@@ -22047,7 +22047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="533" spans="1:42">
+    <row r="533" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>2022</v>
       </c>
@@ -22085,7 +22085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="534" spans="1:42">
+    <row r="534" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>2022</v>
       </c>
@@ -22120,7 +22120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="535" spans="1:42">
+    <row r="535" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>2022</v>
       </c>
@@ -22158,7 +22158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="536" spans="1:42">
+    <row r="536" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>2022</v>
       </c>
@@ -22190,7 +22190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="537" spans="1:42">
+    <row r="537" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>2022</v>
       </c>
@@ -22225,7 +22225,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="538" spans="1:42">
+    <row r="538" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>2022</v>
       </c>
@@ -22260,7 +22260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="539" spans="1:42">
+    <row r="539" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>2022</v>
       </c>
@@ -22283,7 +22283,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="540" spans="1:42">
+    <row r="540" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>2022</v>
       </c>
@@ -22318,7 +22318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:42">
+    <row r="541" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>2022</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="542" spans="1:42">
+    <row r="542" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>2022</v>
       </c>
@@ -22391,7 +22391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="543" spans="1:42">
+    <row r="543" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>2022</v>
       </c>
@@ -22429,7 +22429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:42">
+    <row r="544" spans="1:42" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>2022</v>
       </c>
@@ -22467,7 +22467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:44">
+    <row r="545" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>2022</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:44">
+    <row r="546" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>2022</v>
       </c>
@@ -22540,7 +22540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:44">
+    <row r="547" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>2022</v>
       </c>
@@ -22581,7 +22581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:44">
+    <row r="548" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>2022</v>
       </c>
@@ -22616,7 +22616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:44">
+    <row r="549" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>2022</v>
       </c>
@@ -22651,7 +22651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:44">
+    <row r="550" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>2022</v>
       </c>
@@ -22695,7 +22695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="551" spans="1:44">
+    <row r="551" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>2022</v>
       </c>
@@ -22736,7 +22736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="552" spans="1:44">
+    <row r="552" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>2022</v>
       </c>
@@ -22768,7 +22768,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="553" spans="1:44">
+    <row r="553" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>2022</v>
       </c>
@@ -22803,7 +22803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="554" spans="1:44">
+    <row r="554" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>2022</v>
       </c>
@@ -22835,7 +22835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="555" spans="1:44">
+    <row r="555" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>2022</v>
       </c>
@@ -22867,7 +22867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="556" spans="1:44">
+    <row r="556" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>2022</v>
       </c>
@@ -22896,7 +22896,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="557" spans="1:44">
+    <row r="557" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>2022</v>
       </c>
@@ -22928,7 +22928,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="558" spans="1:44">
+    <row r="558" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>2022</v>
       </c>
@@ -22963,7 +22963,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="559" spans="1:44">
+    <row r="559" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>2022</v>
       </c>
@@ -23001,7 +23001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:44">
+    <row r="560" spans="1:44" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>2022</v>
       </c>
@@ -23036,7 +23036,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="561" spans="1:65">
+    <row r="561" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>2022</v>
       </c>
@@ -23074,7 +23074,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="562" spans="1:65">
+    <row r="562" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>2022</v>
       </c>
@@ -23097,7 +23097,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="563" spans="1:65">
+    <row r="563" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>2022</v>
       </c>
@@ -23138,7 +23138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:65">
+    <row r="564" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>2022</v>
       </c>
@@ -23179,7 +23179,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="565" spans="1:65">
+    <row r="565" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>2022</v>
       </c>
@@ -23226,7 +23226,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="566" spans="1:65">
+    <row r="566" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>2022</v>
       </c>
@@ -23264,7 +23264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="567" spans="1:65">
+    <row r="567" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>2022</v>
       </c>
@@ -23293,7 +23293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:65">
+    <row r="568" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>2022</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:65">
+    <row r="569" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>2022</v>
       </c>
@@ -23375,7 +23375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:65">
+    <row r="570" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>2022</v>
       </c>
@@ -23404,7 +23404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:65">
+    <row r="571" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>2022</v>
       </c>
@@ -23439,7 +23439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="572" spans="1:65">
+    <row r="572" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>2022</v>
       </c>
@@ -23471,7 +23471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="573" spans="1:65">
+    <row r="573" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>2022</v>
       </c>
@@ -23509,7 +23509,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="574" spans="1:65">
+    <row r="574" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>2022</v>
       </c>
@@ -23544,7 +23544,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="575" spans="1:65">
+    <row r="575" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>2022</v>
       </c>
@@ -23573,7 +23573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="576" spans="1:65">
+    <row r="576" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>2022</v>
       </c>
@@ -23611,7 +23611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="577" spans="1:67">
+    <row r="577" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>2022</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="578" spans="1:67">
+    <row r="578" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>2022</v>
       </c>
@@ -23678,7 +23678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:67">
+    <row r="579" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>2022</v>
       </c>
@@ -23713,7 +23713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="580" spans="1:67">
+    <row r="580" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>2022</v>
       </c>
@@ -23742,7 +23742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="581" spans="1:67">
+    <row r="581" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>2022</v>
       </c>
@@ -23777,7 +23777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="582" spans="1:67">
+    <row r="582" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>2022</v>
       </c>
@@ -23809,7 +23809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="583" spans="1:67">
+    <row r="583" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>2022</v>
       </c>
@@ -23841,7 +23841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="584" spans="1:67">
+    <row r="584" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>2022</v>
       </c>
@@ -23879,7 +23879,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="585" spans="1:67">
+    <row r="585" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>2022</v>
       </c>
@@ -23914,7 +23914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="586" spans="1:67">
+    <row r="586" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>2022</v>
       </c>
@@ -23958,7 +23958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="587" spans="1:67">
+    <row r="587" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>2023</v>
       </c>
@@ -23996,7 +23996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="588" spans="1:67">
+    <row r="588" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>2023</v>
       </c>
@@ -24025,7 +24025,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="589" spans="1:67">
+    <row r="589" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>2023</v>
       </c>
@@ -24063,7 +24063,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="590" spans="1:67">
+    <row r="590" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>2023</v>
       </c>
@@ -24098,7 +24098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="591" spans="1:67">
+    <row r="591" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>2023</v>
       </c>
@@ -24130,7 +24130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="592" spans="1:67">
+    <row r="592" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>2023</v>
       </c>
@@ -24159,7 +24159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:74">
+    <row r="593" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>2023</v>
       </c>
@@ -24197,7 +24197,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:74">
+    <row r="594" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2023</v>
       </c>
@@ -24235,7 +24235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:74">
+    <row r="595" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>2023</v>
       </c>
@@ -24279,7 +24279,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:74">
+    <row r="596" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>2023</v>
       </c>
@@ -24335,7 +24335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="597" spans="1:74">
+    <row r="597" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>2023</v>
       </c>
@@ -24373,7 +24373,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:74">
+    <row r="598" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>2023</v>
       </c>
@@ -24408,7 +24408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:74">
+    <row r="599" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2023</v>
       </c>
@@ -24452,7 +24452,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:74">
+    <row r="600" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>2023</v>
       </c>
@@ -24490,7 +24490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:74">
+    <row r="601" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2023</v>
       </c>
@@ -24522,7 +24522,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:74">
+    <row r="602" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2023</v>
       </c>
@@ -24554,7 +24554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:74">
+    <row r="603" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2023</v>
       </c>
@@ -24586,7 +24586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:74">
+    <row r="604" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2023</v>
       </c>
@@ -24615,7 +24615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:74">
+    <row r="605" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2023</v>
       </c>
@@ -24644,7 +24644,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:74">
+    <row r="606" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2023</v>
       </c>
@@ -24673,7 +24673,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:74">
+    <row r="607" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2023</v>
       </c>
@@ -24708,7 +24708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:74">
+    <row r="608" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2023</v>
       </c>
@@ -24746,7 +24746,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="609" spans="1:67">
+    <row r="609" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>2023</v>
       </c>
@@ -24787,7 +24787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:67">
+    <row r="610" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>2023</v>
       </c>
@@ -24831,7 +24831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="611" spans="1:67">
+    <row r="611" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>2023</v>
       </c>
@@ -24872,7 +24872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="612" spans="1:67">
+    <row r="612" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>2023</v>
       </c>
@@ -24919,7 +24919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="613" spans="1:67">
+    <row r="613" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>2023</v>
       </c>
@@ -24966,7 +24966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="614" spans="1:67">
+    <row r="614" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>2023</v>
       </c>
@@ -25013,7 +25013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="615" spans="1:67">
+    <row r="615" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>2023</v>
       </c>
@@ -25072,7 +25072,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="616" spans="1:67">
+    <row r="616" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>2023</v>
       </c>
@@ -25113,7 +25113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="617" spans="1:67">
+    <row r="617" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>2023</v>
       </c>
@@ -25142,7 +25142,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="618" spans="1:67">
+    <row r="618" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>2023</v>
       </c>
@@ -25186,7 +25186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:67">
+    <row r="619" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>2023</v>
       </c>
@@ -25224,7 +25224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="620" spans="1:67">
+    <row r="620" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>2023</v>
       </c>
@@ -25253,7 +25253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="621" spans="1:67">
+    <row r="621" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>2023</v>
       </c>
@@ -25288,7 +25288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="622" spans="1:67">
+    <row r="622" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>2023</v>
       </c>
@@ -25326,7 +25326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="623" spans="1:67">
+    <row r="623" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>2023</v>
       </c>
@@ -25358,7 +25358,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="624" spans="1:67">
+    <row r="624" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>2023</v>
       </c>
@@ -25393,7 +25393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="625" spans="1:50">
+    <row r="625" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2023</v>
       </c>
@@ -25431,7 +25431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="626" spans="1:50">
+    <row r="626" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2023</v>
       </c>
@@ -25466,7 +25466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="627" spans="1:50">
+    <row r="627" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2023</v>
       </c>
@@ -25513,7 +25513,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="628" spans="1:50">
+    <row r="628" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2023</v>
       </c>
@@ -25560,7 +25560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="629" spans="1:50">
+    <row r="629" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2023</v>
       </c>
@@ -25604,7 +25604,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="630" spans="1:50">
+    <row r="630" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2023</v>
       </c>
@@ -25648,7 +25648,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:50">
+    <row r="631" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2023</v>
       </c>
@@ -25689,7 +25689,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="632" spans="1:50">
+    <row r="632" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2022</v>
       </c>
@@ -25727,7 +25727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="633" spans="1:50">
+    <row r="633" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>2022</v>
       </c>
@@ -25756,7 +25756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="634" spans="1:50">
+    <row r="634" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>2022</v>
       </c>
@@ -25794,7 +25794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="635" spans="1:50">
+    <row r="635" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>2022</v>
       </c>
@@ -25823,7 +25823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:50">
+    <row r="636" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>2022</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="637" spans="1:50">
+    <row r="637" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>2022</v>
       </c>
@@ -25890,7 +25890,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="638" spans="1:50">
+    <row r="638" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>2022</v>
       </c>
@@ -25928,7 +25928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="639" spans="1:50">
+    <row r="639" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>2022</v>
       </c>
@@ -25963,7 +25963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="640" spans="1:50">
+    <row r="640" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>2022</v>
       </c>
@@ -26004,7 +26004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="641" spans="1:50">
+    <row r="641" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>2022</v>
       </c>
@@ -26036,7 +26036,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="642" spans="1:50">
+    <row r="642" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>2022</v>
       </c>
@@ -26071,7 +26071,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="643" spans="1:50">
+    <row r="643" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>2022</v>
       </c>
@@ -26109,7 +26109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="644" spans="1:50">
+    <row r="644" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>2022</v>
       </c>
@@ -26147,7 +26147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="645" spans="1:50">
+    <row r="645" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>2022</v>
       </c>
@@ -26188,7 +26188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:50">
+    <row r="646" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>2022</v>
       </c>
@@ -26217,7 +26217,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="647" spans="1:50">
+    <row r="647" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>2022</v>
       </c>
@@ -26243,7 +26243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="648" spans="1:50">
+    <row r="648" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>2022</v>
       </c>
@@ -26269,7 +26269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="649" spans="1:50">
+    <row r="649" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>2022</v>
       </c>
@@ -26295,7 +26295,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="650" spans="1:50">
+    <row r="650" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>2022</v>
       </c>
@@ -26324,7 +26324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="651" spans="1:50">
+    <row r="651" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>2022</v>
       </c>
@@ -26353,7 +26353,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="652" spans="1:50">
+    <row r="652" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>2022</v>
       </c>
@@ -26385,7 +26385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="653" spans="1:50">
+    <row r="653" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>2022</v>
       </c>
@@ -26417,7 +26417,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="654" spans="1:50">
+    <row r="654" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>2022</v>
       </c>
@@ -26452,7 +26452,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="655" spans="1:50">
+    <row r="655" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>2022</v>
       </c>
@@ -26490,7 +26490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="656" spans="1:50">
+    <row r="656" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>2022</v>
       </c>
@@ -26531,7 +26531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="657" spans="1:65">
+    <row r="657" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>2022</v>
       </c>
@@ -26572,7 +26572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="658" spans="1:65">
+    <row r="658" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>2022</v>
       </c>
@@ -26613,7 +26613,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="659" spans="1:65">
+    <row r="659" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>2022</v>
       </c>
@@ -26663,7 +26663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="660" spans="1:65">
+    <row r="660" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>2022</v>
       </c>
@@ -26707,7 +26707,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="661" spans="1:65">
+    <row r="661" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>2022</v>
       </c>
@@ -26742,7 +26742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="662" spans="1:65">
+    <row r="662" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>2022</v>
       </c>
@@ -26771,7 +26771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="663" spans="1:65">
+    <row r="663" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>2022</v>
       </c>
@@ -26803,7 +26803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="664" spans="1:65">
+    <row r="664" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>2022</v>
       </c>
@@ -26832,7 +26832,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="665" spans="1:65">
+    <row r="665" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>2022</v>
       </c>
@@ -26867,7 +26867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:65">
+    <row r="666" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>2022</v>
       </c>
@@ -26899,7 +26899,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="667" spans="1:65">
+    <row r="667" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>2022</v>
       </c>
@@ -26931,7 +26931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="668" spans="1:65">
+    <row r="668" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>2022</v>
       </c>
@@ -26963,7 +26963,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="669" spans="1:65">
+    <row r="669" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>2022</v>
       </c>
@@ -26998,7 +26998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="670" spans="1:65">
+    <row r="670" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>2022</v>
       </c>
@@ -27027,7 +27027,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="671" spans="1:65">
+    <row r="671" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>2022</v>
       </c>
@@ -27059,7 +27059,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="672" spans="1:65">
+    <row r="672" spans="1:65" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>2022</v>
       </c>
@@ -27097,7 +27097,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="673" spans="1:51">
+    <row r="673" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>2022</v>
       </c>
@@ -27138,7 +27138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="674" spans="1:51">
+    <row r="674" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>2022</v>
       </c>
@@ -27188,7 +27188,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="675" spans="1:51">
+    <row r="675" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>2023</v>
       </c>
@@ -27229,7 +27229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="676" spans="1:51">
+    <row r="676" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>2023</v>
       </c>
@@ -27252,7 +27252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="677" spans="1:51">
+    <row r="677" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>2023</v>
       </c>
@@ -27293,7 +27293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="678" spans="1:51">
+    <row r="678" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>2023</v>
       </c>
@@ -27337,7 +27337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="679" spans="1:51">
+    <row r="679" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>2023</v>
       </c>
@@ -27387,7 +27387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="680" spans="1:51">
+    <row r="680" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>2023</v>
       </c>
@@ -27425,7 +27425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="681" spans="1:51">
+    <row r="681" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>2023</v>
       </c>
@@ -27466,7 +27466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="682" spans="1:51">
+    <row r="682" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>2023</v>
       </c>
@@ -27510,7 +27510,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="683" spans="1:51">
+    <row r="683" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>2023</v>
       </c>
@@ -27560,7 +27560,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="684" spans="1:51">
+    <row r="684" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>2023</v>
       </c>
@@ -27598,7 +27598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="685" spans="1:51">
+    <row r="685" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>2023</v>
       </c>
@@ -27636,7 +27636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="686" spans="1:51">
+    <row r="686" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>2023</v>
       </c>
@@ -27674,7 +27674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="687" spans="1:51">
+    <row r="687" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A687">
         <v>2023</v>
       </c>
@@ -27712,7 +27712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="688" spans="1:51">
+    <row r="688" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A688">
         <v>2023</v>
       </c>
@@ -27747,7 +27747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="689" spans="1:67">
+    <row r="689" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A689">
         <v>2023</v>
       </c>
@@ -27782,7 +27782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="690" spans="1:67">
+    <row r="690" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A690">
         <v>2023</v>
       </c>
@@ -27817,7 +27817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="691" spans="1:67">
+    <row r="691" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A691">
         <v>2023</v>
       </c>
@@ -27852,7 +27852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:67">
+    <row r="692" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A692">
         <v>2023</v>
       </c>
@@ -27893,7 +27893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="693" spans="1:67">
+    <row r="693" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A693">
         <v>2023</v>
       </c>
@@ -27934,7 +27934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="694" spans="1:67">
+    <row r="694" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A694">
         <v>2023</v>
       </c>
@@ -27981,7 +27981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="695" spans="1:67">
+    <row r="695" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A695">
         <v>2023</v>
       </c>
@@ -28028,7 +28028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="696" spans="1:67">
+    <row r="696" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A696">
         <v>2023</v>
       </c>
@@ -28072,7 +28072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="697" spans="1:67">
+    <row r="697" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A697">
         <v>2023</v>
       </c>
@@ -28122,7 +28122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="698" spans="1:67">
+    <row r="698" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A698">
         <v>2023</v>
       </c>
@@ -28169,7 +28169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="699" spans="1:67">
+    <row r="699" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A699">
         <v>2023</v>
       </c>
@@ -28219,7 +28219,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="700" spans="1:67">
+    <row r="700" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A700">
         <v>2023</v>
       </c>
@@ -28278,7 +28278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="701" spans="1:67">
+    <row r="701" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A701">
         <v>2023</v>
       </c>
@@ -28340,7 +28340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="702" spans="1:67">
+    <row r="702" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A702">
         <v>2023</v>
       </c>
@@ -28399,7 +28399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="703" spans="1:67">
+    <row r="703" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A703">
         <v>2023</v>
       </c>
@@ -28440,7 +28440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="704" spans="1:67">
+    <row r="704" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A704">
         <v>2023</v>
       </c>
@@ -28469,7 +28469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="705" spans="1:67">
+    <row r="705" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A705">
         <v>2023</v>
       </c>
@@ -28510,7 +28510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="706" spans="1:67">
+    <row r="706" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A706">
         <v>2023</v>
       </c>
@@ -28545,7 +28545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="707" spans="1:67">
+    <row r="707" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A707">
         <v>2023</v>
       </c>
@@ -28577,7 +28577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="708" spans="1:67">
+    <row r="708" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A708">
         <v>2023</v>
       </c>
@@ -28606,7 +28606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="709" spans="1:67">
+    <row r="709" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A709">
         <v>2023</v>
       </c>
@@ -28650,7 +28650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="710" spans="1:67">
+    <row r="710" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A710">
         <v>2023</v>
       </c>
@@ -28700,7 +28700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="711" spans="1:67">
+    <row r="711" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A711">
         <v>2023</v>
       </c>
@@ -28744,7 +28744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="712" spans="1:67">
+    <row r="712" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A712">
         <v>2023</v>
       </c>
@@ -28791,7 +28791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="713" spans="1:67">
+    <row r="713" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A713">
         <v>2023</v>
       </c>
@@ -28841,7 +28841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="714" spans="1:67">
+    <row r="714" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A714">
         <v>2023</v>
       </c>
@@ -28888,7 +28888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="715" spans="1:67">
+    <row r="715" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A715">
         <v>2023</v>
       </c>
@@ -28938,7 +28938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="716" spans="1:67">
+    <row r="716" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A716">
         <v>2023</v>
       </c>
@@ -28982,7 +28982,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="717" spans="1:67">
+    <row r="717" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A717">
         <v>2023</v>
       </c>
@@ -29032,7 +29032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="718" spans="1:67">
+    <row r="718" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A718">
         <v>2023</v>
       </c>
@@ -29085,7 +29085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="719" spans="1:67">
+    <row r="719" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A719">
         <v>2023</v>
       </c>
@@ -29147,7 +29147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="720" spans="1:67">
+    <row r="720" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A720">
         <v>2023</v>
       </c>
@@ -29191,7 +29191,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="721" spans="1:50">
+    <row r="721" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A721">
         <v>2023</v>
       </c>
@@ -29229,7 +29229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="722" spans="1:50">
+    <row r="722" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A722">
         <v>2023</v>
       </c>
@@ -29276,7 +29276,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="723" spans="1:50">
+    <row r="723" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A723">
         <v>2023</v>
       </c>
@@ -29320,7 +29320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="724" spans="1:50">
+    <row r="724" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A724">
         <v>2023</v>
       </c>
@@ -29358,7 +29358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="725" spans="1:50">
+    <row r="725" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A725">
         <v>2023</v>
       </c>
@@ -29399,7 +29399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="726" spans="1:50">
+    <row r="726" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A726">
         <v>2023</v>
       </c>
@@ -29446,7 +29446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="727" spans="1:50">
+    <row r="727" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A727">
         <v>2023</v>
       </c>
@@ -29487,7 +29487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="728" spans="1:50">
+    <row r="728" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A728">
         <v>2023</v>
       </c>
@@ -29525,7 +29525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="729" spans="1:50">
+    <row r="729" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A729">
         <v>2023</v>
       </c>
@@ -29572,7 +29572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="730" spans="1:50">
+    <row r="730" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A730">
         <v>2023</v>
       </c>
@@ -29601,7 +29601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="731" spans="1:50">
+    <row r="731" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A731">
         <v>2023</v>
       </c>
@@ -29633,7 +29633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="732" spans="1:50">
+    <row r="732" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A732">
         <v>2023</v>
       </c>
@@ -29668,7 +29668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="733" spans="1:50">
+    <row r="733" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A733">
         <v>2023</v>
       </c>
@@ -29703,7 +29703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="734" spans="1:50">
+    <row r="734" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A734">
         <v>2023</v>
       </c>
@@ -29753,7 +29753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="735" spans="1:50">
+    <row r="735" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A735">
         <v>2023</v>
       </c>
@@ -29791,7 +29791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="736" spans="1:50">
+    <row r="736" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A736">
         <v>2023</v>
       </c>
@@ -29832,7 +29832,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="737" spans="1:55">
+    <row r="737" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A737">
         <v>2023</v>
       </c>
@@ -29882,7 +29882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="738" spans="1:55">
+    <row r="738" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A738">
         <v>2023</v>
       </c>
@@ -29935,7 +29935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="739" spans="1:55">
+    <row r="739" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A739">
         <v>2023</v>
       </c>
@@ -29979,7 +29979,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="740" spans="1:55">
+    <row r="740" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A740">
         <v>2023</v>
       </c>
@@ -30023,7 +30023,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="741" spans="1:55">
+    <row r="741" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A741">
         <v>2023</v>
       </c>
@@ -30061,7 +30061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="742" spans="1:55">
+    <row r="742" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A742">
         <v>2023</v>
       </c>
@@ -30099,7 +30099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="743" spans="1:55">
+    <row r="743" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A743">
         <v>2023</v>
       </c>
@@ -30140,7 +30140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="744" spans="1:55">
+    <row r="744" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A744">
         <v>2023</v>
       </c>
@@ -30184,7 +30184,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="745" spans="1:55">
+    <row r="745" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A745">
         <v>2023</v>
       </c>
@@ -30237,7 +30237,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="746" spans="1:55">
+    <row r="746" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A746">
         <v>2023</v>
       </c>
@@ -30287,7 +30287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="747" spans="1:55">
+    <row r="747" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A747">
         <v>2023</v>
       </c>
@@ -30331,7 +30331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="748" spans="1:55">
+    <row r="748" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A748">
         <v>2023</v>
       </c>
@@ -30384,7 +30384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="749" spans="1:55">
+    <row r="749" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A749">
         <v>2023</v>
       </c>
@@ -30431,7 +30431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="750" spans="1:55">
+    <row r="750" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A750">
         <v>2023</v>
       </c>
@@ -30487,7 +30487,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="751" spans="1:55">
+    <row r="751" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A751">
         <v>2023</v>
       </c>
@@ -30546,7 +30546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="752" spans="1:55">
+    <row r="752" spans="1:55" x14ac:dyDescent="0.3">
       <c r="A752">
         <v>2023</v>
       </c>
@@ -30602,7 +30602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="753" spans="1:51">
+    <row r="753" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A753">
         <v>2023</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="754" spans="1:51">
+    <row r="754" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A754">
         <v>2023</v>
       </c>
@@ -30675,7 +30675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="755" spans="1:51">
+    <row r="755" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A755">
         <v>2023</v>
       </c>
@@ -30710,7 +30710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="756" spans="1:51">
+    <row r="756" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A756">
         <v>2023</v>
       </c>
@@ -30739,7 +30739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="757" spans="1:51">
+    <row r="757" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A757">
         <v>2023</v>
       </c>
@@ -30771,7 +30771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="758" spans="1:51">
+    <row r="758" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A758">
         <v>2023</v>
       </c>
@@ -30803,7 +30803,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="759" spans="1:51">
+    <row r="759" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A759">
         <v>2023</v>
       </c>
@@ -30847,7 +30847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:51">
+    <row r="760" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A760">
         <v>2023</v>
       </c>
@@ -30891,7 +30891,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="761" spans="1:51">
+    <row r="761" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A761">
         <v>2023</v>
       </c>
@@ -30938,7 +30938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="762" spans="1:51">
+    <row r="762" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A762">
         <v>2023</v>
       </c>
@@ -30982,7 +30982,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="763" spans="1:51">
+    <row r="763" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A763">
         <v>2023</v>
       </c>
@@ -31026,7 +31026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="764" spans="1:51">
+    <row r="764" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A764">
         <v>2023</v>
       </c>
@@ -31067,7 +31067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:51">
+    <row r="765" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A765">
         <v>2023</v>
       </c>
@@ -31117,7 +31117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:51">
+    <row r="766" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A766">
         <v>2023</v>
       </c>
@@ -31170,7 +31170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:51">
+    <row r="767" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A767">
         <v>2023</v>
       </c>
@@ -31223,7 +31223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:51">
+    <row r="768" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A768">
         <v>2023</v>
       </c>
@@ -31273,7 +31273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:52">
+    <row r="769" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A769">
         <v>2023</v>
       </c>
@@ -31338,7 +31338,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="770" spans="1:52">
+    <row r="770" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A770">
         <v>2023</v>
       </c>
@@ -31391,7 +31391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="771" spans="1:52">
+    <row r="771" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A771">
         <v>2023</v>
       </c>
@@ -31435,7 +31435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:52">
+    <row r="772" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A772">
         <v>2023</v>
       </c>
@@ -31479,7 +31479,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="773" spans="1:52">
+    <row r="773" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A773">
         <v>2023</v>
       </c>
@@ -31520,7 +31520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="774" spans="1:52">
+    <row r="774" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A774">
         <v>2023</v>
       </c>
@@ -31564,7 +31564,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="775" spans="1:52">
+    <row r="775" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A775">
         <v>2023</v>
       </c>
@@ -31611,7 +31611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="776" spans="1:52">
+    <row r="776" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A776">
         <v>2023</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="777" spans="1:52">
+    <row r="777" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A777">
         <v>2023</v>
       </c>
@@ -31720,7 +31720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:52">
+    <row r="778" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A778">
         <v>2023</v>
       </c>
@@ -31773,7 +31773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:52">
+    <row r="779" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A779">
         <v>2023</v>
       </c>
@@ -31817,7 +31817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:52">
+    <row r="780" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A780">
         <v>2023</v>
       </c>
@@ -31855,7 +31855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:52">
+    <row r="781" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A781">
         <v>2023</v>
       </c>
@@ -31893,7 +31893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:52">
+    <row r="782" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A782">
         <v>2023</v>
       </c>
@@ -31937,7 +31937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:52">
+    <row r="783" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A783">
         <v>2023</v>
       </c>
@@ -31984,7 +31984,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="784" spans="1:52">
+    <row r="784" spans="1:52" x14ac:dyDescent="0.3">
       <c r="A784">
         <v>2023</v>
       </c>
@@ -32037,7 +32037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="785" spans="1:69">
+    <row r="785" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A785">
         <v>2023</v>
       </c>
@@ -32084,7 +32084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="786" spans="1:69">
+    <row r="786" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A786">
         <v>2023</v>
       </c>
@@ -32134,7 +32134,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="787" spans="1:69">
+    <row r="787" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A787">
         <v>2023</v>
       </c>
@@ -32178,7 +32178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="788" spans="1:69">
+    <row r="788" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A788">
         <v>2023</v>
       </c>
@@ -32207,7 +32207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="789" spans="1:69">
+    <row r="789" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A789">
         <v>2023</v>
       </c>
@@ -32245,7 +32245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="790" spans="1:69">
+    <row r="790" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A790">
         <v>2023</v>
       </c>
@@ -32286,7 +32286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:69">
+    <row r="791" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A791">
         <v>2023</v>
       </c>
@@ -32330,7 +32330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="792" spans="1:69">
+    <row r="792" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A792">
         <v>2023</v>
       </c>
@@ -32374,7 +32374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:69">
+    <row r="793" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A793">
         <v>2023</v>
       </c>
@@ -32430,7 +32430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:69">
+    <row r="794" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A794">
         <v>2023</v>
       </c>
@@ -32480,7 +32480,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="795" spans="1:69">
+    <row r="795" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A795">
         <v>2023</v>
       </c>
@@ -32533,7 +32533,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="796" spans="1:69">
+    <row r="796" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A796">
         <v>2023</v>
       </c>
@@ -32580,7 +32580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:69">
+    <row r="797" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A797">
         <v>2023</v>
       </c>
@@ -32624,7 +32624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:69">
+    <row r="798" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A798">
         <v>2023</v>
       </c>
@@ -32662,7 +32662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="799" spans="1:69">
+    <row r="799" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A799">
         <v>2023</v>
       </c>
@@ -32709,7 +32709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="800" spans="1:69">
+    <row r="800" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A800">
         <v>2023</v>
       </c>
@@ -32759,7 +32759,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="801" spans="1:67">
+    <row r="801" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A801">
         <v>2023</v>
       </c>
@@ -32812,7 +32812,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="802" spans="1:67">
+    <row r="802" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A802">
         <v>2023</v>
       </c>
@@ -32862,7 +32862,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="803" spans="1:67">
+    <row r="803" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A803">
         <v>2023</v>
       </c>
@@ -32909,7 +32909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="804" spans="1:67">
+    <row r="804" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A804">
         <v>2023</v>
       </c>
@@ -32962,7 +32962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="805" spans="1:67">
+    <row r="805" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A805">
         <v>2023</v>
       </c>
@@ -33015,7 +33015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="806" spans="1:67">
+    <row r="806" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A806">
         <v>2023</v>
       </c>
@@ -33068,7 +33068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="807" spans="1:67">
+    <row r="807" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A807">
         <v>2023</v>
       </c>
@@ -33112,7 +33112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="808" spans="1:67">
+    <row r="808" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A808">
         <v>2023</v>
       </c>
@@ -33156,7 +33156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="809" spans="1:67">
+    <row r="809" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A809">
         <v>2023</v>
       </c>
@@ -33212,7 +33212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="810" spans="1:67">
+    <row r="810" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A810">
         <v>2023</v>
       </c>
@@ -33271,7 +33271,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="811" spans="1:67">
+    <row r="811" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A811">
         <v>2023</v>
       </c>
@@ -33333,7 +33333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="812" spans="1:67">
+    <row r="812" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A812">
         <v>2023</v>
       </c>
@@ -33359,7 +33359,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="813" spans="1:67">
+    <row r="813" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A813">
         <v>2023</v>
       </c>
@@ -33415,7 +33415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="814" spans="1:67">
+    <row r="814" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A814">
         <v>2023</v>
       </c>
@@ -33456,7 +33456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="815" spans="1:67">
+    <row r="815" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A815">
         <v>2023</v>
       </c>
@@ -33491,7 +33491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="816" spans="1:67">
+    <row r="816" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A816">
         <v>2023</v>
       </c>
@@ -33529,7 +33529,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="817" spans="1:67">
+    <row r="817" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A817">
         <v>2023</v>
       </c>
@@ -33570,7 +33570,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="818" spans="1:67">
+    <row r="818" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A818">
         <v>2023</v>
       </c>
@@ -33608,7 +33608,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="819" spans="1:67">
+    <row r="819" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A819">
         <v>2023</v>
       </c>
@@ -33646,7 +33646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="820" spans="1:67">
+    <row r="820" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A820">
         <v>2023</v>
       </c>
@@ -33687,7 +33687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="821" spans="1:67">
+    <row r="821" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A821">
         <v>2023</v>
       </c>
@@ -33725,7 +33725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="822" spans="1:67">
+    <row r="822" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A822">
         <v>2023</v>
       </c>
@@ -33763,7 +33763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="823" spans="1:67">
+    <row r="823" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A823">
         <v>2023</v>
       </c>
@@ -33819,7 +33819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="824" spans="1:67">
+    <row r="824" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A824">
         <v>2023</v>
       </c>
@@ -33875,7 +33875,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="825" spans="1:67">
+    <row r="825" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A825">
         <v>2023</v>
       </c>
@@ -33928,7 +33928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="826" spans="1:67">
+    <row r="826" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A826">
         <v>2023</v>
       </c>
@@ -33978,7 +33978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="827" spans="1:67">
+    <row r="827" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A827">
         <v>2023</v>
       </c>
@@ -34031,7 +34031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="828" spans="1:67">
+    <row r="828" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A828">
         <v>2023</v>
       </c>
@@ -34096,7 +34096,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="829" spans="1:67">
+    <row r="829" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A829">
         <v>2023</v>
       </c>
@@ -34137,7 +34137,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="830" spans="1:67">
+    <row r="830" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A830">
         <v>2023</v>
       </c>
@@ -34169,7 +34169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="831" spans="1:67">
+    <row r="831" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A831">
         <v>2023</v>
       </c>
@@ -34207,7 +34207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="832" spans="1:67">
+    <row r="832" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A832">
         <v>2023</v>
       </c>
@@ -34251,7 +34251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:74">
+    <row r="833" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>2023</v>
       </c>
@@ -34289,7 +34289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:74">
+    <row r="834" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>2023</v>
       </c>
@@ -34330,7 +34330,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="835" spans="1:74">
+    <row r="835" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>2023</v>
       </c>
@@ -34374,7 +34374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="836" spans="1:74">
+    <row r="836" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>2023</v>
       </c>
@@ -34424,7 +34424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="837" spans="1:74">
+    <row r="837" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>2023</v>
       </c>
@@ -34477,7 +34477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:74">
+    <row r="838" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>2023</v>
       </c>
@@ -34518,7 +34518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:74">
+    <row r="839" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>2023</v>
       </c>
@@ -34556,7 +34556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:74">
+    <row r="840" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>2023</v>
       </c>
@@ -34597,7 +34597,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:74">
+    <row r="841" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>2023</v>
       </c>
@@ -34641,7 +34641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:74">
+    <row r="842" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>2023</v>
       </c>
@@ -34676,7 +34676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="843" spans="1:74">
+    <row r="843" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>2023</v>
       </c>
@@ -34714,7 +34714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:74">
+    <row r="844" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>2023</v>
       </c>
@@ -34752,7 +34752,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:74">
+    <row r="845" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>2023</v>
       </c>
@@ -34790,7 +34790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="846" spans="1:74">
+    <row r="846" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>2023</v>
       </c>
@@ -34828,7 +34828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:74">
+    <row r="847" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>2023</v>
       </c>
@@ -34863,7 +34863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="848" spans="1:74">
+    <row r="848" spans="1:74" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>2023</v>
       </c>
@@ -34907,7 +34907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="849" spans="1:70">
+    <row r="849" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A849">
         <v>2023</v>
       </c>
@@ -34945,7 +34945,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="850" spans="1:70">
+    <row r="850" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A850">
         <v>2023</v>
       </c>
@@ -34986,7 +34986,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="851" spans="1:70">
+    <row r="851" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A851">
         <v>2023</v>
       </c>
@@ -35030,7 +35030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="852" spans="1:70">
+    <row r="852" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A852">
         <v>2023</v>
       </c>
@@ -35077,7 +35077,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="853" spans="1:70">
+    <row r="853" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A853">
         <v>2023</v>
       </c>
@@ -35133,7 +35133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="854" spans="1:70">
+    <row r="854" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A854">
         <v>2023</v>
       </c>
@@ -35189,7 +35189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:70">
+    <row r="855" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A855">
         <v>2023</v>
       </c>
@@ -35245,7 +35245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:70">
+    <row r="856" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A856">
         <v>2023</v>
       </c>
@@ -35313,7 +35313,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="857" spans="1:70">
+    <row r="857" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A857">
         <v>2023</v>
       </c>
@@ -35390,7 +35390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="858" spans="1:70">
+    <row r="858" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A858">
         <v>2023</v>
       </c>
@@ -35425,7 +35425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:70">
+    <row r="859" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A859">
         <v>2023</v>
       </c>
@@ -35457,7 +35457,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="860" spans="1:70">
+    <row r="860" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A860">
         <v>2023</v>
       </c>
@@ -35495,7 +35495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="861" spans="1:70">
+    <row r="861" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A861">
         <v>2023</v>
       </c>
@@ -35527,7 +35527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="862" spans="1:70">
+    <row r="862" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A862">
         <v>2023</v>
       </c>
@@ -35568,7 +35568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="863" spans="1:70">
+    <row r="863" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A863">
         <v>2023</v>
       </c>
@@ -35606,7 +35606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="864" spans="1:70">
+    <row r="864" spans="1:70" x14ac:dyDescent="0.3">
       <c r="A864">
         <v>2023</v>
       </c>
@@ -35647,7 +35647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="865" spans="1:67">
+    <row r="865" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A865">
         <v>2023</v>
       </c>
@@ -35688,7 +35688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="866" spans="1:67">
+    <row r="866" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A866">
         <v>2023</v>
       </c>
@@ -35726,7 +35726,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="867" spans="1:67">
+    <row r="867" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A867">
         <v>2023</v>
       </c>
@@ -35764,7 +35764,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="868" spans="1:67">
+    <row r="868" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A868">
         <v>2023</v>
       </c>
@@ -35802,7 +35802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="869" spans="1:67">
+    <row r="869" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A869">
         <v>2023</v>
       </c>
@@ -35855,7 +35855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="870" spans="1:67">
+    <row r="870" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A870">
         <v>2023</v>
       </c>
@@ -35908,7 +35908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="871" spans="1:67">
+    <row r="871" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A871">
         <v>2023</v>
       </c>
@@ -35967,7 +35967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="872" spans="1:67">
+    <row r="872" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A872">
         <v>2023</v>
       </c>
@@ -36026,7 +36026,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="873" spans="1:67">
+    <row r="873" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A873">
         <v>2023</v>
       </c>
@@ -36085,7 +36085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="874" spans="1:67">
+    <row r="874" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A874">
         <v>2023</v>
       </c>
@@ -36144,7 +36144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="875" spans="1:67">
+    <row r="875" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A875">
         <v>2023</v>
       </c>
@@ -36179,7 +36179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="876" spans="1:67">
+    <row r="876" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A876">
         <v>2023</v>
       </c>
@@ -36211,7 +36211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="877" spans="1:67">
+    <row r="877" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A877">
         <v>2023</v>
       </c>
@@ -36249,7 +36249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="878" spans="1:67">
+    <row r="878" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A878">
         <v>2023</v>
       </c>
@@ -36284,7 +36284,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="879" spans="1:67">
+    <row r="879" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A879">
         <v>2023</v>
       </c>
@@ -36325,7 +36325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="880" spans="1:67">
+    <row r="880" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A880">
         <v>2023</v>
       </c>
@@ -36366,7 +36366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="881" spans="1:50">
+    <row r="881" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A881">
         <v>2023</v>
       </c>
@@ -36410,7 +36410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="882" spans="1:50">
+    <row r="882" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A882">
         <v>2023</v>
       </c>
@@ -36448,7 +36448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="883" spans="1:50">
+    <row r="883" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A883">
         <v>2023</v>
       </c>
@@ -36489,7 +36489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="884" spans="1:50">
+    <row r="884" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A884">
         <v>2023</v>
       </c>
@@ -36527,7 +36527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="885" spans="1:50">
+    <row r="885" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A885">
         <v>2023</v>
       </c>
@@ -36565,7 +36565,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="886" spans="1:50">
+    <row r="886" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A886">
         <v>2023</v>
       </c>
@@ -36603,7 +36603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="887" spans="1:50">
+    <row r="887" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A887">
         <v>2023</v>
       </c>
@@ -36641,7 +36641,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="888" spans="1:50">
+    <row r="888" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A888">
         <v>2023</v>
       </c>
@@ -36673,7 +36673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="889" spans="1:50">
+    <row r="889" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A889">
         <v>2023</v>
       </c>
@@ -36708,7 +36708,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="890" spans="1:50">
+    <row r="890" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A890">
         <v>2023</v>
       </c>
@@ -36749,7 +36749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="891" spans="1:50">
+    <row r="891" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A891">
         <v>2023</v>
       </c>
@@ -36781,7 +36781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="892" spans="1:50">
+    <row r="892" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A892">
         <v>2023</v>
       </c>
@@ -36819,7 +36819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="893" spans="1:50">
+    <row r="893" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A893">
         <v>2023</v>
       </c>
@@ -36854,7 +36854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="894" spans="1:50">
+    <row r="894" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A894">
         <v>2023</v>
       </c>
@@ -36892,7 +36892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="895" spans="1:50">
+    <row r="895" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A895">
         <v>2023</v>
       </c>
@@ -36933,7 +36933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="896" spans="1:50">
+    <row r="896" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A896">
         <v>2023</v>
       </c>
@@ -36977,7 +36977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="897" spans="1:69">
+    <row r="897" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A897">
         <v>2023</v>
       </c>
@@ -37009,7 +37009,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="898" spans="1:69">
+    <row r="898" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A898">
         <v>2023</v>
       </c>
@@ -37044,7 +37044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="899" spans="1:69">
+    <row r="899" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A899">
         <v>2023</v>
       </c>
@@ -37085,7 +37085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="900" spans="1:69">
+    <row r="900" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A900">
         <v>2023</v>
       </c>
@@ -37150,7 +37150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="901" spans="1:69">
+    <row r="901" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A901">
         <v>2023</v>
       </c>
@@ -37212,7 +37212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="902" spans="1:69">
+    <row r="902" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A902">
         <v>2023</v>
       </c>
@@ -37277,7 +37277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="903" spans="1:69">
+    <row r="903" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A903">
         <v>2023</v>
       </c>
@@ -37315,7 +37315,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="904" spans="1:69">
+    <row r="904" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A904">
         <v>2023</v>
       </c>
@@ -37347,7 +37347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="905" spans="1:69">
+    <row r="905" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A905">
         <v>2023</v>
       </c>
@@ -37385,7 +37385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="906" spans="1:69">
+    <row r="906" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A906">
         <v>2023</v>
       </c>
@@ -37426,7 +37426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="907" spans="1:69">
+    <row r="907" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A907">
         <v>2023</v>
       </c>
@@ -37464,7 +37464,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="908" spans="1:69">
+    <row r="908" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A908">
         <v>2023</v>
       </c>
@@ -37499,7 +37499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="909" spans="1:69">
+    <row r="909" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A909">
         <v>2023</v>
       </c>
@@ -37540,7 +37540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="910" spans="1:69">
+    <row r="910" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A910">
         <v>2023</v>
       </c>
@@ -37578,7 +37578,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="911" spans="1:69">
+    <row r="911" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A911">
         <v>2023</v>
       </c>
@@ -37619,7 +37619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="912" spans="1:69">
+    <row r="912" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A912">
         <v>2023</v>
       </c>
@@ -37663,7 +37663,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="913" spans="1:73">
+    <row r="913" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A913">
         <v>2023</v>
       </c>
@@ -37704,7 +37704,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="914" spans="1:73">
+    <row r="914" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A914">
         <v>2023</v>
       </c>
@@ -37745,7 +37745,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="915" spans="1:73">
+    <row r="915" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A915">
         <v>2023</v>
       </c>
@@ -37789,7 +37789,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="916" spans="1:73">
+    <row r="916" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A916">
         <v>2023</v>
       </c>
@@ -37833,7 +37833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="917" spans="1:73">
+    <row r="917" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A917">
         <v>2023</v>
       </c>
@@ -37880,7 +37880,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="918" spans="1:73">
+    <row r="918" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A918">
         <v>2023</v>
       </c>
@@ -37933,7 +37933,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="919" spans="1:73">
+    <row r="919" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A919">
         <v>2023</v>
       </c>
@@ -37983,7 +37983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="920" spans="1:73">
+    <row r="920" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A920">
         <v>2023</v>
       </c>
@@ -38039,7 +38039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="921" spans="1:73">
+    <row r="921" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A921">
         <v>2023</v>
       </c>
@@ -38071,7 +38071,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="922" spans="1:73">
+    <row r="922" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A922">
         <v>2023</v>
       </c>
@@ -38106,7 +38106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="923" spans="1:73">
+    <row r="923" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A923">
         <v>2023</v>
       </c>
@@ -38144,7 +38144,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="924" spans="1:73">
+    <row r="924" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A924">
         <v>2023</v>
       </c>
@@ -38182,7 +38182,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="925" spans="1:73">
+    <row r="925" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A925">
         <v>2023</v>
       </c>
@@ -38223,7 +38223,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="926" spans="1:73">
+    <row r="926" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A926">
         <v>2023</v>
       </c>
@@ -38264,7 +38264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="927" spans="1:73">
+    <row r="927" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A927">
         <v>2023</v>
       </c>
@@ -38299,7 +38299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="928" spans="1:73">
+    <row r="928" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A928">
         <v>2023</v>
       </c>
@@ -38337,7 +38337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="929" spans="1:68">
+    <row r="929" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A929">
         <v>2023</v>
       </c>
@@ -38384,7 +38384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="930" spans="1:68">
+    <row r="930" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A930">
         <v>2023</v>
       </c>
@@ -38422,7 +38422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="931" spans="1:68">
+    <row r="931" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A931">
         <v>2023</v>
       </c>
@@ -38457,7 +38457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="932" spans="1:68">
+    <row r="932" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A932">
         <v>2023</v>
       </c>
@@ -38492,7 +38492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="933" spans="1:68">
+    <row r="933" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A933">
         <v>2023</v>
       </c>
@@ -38527,7 +38527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="934" spans="1:68">
+    <row r="934" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A934">
         <v>2023</v>
       </c>
@@ -38565,7 +38565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="935" spans="1:68">
+    <row r="935" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A935">
         <v>2023</v>
       </c>
@@ -38600,7 +38600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="936" spans="1:68">
+    <row r="936" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A936">
         <v>2023</v>
       </c>
@@ -38632,7 +38632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="937" spans="1:68">
+    <row r="937" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A937">
         <v>2023</v>
       </c>
@@ -38664,7 +38664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="938" spans="1:68">
+    <row r="938" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A938">
         <v>2023</v>
       </c>
@@ -38696,7 +38696,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="939" spans="1:68">
+    <row r="939" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A939">
         <v>2023</v>
       </c>
@@ -38734,7 +38734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="940" spans="1:68">
+    <row r="940" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A940">
         <v>2023</v>
       </c>
@@ -38769,7 +38769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="941" spans="1:68">
+    <row r="941" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A941">
         <v>2023</v>
       </c>
@@ -38804,7 +38804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="942" spans="1:68">
+    <row r="942" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A942">
         <v>2023</v>
       </c>
@@ -38839,7 +38839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="943" spans="1:68">
+    <row r="943" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A943">
         <v>2023</v>
       </c>
@@ -38874,7 +38874,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="944" spans="1:68">
+    <row r="944" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A944">
         <v>2023</v>
       </c>
@@ -38915,7 +38915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="945" spans="1:72">
+    <row r="945" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A945">
         <v>2023</v>
       </c>
@@ -38962,7 +38962,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="946" spans="1:72">
+    <row r="946" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A946">
         <v>2023</v>
       </c>
@@ -39015,7 +39015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="947" spans="1:72">
+    <row r="947" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A947">
         <v>2023</v>
       </c>
@@ -39065,7 +39065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="948" spans="1:72">
+    <row r="948" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A948">
         <v>2023</v>
       </c>
@@ -39124,7 +39124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="949" spans="1:72">
+    <row r="949" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A949">
         <v>2023</v>
       </c>
@@ -39156,7 +39156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="950" spans="1:72">
+    <row r="950" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A950">
         <v>2023</v>
       </c>
@@ -39188,7 +39188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="951" spans="1:72">
+    <row r="951" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A951">
         <v>2023</v>
       </c>
@@ -39226,7 +39226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="952" spans="1:72">
+    <row r="952" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A952">
         <v>2023</v>
       </c>
@@ -39264,7 +39264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="953" spans="1:72">
+    <row r="953" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A953">
         <v>2023</v>
       </c>
@@ -39302,7 +39302,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="954" spans="1:72">
+    <row r="954" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A954">
         <v>2023</v>
       </c>
@@ -39340,7 +39340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="955" spans="1:72">
+    <row r="955" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A955">
         <v>2023</v>
       </c>
@@ -39375,7 +39375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="956" spans="1:72">
+    <row r="956" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A956">
         <v>2023</v>
       </c>
@@ -39407,7 +39407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="957" spans="1:72">
+    <row r="957" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A957">
         <v>2023</v>
       </c>
@@ -39442,7 +39442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="958" spans="1:72">
+    <row r="958" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A958">
         <v>2023</v>
       </c>
@@ -39480,7 +39480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="959" spans="1:72">
+    <row r="959" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A959">
         <v>2023</v>
       </c>
@@ -39524,7 +39524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="960" spans="1:72">
+    <row r="960" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A960">
         <v>2023</v>
       </c>
@@ -39565,7 +39565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="961" spans="1:73">
+    <row r="961" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A961">
         <v>2023</v>
       </c>
@@ -39606,7 +39606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="962" spans="1:73">
+    <row r="962" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A962">
         <v>2023</v>
       </c>
@@ -39647,7 +39647,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="963" spans="1:73">
+    <row r="963" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A963">
         <v>2023</v>
       </c>
@@ -39697,7 +39697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="964" spans="1:73">
+    <row r="964" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A964">
         <v>2023</v>
       </c>
@@ -39750,7 +39750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="965" spans="1:73">
+    <row r="965" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A965">
         <v>2023</v>
       </c>
@@ -39800,7 +39800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="966" spans="1:73">
+    <row r="966" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A966">
         <v>2023</v>
       </c>
@@ -39856,7 +39856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="967" spans="1:73">
+    <row r="967" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A967">
         <v>2023</v>
       </c>
@@ -39888,7 +39888,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="968" spans="1:73">
+    <row r="968" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A968">
         <v>2023</v>
       </c>
@@ -39920,7 +39920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="969" spans="1:73">
+    <row r="969" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A969">
         <v>2023</v>
       </c>
@@ -39955,7 +39955,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="970" spans="1:73">
+    <row r="970" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A970">
         <v>2023</v>
       </c>
@@ -39993,7 +39993,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="971" spans="1:73">
+    <row r="971" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A971">
         <v>2023</v>
       </c>
@@ -40031,7 +40031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="972" spans="1:73">
+    <row r="972" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A972">
         <v>2023</v>
       </c>
@@ -40069,7 +40069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="973" spans="1:73">
+    <row r="973" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A973">
         <v>2023</v>
       </c>
@@ -40104,7 +40104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="974" spans="1:73">
+    <row r="974" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A974">
         <v>2023</v>
       </c>
@@ -40136,7 +40136,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="975" spans="1:73">
+    <row r="975" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A975">
         <v>2023</v>
       </c>
@@ -40174,7 +40174,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="976" spans="1:73">
+    <row r="976" spans="1:73" x14ac:dyDescent="0.3">
       <c r="A976">
         <v>2023</v>
       </c>
@@ -40212,7 +40212,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="977" spans="1:69">
+    <row r="977" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A977">
         <v>2023</v>
       </c>
@@ -40250,7 +40250,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="978" spans="1:69">
+    <row r="978" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A978">
         <v>2023</v>
       </c>
@@ -40288,7 +40288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="979" spans="1:69">
+    <row r="979" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A979">
         <v>2023</v>
       </c>
@@ -40317,7 +40317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="980" spans="1:69">
+    <row r="980" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A980">
         <v>2023</v>
       </c>
@@ -40352,7 +40352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="981" spans="1:69">
+    <row r="981" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A981">
         <v>2023</v>
       </c>
@@ -40390,7 +40390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="982" spans="1:69">
+    <row r="982" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A982">
         <v>2023</v>
       </c>
@@ -40422,7 +40422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="983" spans="1:69">
+    <row r="983" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A983">
         <v>2023</v>
       </c>
@@ -40454,7 +40454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="984" spans="1:69">
+    <row r="984" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A984">
         <v>2023</v>
       </c>
@@ -40489,7 +40489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="985" spans="1:69">
+    <row r="985" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A985">
         <v>2023</v>
       </c>
@@ -40527,7 +40527,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="986" spans="1:69">
+    <row r="986" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A986">
         <v>2023</v>
       </c>
@@ -40562,7 +40562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="987" spans="1:69">
+    <row r="987" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A987">
         <v>2023</v>
       </c>
@@ -40603,7 +40603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="988" spans="1:69">
+    <row r="988" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A988">
         <v>2023</v>
       </c>
@@ -40638,7 +40638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="989" spans="1:69">
+    <row r="989" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A989">
         <v>2023</v>
       </c>
@@ -40676,7 +40676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="990" spans="1:69">
+    <row r="990" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A990">
         <v>2023</v>
       </c>
@@ -40714,7 +40714,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="991" spans="1:69">
+    <row r="991" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A991">
         <v>2023</v>
       </c>
@@ -40749,7 +40749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="992" spans="1:69">
+    <row r="992" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A992">
         <v>2023</v>
       </c>
@@ -40781,7 +40781,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="993" spans="1:48">
+    <row r="993" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A993">
         <v>2023</v>
       </c>
@@ -40819,7 +40819,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="994" spans="1:48">
+    <row r="994" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A994">
         <v>2023</v>
       </c>
@@ -40854,7 +40854,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="995" spans="1:48">
+    <row r="995" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A995">
         <v>2023</v>
       </c>
@@ -40895,7 +40895,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="996" spans="1:48">
+    <row r="996" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A996">
         <v>2023</v>
       </c>
@@ -40933,7 +40933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="997" spans="1:48">
+    <row r="997" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A997">
         <v>2023</v>
       </c>
@@ -40968,7 +40968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="998" spans="1:48">
+    <row r="998" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A998">
         <v>2023</v>
       </c>
@@ -41003,7 +41003,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="999" spans="1:48">
+    <row r="999" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A999">
         <v>2023</v>
       </c>
@@ -41038,7 +41038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1000" spans="1:48">
+    <row r="1000" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1000">
         <v>2023</v>
       </c>
@@ -41070,7 +41070,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="1001" spans="1:48">
+    <row r="1001" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1001">
         <v>2023</v>
       </c>
@@ -41102,7 +41102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1002" spans="1:48">
+    <row r="1002" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1002">
         <v>2023</v>
       </c>
@@ -41140,7 +41140,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1003" spans="1:48">
+    <row r="1003" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1003">
         <v>2023</v>
       </c>
@@ -41178,7 +41178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1004" spans="1:48">
+    <row r="1004" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1004">
         <v>2023</v>
       </c>
@@ -41207,7 +41207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1005" spans="1:48">
+    <row r="1005" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1005">
         <v>2023</v>
       </c>
@@ -41242,7 +41242,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="1006" spans="1:48">
+    <row r="1006" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1006">
         <v>2023</v>
       </c>
@@ -41277,7 +41277,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1007" spans="1:48">
+    <row r="1007" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1007">
         <v>2023</v>
       </c>
@@ -41303,7 +41303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1008" spans="1:48">
+    <row r="1008" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1008">
         <v>2023</v>
       </c>
@@ -41341,7 +41341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1009" spans="1:69">
+    <row r="1009" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1009">
         <v>2023</v>
       </c>
@@ -41376,7 +41376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1010" spans="1:69">
+    <row r="1010" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1010">
         <v>2023</v>
       </c>
@@ -41414,7 +41414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1011" spans="1:69">
+    <row r="1011" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1011">
         <v>2023</v>
       </c>
@@ -41458,7 +41458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1012" spans="1:69">
+    <row r="1012" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1012">
         <v>2023</v>
       </c>
@@ -41499,7 +41499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1013" spans="1:69">
+    <row r="1013" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1013">
         <v>2023</v>
       </c>
@@ -41534,7 +41534,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1014" spans="1:69">
+    <row r="1014" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1014">
         <v>2023</v>
       </c>
@@ -41575,7 +41575,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1015" spans="1:69">
+    <row r="1015" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1015">
         <v>2023</v>
       </c>
@@ -41607,7 +41607,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1016" spans="1:69">
+    <row r="1016" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1016">
         <v>2023</v>
       </c>
@@ -41639,7 +41639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1017" spans="1:69">
+    <row r="1017" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1017">
         <v>2023</v>
       </c>
@@ -41671,7 +41671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1018" spans="1:69">
+    <row r="1018" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1018">
         <v>2023</v>
       </c>
@@ -41700,7 +41700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1019" spans="1:69">
+    <row r="1019" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1019">
         <v>2023</v>
       </c>
@@ -41741,7 +41741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1020" spans="1:69">
+    <row r="1020" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1020">
         <v>2023</v>
       </c>
@@ -41776,7 +41776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1021" spans="1:69">
+    <row r="1021" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1021">
         <v>2023</v>
       </c>
@@ -41814,7 +41814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1022" spans="1:69">
+    <row r="1022" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1022">
         <v>2023</v>
       </c>
@@ -41855,7 +41855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1023" spans="1:69">
+    <row r="1023" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1023">
         <v>2023</v>
       </c>
@@ -41890,7 +41890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1024" spans="1:69">
+    <row r="1024" spans="1:69" x14ac:dyDescent="0.3">
       <c r="A1024">
         <v>2023</v>
       </c>
@@ -41928,7 +41928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1025" spans="1:68">
+    <row r="1025" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1025">
         <v>2023</v>
       </c>
@@ -41969,7 +41969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1026" spans="1:68">
+    <row r="1026" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1026">
         <v>2023</v>
       </c>
@@ -42022,7 +42022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1027" spans="1:68">
+    <row r="1027" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1027">
         <v>2023</v>
       </c>
@@ -42078,7 +42078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1028" spans="1:68">
+    <row r="1028" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1028">
         <v>2023</v>
       </c>
@@ -42122,7 +42122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1029" spans="1:68">
+    <row r="1029" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1029">
         <v>2023</v>
       </c>
@@ -42163,7 +42163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1030" spans="1:68">
+    <row r="1030" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1030">
         <v>2023</v>
       </c>
@@ -42198,7 +42198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1031" spans="1:68">
+    <row r="1031" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1031">
         <v>2023</v>
       </c>
@@ -42230,7 +42230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="1032" spans="1:68">
+    <row r="1032" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1032">
         <v>2023</v>
       </c>
@@ -42265,7 +42265,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1033" spans="1:68">
+    <row r="1033" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1033">
         <v>2023</v>
       </c>
@@ -42303,7 +42303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1034" spans="1:68">
+    <row r="1034" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1034">
         <v>2023</v>
       </c>
@@ -42332,7 +42332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1035" spans="1:68">
+    <row r="1035" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1035">
         <v>2023</v>
       </c>
@@ -42373,7 +42373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1036" spans="1:68">
+    <row r="1036" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1036">
         <v>2023</v>
       </c>
@@ -42408,7 +42408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1037" spans="1:68">
+    <row r="1037" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1037">
         <v>2023</v>
       </c>
@@ -42434,7 +42434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="1038" spans="1:68">
+    <row r="1038" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1038">
         <v>2023</v>
       </c>
@@ -42478,7 +42478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1039" spans="1:68">
+    <row r="1039" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1039">
         <v>2023</v>
       </c>
@@ -42525,7 +42525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1040" spans="1:68">
+    <row r="1040" spans="1:68" x14ac:dyDescent="0.3">
       <c r="A1040">
         <v>2023</v>
       </c>
@@ -42572,7 +42572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1041" spans="1:67">
+    <row r="1041" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1041">
         <v>2023</v>
       </c>
@@ -42613,7 +42613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="1042" spans="1:67">
+    <row r="1042" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1042">
         <v>2023</v>
       </c>
@@ -42657,7 +42657,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1043" spans="1:67">
+    <row r="1043" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1043">
         <v>2023</v>
       </c>
@@ -42707,7 +42707,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="1044" spans="1:67">
+    <row r="1044" spans="1:67" x14ac:dyDescent="0.3">
       <c r="A1044">
         <v>2023</v>
       </c>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="4252" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1596900-1083-43C3-B55D-8288FC497DD8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="in" sheetId="1" r:id="rId1"/>
@@ -1248,8 +1248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BW1044"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1011" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BW1" sqref="BW1"/>
     </sheetView>
   </sheetViews>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27321"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4518" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BEAB7D20-A2C5-40F2-AD11-A22DBABF655E}"/>
+  <xr:revisionPtr revIDLastSave="4623" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{284E94A0-F269-41E0-8CDB-C467324F1EE5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1246,11 +1246,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BW1086"/>
+  <dimension ref="A1:BW1109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1072" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1082" sqref="R1082"/>
+      <pane ySplit="1" topLeftCell="D1091" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X1113" sqref="X1113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.45"/>
@@ -1265,14 +1265,14 @@
     <col min="8" max="8" width="4.7109375" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="3.7109375" customWidth="1"/>
     <col min="10" max="10" width="5.140625" customWidth="1"/>
-    <col min="11" max="11" width="4.7109375" customWidth="1"/>
-    <col min="12" max="12" width="3.85546875" customWidth="1"/>
-    <col min="13" max="13" width="4" customWidth="1"/>
-    <col min="14" max="14" width="4.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.140625" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" customWidth="1"/>
-    <col min="18" max="18" width="5.7109375" customWidth="1"/>
+    <col min="11" max="11" width="4.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="4" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="4.85546875" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="13.140625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5703125" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="5.7109375" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="7.140625" customWidth="1"/>
     <col min="20" max="20" width="4.85546875" customWidth="1"/>
     <col min="21" max="21" width="4.5703125" customWidth="1"/>
@@ -44345,6 +44345,787 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1087" spans="1:67">
+      <c r="A1087">
+        <v>2024</v>
+      </c>
+      <c r="B1087">
+        <v>1</v>
+      </c>
+      <c r="C1087">
+        <v>22</v>
+      </c>
+      <c r="D1087" s="3">
+        <v>0.90763888888888888</v>
+      </c>
+      <c r="E1087">
+        <v>0.7</v>
+      </c>
+      <c r="F1087">
+        <v>2</v>
+      </c>
+      <c r="G1087">
+        <v>0</v>
+      </c>
+      <c r="I1087">
+        <v>10</v>
+      </c>
+      <c r="S1087">
+        <v>1</v>
+      </c>
+      <c r="T1087">
+        <v>1</v>
+      </c>
+      <c r="X1087">
+        <v>1</v>
+      </c>
+      <c r="AL1087">
+        <v>3</v>
+      </c>
+      <c r="AM1087">
+        <v>5</v>
+      </c>
+      <c r="AN1087">
+        <v>1</v>
+      </c>
+      <c r="AV1087">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:67">
+      <c r="A1088">
+        <v>2024</v>
+      </c>
+      <c r="B1088">
+        <v>1</v>
+      </c>
+      <c r="C1088">
+        <v>22</v>
+      </c>
+      <c r="D1088" s="3">
+        <v>0.90763888888888888</v>
+      </c>
+      <c r="E1088">
+        <v>0.7</v>
+      </c>
+      <c r="F1088">
+        <v>2</v>
+      </c>
+      <c r="G1088">
+        <v>5</v>
+      </c>
+      <c r="X1088">
+        <v>1</v>
+      </c>
+      <c r="AL1088">
+        <v>1</v>
+      </c>
+      <c r="AN1088">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:50">
+      <c r="A1089">
+        <v>2024</v>
+      </c>
+      <c r="B1089">
+        <v>1</v>
+      </c>
+      <c r="C1089">
+        <v>22</v>
+      </c>
+      <c r="D1089" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1089">
+        <v>0.7</v>
+      </c>
+      <c r="F1089">
+        <v>2</v>
+      </c>
+      <c r="G1089">
+        <v>10</v>
+      </c>
+      <c r="I1089">
+        <v>3</v>
+      </c>
+      <c r="X1089">
+        <v>5</v>
+      </c>
+      <c r="AL1089">
+        <v>1</v>
+      </c>
+      <c r="AN1089">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:50">
+      <c r="A1090">
+        <v>2024</v>
+      </c>
+      <c r="B1090">
+        <v>1</v>
+      </c>
+      <c r="C1090">
+        <v>22</v>
+      </c>
+      <c r="D1090" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1090">
+        <v>0.7</v>
+      </c>
+      <c r="F1090">
+        <v>2</v>
+      </c>
+      <c r="G1090">
+        <v>15</v>
+      </c>
+      <c r="I1090">
+        <v>2</v>
+      </c>
+      <c r="X1090">
+        <v>3</v>
+      </c>
+      <c r="AN1090">
+        <v>1</v>
+      </c>
+      <c r="AV1090">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:50">
+      <c r="A1091">
+        <v>2024</v>
+      </c>
+      <c r="B1091">
+        <v>1</v>
+      </c>
+      <c r="C1091">
+        <v>22</v>
+      </c>
+      <c r="D1091" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1091">
+        <v>0.7</v>
+      </c>
+      <c r="F1091">
+        <v>2</v>
+      </c>
+      <c r="G1091">
+        <v>20</v>
+      </c>
+      <c r="X1091">
+        <v>1</v>
+      </c>
+      <c r="AL1091">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:50">
+      <c r="A1092">
+        <v>2024</v>
+      </c>
+      <c r="B1092">
+        <v>1</v>
+      </c>
+      <c r="C1092">
+        <v>22</v>
+      </c>
+      <c r="D1092" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1092">
+        <v>0.7</v>
+      </c>
+      <c r="F1092">
+        <v>2</v>
+      </c>
+      <c r="G1092">
+        <v>25</v>
+      </c>
+      <c r="I1092">
+        <v>5</v>
+      </c>
+      <c r="AL1092">
+        <v>10</v>
+      </c>
+      <c r="AM1092">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:50">
+      <c r="A1093">
+        <v>2024</v>
+      </c>
+      <c r="B1093">
+        <v>1</v>
+      </c>
+      <c r="C1093">
+        <v>22</v>
+      </c>
+      <c r="D1093" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1093">
+        <v>0.7</v>
+      </c>
+      <c r="F1093">
+        <v>2</v>
+      </c>
+      <c r="G1093">
+        <v>30</v>
+      </c>
+      <c r="X1093">
+        <v>3</v>
+      </c>
+      <c r="AL1093">
+        <v>4</v>
+      </c>
+      <c r="AM1093">
+        <v>2</v>
+      </c>
+      <c r="AX1093">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:50">
+      <c r="A1094">
+        <v>2024</v>
+      </c>
+      <c r="B1094">
+        <v>1</v>
+      </c>
+      <c r="C1094">
+        <v>22</v>
+      </c>
+      <c r="D1094" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1094">
+        <v>0.7</v>
+      </c>
+      <c r="F1094">
+        <v>3</v>
+      </c>
+      <c r="G1094">
+        <v>0</v>
+      </c>
+      <c r="I1094">
+        <v>10</v>
+      </c>
+      <c r="T1094">
+        <v>2</v>
+      </c>
+      <c r="AL1094">
+        <v>5</v>
+      </c>
+      <c r="AM1094">
+        <v>10</v>
+      </c>
+      <c r="AV1094">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:50">
+      <c r="A1095">
+        <v>2024</v>
+      </c>
+      <c r="B1095">
+        <v>1</v>
+      </c>
+      <c r="C1095">
+        <v>22</v>
+      </c>
+      <c r="D1095" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1095">
+        <v>0.7</v>
+      </c>
+      <c r="F1095">
+        <v>3</v>
+      </c>
+      <c r="G1095">
+        <v>5</v>
+      </c>
+      <c r="I1095">
+        <v>1</v>
+      </c>
+      <c r="X1095">
+        <v>2</v>
+      </c>
+      <c r="AL1095">
+        <v>1</v>
+      </c>
+      <c r="AM1095">
+        <v>2</v>
+      </c>
+      <c r="AN1095">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:50">
+      <c r="A1096">
+        <v>2024</v>
+      </c>
+      <c r="B1096">
+        <v>1</v>
+      </c>
+      <c r="C1096">
+        <v>22</v>
+      </c>
+      <c r="D1096" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1096">
+        <v>0.7</v>
+      </c>
+      <c r="F1096">
+        <v>3</v>
+      </c>
+      <c r="G1096">
+        <v>10</v>
+      </c>
+      <c r="I1096">
+        <v>1</v>
+      </c>
+      <c r="X1096">
+        <v>1</v>
+      </c>
+      <c r="AL1096">
+        <v>2</v>
+      </c>
+      <c r="AM1096">
+        <v>2</v>
+      </c>
+      <c r="AN1096">
+        <v>1</v>
+      </c>
+      <c r="AV1096">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:50">
+      <c r="A1097">
+        <v>2024</v>
+      </c>
+      <c r="B1097">
+        <v>1</v>
+      </c>
+      <c r="C1097">
+        <v>22</v>
+      </c>
+      <c r="D1097" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1097">
+        <v>0.7</v>
+      </c>
+      <c r="F1097">
+        <v>3</v>
+      </c>
+      <c r="G1097">
+        <v>15</v>
+      </c>
+      <c r="X1097">
+        <v>1</v>
+      </c>
+      <c r="AV1097">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:50">
+      <c r="A1098">
+        <v>2024</v>
+      </c>
+      <c r="B1098">
+        <v>1</v>
+      </c>
+      <c r="C1098">
+        <v>22</v>
+      </c>
+      <c r="D1098" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1098">
+        <v>0.7</v>
+      </c>
+      <c r="F1098">
+        <v>3</v>
+      </c>
+      <c r="G1098">
+        <v>20</v>
+      </c>
+      <c r="AN1098">
+        <v>10</v>
+      </c>
+      <c r="AO1098">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:50">
+      <c r="A1099">
+        <v>2024</v>
+      </c>
+      <c r="B1099">
+        <v>1</v>
+      </c>
+      <c r="C1099">
+        <v>22</v>
+      </c>
+      <c r="D1099" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1099">
+        <v>0.7</v>
+      </c>
+      <c r="F1099">
+        <v>3</v>
+      </c>
+      <c r="G1099">
+        <v>25</v>
+      </c>
+      <c r="X1099">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:50">
+      <c r="A1100">
+        <v>2024</v>
+      </c>
+      <c r="B1100">
+        <v>1</v>
+      </c>
+      <c r="C1100">
+        <v>22</v>
+      </c>
+      <c r="D1100" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1100">
+        <v>0.7</v>
+      </c>
+      <c r="F1100">
+        <v>3</v>
+      </c>
+      <c r="G1100">
+        <v>30</v>
+      </c>
+      <c r="AV1100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:50">
+      <c r="A1101">
+        <v>2024</v>
+      </c>
+      <c r="B1101">
+        <v>1</v>
+      </c>
+      <c r="C1101">
+        <v>22</v>
+      </c>
+      <c r="D1101" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1101">
+        <v>0.7</v>
+      </c>
+      <c r="F1101">
+        <v>3</v>
+      </c>
+      <c r="G1101">
+        <v>35</v>
+      </c>
+      <c r="AL1101">
+        <v>2</v>
+      </c>
+      <c r="AM1101">
+        <v>1</v>
+      </c>
+      <c r="AV1101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:50">
+      <c r="A1102">
+        <v>2024</v>
+      </c>
+      <c r="B1102">
+        <v>1</v>
+      </c>
+      <c r="C1102">
+        <v>22</v>
+      </c>
+      <c r="D1102" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1102">
+        <v>0.7</v>
+      </c>
+      <c r="F1102">
+        <v>4</v>
+      </c>
+      <c r="G1102">
+        <v>0</v>
+      </c>
+      <c r="I1102">
+        <v>5</v>
+      </c>
+      <c r="S1102">
+        <v>1</v>
+      </c>
+      <c r="T1102">
+        <v>1</v>
+      </c>
+      <c r="X1102">
+        <v>2</v>
+      </c>
+      <c r="AL1102">
+        <v>2</v>
+      </c>
+      <c r="AM1102">
+        <v>1</v>
+      </c>
+      <c r="AN1102">
+        <v>1</v>
+      </c>
+      <c r="AV1102">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:50">
+      <c r="A1103">
+        <v>2024</v>
+      </c>
+      <c r="B1103">
+        <v>1</v>
+      </c>
+      <c r="C1103">
+        <v>22</v>
+      </c>
+      <c r="D1103" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1103">
+        <v>0.7</v>
+      </c>
+      <c r="F1103">
+        <v>4</v>
+      </c>
+      <c r="G1103">
+        <v>5</v>
+      </c>
+      <c r="X1103">
+        <v>1</v>
+      </c>
+      <c r="AL1103">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:50">
+      <c r="A1104">
+        <v>2024</v>
+      </c>
+      <c r="B1104">
+        <v>1</v>
+      </c>
+      <c r="C1104">
+        <v>22</v>
+      </c>
+      <c r="D1104" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1104">
+        <v>0.7</v>
+      </c>
+      <c r="F1104">
+        <v>4</v>
+      </c>
+      <c r="G1104">
+        <v>10</v>
+      </c>
+      <c r="X1104">
+        <v>1</v>
+      </c>
+      <c r="AL1104">
+        <v>1</v>
+      </c>
+      <c r="AM1104">
+        <v>1</v>
+      </c>
+      <c r="AN1104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:51">
+      <c r="A1105">
+        <v>2024</v>
+      </c>
+      <c r="B1105">
+        <v>1</v>
+      </c>
+      <c r="C1105">
+        <v>22</v>
+      </c>
+      <c r="D1105" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1105">
+        <v>0.7</v>
+      </c>
+      <c r="F1105">
+        <v>4</v>
+      </c>
+      <c r="G1105">
+        <v>15</v>
+      </c>
+      <c r="I1105">
+        <v>1</v>
+      </c>
+      <c r="X1105">
+        <v>1</v>
+      </c>
+      <c r="AL1105">
+        <v>1</v>
+      </c>
+      <c r="AM1105">
+        <v>1</v>
+      </c>
+      <c r="AN1105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:51">
+      <c r="A1106">
+        <v>2024</v>
+      </c>
+      <c r="B1106">
+        <v>1</v>
+      </c>
+      <c r="C1106">
+        <v>22</v>
+      </c>
+      <c r="D1106" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1106">
+        <v>0.7</v>
+      </c>
+      <c r="F1106">
+        <v>4</v>
+      </c>
+      <c r="G1106">
+        <v>20</v>
+      </c>
+      <c r="AL1106">
+        <v>1</v>
+      </c>
+      <c r="AM1106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:51">
+      <c r="A1107">
+        <v>2024</v>
+      </c>
+      <c r="B1107">
+        <v>1</v>
+      </c>
+      <c r="C1107">
+        <v>22</v>
+      </c>
+      <c r="D1107" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1107">
+        <v>0.7</v>
+      </c>
+      <c r="F1107">
+        <v>4</v>
+      </c>
+      <c r="G1107">
+        <v>25</v>
+      </c>
+      <c r="AL1107">
+        <v>1</v>
+      </c>
+      <c r="AM1107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:51">
+      <c r="A1108">
+        <v>2024</v>
+      </c>
+      <c r="B1108">
+        <v>1</v>
+      </c>
+      <c r="C1108">
+        <v>22</v>
+      </c>
+      <c r="D1108" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1108">
+        <v>0.7</v>
+      </c>
+      <c r="F1108">
+        <v>4</v>
+      </c>
+      <c r="G1108">
+        <v>30</v>
+      </c>
+      <c r="X1108">
+        <v>1</v>
+      </c>
+      <c r="AL1108">
+        <v>1</v>
+      </c>
+      <c r="AM1108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:51">
+      <c r="A1109">
+        <v>2024</v>
+      </c>
+      <c r="B1109">
+        <v>1</v>
+      </c>
+      <c r="C1109">
+        <v>22</v>
+      </c>
+      <c r="D1109" s="3">
+        <v>0.90763888888888899</v>
+      </c>
+      <c r="E1109">
+        <v>0.7</v>
+      </c>
+      <c r="F1109">
+        <v>4</v>
+      </c>
+      <c r="G1109">
+        <v>35</v>
+      </c>
+      <c r="X1109">
+        <v>1</v>
+      </c>
+      <c r="AL1109">
+        <v>1</v>
+      </c>
+      <c r="AM1109">
+        <v>1</v>
+      </c>
+      <c r="AX1109">
+        <v>1</v>
+      </c>
+      <c r="AY1109">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{2BAE4060-6CB1-4E30-9F95-B75B30AAED68}"/>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5088" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08ACAD3D-65CC-4592-8EEA-9F315BCFBD7A}"/>
+  <xr:revisionPtr revIDLastSave="5089" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C6094C4-1769-4E19-9B2E-E4D954518008}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>pyropia_sp__red</t>
-  </si>
-  <si>
-    <t>wildemania_sp__red</t>
   </si>
   <si>
     <t>polyneura_latissima__red</t>
@@ -387,6 +384,9 @@
   </si>
   <si>
     <t>ulothrix_palusalsa__green</t>
+  </si>
+  <si>
+    <t>wildemania_amplissima__red</t>
   </si>
 </sst>
 </file>
@@ -952,10 +952,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -1255,9 +1251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BX1190"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A1162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1191" sqref="A1191"/>
+      <selection pane="bottomLeft" activeCell="AP1" sqref="AP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1424,7 +1420,7 @@
         <v>29</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>30</v>
@@ -1457,106 +1453,106 @@
         <v>39</v>
       </c>
       <c r="AP1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="BS1" s="1" t="s">
+      <c r="BT1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="BT1" s="1" t="s">
+      <c r="BU1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BU1" s="1" t="s">
+      <c r="BV1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BV1" s="1" t="s">
+      <c r="BW1" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="BX1" s="1"/>
     </row>
@@ -1583,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>20</v>
@@ -1618,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="H3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -1647,7 +1643,7 @@
         <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -1676,7 +1672,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I5">
         <v>5</v>
@@ -1708,7 +1704,7 @@
         <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -1737,7 +1733,7 @@
         <v>25</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -1766,7 +1762,7 @@
         <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1804,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I9">
         <v>40</v>
@@ -1839,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -1871,7 +1867,7 @@
         <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11">
         <v>5</v>
@@ -1903,7 +1899,7 @@
         <v>15</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -1938,7 +1934,7 @@
         <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -1973,7 +1969,7 @@
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I14">
         <v>10</v>
@@ -2008,7 +2004,7 @@
         <v>30</v>
       </c>
       <c r="H15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -2043,7 +2039,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I16">
         <v>70</v>
@@ -2078,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -2110,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2145,7 +2141,7 @@
         <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -2177,7 +2173,7 @@
         <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -2212,7 +2208,7 @@
         <v>25</v>
       </c>
       <c r="H21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -2244,7 +2240,7 @@
         <v>30</v>
       </c>
       <c r="H22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -2276,7 +2272,7 @@
         <v>35</v>
       </c>
       <c r="H23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -2305,7 +2301,7 @@
         <v>40</v>
       </c>
       <c r="H24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -2337,7 +2333,7 @@
         <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -2369,7 +2365,7 @@
         <v>50</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -2401,7 +2397,7 @@
         <v>55</v>
       </c>
       <c r="H27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -2433,7 +2429,7 @@
         <v>60</v>
       </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -2465,7 +2461,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29">
         <v>70</v>
@@ -2500,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2532,7 +2528,7 @@
         <v>10</v>
       </c>
       <c r="H31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2561,7 +2557,7 @@
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2596,7 +2592,7 @@
         <v>20</v>
       </c>
       <c r="H33" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2631,7 +2627,7 @@
         <v>25</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -2666,7 +2662,7 @@
         <v>30</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -2701,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="H36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I36">
         <v>20</v>
@@ -2736,7 +2732,7 @@
         <v>5</v>
       </c>
       <c r="H37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I37">
         <v>25</v>
@@ -2771,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -2806,7 +2802,7 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -2841,7 +2837,7 @@
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -2876,7 +2872,7 @@
         <v>25</v>
       </c>
       <c r="H41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2908,7 +2904,7 @@
         <v>30</v>
       </c>
       <c r="H42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -2940,7 +2936,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I43">
         <v>30</v>
@@ -2975,7 +2971,7 @@
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I44">
         <v>5</v>
@@ -3010,7 +3006,7 @@
         <v>10</v>
       </c>
       <c r="H45" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -3039,7 +3035,7 @@
         <v>15</v>
       </c>
       <c r="H46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I46">
         <v>10</v>
@@ -3074,7 +3070,7 @@
         <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I47">
         <v>5</v>
@@ -3106,7 +3102,7 @@
         <v>25</v>
       </c>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3135,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="H49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I49">
         <v>40</v>
@@ -3170,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3202,7 +3198,7 @@
         <v>10</v>
       </c>
       <c r="H51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I51">
         <v>20</v>
@@ -3237,7 +3233,7 @@
         <v>15</v>
       </c>
       <c r="H52" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I52">
         <v>10</v>
@@ -3272,7 +3268,7 @@
         <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3304,7 +3300,7 @@
         <v>25</v>
       </c>
       <c r="H54" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I54">
         <v>5</v>
@@ -3339,7 +3335,7 @@
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I55">
         <v>40</v>
@@ -3374,7 +3370,7 @@
         <v>5</v>
       </c>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3403,7 +3399,7 @@
         <v>10</v>
       </c>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -3438,7 +3434,7 @@
         <v>15</v>
       </c>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3473,7 +3469,7 @@
         <v>20</v>
       </c>
       <c r="H59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I59">
         <v>5</v>
@@ -3508,7 +3504,7 @@
         <v>0</v>
       </c>
       <c r="H60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I60">
         <v>70</v>
@@ -3543,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3578,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3610,7 +3606,7 @@
         <v>15</v>
       </c>
       <c r="H63" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3639,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I64">
         <v>10</v>
@@ -3677,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="H65" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I65">
         <v>40</v>
@@ -3712,7 +3708,7 @@
         <v>5</v>
       </c>
       <c r="H66" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I66">
         <v>30</v>
@@ -3747,7 +3743,7 @@
         <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I67">
         <v>10</v>
@@ -3782,7 +3778,7 @@
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I68">
         <v>5</v>
@@ -3849,7 +3845,7 @@
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -3884,7 +3880,7 @@
         <v>10</v>
       </c>
       <c r="H71" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -3945,7 +3941,7 @@
         <v>20</v>
       </c>
       <c r="H73" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I73">
         <v>2</v>
@@ -3980,7 +3976,7 @@
         <v>25</v>
       </c>
       <c r="H74" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -4009,7 +4005,7 @@
         <v>30</v>
       </c>
       <c r="H75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I75">
         <v>5</v>
@@ -4044,7 +4040,7 @@
         <v>35</v>
       </c>
       <c r="H76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -4073,7 +4069,7 @@
         <v>40</v>
       </c>
       <c r="H77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I77">
         <v>1</v>
@@ -4111,7 +4107,7 @@
         <v>0</v>
       </c>
       <c r="H78" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I78">
         <v>40</v>
@@ -4146,7 +4142,7 @@
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4178,7 +4174,7 @@
         <v>10</v>
       </c>
       <c r="H80" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I80">
         <v>15</v>
@@ -4213,7 +4209,7 @@
         <v>15</v>
       </c>
       <c r="H81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -4242,7 +4238,7 @@
         <v>20</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I82">
         <v>1</v>
@@ -4274,7 +4270,7 @@
         <v>25</v>
       </c>
       <c r="H83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I83">
         <v>3</v>
@@ -4341,7 +4337,7 @@
         <v>35</v>
       </c>
       <c r="H85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I85">
         <v>20</v>
@@ -4382,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="H86" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I86">
         <v>35</v>
@@ -4417,7 +4413,7 @@
         <v>5</v>
       </c>
       <c r="H87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -4446,7 +4442,7 @@
         <v>10</v>
       </c>
       <c r="H88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -4475,7 +4471,7 @@
         <v>15</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I89">
         <v>1</v>
@@ -4510,7 +4506,7 @@
         <v>20</v>
       </c>
       <c r="H90" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -4539,7 +4535,7 @@
         <v>25</v>
       </c>
       <c r="H91" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J91">
         <v>0</v>
@@ -4568,7 +4564,7 @@
         <v>30</v>
       </c>
       <c r="H92" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J92">
         <v>0</v>
@@ -4597,7 +4593,7 @@
         <v>35</v>
       </c>
       <c r="H93" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J93">
         <v>0</v>
@@ -4629,7 +4625,7 @@
         <v>40</v>
       </c>
       <c r="H94" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4661,7 +4657,7 @@
         <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J95">
         <v>0</v>
@@ -4693,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="H96" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I96">
         <v>50</v>
@@ -4728,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -4763,7 +4759,7 @@
         <v>10</v>
       </c>
       <c r="H98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I98">
         <v>2</v>
@@ -4798,7 +4794,7 @@
         <v>15</v>
       </c>
       <c r="H99" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -4833,7 +4829,7 @@
         <v>20</v>
       </c>
       <c r="H100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -4862,7 +4858,7 @@
         <v>25</v>
       </c>
       <c r="H101" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -4891,7 +4887,7 @@
         <v>30</v>
       </c>
       <c r="H102" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -4926,7 +4922,7 @@
         <v>35</v>
       </c>
       <c r="H103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -4964,7 +4960,7 @@
         <v>40</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J104">
         <v>0</v>
@@ -4999,7 +4995,7 @@
         <v>45</v>
       </c>
       <c r="H105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J105">
         <v>0</v>
@@ -5037,7 +5033,7 @@
         <v>50</v>
       </c>
       <c r="H106" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J106">
         <v>0</v>
@@ -5072,7 +5068,7 @@
         <v>55</v>
       </c>
       <c r="H107" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J107">
         <v>0</v>
@@ -5119,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="H108" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I108">
         <v>10</v>
@@ -5154,7 +5150,7 @@
         <v>5</v>
       </c>
       <c r="H109" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I109">
         <v>10</v>
@@ -5189,7 +5185,7 @@
         <v>10</v>
       </c>
       <c r="H110" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I110">
         <v>5</v>
@@ -5224,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="H111" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5259,7 +5255,7 @@
         <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -5294,7 +5290,7 @@
         <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -5326,7 +5322,7 @@
         <v>30</v>
       </c>
       <c r="H114" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J114">
         <v>0</v>
@@ -5358,7 +5354,7 @@
         <v>35</v>
       </c>
       <c r="H115" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J115">
         <v>0</v>
@@ -5390,7 +5386,7 @@
         <v>40</v>
       </c>
       <c r="H116" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I116">
         <v>5</v>
@@ -5431,7 +5427,7 @@
         <v>45</v>
       </c>
       <c r="H117" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -5472,7 +5468,7 @@
         <v>0</v>
       </c>
       <c r="H118" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I118">
         <v>15</v>
@@ -5539,7 +5535,7 @@
         <v>10</v>
       </c>
       <c r="H120" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -5568,7 +5564,7 @@
         <v>15</v>
       </c>
       <c r="H121" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I121">
         <v>1</v>
@@ -5603,7 +5599,7 @@
         <v>20</v>
       </c>
       <c r="H122" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I122">
         <v>1</v>
@@ -5638,7 +5634,7 @@
         <v>25</v>
       </c>
       <c r="H123" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J123">
         <v>0</v>
@@ -5667,7 +5663,7 @@
         <v>30</v>
       </c>
       <c r="H124" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I124">
         <v>5</v>
@@ -5702,7 +5698,7 @@
         <v>35</v>
       </c>
       <c r="H125" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J125">
         <v>0</v>
@@ -5778,7 +5774,7 @@
         <v>45</v>
       </c>
       <c r="H127" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J127">
         <v>0</v>
@@ -5819,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I128">
         <v>30</v>
@@ -5854,7 +5850,7 @@
         <v>5</v>
       </c>
       <c r="H129" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J129">
         <v>0</v>
@@ -5883,7 +5879,7 @@
         <v>10</v>
       </c>
       <c r="H130" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I130">
         <v>3</v>
@@ -5915,7 +5911,7 @@
         <v>15</v>
       </c>
       <c r="H131" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I131">
         <v>1</v>
@@ -5947,7 +5943,7 @@
         <v>20</v>
       </c>
       <c r="H132" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J132">
         <v>0</v>
@@ -5976,7 +5972,7 @@
         <v>25</v>
       </c>
       <c r="H133" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I133">
         <v>2</v>
@@ -6008,7 +6004,7 @@
         <v>30</v>
       </c>
       <c r="H134" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J134">
         <v>0</v>
@@ -6037,7 +6033,7 @@
         <v>35</v>
       </c>
       <c r="H135" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I135">
         <v>4</v>
@@ -6148,7 +6144,7 @@
         <v>0</v>
       </c>
       <c r="H138" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I138">
         <v>35</v>
@@ -6183,7 +6179,7 @@
         <v>5</v>
       </c>
       <c r="H139" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J139">
         <v>0</v>
@@ -6244,7 +6240,7 @@
         <v>15</v>
       </c>
       <c r="H141" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J141">
         <v>0</v>
@@ -6273,7 +6269,7 @@
         <v>20</v>
       </c>
       <c r="H142" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I142">
         <v>1</v>
@@ -6305,7 +6301,7 @@
         <v>25</v>
       </c>
       <c r="H143" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J143">
         <v>0</v>
@@ -6334,7 +6330,7 @@
         <v>30</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J144">
         <v>0</v>
@@ -6363,7 +6359,7 @@
         <v>35</v>
       </c>
       <c r="H145" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J145">
         <v>0</v>
@@ -6392,7 +6388,7 @@
         <v>40</v>
       </c>
       <c r="H146" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J146">
         <v>0</v>
@@ -6421,7 +6417,7 @@
         <v>45</v>
       </c>
       <c r="H147" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J147">
         <v>0</v>
@@ -6450,7 +6446,7 @@
         <v>50</v>
       </c>
       <c r="H148" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -6482,7 +6478,7 @@
         <v>55</v>
       </c>
       <c r="H149" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J149">
         <v>0</v>
@@ -6514,7 +6510,7 @@
         <v>60</v>
       </c>
       <c r="H150" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J150">
         <v>0</v>
@@ -6578,7 +6574,7 @@
         <v>70</v>
       </c>
       <c r="H152" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -6616,7 +6612,7 @@
         <v>75</v>
       </c>
       <c r="H153" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -6657,7 +6653,7 @@
         <v>0</v>
       </c>
       <c r="H154" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I154">
         <v>85</v>
@@ -6692,7 +6688,7 @@
         <v>5</v>
       </c>
       <c r="H155" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I155">
         <v>1</v>
@@ -6724,7 +6720,7 @@
         <v>10</v>
       </c>
       <c r="H156" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I156">
         <v>1</v>
@@ -6788,7 +6784,7 @@
         <v>20</v>
       </c>
       <c r="H158" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -6820,7 +6816,7 @@
         <v>25</v>
       </c>
       <c r="H159" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I159">
         <v>1</v>
@@ -6852,7 +6848,7 @@
         <v>30</v>
       </c>
       <c r="H160" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J160">
         <v>0</v>
@@ -6913,7 +6909,7 @@
         <v>40</v>
       </c>
       <c r="H162" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J162">
         <v>0</v>
@@ -6992,7 +6988,7 @@
         <v>0</v>
       </c>
       <c r="H164" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I164">
         <v>10</v>
@@ -7027,7 +7023,7 @@
         <v>5</v>
       </c>
       <c r="H165" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I165">
         <v>10</v>
@@ -7062,7 +7058,7 @@
         <v>10</v>
       </c>
       <c r="H166" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I166">
         <v>5</v>
@@ -7097,7 +7093,7 @@
         <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -7132,7 +7128,7 @@
         <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -7167,7 +7163,7 @@
         <v>25</v>
       </c>
       <c r="H169" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -7199,7 +7195,7 @@
         <v>30</v>
       </c>
       <c r="H170" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J170">
         <v>0</v>
@@ -7231,7 +7227,7 @@
         <v>35</v>
       </c>
       <c r="H171" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J171">
         <v>0</v>
@@ -7263,7 +7259,7 @@
         <v>40</v>
       </c>
       <c r="H172" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I172">
         <v>5</v>
@@ -7304,7 +7300,7 @@
         <v>45</v>
       </c>
       <c r="H173" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J173">
         <v>0</v>
@@ -7345,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I174">
         <v>3</v>
@@ -7380,7 +7376,7 @@
         <v>5</v>
       </c>
       <c r="H175" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I175">
         <v>1</v>
@@ -7412,7 +7408,7 @@
         <v>10</v>
       </c>
       <c r="H176" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J176">
         <v>0</v>
@@ -7441,7 +7437,7 @@
         <v>15</v>
       </c>
       <c r="H177" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I177">
         <v>1</v>
@@ -7473,7 +7469,7 @@
         <v>20</v>
       </c>
       <c r="H178" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I178">
         <v>1</v>
@@ -7505,7 +7501,7 @@
         <v>25</v>
       </c>
       <c r="H179" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -7537,7 +7533,7 @@
         <v>30</v>
       </c>
       <c r="H180" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I180">
         <v>5</v>
@@ -7575,7 +7571,7 @@
         <v>35</v>
       </c>
       <c r="H181" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J181">
         <v>0</v>
@@ -7613,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="H182" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I182">
         <v>20</v>
@@ -7648,7 +7644,7 @@
         <v>5</v>
       </c>
       <c r="H183" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J183">
         <v>0</v>
@@ -7677,7 +7673,7 @@
         <v>10</v>
       </c>
       <c r="H184" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I184">
         <v>1</v>
@@ -7709,7 +7705,7 @@
         <v>15</v>
       </c>
       <c r="H185" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J185">
         <v>0</v>
@@ -7738,7 +7734,7 @@
         <v>20</v>
       </c>
       <c r="H186" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I186">
         <v>3</v>
@@ -7770,7 +7766,7 @@
         <v>25</v>
       </c>
       <c r="H187" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -7875,7 +7871,7 @@
         <v>0</v>
       </c>
       <c r="H190" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I190">
         <v>25</v>
@@ -7910,7 +7906,7 @@
         <v>5</v>
       </c>
       <c r="H191" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J191">
         <v>0</v>
@@ -7942,7 +7938,7 @@
         <v>10</v>
       </c>
       <c r="H192" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I192">
         <v>1</v>
@@ -7974,7 +7970,7 @@
         <v>15</v>
       </c>
       <c r="H193" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J193">
         <v>0</v>
@@ -8003,7 +7999,7 @@
         <v>20</v>
       </c>
       <c r="H194" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J194">
         <v>0</v>
@@ -8032,7 +8028,7 @@
         <v>25</v>
       </c>
       <c r="H195" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J195">
         <v>0</v>
@@ -8061,7 +8057,7 @@
         <v>30</v>
       </c>
       <c r="H196" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J196">
         <v>0</v>
@@ -8090,7 +8086,7 @@
         <v>35</v>
       </c>
       <c r="H197" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J197">
         <v>0</v>
@@ -8119,7 +8115,7 @@
         <v>40</v>
       </c>
       <c r="H198" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J198">
         <v>0</v>
@@ -8148,7 +8144,7 @@
         <v>0</v>
       </c>
       <c r="H199" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I199">
         <v>40</v>
@@ -8183,7 +8179,7 @@
         <v>5</v>
       </c>
       <c r="H200" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -8215,7 +8211,7 @@
         <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -8247,7 +8243,7 @@
         <v>15</v>
       </c>
       <c r="H202" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -8311,7 +8307,7 @@
         <v>25</v>
       </c>
       <c r="H204" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -8343,7 +8339,7 @@
         <v>30</v>
       </c>
       <c r="H205" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J205">
         <v>0</v>
@@ -8375,7 +8371,7 @@
         <v>35</v>
       </c>
       <c r="H206" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J206">
         <v>0</v>
@@ -8410,7 +8406,7 @@
         <v>40</v>
       </c>
       <c r="H207" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J207">
         <v>0</v>
@@ -8468,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="H209" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I209">
         <v>20</v>
@@ -8509,7 +8505,7 @@
         <v>5</v>
       </c>
       <c r="H210" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I210">
         <v>10</v>
@@ -8544,7 +8540,7 @@
         <v>10</v>
       </c>
       <c r="H211" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I211">
         <v>5</v>
@@ -8614,7 +8610,7 @@
         <v>20</v>
       </c>
       <c r="H213" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -8646,7 +8642,7 @@
         <v>25</v>
       </c>
       <c r="H214" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J214">
         <v>0</v>
@@ -8675,7 +8671,7 @@
         <v>30</v>
       </c>
       <c r="H215" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J215">
         <v>0</v>
@@ -8707,7 +8703,7 @@
         <v>35</v>
       </c>
       <c r="H216" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J216">
         <v>0</v>
@@ -8742,7 +8738,7 @@
         <v>40</v>
       </c>
       <c r="H217" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I217">
         <v>1</v>
@@ -8783,7 +8779,7 @@
         <v>45</v>
       </c>
       <c r="H218" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J218">
         <v>0</v>
@@ -8862,7 +8858,7 @@
         <v>5</v>
       </c>
       <c r="H220" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I220">
         <v>2</v>
@@ -8903,7 +8899,7 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -8941,7 +8937,7 @@
         <v>15</v>
       </c>
       <c r="H222" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J222">
         <v>0</v>
@@ -8970,7 +8966,7 @@
         <v>20</v>
       </c>
       <c r="H223" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J223">
         <v>0</v>
@@ -9034,7 +9030,7 @@
         <v>30</v>
       </c>
       <c r="H225" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -9075,7 +9071,7 @@
         <v>0</v>
       </c>
       <c r="H226" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I226">
         <v>35</v>
@@ -9116,7 +9112,7 @@
         <v>5</v>
       </c>
       <c r="H227" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -9148,7 +9144,7 @@
         <v>10</v>
       </c>
       <c r="H228" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I228">
         <v>5</v>
@@ -9192,7 +9188,7 @@
         <v>15</v>
       </c>
       <c r="H229" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -9306,7 +9302,7 @@
         <v>30</v>
       </c>
       <c r="H232" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -9385,7 +9381,7 @@
         <v>0</v>
       </c>
       <c r="H234" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I234">
         <v>45</v>
@@ -9458,7 +9454,7 @@
         <v>10</v>
       </c>
       <c r="H236" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J236">
         <v>0</v>
@@ -9554,7 +9550,7 @@
         <v>25</v>
       </c>
       <c r="H239" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J239">
         <v>0</v>
@@ -9583,7 +9579,7 @@
         <v>30</v>
       </c>
       <c r="H240" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J240">
         <v>0</v>
@@ -9641,7 +9637,7 @@
         <v>40</v>
       </c>
       <c r="H242" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -9685,7 +9681,7 @@
         <v>45</v>
       </c>
       <c r="H243" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -9717,7 +9713,7 @@
         <v>0</v>
       </c>
       <c r="H244" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I244">
         <v>40</v>
@@ -9752,7 +9748,7 @@
         <v>5</v>
       </c>
       <c r="H245" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J245">
         <v>0</v>
@@ -9816,7 +9812,7 @@
         <v>15</v>
       </c>
       <c r="H247" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J247">
         <v>0</v>
@@ -9935,7 +9931,7 @@
         <v>35</v>
       </c>
       <c r="H251" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J251">
         <v>0</v>
@@ -10002,7 +9998,7 @@
         <v>45</v>
       </c>
       <c r="H253" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J253">
         <v>0</v>
@@ -10031,7 +10027,7 @@
         <v>0</v>
       </c>
       <c r="H254" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I254">
         <v>25</v>
@@ -10078,7 +10074,7 @@
         <v>5</v>
       </c>
       <c r="H255" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I255">
         <v>5</v>
@@ -10119,7 +10115,7 @@
         <v>10</v>
       </c>
       <c r="H256" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I256">
         <v>5</v>
@@ -10250,7 +10246,7 @@
         <v>30</v>
       </c>
       <c r="H260" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J260">
         <v>0</v>
@@ -10355,7 +10351,7 @@
         <v>45</v>
       </c>
       <c r="H263" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J263">
         <v>0</v>
@@ -10390,7 +10386,7 @@
         <v>50</v>
       </c>
       <c r="H264" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J264">
         <v>0</v>
@@ -10425,7 +10421,7 @@
         <v>0</v>
       </c>
       <c r="H265" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I265">
         <v>15</v>
@@ -10472,7 +10468,7 @@
         <v>5</v>
       </c>
       <c r="H266" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I266">
         <v>1</v>
@@ -10522,7 +10518,7 @@
         <v>10</v>
       </c>
       <c r="H267" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -10566,7 +10562,7 @@
         <v>15</v>
       </c>
       <c r="H268" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I268">
         <v>5</v>
@@ -10607,7 +10603,7 @@
         <v>20</v>
       </c>
       <c r="H269" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J269">
         <v>0</v>
@@ -10645,7 +10641,7 @@
         <v>25</v>
       </c>
       <c r="H270" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -10683,7 +10679,7 @@
         <v>30</v>
       </c>
       <c r="H271" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I271">
         <v>5</v>
@@ -10780,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="H273" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I273">
         <v>30</v>
@@ -10824,7 +10820,7 @@
         <v>5</v>
       </c>
       <c r="H274" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J274">
         <v>0</v>
@@ -10862,7 +10858,7 @@
         <v>10</v>
       </c>
       <c r="H275" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I275">
         <v>5</v>
@@ -10906,7 +10902,7 @@
         <v>15</v>
       </c>
       <c r="H276" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -10938,7 +10934,7 @@
         <v>20</v>
       </c>
       <c r="H277" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -10976,7 +10972,7 @@
         <v>25</v>
       </c>
       <c r="H278" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I278">
         <v>1</v>
@@ -11023,7 +11019,7 @@
         <v>30</v>
       </c>
       <c r="H279" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J279">
         <v>0</v>
@@ -11102,7 +11098,7 @@
         <v>0</v>
       </c>
       <c r="H281" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I281">
         <v>20</v>
@@ -11146,7 +11142,7 @@
         <v>5</v>
       </c>
       <c r="H282" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -11178,7 +11174,7 @@
         <v>10</v>
       </c>
       <c r="H283" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J283">
         <v>0</v>
@@ -11210,7 +11206,7 @@
         <v>15</v>
       </c>
       <c r="H284" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J284">
         <v>0</v>
@@ -11239,7 +11235,7 @@
         <v>20</v>
       </c>
       <c r="H285" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J285">
         <v>0</v>
@@ -11326,7 +11322,7 @@
         <v>35</v>
       </c>
       <c r="H288" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J288">
         <v>0</v>
@@ -11361,7 +11357,7 @@
         <v>40</v>
       </c>
       <c r="H289" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -11472,7 +11468,7 @@
         <v>55</v>
       </c>
       <c r="H292" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J292">
         <v>0</v>
@@ -11516,7 +11512,7 @@
         <v>0</v>
       </c>
       <c r="H293" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I293">
         <v>40</v>
@@ -11560,7 +11556,7 @@
         <v>5</v>
       </c>
       <c r="H294" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I294">
         <v>1</v>
@@ -11790,7 +11786,7 @@
         <v>40</v>
       </c>
       <c r="H301" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J301">
         <v>0</v>
@@ -11828,7 +11824,7 @@
         <v>0</v>
       </c>
       <c r="H302" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I302">
         <v>25</v>
@@ -11875,7 +11871,7 @@
         <v>5</v>
       </c>
       <c r="H303" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I303">
         <v>10</v>
@@ -11913,7 +11909,7 @@
         <v>10</v>
       </c>
       <c r="H304" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I304">
         <v>5</v>
@@ -12123,7 +12119,7 @@
         <v>0</v>
       </c>
       <c r="H310" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I310">
         <v>10</v>
@@ -12167,7 +12163,7 @@
         <v>5</v>
       </c>
       <c r="H311" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I311">
         <v>2</v>
@@ -12211,7 +12207,7 @@
         <v>10</v>
       </c>
       <c r="H312" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J312">
         <v>0</v>
@@ -12255,7 +12251,7 @@
         <v>15</v>
       </c>
       <c r="H313" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J313">
         <v>0</v>
@@ -12293,7 +12289,7 @@
         <v>20</v>
       </c>
       <c r="H314" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J314">
         <v>0</v>
@@ -12334,7 +12330,7 @@
         <v>25</v>
       </c>
       <c r="H315" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T315">
         <v>2</v>
@@ -12378,7 +12374,7 @@
         <v>30</v>
       </c>
       <c r="H316" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I316">
         <v>10</v>
@@ -12422,7 +12418,7 @@
         <v>35</v>
       </c>
       <c r="H317" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J317">
         <v>30</v>
@@ -12472,7 +12468,7 @@
         <v>0</v>
       </c>
       <c r="H318" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I318">
         <v>20</v>
@@ -12516,7 +12512,7 @@
         <v>5</v>
       </c>
       <c r="H319" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y319">
         <v>10</v>
@@ -12554,7 +12550,7 @@
         <v>10</v>
       </c>
       <c r="H320" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I320">
         <v>5</v>
@@ -12598,7 +12594,7 @@
         <v>15</v>
       </c>
       <c r="H321" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y321">
         <v>1</v>
@@ -12633,7 +12629,7 @@
         <v>20</v>
       </c>
       <c r="H322" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R322">
         <v>1</v>
@@ -12671,7 +12667,7 @@
         <v>25</v>
       </c>
       <c r="H323" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I323">
         <v>3</v>
@@ -12715,7 +12711,7 @@
         <v>30</v>
       </c>
       <c r="H324" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J324">
         <v>15</v>
@@ -12803,7 +12799,7 @@
         <v>40</v>
       </c>
       <c r="H326" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J326">
         <v>90</v>
@@ -12850,7 +12846,7 @@
         <v>0</v>
       </c>
       <c r="H327" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I327">
         <v>25</v>
@@ -12900,7 +12896,7 @@
         <v>5</v>
       </c>
       <c r="H328" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y328">
         <v>5</v>
@@ -12935,7 +12931,7 @@
         <v>10</v>
       </c>
       <c r="H329" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y329">
         <v>2</v>
@@ -12970,7 +12966,7 @@
         <v>15</v>
       </c>
       <c r="H330" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Z330">
         <v>40</v>
@@ -13005,7 +13001,7 @@
         <v>20</v>
       </c>
       <c r="H331" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J331">
         <v>2</v>
@@ -13075,7 +13071,7 @@
         <v>30</v>
       </c>
       <c r="H333" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Y333">
         <v>1</v>
@@ -13110,7 +13106,7 @@
         <v>35</v>
       </c>
       <c r="H334" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J334">
         <v>70</v>
@@ -13154,7 +13150,7 @@
         <v>40</v>
       </c>
       <c r="H335" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J335">
         <v>20</v>
@@ -13201,7 +13197,7 @@
         <v>45</v>
       </c>
       <c r="H336" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J336">
         <v>40</v>
@@ -13245,7 +13241,7 @@
         <v>50</v>
       </c>
       <c r="H337" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J337">
         <v>100</v>
@@ -13295,7 +13291,7 @@
         <v>55</v>
       </c>
       <c r="H338" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J338">
         <v>90</v>
@@ -13339,7 +13335,7 @@
         <v>60</v>
       </c>
       <c r="H339" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J339">
         <v>40</v>
@@ -13392,7 +13388,7 @@
         <v>65</v>
       </c>
       <c r="H340" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J340">
         <v>50</v>
@@ -13439,7 +13435,7 @@
         <v>70</v>
       </c>
       <c r="H341" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J341">
         <v>95</v>
@@ -13483,13 +13479,13 @@
         <v>0</v>
       </c>
       <c r="H342" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I342">
         <v>30</v>
       </c>
       <c r="Q342" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S342">
         <v>2</v>
@@ -13513,7 +13509,7 @@
         <v>5</v>
       </c>
       <c r="BP342" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="343" spans="1:68" x14ac:dyDescent="0.3">
@@ -13539,13 +13535,13 @@
         <v>5</v>
       </c>
       <c r="H343" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I343">
         <v>2</v>
       </c>
       <c r="Q343" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y343">
         <v>10</v>
@@ -13560,7 +13556,7 @@
         <v>2</v>
       </c>
       <c r="BP343" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="344" spans="1:68" x14ac:dyDescent="0.3">
@@ -13586,13 +13582,13 @@
         <v>10</v>
       </c>
       <c r="H344" t="s">
+        <v>95</v>
+      </c>
+      <c r="I344">
+        <v>10</v>
+      </c>
+      <c r="Q344" t="s">
         <v>96</v>
-      </c>
-      <c r="I344">
-        <v>10</v>
-      </c>
-      <c r="Q344" t="s">
-        <v>97</v>
       </c>
       <c r="Y344">
         <v>10</v>
@@ -13610,7 +13606,7 @@
         <v>15</v>
       </c>
       <c r="BP344" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="345" spans="1:68" x14ac:dyDescent="0.3">
@@ -13636,7 +13632,7 @@
         <v>15</v>
       </c>
       <c r="Q345" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y345">
         <v>3</v>
@@ -13645,7 +13641,7 @@
         <v>3</v>
       </c>
       <c r="BP345" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="346" spans="1:68" x14ac:dyDescent="0.3">
@@ -13671,10 +13667,10 @@
         <v>20</v>
       </c>
       <c r="H346" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q346" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y346">
         <v>20</v>
@@ -13686,7 +13682,7 @@
         <v>1</v>
       </c>
       <c r="BP346" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="347" spans="1:68" x14ac:dyDescent="0.3">
@@ -13712,13 +13708,13 @@
         <v>25</v>
       </c>
       <c r="H347" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I347">
         <v>3</v>
       </c>
       <c r="Q347" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y347">
         <v>10</v>
@@ -13736,7 +13732,7 @@
         <v>2</v>
       </c>
       <c r="BP347" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="348" spans="1:68" x14ac:dyDescent="0.3">
@@ -13762,7 +13758,7 @@
         <v>30</v>
       </c>
       <c r="H348" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J348">
         <v>20</v>
@@ -13771,7 +13767,7 @@
         <v>1</v>
       </c>
       <c r="Q348" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y348">
         <v>15</v>
@@ -13795,7 +13791,7 @@
         <v>1</v>
       </c>
       <c r="BP348" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="349" spans="1:68" x14ac:dyDescent="0.3">
@@ -13821,7 +13817,7 @@
         <v>35</v>
       </c>
       <c r="H349" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I349">
         <v>5</v>
@@ -13833,7 +13829,7 @@
         <v>5</v>
       </c>
       <c r="Q349" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM349">
         <v>10</v>
@@ -13854,7 +13850,7 @@
         <v>1</v>
       </c>
       <c r="BP349" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="350" spans="1:68" x14ac:dyDescent="0.3">
@@ -13880,7 +13876,7 @@
         <v>40</v>
       </c>
       <c r="H350" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J350">
         <v>80</v>
@@ -13895,7 +13891,7 @@
         <v>60</v>
       </c>
       <c r="Q350" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U350">
         <v>20</v>
@@ -13913,7 +13909,7 @@
         <v>5</v>
       </c>
       <c r="BP350" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="351" spans="1:68" x14ac:dyDescent="0.3">
@@ -13939,13 +13935,13 @@
         <v>0</v>
       </c>
       <c r="H351" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I351">
         <v>35</v>
       </c>
       <c r="Q351" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S351">
         <v>1</v>
@@ -13966,7 +13962,7 @@
         <v>10</v>
       </c>
       <c r="BP351" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="352" spans="1:68" x14ac:dyDescent="0.3">
@@ -13992,10 +13988,10 @@
         <v>5</v>
       </c>
       <c r="H352" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q352" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y352">
         <v>10</v>
@@ -14010,7 +14006,7 @@
         <v>2</v>
       </c>
       <c r="BP352" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="353" spans="1:68" x14ac:dyDescent="0.3">
@@ -14036,10 +14032,10 @@
         <v>10</v>
       </c>
       <c r="H353" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q353" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y353">
         <v>5</v>
@@ -14051,7 +14047,7 @@
         <v>1</v>
       </c>
       <c r="BP353" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="354" spans="1:68" x14ac:dyDescent="0.3">
@@ -14077,10 +14073,10 @@
         <v>15</v>
       </c>
       <c r="H354" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q354" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y354">
         <v>25</v>
@@ -14092,7 +14088,7 @@
         <v>5</v>
       </c>
       <c r="BP354" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="355" spans="1:68" x14ac:dyDescent="0.3">
@@ -14118,13 +14114,13 @@
         <v>20</v>
       </c>
       <c r="H355" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N355">
         <v>1</v>
       </c>
       <c r="Q355" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y355">
         <v>15</v>
@@ -14139,7 +14135,7 @@
         <v>1</v>
       </c>
       <c r="BP355" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="356" spans="1:68" x14ac:dyDescent="0.3">
@@ -14168,7 +14164,7 @@
         <v>5</v>
       </c>
       <c r="Q356" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T356">
         <v>1</v>
@@ -14186,7 +14182,7 @@
         <v>2</v>
       </c>
       <c r="BP356" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="357" spans="1:68" x14ac:dyDescent="0.3">
@@ -14212,13 +14208,13 @@
         <v>30</v>
       </c>
       <c r="H357" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N357">
         <v>1</v>
       </c>
       <c r="Q357" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y357">
         <v>10</v>
@@ -14230,7 +14226,7 @@
         <v>1</v>
       </c>
       <c r="BP357" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="358" spans="1:68" x14ac:dyDescent="0.3">
@@ -14256,13 +14252,13 @@
         <v>35</v>
       </c>
       <c r="H358" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N358">
         <v>1</v>
       </c>
       <c r="Q358" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y358">
         <v>10</v>
@@ -14280,7 +14276,7 @@
         <v>2</v>
       </c>
       <c r="BP358" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="359" spans="1:68" x14ac:dyDescent="0.3">
@@ -14306,13 +14302,13 @@
         <v>40</v>
       </c>
       <c r="H359" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J359">
         <v>5</v>
       </c>
       <c r="Q359" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R359">
         <v>1</v>
@@ -14333,7 +14329,7 @@
         <v>1</v>
       </c>
       <c r="BP359" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="360" spans="1:68" x14ac:dyDescent="0.3">
@@ -14359,7 +14355,7 @@
         <v>45</v>
       </c>
       <c r="H360" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J360">
         <v>25</v>
@@ -14368,7 +14364,7 @@
         <v>10</v>
       </c>
       <c r="Q360" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y360">
         <v>5</v>
@@ -14386,7 +14382,7 @@
         <v>1</v>
       </c>
       <c r="BP360" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="361" spans="1:68" x14ac:dyDescent="0.3">
@@ -14412,7 +14408,7 @@
         <v>50</v>
       </c>
       <c r="H361" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J361">
         <v>50</v>
@@ -14424,7 +14420,7 @@
         <v>1</v>
       </c>
       <c r="Q361" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y361">
         <v>5</v>
@@ -14445,7 +14441,7 @@
         <v>1</v>
       </c>
       <c r="BP361" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="362" spans="1:68" x14ac:dyDescent="0.3">
@@ -14471,7 +14467,7 @@
         <v>55</v>
       </c>
       <c r="H362" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J362">
         <v>70</v>
@@ -14480,7 +14476,7 @@
         <v>1</v>
       </c>
       <c r="Q362" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y362">
         <v>1</v>
@@ -14501,7 +14497,7 @@
         <v>1</v>
       </c>
       <c r="BP362" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="363" spans="1:68" x14ac:dyDescent="0.3">
@@ -14527,7 +14523,7 @@
         <v>60</v>
       </c>
       <c r="H363" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J363">
         <v>100</v>
@@ -14542,7 +14538,7 @@
         <v>1</v>
       </c>
       <c r="Q363" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC363">
         <v>2</v>
@@ -14560,7 +14556,7 @@
         <v>1</v>
       </c>
       <c r="BP363" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="364" spans="1:68" x14ac:dyDescent="0.3">
@@ -14586,7 +14582,7 @@
         <v>65</v>
       </c>
       <c r="H364" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J364">
         <v>100</v>
@@ -14598,7 +14594,7 @@
         <v>5</v>
       </c>
       <c r="Q364" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z364">
         <v>2</v>
@@ -14610,7 +14606,7 @@
         <v>2</v>
       </c>
       <c r="BP364" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="365" spans="1:68" x14ac:dyDescent="0.3">
@@ -14636,7 +14632,7 @@
         <v>70</v>
       </c>
       <c r="H365" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J365">
         <v>100</v>
@@ -14651,7 +14647,7 @@
         <v>1</v>
       </c>
       <c r="Q365" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y365">
         <v>1</v>
@@ -14666,7 +14662,7 @@
         <v>1</v>
       </c>
       <c r="BP365" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="366" spans="1:68" x14ac:dyDescent="0.3">
@@ -14692,7 +14688,7 @@
         <v>75</v>
       </c>
       <c r="H366" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J366">
         <v>100</v>
@@ -14707,7 +14703,7 @@
         <v>1</v>
       </c>
       <c r="Q366" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM366">
         <v>5</v>
@@ -14719,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="BP366" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="367" spans="1:68" x14ac:dyDescent="0.3">
@@ -14760,7 +14756,7 @@
         <v>1</v>
       </c>
       <c r="Q367" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y367">
         <v>5</v>
@@ -14781,7 +14777,7 @@
         <v>8</v>
       </c>
       <c r="BP367" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="368" spans="1:68" x14ac:dyDescent="0.3">
@@ -14819,7 +14815,7 @@
         <v>2</v>
       </c>
       <c r="Q368" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U368">
         <v>1</v>
@@ -14849,7 +14845,7 @@
         <v>1</v>
       </c>
       <c r="BP368" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="369" spans="1:68" x14ac:dyDescent="0.3">
@@ -14875,7 +14871,7 @@
         <v>90</v>
       </c>
       <c r="H369" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J369">
         <v>40</v>
@@ -14890,7 +14886,7 @@
         <v>2</v>
       </c>
       <c r="Q369" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U369">
         <v>10</v>
@@ -14917,7 +14913,7 @@
         <v>1</v>
       </c>
       <c r="BP369" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="370" spans="1:68" x14ac:dyDescent="0.3">
@@ -14943,13 +14939,13 @@
         <v>0</v>
       </c>
       <c r="H370" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I370">
         <v>75</v>
       </c>
       <c r="Q370" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S370">
         <v>2</v>
@@ -14967,7 +14963,7 @@
         <v>5</v>
       </c>
       <c r="BP370" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="371" spans="1:68" x14ac:dyDescent="0.3">
@@ -14993,7 +14989,7 @@
         <v>5</v>
       </c>
       <c r="H371" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I371">
         <v>1</v>
@@ -15002,7 +14998,7 @@
         <v>10</v>
       </c>
       <c r="Q371" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y371">
         <v>1</v>
@@ -15014,7 +15010,7 @@
         <v>3</v>
       </c>
       <c r="BP371" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="372" spans="1:68" x14ac:dyDescent="0.3">
@@ -15040,13 +15036,13 @@
         <v>10</v>
       </c>
       <c r="H372" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I372">
         <v>1</v>
       </c>
       <c r="Q372" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y372">
         <v>40</v>
@@ -15061,7 +15057,7 @@
         <v>1</v>
       </c>
       <c r="BP372" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="373" spans="1:68" x14ac:dyDescent="0.3">
@@ -15087,10 +15083,10 @@
         <v>15</v>
       </c>
       <c r="H373" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q373" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y373">
         <v>5</v>
@@ -15105,7 +15101,7 @@
         <v>1</v>
       </c>
       <c r="BP373" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="374" spans="1:68" x14ac:dyDescent="0.3">
@@ -15131,10 +15127,10 @@
         <v>20</v>
       </c>
       <c r="H374" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Q374" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y374">
         <v>25</v>
@@ -15149,7 +15145,7 @@
         <v>1</v>
       </c>
       <c r="BP374" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="375" spans="1:68" x14ac:dyDescent="0.3">
@@ -15181,7 +15177,7 @@
         <v>1</v>
       </c>
       <c r="Q375" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y375">
         <v>5</v>
@@ -15193,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="BP375" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="376" spans="1:68" x14ac:dyDescent="0.3">
@@ -15219,7 +15215,7 @@
         <v>30</v>
       </c>
       <c r="H376" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I376">
         <v>1</v>
@@ -15228,7 +15224,7 @@
         <v>1</v>
       </c>
       <c r="Q376" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y376">
         <v>1</v>
@@ -15240,7 +15236,7 @@
         <v>2</v>
       </c>
       <c r="BP376" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="377" spans="1:68" x14ac:dyDescent="0.3">
@@ -15266,7 +15262,7 @@
         <v>35</v>
       </c>
       <c r="H377" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I377">
         <v>2</v>
@@ -15275,7 +15271,7 @@
         <v>5</v>
       </c>
       <c r="Q377" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y377">
         <v>20</v>
@@ -15287,7 +15283,7 @@
         <v>1</v>
       </c>
       <c r="BP377" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="378" spans="1:68" x14ac:dyDescent="0.3">
@@ -15322,7 +15318,7 @@
         <v>2</v>
       </c>
       <c r="Q378" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R378">
         <v>1</v>
@@ -15343,7 +15339,7 @@
         <v>4</v>
       </c>
       <c r="BP378" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="379" spans="1:68" x14ac:dyDescent="0.3">
@@ -15369,13 +15365,13 @@
         <v>45</v>
       </c>
       <c r="H379" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J379">
         <v>5</v>
       </c>
       <c r="Q379" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y379">
         <v>10</v>
@@ -15393,7 +15389,7 @@
         <v>5</v>
       </c>
       <c r="BP379" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="380" spans="1:68" x14ac:dyDescent="0.3">
@@ -15419,7 +15415,7 @@
         <v>50</v>
       </c>
       <c r="H380" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J380">
         <v>90</v>
@@ -15434,7 +15430,7 @@
         <v>5</v>
       </c>
       <c r="Q380" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y380">
         <v>3</v>
@@ -15446,7 +15442,7 @@
         <v>1</v>
       </c>
       <c r="BP380" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="381" spans="1:68" x14ac:dyDescent="0.3">
@@ -15472,7 +15468,7 @@
         <v>55</v>
       </c>
       <c r="H381" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J381">
         <v>100</v>
@@ -15528,7 +15524,7 @@
         <v>60</v>
       </c>
       <c r="H382" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J382">
         <v>100</v>
@@ -15540,7 +15536,7 @@
         <v>5</v>
       </c>
       <c r="Q382" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Y382">
         <v>5</v>
@@ -15549,7 +15545,7 @@
         <v>2</v>
       </c>
       <c r="BP382" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="383" spans="1:68" x14ac:dyDescent="0.3">
@@ -15575,7 +15571,7 @@
         <v>65</v>
       </c>
       <c r="H383" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J383">
         <v>100</v>
@@ -15590,7 +15586,7 @@
         <v>3</v>
       </c>
       <c r="Q383" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U383">
         <v>5</v>
@@ -15602,7 +15598,7 @@
         <v>1</v>
       </c>
       <c r="BP383" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="384" spans="1:68" x14ac:dyDescent="0.3">
@@ -15628,7 +15624,7 @@
         <v>70</v>
       </c>
       <c r="H384" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J384">
         <v>80</v>
@@ -15637,7 +15633,7 @@
         <v>3</v>
       </c>
       <c r="Q384" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM384">
         <v>3</v>
@@ -15646,7 +15642,7 @@
         <v>2</v>
       </c>
       <c r="BP384" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="385" spans="1:68" x14ac:dyDescent="0.3">
@@ -15684,7 +15680,7 @@
         <v>5</v>
       </c>
       <c r="Q385" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U385">
         <v>10</v>
@@ -15722,7 +15718,7 @@
         <v>80</v>
       </c>
       <c r="H386" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J386">
         <v>70</v>
@@ -15731,109 +15727,109 @@
         <v>70</v>
       </c>
       <c r="L386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M386">
         <v>50</v>
       </c>
       <c r="N386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="O386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Q386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="R386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="T386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U386">
         <v>5</v>
       </c>
       <c r="Y386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="Z386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AA386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AC386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AD386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AL386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AM386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AN386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AO386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AQ386">
         <v>10</v>
       </c>
       <c r="AR386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AS386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AT386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AU386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AV386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AW386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AX386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AY386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BB386">
         <v>10</v>
       </c>
       <c r="BC386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BD386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BE386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BN386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="BP386" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="387" spans="1:68" x14ac:dyDescent="0.3">
@@ -15859,7 +15855,7 @@
         <v>0</v>
       </c>
       <c r="H387" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I387">
         <v>60</v>
@@ -15941,7 +15937,7 @@
         <v>10</v>
       </c>
       <c r="H389" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I389">
         <v>20</v>
@@ -15979,7 +15975,7 @@
         <v>15</v>
       </c>
       <c r="H390" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y390">
         <v>15</v>
@@ -16020,7 +16016,7 @@
         <v>20</v>
       </c>
       <c r="H391" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y391">
         <v>60</v>
@@ -16064,7 +16060,7 @@
         <v>25</v>
       </c>
       <c r="H392" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I392">
         <v>3</v>
@@ -16108,7 +16104,7 @@
         <v>30</v>
       </c>
       <c r="H393" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y393">
         <v>50</v>
@@ -16155,7 +16151,7 @@
         <v>35</v>
       </c>
       <c r="H394" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y394">
         <v>30</v>
@@ -16202,7 +16198,7 @@
         <v>40</v>
       </c>
       <c r="H395" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J395">
         <v>100</v>
@@ -16258,7 +16254,7 @@
         <v>45</v>
       </c>
       <c r="H396" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J396">
         <v>50</v>
@@ -16332,7 +16328,7 @@
         <v>0</v>
       </c>
       <c r="H397" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I397">
         <v>60</v>
@@ -16411,7 +16407,7 @@
         <v>10</v>
       </c>
       <c r="H399" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="Y399">
         <v>10</v>
@@ -16449,7 +16445,7 @@
         <v>15</v>
       </c>
       <c r="H400" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y400">
         <v>40</v>
@@ -16487,7 +16483,7 @@
         <v>20</v>
       </c>
       <c r="H401" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N401">
         <v>1</v>
@@ -16528,7 +16524,7 @@
         <v>25</v>
       </c>
       <c r="H402" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R402">
         <v>1</v>
@@ -16572,7 +16568,7 @@
         <v>30</v>
       </c>
       <c r="H403" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y403">
         <v>15</v>
@@ -16613,7 +16609,7 @@
         <v>35</v>
       </c>
       <c r="H404" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y404">
         <v>15</v>
@@ -16654,7 +16650,7 @@
         <v>40</v>
       </c>
       <c r="H405" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="N405">
         <v>1</v>
@@ -16701,7 +16697,7 @@
         <v>45</v>
       </c>
       <c r="H406" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J406">
         <v>10</v>
@@ -16754,7 +16750,7 @@
         <v>50</v>
       </c>
       <c r="H407" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J407">
         <v>5</v>
@@ -16874,7 +16870,7 @@
         <v>65</v>
       </c>
       <c r="H410" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J410">
         <v>50</v>
@@ -16924,7 +16920,7 @@
         <v>70</v>
       </c>
       <c r="H411" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J411">
         <v>60</v>
@@ -16977,7 +16973,7 @@
         <v>75</v>
       </c>
       <c r="H412" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J412">
         <v>70</v>
@@ -17027,7 +17023,7 @@
         <v>80</v>
       </c>
       <c r="H413" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I413">
         <v>2</v>
@@ -17080,7 +17076,7 @@
         <v>85</v>
       </c>
       <c r="H414" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J414">
         <v>30</v>
@@ -17148,7 +17144,7 @@
         <v>90</v>
       </c>
       <c r="H415" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J415">
         <v>20</v>
@@ -17216,7 +17212,7 @@
         <v>0</v>
       </c>
       <c r="H416" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I416">
         <v>50</v>
@@ -17254,7 +17250,7 @@
         <v>5</v>
       </c>
       <c r="H417" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I417">
         <v>5</v>
@@ -17327,7 +17323,7 @@
         <v>15</v>
       </c>
       <c r="H419" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y419">
         <v>10</v>
@@ -17362,7 +17358,7 @@
         <v>20</v>
       </c>
       <c r="H420" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y420">
         <v>70</v>
@@ -17400,7 +17396,7 @@
         <v>25</v>
       </c>
       <c r="H421" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y421">
         <v>60</v>
@@ -17441,7 +17437,7 @@
         <v>30</v>
       </c>
       <c r="H422" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I422">
         <v>2</v>
@@ -17485,7 +17481,7 @@
         <v>35</v>
       </c>
       <c r="H423" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y423">
         <v>20</v>
@@ -17526,7 +17522,7 @@
         <v>40</v>
       </c>
       <c r="H424" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y424">
         <v>40</v>
@@ -17564,7 +17560,7 @@
         <v>45</v>
       </c>
       <c r="H425" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I425">
         <v>1</v>
@@ -17614,7 +17610,7 @@
         <v>50</v>
       </c>
       <c r="H426" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J426">
         <v>10</v>
@@ -17658,7 +17654,7 @@
         <v>55</v>
       </c>
       <c r="H427" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J427">
         <v>80</v>
@@ -17702,7 +17698,7 @@
         <v>60</v>
       </c>
       <c r="H428" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J428">
         <v>65</v>
@@ -17755,7 +17751,7 @@
         <v>65</v>
       </c>
       <c r="H429" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J429">
         <v>90</v>
@@ -17802,7 +17798,7 @@
         <v>70</v>
       </c>
       <c r="H430" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J430">
         <v>100</v>
@@ -17843,7 +17839,7 @@
         <v>75</v>
       </c>
       <c r="H431" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J431">
         <v>80</v>
@@ -17893,7 +17889,7 @@
         <v>80</v>
       </c>
       <c r="H432" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K432">
         <v>95</v>
@@ -17937,7 +17933,7 @@
         <v>85</v>
       </c>
       <c r="H433" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K433">
         <v>50</v>
@@ -17993,7 +17989,7 @@
         <v>0</v>
       </c>
       <c r="H434" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I434">
         <v>50</v>
@@ -18037,7 +18033,7 @@
         <v>5</v>
       </c>
       <c r="H435" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I435">
         <v>1</v>
@@ -18072,7 +18068,7 @@
         <v>10</v>
       </c>
       <c r="H436" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I436">
         <v>10</v>
@@ -18116,7 +18112,7 @@
         <v>15</v>
       </c>
       <c r="H437" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y437">
         <v>10</v>
@@ -18160,7 +18156,7 @@
         <v>20</v>
       </c>
       <c r="H438" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y438">
         <v>50</v>
@@ -18198,7 +18194,7 @@
         <v>25</v>
       </c>
       <c r="H439" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I439">
         <v>5</v>
@@ -18236,7 +18232,7 @@
         <v>30</v>
       </c>
       <c r="H440" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y440">
         <v>20</v>
@@ -18274,7 +18270,7 @@
         <v>35</v>
       </c>
       <c r="H441" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I441">
         <v>3</v>
@@ -18318,7 +18314,7 @@
         <v>40</v>
       </c>
       <c r="H442" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J442">
         <v>20</v>
@@ -18377,7 +18373,7 @@
         <v>0</v>
       </c>
       <c r="H443" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I443">
         <v>40</v>
@@ -18421,7 +18417,7 @@
         <v>5</v>
       </c>
       <c r="H444" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I444">
         <v>1</v>
@@ -18462,7 +18458,7 @@
         <v>10</v>
       </c>
       <c r="H445" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I445">
         <v>1</v>
@@ -18506,7 +18502,7 @@
         <v>15</v>
       </c>
       <c r="H446" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y446">
         <v>15</v>
@@ -18544,7 +18540,7 @@
         <v>20</v>
       </c>
       <c r="H447" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y447">
         <v>40</v>
@@ -18553,7 +18549,7 @@
         <v>15</v>
       </c>
       <c r="AA447" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="448" spans="1:60" x14ac:dyDescent="0.3">
@@ -18579,7 +18575,7 @@
         <v>25</v>
       </c>
       <c r="H448" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I448">
         <v>1</v>
@@ -18623,7 +18619,7 @@
         <v>30</v>
       </c>
       <c r="H449" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y449">
         <v>25</v>
@@ -18661,7 +18657,7 @@
         <v>35</v>
       </c>
       <c r="H450" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y450">
         <v>10</v>
@@ -18699,7 +18695,7 @@
         <v>40</v>
       </c>
       <c r="H451" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I451">
         <v>1</v>
@@ -18749,7 +18745,7 @@
         <v>45</v>
       </c>
       <c r="H452" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J452">
         <v>1</v>
@@ -18793,7 +18789,7 @@
         <v>50</v>
       </c>
       <c r="H453" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I453">
         <v>2</v>
@@ -18881,7 +18877,7 @@
         <v>60</v>
       </c>
       <c r="H455" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J455">
         <v>5</v>
@@ -18928,7 +18924,7 @@
         <v>65</v>
       </c>
       <c r="H456" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J456">
         <v>60</v>
@@ -18990,7 +18986,7 @@
         <v>70</v>
       </c>
       <c r="H457" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J457">
         <v>10</v>
@@ -19040,7 +19036,7 @@
         <v>75</v>
       </c>
       <c r="H458" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J458">
         <v>10</v>
@@ -19099,7 +19095,7 @@
         <v>80</v>
       </c>
       <c r="H459" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J459">
         <v>20</v>
@@ -19158,7 +19154,7 @@
         <v>85</v>
       </c>
       <c r="H460" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J460">
         <v>30</v>
@@ -19223,7 +19219,7 @@
         <v>90</v>
       </c>
       <c r="H461" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J461">
         <v>30</v>
@@ -19285,7 +19281,7 @@
         <v>95</v>
       </c>
       <c r="H462" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K462">
         <v>50</v>
@@ -19341,7 +19337,7 @@
         <v>0</v>
       </c>
       <c r="H463" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I463">
         <v>30</v>
@@ -19382,7 +19378,7 @@
         <v>5</v>
       </c>
       <c r="H464" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I464">
         <v>5</v>
@@ -19420,7 +19416,7 @@
         <v>10</v>
       </c>
       <c r="H465" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I465">
         <v>3</v>
@@ -19464,7 +19460,7 @@
         <v>15</v>
       </c>
       <c r="H466" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I466">
         <v>5</v>
@@ -19575,7 +19571,7 @@
         <v>30</v>
       </c>
       <c r="H469" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y469">
         <v>20</v>
@@ -19616,7 +19612,7 @@
         <v>35</v>
       </c>
       <c r="H470" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Y470">
         <v>15</v>
@@ -19654,7 +19650,7 @@
         <v>40</v>
       </c>
       <c r="H471" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y471">
         <v>15</v>
@@ -19689,7 +19685,7 @@
         <v>45</v>
       </c>
       <c r="H472" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J472">
         <v>1</v>
@@ -19727,7 +19723,7 @@
         <v>50</v>
       </c>
       <c r="H473" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J473">
         <v>1</v>
@@ -19771,7 +19767,7 @@
         <v>55</v>
       </c>
       <c r="H474" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J474">
         <v>5</v>
@@ -19812,7 +19808,7 @@
         <v>60</v>
       </c>
       <c r="H475" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J475">
         <v>10</v>
@@ -19856,7 +19852,7 @@
         <v>65</v>
       </c>
       <c r="H476" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J476">
         <v>30</v>
@@ -19900,7 +19896,7 @@
         <v>70</v>
       </c>
       <c r="H477" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J477">
         <v>80</v>
@@ -19947,7 +19943,7 @@
         <v>75</v>
       </c>
       <c r="H478" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J478">
         <v>80</v>
@@ -20009,7 +20005,7 @@
         <v>80</v>
       </c>
       <c r="H479" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J479">
         <v>50</v>
@@ -20080,7 +20076,7 @@
         <v>0</v>
       </c>
       <c r="H480" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I480">
         <v>60</v>
@@ -20115,7 +20111,7 @@
         <v>5</v>
       </c>
       <c r="H481" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I481">
         <v>1</v>
@@ -20147,7 +20143,7 @@
         <v>10</v>
       </c>
       <c r="H482" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y482">
         <v>50</v>
@@ -20182,7 +20178,7 @@
         <v>15</v>
       </c>
       <c r="H483" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y483">
         <v>80</v>
@@ -20226,7 +20222,7 @@
         <v>20</v>
       </c>
       <c r="H484" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y484">
         <v>70</v>
@@ -20261,7 +20257,7 @@
         <v>25</v>
       </c>
       <c r="H485" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I485">
         <v>2</v>
@@ -20340,7 +20336,7 @@
         <v>0</v>
       </c>
       <c r="H487" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I487">
         <v>40</v>
@@ -20375,7 +20371,7 @@
         <v>5</v>
       </c>
       <c r="H488" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y488">
         <v>20</v>
@@ -20413,7 +20409,7 @@
         <v>10</v>
       </c>
       <c r="H489" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I489">
         <v>10</v>
@@ -20451,7 +20447,7 @@
         <v>15</v>
       </c>
       <c r="H490" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I490">
         <v>1</v>
@@ -20489,7 +20485,7 @@
         <v>20</v>
       </c>
       <c r="H491" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I491">
         <v>1</v>
@@ -20524,7 +20520,7 @@
         <v>25</v>
       </c>
       <c r="H492" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y492">
         <v>25</v>
@@ -20559,7 +20555,7 @@
         <v>30</v>
       </c>
       <c r="H493" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y493">
         <v>20</v>
@@ -20594,7 +20590,7 @@
         <v>35</v>
       </c>
       <c r="H494" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y494">
         <v>15</v>
@@ -20632,7 +20628,7 @@
         <v>40</v>
       </c>
       <c r="H495" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y495">
         <v>10</v>
@@ -20664,7 +20660,7 @@
         <v>0</v>
       </c>
       <c r="H496" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I496">
         <v>40</v>
@@ -20731,7 +20727,7 @@
         <v>10</v>
       </c>
       <c r="H498" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I498">
         <v>1</v>
@@ -20921,7 +20917,7 @@
         <v>0</v>
       </c>
       <c r="H503" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I503">
         <v>50</v>
@@ -20959,7 +20955,7 @@
         <v>5</v>
       </c>
       <c r="H504" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y504">
         <v>5</v>
@@ -20994,7 +20990,7 @@
         <v>10</v>
       </c>
       <c r="H505" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I505">
         <v>5</v>
@@ -21032,7 +21028,7 @@
         <v>15</v>
       </c>
       <c r="H506" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I506">
         <v>2</v>
@@ -21076,7 +21072,7 @@
         <v>20</v>
       </c>
       <c r="H507" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I507">
         <v>20</v>
@@ -21108,7 +21104,7 @@
         <v>0</v>
       </c>
       <c r="H508" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I508">
         <v>40</v>
@@ -21143,7 +21139,7 @@
         <v>5</v>
       </c>
       <c r="H509" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y509">
         <v>30</v>
@@ -21187,7 +21183,7 @@
         <v>10</v>
       </c>
       <c r="H510" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I510">
         <v>10</v>
@@ -21228,7 +21224,7 @@
         <v>15</v>
       </c>
       <c r="H511" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I511">
         <v>5</v>
@@ -21272,7 +21268,7 @@
         <v>20</v>
       </c>
       <c r="H512" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I512">
         <v>1</v>
@@ -21313,7 +21309,7 @@
         <v>25</v>
       </c>
       <c r="H513" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y513">
         <v>10</v>
@@ -21348,7 +21344,7 @@
         <v>0</v>
       </c>
       <c r="H514" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I514">
         <v>25</v>
@@ -21406,7 +21402,7 @@
         <v>10</v>
       </c>
       <c r="H516" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I516">
         <v>2</v>
@@ -21450,7 +21446,7 @@
         <v>15</v>
       </c>
       <c r="H517" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I517">
         <v>15</v>
@@ -21491,7 +21487,7 @@
         <v>20</v>
       </c>
       <c r="H518" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I518">
         <v>1</v>
@@ -21532,7 +21528,7 @@
         <v>0</v>
       </c>
       <c r="H519" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I519">
         <v>50</v>
@@ -21567,7 +21563,7 @@
         <v>5</v>
       </c>
       <c r="H520" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I520">
         <v>1</v>
@@ -21602,7 +21598,7 @@
         <v>10</v>
       </c>
       <c r="H521" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I521">
         <v>5</v>
@@ -21646,7 +21642,7 @@
         <v>15</v>
       </c>
       <c r="H522" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I522">
         <v>2</v>
@@ -21687,7 +21683,7 @@
         <v>20</v>
       </c>
       <c r="H523" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I523">
         <v>3</v>
@@ -21725,7 +21721,7 @@
         <v>25</v>
       </c>
       <c r="H524" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I524">
         <v>1</v>
@@ -21763,7 +21759,7 @@
         <v>30</v>
       </c>
       <c r="H525" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I525">
         <v>1</v>
@@ -21845,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="H527" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I527">
         <v>50</v>
@@ -21883,7 +21879,7 @@
         <v>5</v>
       </c>
       <c r="H528" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y528">
         <v>25</v>
@@ -21924,7 +21920,7 @@
         <v>10</v>
       </c>
       <c r="H529" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I529">
         <v>10</v>
@@ -21965,7 +21961,7 @@
         <v>15</v>
       </c>
       <c r="H530" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I530">
         <v>1</v>
@@ -22003,7 +21999,7 @@
         <v>20</v>
       </c>
       <c r="H531" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I531">
         <v>5</v>
@@ -22044,7 +22040,7 @@
         <v>25</v>
       </c>
       <c r="H532" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y532">
         <v>10</v>
@@ -22082,7 +22078,7 @@
         <v>30</v>
       </c>
       <c r="H533" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I533">
         <v>1</v>
@@ -22120,7 +22116,7 @@
         <v>35</v>
       </c>
       <c r="H534" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y534">
         <v>5</v>
@@ -22155,7 +22151,7 @@
         <v>40</v>
       </c>
       <c r="H535" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I535">
         <v>1</v>
@@ -22193,7 +22189,7 @@
         <v>45</v>
       </c>
       <c r="H536" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y536">
         <v>5</v>
@@ -22225,7 +22221,7 @@
         <v>50</v>
       </c>
       <c r="H537" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I537">
         <v>5</v>
@@ -22260,7 +22256,7 @@
         <v>0</v>
       </c>
       <c r="H538" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I538">
         <v>40</v>
@@ -22318,7 +22314,7 @@
         <v>10</v>
       </c>
       <c r="H540" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I540">
         <v>5</v>
@@ -22353,7 +22349,7 @@
         <v>15</v>
       </c>
       <c r="H541" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I541">
         <v>5</v>
@@ -22391,7 +22387,7 @@
         <v>20</v>
       </c>
       <c r="H542" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I542">
         <v>2</v>
@@ -22426,7 +22422,7 @@
         <v>25</v>
       </c>
       <c r="H543" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I543">
         <v>1</v>
@@ -22464,7 +22460,7 @@
         <v>30</v>
       </c>
       <c r="H544" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y544">
         <v>5</v>
@@ -22502,7 +22498,7 @@
         <v>35</v>
       </c>
       <c r="H545" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I545">
         <v>1</v>
@@ -22537,7 +22533,7 @@
         <v>40</v>
       </c>
       <c r="H546" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y546">
         <v>15</v>
@@ -22575,7 +22571,7 @@
         <v>45</v>
       </c>
       <c r="H547" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I547">
         <v>2</v>
@@ -22616,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="H548" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I548">
         <v>50</v>
@@ -22651,7 +22647,7 @@
         <v>5</v>
       </c>
       <c r="H549" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y549">
         <v>10</v>
@@ -22686,7 +22682,7 @@
         <v>10</v>
       </c>
       <c r="H550" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I550">
         <v>1</v>
@@ -22730,7 +22726,7 @@
         <v>15</v>
       </c>
       <c r="H551" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I551">
         <v>1</v>
@@ -22771,7 +22767,7 @@
         <v>20</v>
       </c>
       <c r="H552" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I552">
         <v>1</v>
@@ -22803,7 +22799,7 @@
         <v>25</v>
       </c>
       <c r="H553" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y553">
         <v>2</v>
@@ -22838,7 +22834,7 @@
         <v>30</v>
       </c>
       <c r="H554" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y554">
         <v>1</v>
@@ -22870,7 +22866,7 @@
         <v>35</v>
       </c>
       <c r="H555" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y555">
         <v>1</v>
@@ -22902,7 +22898,7 @@
         <v>40</v>
       </c>
       <c r="H556" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AN556">
         <v>10</v>
@@ -22931,7 +22927,7 @@
         <v>45</v>
       </c>
       <c r="H557" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AM557">
         <v>1</v>
@@ -22963,7 +22959,7 @@
         <v>50</v>
       </c>
       <c r="H558" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I558">
         <v>1</v>
@@ -22998,7 +22994,7 @@
         <v>55</v>
       </c>
       <c r="H559" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J559">
         <v>10</v>
@@ -23036,7 +23032,7 @@
         <v>60</v>
       </c>
       <c r="H560" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Y560">
         <v>3</v>
@@ -23071,7 +23067,7 @@
         <v>65</v>
       </c>
       <c r="H561" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I561">
         <v>3</v>
@@ -23132,7 +23128,7 @@
         <v>75</v>
       </c>
       <c r="H563" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J563">
         <v>1</v>
@@ -23173,7 +23169,7 @@
         <v>80</v>
       </c>
       <c r="H564" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I564">
         <v>1</v>
@@ -23214,7 +23210,7 @@
         <v>85</v>
       </c>
       <c r="H565" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I565">
         <v>2</v>
@@ -23261,7 +23257,7 @@
         <v>0</v>
       </c>
       <c r="H566" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I566">
         <v>40</v>
@@ -23328,7 +23324,7 @@
         <v>10</v>
       </c>
       <c r="H568" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I568">
         <v>2</v>
@@ -23369,7 +23365,7 @@
         <v>15</v>
       </c>
       <c r="H569" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I569">
         <v>1</v>
@@ -23506,7 +23502,7 @@
         <v>35</v>
       </c>
       <c r="H573" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I573">
         <v>5</v>
@@ -23544,7 +23540,7 @@
         <v>0</v>
       </c>
       <c r="H574" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I574">
         <v>25</v>
@@ -23579,7 +23575,7 @@
         <v>5</v>
       </c>
       <c r="H575" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I575">
         <v>1</v>
@@ -23608,7 +23604,7 @@
         <v>10</v>
       </c>
       <c r="H576" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I576">
         <v>2</v>
@@ -23713,7 +23709,7 @@
         <v>25</v>
       </c>
       <c r="H579" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I579">
         <v>1</v>
@@ -23748,7 +23744,7 @@
         <v>30</v>
       </c>
       <c r="H580" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y580">
         <v>1</v>
@@ -23777,7 +23773,7 @@
         <v>35</v>
       </c>
       <c r="H581" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I581">
         <v>1</v>
@@ -23812,7 +23808,7 @@
         <v>40</v>
       </c>
       <c r="H582" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y582">
         <v>2</v>
@@ -23876,7 +23872,7 @@
         <v>50</v>
       </c>
       <c r="H584" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I584">
         <v>1</v>
@@ -23949,7 +23945,7 @@
         <v>60</v>
       </c>
       <c r="H586" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J586">
         <v>2</v>
@@ -23993,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="H587" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I587">
         <v>50</v>
@@ -24031,7 +24027,7 @@
         <v>5</v>
       </c>
       <c r="H588" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y588">
         <v>2</v>
@@ -24098,7 +24094,7 @@
         <v>15</v>
       </c>
       <c r="H590" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y590">
         <v>2</v>
@@ -24165,7 +24161,7 @@
         <v>25</v>
       </c>
       <c r="H592" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AM592">
         <v>1</v>
@@ -24194,7 +24190,7 @@
         <v>30</v>
       </c>
       <c r="H593" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I593">
         <v>1</v>
@@ -24270,7 +24266,7 @@
         <v>40</v>
       </c>
       <c r="H595" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I595">
         <v>2</v>
@@ -24370,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="H597" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I597">
         <v>30</v>
@@ -24443,7 +24439,7 @@
         <v>10</v>
       </c>
       <c r="H599" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I599">
         <v>1</v>
@@ -24708,7 +24704,7 @@
         <v>50</v>
       </c>
       <c r="H607" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I607">
         <v>5</v>
@@ -24743,7 +24739,7 @@
         <v>55</v>
       </c>
       <c r="H608" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I608">
         <v>1</v>
@@ -24781,7 +24777,7 @@
         <v>60</v>
       </c>
       <c r="H609" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I609">
         <v>1</v>
@@ -24822,7 +24818,7 @@
         <v>65</v>
       </c>
       <c r="H610" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J610">
         <v>1</v>
@@ -24866,7 +24862,7 @@
         <v>70</v>
       </c>
       <c r="H611" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J611">
         <v>1</v>
@@ -24907,7 +24903,7 @@
         <v>75</v>
       </c>
       <c r="H612" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I612">
         <v>5</v>
@@ -25048,7 +25044,7 @@
         <v>85</v>
       </c>
       <c r="H615" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J615">
         <v>30</v>
@@ -25107,7 +25103,7 @@
         <v>0</v>
       </c>
       <c r="H616" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I616">
         <v>30</v>
@@ -25148,7 +25144,7 @@
         <v>5</v>
       </c>
       <c r="H617" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I617">
         <v>2</v>
@@ -25177,7 +25173,7 @@
         <v>10</v>
       </c>
       <c r="H618" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I618">
         <v>1</v>
@@ -25221,7 +25217,7 @@
         <v>15</v>
       </c>
       <c r="H619" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I619">
         <v>1</v>
@@ -25288,7 +25284,7 @@
         <v>25</v>
       </c>
       <c r="H621" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y621">
         <v>3</v>
@@ -25323,7 +25319,7 @@
         <v>30</v>
       </c>
       <c r="H622" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y622">
         <v>1</v>
@@ -25428,7 +25424,7 @@
         <v>45</v>
       </c>
       <c r="H625" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I625">
         <v>1</v>
@@ -25501,7 +25497,7 @@
         <v>55</v>
       </c>
       <c r="H627" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U627">
         <v>1</v>
@@ -25548,7 +25544,7 @@
         <v>60</v>
       </c>
       <c r="H628" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J628">
         <v>1</v>
@@ -25595,7 +25591,7 @@
         <v>65</v>
       </c>
       <c r="H629" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J629">
         <v>10</v>
@@ -25683,7 +25679,7 @@
         <v>75</v>
       </c>
       <c r="H631" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J631">
         <v>10</v>
@@ -27223,7 +27219,7 @@
         <v>0</v>
       </c>
       <c r="H675" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I675">
         <v>30</v>
@@ -27287,7 +27283,7 @@
         <v>10</v>
       </c>
       <c r="H677" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I677">
         <v>5</v>
@@ -27328,7 +27324,7 @@
         <v>15</v>
       </c>
       <c r="H678" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I678">
         <v>1</v>
@@ -27372,7 +27368,7 @@
         <v>20</v>
       </c>
       <c r="H679" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I679">
         <v>1</v>
@@ -27422,7 +27418,7 @@
         <v>25</v>
       </c>
       <c r="H680" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y680">
         <v>3</v>
@@ -27501,7 +27497,7 @@
         <v>35</v>
       </c>
       <c r="H682" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I682">
         <v>10</v>
@@ -27545,7 +27541,7 @@
         <v>40</v>
       </c>
       <c r="H683" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I683">
         <v>5</v>
@@ -27595,7 +27591,7 @@
         <v>0</v>
       </c>
       <c r="H684" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I684">
         <v>25</v>
@@ -27633,7 +27629,7 @@
         <v>5</v>
       </c>
       <c r="H685" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I685">
         <v>1</v>
@@ -27671,7 +27667,7 @@
         <v>10</v>
       </c>
       <c r="H686" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y686">
         <v>2</v>
@@ -27928,7 +27924,7 @@
         <v>45</v>
       </c>
       <c r="H693" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I693">
         <v>1</v>
@@ -28063,7 +28059,7 @@
         <v>60</v>
       </c>
       <c r="H696" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="T696">
         <v>1</v>
@@ -28107,7 +28103,7 @@
         <v>65</v>
       </c>
       <c r="H697" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="N697">
         <v>1</v>
@@ -28157,7 +28153,7 @@
         <v>70</v>
       </c>
       <c r="H698" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="O698">
         <v>1</v>
@@ -28204,7 +28200,7 @@
         <v>75</v>
       </c>
       <c r="H699" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J699">
         <v>5</v>
@@ -28254,7 +28250,7 @@
         <v>80</v>
       </c>
       <c r="H700" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J700">
         <v>1</v>
@@ -28313,7 +28309,7 @@
         <v>85</v>
       </c>
       <c r="H701" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J701">
         <v>5</v>
@@ -28375,7 +28371,7 @@
         <v>90</v>
       </c>
       <c r="H702" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="U702">
         <v>10</v>
@@ -28434,7 +28430,7 @@
         <v>0</v>
       </c>
       <c r="H703" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I703">
         <v>20</v>
@@ -28475,7 +28471,7 @@
         <v>5</v>
       </c>
       <c r="H704" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I704">
         <v>1</v>
@@ -28504,7 +28500,7 @@
         <v>10</v>
       </c>
       <c r="H705" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I705">
         <v>5</v>
@@ -28685,7 +28681,7 @@
         <v>35</v>
       </c>
       <c r="H710" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I710">
         <v>1</v>
@@ -28826,7 +28822,7 @@
         <v>50</v>
       </c>
       <c r="H713" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="N713">
         <v>1</v>
@@ -28876,7 +28872,7 @@
         <v>55</v>
       </c>
       <c r="H714" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="N714">
         <v>1</v>
@@ -28923,7 +28919,7 @@
         <v>60</v>
       </c>
       <c r="H715" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J715">
         <v>1</v>
@@ -29017,7 +29013,7 @@
         <v>70</v>
       </c>
       <c r="H717" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J717">
         <v>1</v>
@@ -29067,7 +29063,7 @@
         <v>75</v>
       </c>
       <c r="H718" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J718">
         <v>1</v>
@@ -29120,7 +29116,7 @@
         <v>80</v>
       </c>
       <c r="H719" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J719">
         <v>5</v>
@@ -29182,7 +29178,7 @@
         <v>0</v>
       </c>
       <c r="H720" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I720">
         <v>30</v>
@@ -29226,7 +29222,7 @@
         <v>5</v>
       </c>
       <c r="H721" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J721">
         <v>1</v>
@@ -29264,7 +29260,7 @@
         <v>10</v>
       </c>
       <c r="H722" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I722">
         <v>5</v>
@@ -29311,7 +29307,7 @@
         <v>15</v>
       </c>
       <c r="H723" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I723">
         <v>2</v>
@@ -29355,7 +29351,7 @@
         <v>0</v>
       </c>
       <c r="H724" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I724">
         <v>30</v>
@@ -29393,7 +29389,7 @@
         <v>5</v>
       </c>
       <c r="H725" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y725">
         <v>5</v>
@@ -29434,7 +29430,7 @@
         <v>10</v>
       </c>
       <c r="H726" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I726">
         <v>1</v>
@@ -29481,7 +29477,7 @@
         <v>15</v>
       </c>
       <c r="H727" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I727">
         <v>1</v>
@@ -29522,7 +29518,7 @@
         <v>20</v>
       </c>
       <c r="H728" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T728">
         <v>2</v>
@@ -29560,7 +29556,7 @@
         <v>0</v>
       </c>
       <c r="H729" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I729">
         <v>20</v>
@@ -29738,7 +29734,7 @@
         <v>0</v>
       </c>
       <c r="H734" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I734">
         <v>40</v>
@@ -29788,7 +29784,7 @@
         <v>5</v>
       </c>
       <c r="H735" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="Y735">
         <v>3</v>
@@ -29826,7 +29822,7 @@
         <v>10</v>
       </c>
       <c r="H736" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I736">
         <v>5</v>
@@ -29867,7 +29863,7 @@
         <v>15</v>
       </c>
       <c r="H737" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I737">
         <v>1</v>
@@ -29970,7 +29966,7 @@
         <v>25</v>
       </c>
       <c r="H739" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J739">
         <v>15</v>
@@ -30014,7 +30010,7 @@
         <v>30</v>
       </c>
       <c r="H740" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I740">
         <v>15</v>
@@ -30058,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="H741" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I741">
         <v>30</v>
@@ -30096,7 +30092,7 @@
         <v>5</v>
       </c>
       <c r="H742" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T742">
         <v>1</v>
@@ -30134,7 +30130,7 @@
         <v>10</v>
       </c>
       <c r="H743" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="R743">
         <v>1</v>
@@ -30219,7 +30215,7 @@
         <v>20</v>
       </c>
       <c r="H745" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I745">
         <v>1</v>
@@ -30272,7 +30268,7 @@
         <v>25</v>
       </c>
       <c r="H746" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I746">
         <v>1</v>
@@ -30322,7 +30318,7 @@
         <v>30</v>
       </c>
       <c r="H747" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N747">
         <v>5</v>
@@ -30366,7 +30362,7 @@
         <v>35</v>
       </c>
       <c r="H748" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N748">
         <v>5</v>
@@ -30581,7 +30577,7 @@
         <v>55</v>
       </c>
       <c r="H752" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J752">
         <v>5</v>
@@ -30637,7 +30633,7 @@
         <v>0</v>
       </c>
       <c r="H753" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I753">
         <v>10</v>
@@ -30681,7 +30677,7 @@
         <v>5</v>
       </c>
       <c r="H754" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I754">
         <v>1</v>
@@ -30710,7 +30706,7 @@
         <v>10</v>
       </c>
       <c r="H755" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I755">
         <v>1</v>
@@ -30838,7 +30834,7 @@
         <v>30</v>
       </c>
       <c r="H759" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J759">
         <v>10</v>
@@ -30882,7 +30878,7 @@
         <v>35</v>
       </c>
       <c r="H760" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J760">
         <v>10</v>
@@ -30926,7 +30922,7 @@
         <v>40</v>
       </c>
       <c r="H761" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J761">
         <v>5</v>
@@ -30973,7 +30969,7 @@
         <v>45</v>
       </c>
       <c r="H762" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J762">
         <v>3</v>
@@ -31017,7 +31013,7 @@
         <v>0</v>
       </c>
       <c r="H763" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I763">
         <v>30</v>
@@ -31061,7 +31057,7 @@
         <v>5</v>
       </c>
       <c r="H764" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I764">
         <v>3</v>
@@ -31102,7 +31098,7 @@
         <v>10</v>
       </c>
       <c r="H765" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R765">
         <v>5</v>
@@ -31152,7 +31148,7 @@
         <v>15</v>
       </c>
       <c r="H766" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J766">
         <v>10</v>
@@ -31258,7 +31254,7 @@
         <v>25</v>
       </c>
       <c r="H768" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J768">
         <v>50</v>
@@ -31308,7 +31304,7 @@
         <v>30</v>
       </c>
       <c r="H769" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I769">
         <v>20</v>
@@ -31373,7 +31369,7 @@
         <v>0</v>
       </c>
       <c r="H770" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I770">
         <v>30</v>
@@ -31426,7 +31422,7 @@
         <v>5</v>
       </c>
       <c r="H771" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J771">
         <v>5</v>
@@ -31470,7 +31466,7 @@
         <v>10</v>
       </c>
       <c r="H772" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R772">
         <v>2</v>
@@ -31646,7 +31642,7 @@
         <v>30</v>
       </c>
       <c r="H776" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J776">
         <v>15</v>
@@ -31696,7 +31692,7 @@
         <v>35</v>
       </c>
       <c r="H777" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J777">
         <v>15</v>
@@ -31755,7 +31751,7 @@
         <v>40</v>
       </c>
       <c r="H778" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J778">
         <v>60</v>
@@ -31808,7 +31804,7 @@
         <v>0</v>
       </c>
       <c r="H779" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I779">
         <v>20</v>
@@ -31852,7 +31848,7 @@
         <v>5</v>
       </c>
       <c r="H780" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T780">
         <v>1</v>
@@ -31890,7 +31886,7 @@
         <v>10</v>
       </c>
       <c r="H781" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T781">
         <v>5</v>
@@ -31928,7 +31924,7 @@
         <v>15</v>
       </c>
       <c r="H782" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="T782">
         <v>5</v>
@@ -31972,7 +31968,7 @@
         <v>20</v>
       </c>
       <c r="H783" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I783">
         <v>1</v>
@@ -32019,7 +32015,7 @@
         <v>25</v>
       </c>
       <c r="H784" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J784">
         <v>10</v>
@@ -32072,7 +32068,7 @@
         <v>30</v>
       </c>
       <c r="H785" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J785">
         <v>80</v>
@@ -32119,7 +32115,7 @@
         <v>35</v>
       </c>
       <c r="H786" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J786">
         <v>40</v>
@@ -32169,7 +32165,7 @@
         <v>0</v>
       </c>
       <c r="H787" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I787">
         <v>5</v>
@@ -32213,7 +32209,7 @@
         <v>5</v>
       </c>
       <c r="H788" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X788">
         <v>5</v>
@@ -32242,7 +32238,7 @@
         <v>10</v>
       </c>
       <c r="H789" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I789">
         <v>3</v>
@@ -32280,7 +32276,7 @@
         <v>15</v>
       </c>
       <c r="H790" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R790">
         <v>2</v>
@@ -32321,7 +32317,7 @@
         <v>20</v>
       </c>
       <c r="H791" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I791">
         <v>1</v>
@@ -32365,7 +32361,7 @@
         <v>25</v>
       </c>
       <c r="H792" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R792">
         <v>1</v>
@@ -32409,7 +32405,7 @@
         <v>30</v>
       </c>
       <c r="H793" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J793">
         <v>10</v>
@@ -32465,7 +32461,7 @@
         <v>35</v>
       </c>
       <c r="H794" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I794">
         <v>15</v>
@@ -32515,7 +32511,7 @@
         <v>40</v>
       </c>
       <c r="H795" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J795">
         <v>50</v>
@@ -32568,7 +32564,7 @@
         <v>0</v>
       </c>
       <c r="H796" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I796">
         <v>10</v>
@@ -32615,7 +32611,7 @@
         <v>5</v>
       </c>
       <c r="H797" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I797">
         <v>1</v>
@@ -32659,7 +32655,7 @@
         <v>10</v>
       </c>
       <c r="H798" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="R798">
         <v>1</v>
@@ -32697,7 +32693,7 @@
         <v>15</v>
       </c>
       <c r="H799" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I799">
         <v>1</v>
@@ -32744,7 +32740,7 @@
         <v>20</v>
       </c>
       <c r="H800" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J800">
         <v>1</v>
@@ -32794,7 +32790,7 @@
         <v>25</v>
       </c>
       <c r="H801" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I801">
         <v>1</v>
@@ -32847,7 +32843,7 @@
         <v>30</v>
       </c>
       <c r="H802" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I802">
         <v>1</v>
@@ -32897,7 +32893,7 @@
         <v>35</v>
       </c>
       <c r="H803" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J803">
         <v>10</v>
@@ -32944,7 +32940,7 @@
         <v>40</v>
       </c>
       <c r="H804" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J804">
         <v>40</v>
@@ -32997,7 +32993,7 @@
         <v>45</v>
       </c>
       <c r="H805" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I805">
         <v>1</v>
@@ -33050,7 +33046,7 @@
         <v>50</v>
       </c>
       <c r="H806" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J806">
         <v>95</v>
@@ -33147,7 +33143,7 @@
         <v>60</v>
       </c>
       <c r="H808" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J808">
         <v>100</v>
@@ -33191,7 +33187,7 @@
         <v>65</v>
       </c>
       <c r="H809" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J809">
         <v>90</v>
@@ -33394,7 +33390,7 @@
         <v>85</v>
       </c>
       <c r="H813" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J813">
         <v>60</v>
@@ -33450,7 +33446,7 @@
         <v>0</v>
       </c>
       <c r="H814" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I814">
         <v>5</v>
@@ -33491,7 +33487,7 @@
         <v>5</v>
       </c>
       <c r="H815" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I815">
         <v>1</v>
@@ -33526,7 +33522,7 @@
         <v>10</v>
       </c>
       <c r="H816" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X816">
         <v>45</v>
@@ -33564,7 +33560,7 @@
         <v>15</v>
       </c>
       <c r="H817" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X817">
         <v>10</v>
@@ -33605,7 +33601,7 @@
         <v>20</v>
       </c>
       <c r="H818" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X818">
         <v>15</v>
@@ -33681,7 +33677,7 @@
         <v>30</v>
       </c>
       <c r="H820" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I820">
         <v>1</v>
@@ -33722,7 +33718,7 @@
         <v>35</v>
       </c>
       <c r="H821" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J821">
         <v>25</v>
@@ -33760,7 +33756,7 @@
         <v>40</v>
       </c>
       <c r="H822" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J822">
         <v>35</v>
@@ -33798,7 +33794,7 @@
         <v>45</v>
       </c>
       <c r="H823" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J823">
         <v>100</v>
@@ -33854,7 +33850,7 @@
         <v>50</v>
       </c>
       <c r="H824" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J824">
         <v>100</v>
@@ -33910,7 +33906,7 @@
         <v>55</v>
       </c>
       <c r="H825" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J825">
         <v>100</v>
@@ -33963,7 +33959,7 @@
         <v>60</v>
       </c>
       <c r="H826" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J826">
         <v>100</v>
@@ -34013,7 +34009,7 @@
         <v>65</v>
       </c>
       <c r="H827" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J827">
         <v>100</v>
@@ -34066,7 +34062,7 @@
         <v>70</v>
       </c>
       <c r="H828" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J828">
         <v>80</v>
@@ -34131,7 +34127,7 @@
         <v>0</v>
       </c>
       <c r="H829" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I829">
         <v>15</v>
@@ -34172,7 +34168,7 @@
         <v>5</v>
       </c>
       <c r="H830" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X830">
         <v>20</v>
@@ -34204,7 +34200,7 @@
         <v>10</v>
       </c>
       <c r="H831" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I831">
         <v>1</v>
@@ -34242,7 +34238,7 @@
         <v>15</v>
       </c>
       <c r="H832" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I832">
         <v>2</v>
@@ -34286,7 +34282,7 @@
         <v>20</v>
       </c>
       <c r="H833" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I833">
         <v>1</v>
@@ -34324,7 +34320,7 @@
         <v>25</v>
       </c>
       <c r="H834" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I834">
         <v>1</v>
@@ -34365,7 +34361,7 @@
         <v>30</v>
       </c>
       <c r="H835" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I835">
         <v>1</v>
@@ -34409,7 +34405,7 @@
         <v>35</v>
       </c>
       <c r="H836" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I836">
         <v>7</v>
@@ -34512,7 +34508,7 @@
         <v>0</v>
       </c>
       <c r="H838" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I838">
         <v>20</v>
@@ -34553,7 +34549,7 @@
         <v>5</v>
       </c>
       <c r="H839" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X839">
         <v>80</v>
@@ -34591,7 +34587,7 @@
         <v>10</v>
       </c>
       <c r="H840" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I840">
         <v>1</v>
@@ -34632,7 +34628,7 @@
         <v>15</v>
       </c>
       <c r="H841" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I841">
         <v>1</v>
@@ -34676,7 +34672,7 @@
         <v>20</v>
       </c>
       <c r="H842" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -34711,7 +34707,7 @@
         <v>25</v>
       </c>
       <c r="H843" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I843">
         <v>3</v>
@@ -34749,7 +34745,7 @@
         <v>30</v>
       </c>
       <c r="H844" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X844">
         <v>45</v>
@@ -34787,7 +34783,7 @@
         <v>35</v>
       </c>
       <c r="H845" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J845">
         <v>4</v>
@@ -34825,7 +34821,7 @@
         <v>40</v>
       </c>
       <c r="H846" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J846">
         <v>5</v>
@@ -34863,7 +34859,7 @@
         <v>45</v>
       </c>
       <c r="H847" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J847">
         <v>20</v>
@@ -34898,7 +34894,7 @@
         <v>50</v>
       </c>
       <c r="H848" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I848">
         <v>3</v>
@@ -34942,7 +34938,7 @@
         <v>55</v>
       </c>
       <c r="H849" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J849">
         <v>45</v>
@@ -34980,7 +34976,7 @@
         <v>60</v>
       </c>
       <c r="H850" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J850">
         <v>90</v>
@@ -35021,7 +35017,7 @@
         <v>65</v>
       </c>
       <c r="H851" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I851">
         <v>1</v>
@@ -35065,7 +35061,7 @@
         <v>70</v>
       </c>
       <c r="H852" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J852">
         <v>85</v>
@@ -35112,7 +35108,7 @@
         <v>75</v>
       </c>
       <c r="H853" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J853">
         <v>75</v>
@@ -35168,7 +35164,7 @@
         <v>80</v>
       </c>
       <c r="H854" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J854">
         <v>30</v>
@@ -35224,7 +35220,7 @@
         <v>85</v>
       </c>
       <c r="H855" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J855">
         <v>40</v>
@@ -35280,7 +35276,7 @@
         <v>90</v>
       </c>
       <c r="H856" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J856">
         <v>50</v>
@@ -35348,7 +35344,7 @@
         <v>95</v>
       </c>
       <c r="H857" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J857">
         <v>10</v>
@@ -35425,7 +35421,7 @@
         <v>0</v>
       </c>
       <c r="H858" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I858">
         <v>10</v>
@@ -35460,7 +35456,7 @@
         <v>5</v>
       </c>
       <c r="H859" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I859">
         <v>1</v>
@@ -35492,7 +35488,7 @@
         <v>10</v>
       </c>
       <c r="H860" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I860">
         <v>1</v>
@@ -35530,7 +35526,7 @@
         <v>15</v>
       </c>
       <c r="H861" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X861">
         <v>50</v>
@@ -35562,7 +35558,7 @@
         <v>20</v>
       </c>
       <c r="H862" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I862">
         <v>1</v>
@@ -35603,7 +35599,7 @@
         <v>25</v>
       </c>
       <c r="H863" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I863">
         <v>1</v>
@@ -35641,7 +35637,7 @@
         <v>30</v>
       </c>
       <c r="H864" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J864">
         <v>2</v>
@@ -35682,7 +35678,7 @@
         <v>35</v>
       </c>
       <c r="H865" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J865">
         <v>3</v>
@@ -35723,7 +35719,7 @@
         <v>40</v>
       </c>
       <c r="H866" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J866">
         <v>3</v>
@@ -35761,7 +35757,7 @@
         <v>45</v>
       </c>
       <c r="H867" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J867">
         <v>10</v>
@@ -35799,7 +35795,7 @@
         <v>50</v>
       </c>
       <c r="H868" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J868">
         <v>25</v>
@@ -35837,7 +35833,7 @@
         <v>55</v>
       </c>
       <c r="H869" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J869">
         <v>35</v>
@@ -35890,7 +35886,7 @@
         <v>60</v>
       </c>
       <c r="H870" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J870">
         <v>40</v>
@@ -35943,7 +35939,7 @@
         <v>65</v>
       </c>
       <c r="H871" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J871">
         <v>75</v>
@@ -36002,7 +35998,7 @@
         <v>70</v>
       </c>
       <c r="H872" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I872">
         <v>1</v>
@@ -36061,7 +36057,7 @@
         <v>75</v>
       </c>
       <c r="H873" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J873">
         <v>75</v>
@@ -36120,7 +36116,7 @@
         <v>80</v>
       </c>
       <c r="H874" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K874">
         <v>20</v>
@@ -36179,7 +36175,7 @@
         <v>0</v>
       </c>
       <c r="H875" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I875">
         <v>15</v>
@@ -36214,7 +36210,7 @@
         <v>5</v>
       </c>
       <c r="H876" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X876">
         <v>25</v>
@@ -36246,7 +36242,7 @@
         <v>10</v>
       </c>
       <c r="H877" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I877">
         <v>3</v>
@@ -36284,7 +36280,7 @@
         <v>15</v>
       </c>
       <c r="H878" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X878">
         <v>90</v>
@@ -36319,7 +36315,7 @@
         <v>20</v>
       </c>
       <c r="H879" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I879">
         <v>5</v>
@@ -36360,7 +36356,7 @@
         <v>25</v>
       </c>
       <c r="H880" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I880">
         <v>3</v>
@@ -36401,7 +36397,7 @@
         <v>30</v>
       </c>
       <c r="H881" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I881">
         <v>3</v>
@@ -36445,7 +36441,7 @@
         <v>35</v>
       </c>
       <c r="H882" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I882">
         <v>10</v>
@@ -36562,7 +36558,7 @@
         <v>5</v>
       </c>
       <c r="H885" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I885">
         <v>2</v>
@@ -36600,7 +36596,7 @@
         <v>10</v>
       </c>
       <c r="H886" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I886">
         <v>2</v>
@@ -36638,7 +36634,7 @@
         <v>15</v>
       </c>
       <c r="H887" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I887">
         <v>3</v>
@@ -36676,7 +36672,7 @@
         <v>20</v>
       </c>
       <c r="H888" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X888">
         <v>70</v>
@@ -36708,7 +36704,7 @@
         <v>25</v>
       </c>
       <c r="H889" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I889">
         <v>1</v>
@@ -36743,7 +36739,7 @@
         <v>30</v>
       </c>
       <c r="H890" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I890">
         <v>1</v>
@@ -36784,7 +36780,7 @@
         <v>35</v>
       </c>
       <c r="H891" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X891">
         <v>10</v>
@@ -36816,7 +36812,7 @@
         <v>40</v>
       </c>
       <c r="H892" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J892">
         <v>2</v>
@@ -36854,7 +36850,7 @@
         <v>45</v>
       </c>
       <c r="H893" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J893">
         <v>1</v>
@@ -36889,7 +36885,7 @@
         <v>50</v>
       </c>
       <c r="H894" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I894">
         <v>5</v>
@@ -36927,7 +36923,7 @@
         <v>55</v>
       </c>
       <c r="H895" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I895">
         <v>1</v>
@@ -36968,7 +36964,7 @@
         <v>60</v>
       </c>
       <c r="H896" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I896">
         <v>1</v>
@@ -37012,7 +37008,7 @@
         <v>65</v>
       </c>
       <c r="H897" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J897">
         <v>5</v>
@@ -37044,7 +37040,7 @@
         <v>70</v>
       </c>
       <c r="H898" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J898">
         <v>10</v>
@@ -37079,7 +37075,7 @@
         <v>75</v>
       </c>
       <c r="H899" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J899">
         <v>60</v>
@@ -37120,7 +37116,7 @@
         <v>80</v>
       </c>
       <c r="H900" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I900">
         <v>2</v>
@@ -37185,7 +37181,7 @@
         <v>85</v>
       </c>
       <c r="H901" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J901">
         <v>3</v>
@@ -37247,7 +37243,7 @@
         <v>90</v>
       </c>
       <c r="H902" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I902">
         <v>5</v>
@@ -37350,7 +37346,7 @@
         <v>5</v>
       </c>
       <c r="H904" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X904">
         <v>20</v>
@@ -37382,7 +37378,7 @@
         <v>10</v>
       </c>
       <c r="H905" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X905">
         <v>85</v>
@@ -37420,7 +37416,7 @@
         <v>15</v>
       </c>
       <c r="H906" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I906">
         <v>1</v>
@@ -37461,7 +37457,7 @@
         <v>20</v>
       </c>
       <c r="H907" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I907">
         <v>3</v>
@@ -37499,7 +37495,7 @@
         <v>25</v>
       </c>
       <c r="H908" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X908">
         <v>80</v>
@@ -37534,7 +37530,7 @@
         <v>30</v>
       </c>
       <c r="H909" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I909">
         <v>1</v>
@@ -37575,7 +37571,7 @@
         <v>35</v>
       </c>
       <c r="H910" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X910">
         <v>35</v>
@@ -37613,7 +37609,7 @@
         <v>40</v>
       </c>
       <c r="H911" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X911">
         <v>60</v>
@@ -37654,7 +37650,7 @@
         <v>45</v>
       </c>
       <c r="H912" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J912">
         <v>2</v>
@@ -37698,7 +37694,7 @@
         <v>50</v>
       </c>
       <c r="H913" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X913">
         <v>75</v>
@@ -37739,7 +37735,7 @@
         <v>55</v>
       </c>
       <c r="H914" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I914">
         <v>1</v>
@@ -37780,7 +37776,7 @@
         <v>60</v>
       </c>
       <c r="H915" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I915">
         <v>2</v>
@@ -37824,7 +37820,7 @@
         <v>65</v>
       </c>
       <c r="H916" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J916">
         <v>20</v>
@@ -37868,7 +37864,7 @@
         <v>70</v>
       </c>
       <c r="H917" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J917">
         <v>20</v>
@@ -37915,7 +37911,7 @@
         <v>75</v>
       </c>
       <c r="H918" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J918">
         <v>30</v>
@@ -37968,7 +37964,7 @@
         <v>80</v>
       </c>
       <c r="H919" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J919">
         <v>15</v>
@@ -38018,7 +38014,7 @@
         <v>85</v>
       </c>
       <c r="H920" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J920">
         <v>80</v>
@@ -38074,7 +38070,7 @@
         <v>0</v>
       </c>
       <c r="H921" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I921">
         <v>10</v>
@@ -38106,7 +38102,7 @@
         <v>5</v>
       </c>
       <c r="H922" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I922">
         <v>1</v>
@@ -38141,7 +38137,7 @@
         <v>10</v>
       </c>
       <c r="H923" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I923">
         <v>2</v>
@@ -38179,7 +38175,7 @@
         <v>15</v>
       </c>
       <c r="H924" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I924">
         <v>5</v>
@@ -38217,7 +38213,7 @@
         <v>20</v>
       </c>
       <c r="H925" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I925">
         <v>2</v>
@@ -38258,7 +38254,7 @@
         <v>25</v>
       </c>
       <c r="H926" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I926">
         <v>6</v>
@@ -38299,7 +38295,7 @@
         <v>30</v>
       </c>
       <c r="H927" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I927">
         <v>1</v>
@@ -38334,7 +38330,7 @@
         <v>35</v>
       </c>
       <c r="H928" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I928">
         <v>10</v>
@@ -38372,7 +38368,7 @@
         <v>40</v>
       </c>
       <c r="H929" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I929">
         <v>5</v>
@@ -38419,7 +38415,7 @@
         <v>0</v>
       </c>
       <c r="H930" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I930">
         <v>10</v>
@@ -38457,7 +38453,7 @@
         <v>5</v>
       </c>
       <c r="H931" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X931">
         <v>75</v>
@@ -38492,7 +38488,7 @@
         <v>10</v>
       </c>
       <c r="H932" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X932">
         <v>60</v>
@@ -38527,7 +38523,7 @@
         <v>15</v>
       </c>
       <c r="H933" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X933">
         <v>50</v>
@@ -38562,7 +38558,7 @@
         <v>20</v>
       </c>
       <c r="H934" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I934">
         <v>2</v>
@@ -38600,7 +38596,7 @@
         <v>25</v>
       </c>
       <c r="H935" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I935">
         <v>1</v>
@@ -38635,7 +38631,7 @@
         <v>30</v>
       </c>
       <c r="H936" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X936">
         <v>20</v>
@@ -38667,7 +38663,7 @@
         <v>35</v>
       </c>
       <c r="H937" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X937">
         <v>15</v>
@@ -38699,7 +38695,7 @@
         <v>40</v>
       </c>
       <c r="H938" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X938">
         <v>15</v>
@@ -38731,7 +38727,7 @@
         <v>45</v>
       </c>
       <c r="H939" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X939">
         <v>30</v>
@@ -38769,7 +38765,7 @@
         <v>50</v>
       </c>
       <c r="H940" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X940">
         <v>25</v>
@@ -38804,7 +38800,7 @@
         <v>55</v>
       </c>
       <c r="H941" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X941">
         <v>25</v>
@@ -38839,7 +38835,7 @@
         <v>60</v>
       </c>
       <c r="H942" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X942">
         <v>30</v>
@@ -38874,7 +38870,7 @@
         <v>65</v>
       </c>
       <c r="H943" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X943">
         <v>15</v>
@@ -38909,7 +38905,7 @@
         <v>70</v>
       </c>
       <c r="H944" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X944">
         <v>20</v>
@@ -38950,7 +38946,7 @@
         <v>75</v>
       </c>
       <c r="H945" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I945">
         <v>1</v>
@@ -38997,7 +38993,7 @@
         <v>80</v>
       </c>
       <c r="H946" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I946">
         <v>3</v>
@@ -39050,7 +39046,7 @@
         <v>85</v>
       </c>
       <c r="H947" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="U947">
         <v>2</v>
@@ -39100,7 +39096,7 @@
         <v>90</v>
       </c>
       <c r="H948" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I948">
         <v>20</v>
@@ -39191,7 +39187,7 @@
         <v>5</v>
       </c>
       <c r="H950" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X950">
         <v>25</v>
@@ -39223,7 +39219,7 @@
         <v>10</v>
       </c>
       <c r="H951" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X951">
         <v>80</v>
@@ -39261,7 +39257,7 @@
         <v>15</v>
       </c>
       <c r="H952" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I952">
         <v>1</v>
@@ -39299,7 +39295,7 @@
         <v>20</v>
       </c>
       <c r="H953" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I953">
         <v>10</v>
@@ -39337,7 +39333,7 @@
         <v>25</v>
       </c>
       <c r="H954" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X954">
         <v>40</v>
@@ -39375,7 +39371,7 @@
         <v>30</v>
       </c>
       <c r="H955" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I955">
         <v>2</v>
@@ -39410,7 +39406,7 @@
         <v>35</v>
       </c>
       <c r="H956" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X956">
         <v>15</v>
@@ -39442,7 +39438,7 @@
         <v>40</v>
       </c>
       <c r="H957" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J957">
         <v>1</v>
@@ -39477,7 +39473,7 @@
         <v>45</v>
       </c>
       <c r="H958" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="X958">
         <v>25</v>
@@ -39515,7 +39511,7 @@
         <v>50</v>
       </c>
       <c r="H959" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J959">
         <v>1</v>
@@ -39559,7 +39555,7 @@
         <v>55</v>
       </c>
       <c r="H960" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J960">
         <v>2</v>
@@ -39600,7 +39596,7 @@
         <v>60</v>
       </c>
       <c r="H961" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J961">
         <v>3</v>
@@ -39641,7 +39637,7 @@
         <v>65</v>
       </c>
       <c r="H962" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J962">
         <v>6</v>
@@ -39682,7 +39678,7 @@
         <v>70</v>
       </c>
       <c r="H963" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J963">
         <v>2</v>
@@ -39732,7 +39728,7 @@
         <v>75</v>
       </c>
       <c r="H964" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I964">
         <v>1</v>
@@ -39785,7 +39781,7 @@
         <v>80</v>
       </c>
       <c r="H965" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J965">
         <v>30</v>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5092" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{537B6D05-1114-42D6-B3C1-83F7EF7B72BB}"/>
+  <xr:revisionPtr revIDLastSave="5411" documentId="8_{66D09B87-BA6E-4AE3-AABA-E18550A91A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04FECFEE-EB10-4DD4-9B0C-4FBFF1B78ED6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -296,55 +296,7 @@
     <t>ulothrix_palusalsa__green</t>
   </si>
   <si>
-    <t>wildemania_amplissima__red</t>
-  </si>
-  <si>
-    <t>scytosiphon_sp.__brown</t>
-  </si>
-  <si>
-    <t>ulva_sp.__green</t>
-  </si>
-  <si>
     <t>ulothrix_sp.eciosa__green</t>
-  </si>
-  <si>
-    <t>mastocarpus-upright_sp.__red</t>
-  </si>
-  <si>
-    <t>mastocarpus-crust_sp.__red</t>
-  </si>
-  <si>
-    <t>pyropia_sp.__red</t>
-  </si>
-  <si>
-    <t>hildenbrandia_sp.__red</t>
-  </si>
-  <si>
-    <t>polysiphonia_sp.__red</t>
-  </si>
-  <si>
-    <t>bonnemaisonia_sp.__red</t>
-  </si>
-  <si>
-    <t>callophyllis_sp.__red</t>
-  </si>
-  <si>
-    <t>plocamium_sp.__red</t>
-  </si>
-  <si>
-    <t>crusticorallina_sp.__red</t>
-  </si>
-  <si>
-    <t>lithothamnion_sp.__red</t>
-  </si>
-  <si>
-    <t>pterothamnion_sp.__red</t>
-  </si>
-  <si>
-    <t>gracilaria_sp._or_gracilariopsis_sp.__red</t>
-  </si>
-  <si>
-    <t>ahnfeltia_sp.__red</t>
   </si>
   <si>
     <t>mastocarpus_sp.</t>
@@ -387,6 +339,54 @@
   </si>
   <si>
     <t>chondracanthus_exasperatus__red</t>
+  </si>
+  <si>
+    <t>scytosiphon_sp__brown</t>
+  </si>
+  <si>
+    <t>ulva_sp__green</t>
+  </si>
+  <si>
+    <t>mastocarpus-upright_sp__red</t>
+  </si>
+  <si>
+    <t>mastocarpus-crust_sp__red</t>
+  </si>
+  <si>
+    <t>pyropia_sp__red</t>
+  </si>
+  <si>
+    <t>hildenbrandia_sp__red</t>
+  </si>
+  <si>
+    <t>polysiphonia_sp__red</t>
+  </si>
+  <si>
+    <t>bonnemaisonia_sp__red</t>
+  </si>
+  <si>
+    <t>callophyllis_sp__red</t>
+  </si>
+  <si>
+    <t>plocamium_sp__red</t>
+  </si>
+  <si>
+    <t>crusticorallina_sp__red</t>
+  </si>
+  <si>
+    <t>lithothamnion_sp__red</t>
+  </si>
+  <si>
+    <t>pterothamnion_sp__red</t>
+  </si>
+  <si>
+    <t>ahnfeltia_sp__red</t>
+  </si>
+  <si>
+    <t>wildemania_sp__red</t>
+  </si>
+  <si>
+    <t>gracilaria_sp_or_gracilariopsis_sp__red</t>
   </si>
 </sst>
 </file>
@@ -1249,18 +1249,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BX1190"/>
+  <dimension ref="A1:BX1231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AY1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AR1" sqref="AR1"/>
+      <selection pane="bottomLeft" activeCell="BP1" sqref="BP1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="4.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" customWidth="1"/>
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
@@ -1294,7 +1294,7 @@
     <col min="36" max="36" width="13.5546875" customWidth="1"/>
     <col min="37" max="37" width="14.33203125" customWidth="1"/>
     <col min="38" max="38" width="11.33203125" customWidth="1"/>
-    <col min="39" max="39" width="14.109375" customWidth="1"/>
+    <col min="39" max="39" width="23.6640625" customWidth="1"/>
     <col min="40" max="40" width="13.88671875" customWidth="1"/>
     <col min="41" max="41" width="4.109375" customWidth="1"/>
     <col min="42" max="42" width="5.33203125" customWidth="1"/>
@@ -1381,7 +1381,7 @@
         <v>16</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="S1" s="4" t="s">
         <v>17</v>
@@ -1399,7 +1399,7 @@
         <v>21</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
       <c r="Y1" s="2" t="s">
         <v>22</v>
@@ -1423,7 +1423,7 @@
         <v>84</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AG1" s="2" t="s">
         <v>28</v>
@@ -1444,25 +1444,25 @@
         <v>33</v>
       </c>
       <c r="AM1" s="1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="AQ1" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AR1" s="1" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="AS1" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="AT1" s="1" t="s">
         <v>35</v>
@@ -1474,13 +1474,13 @@
         <v>37</v>
       </c>
       <c r="AW1" s="1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="AX1" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AY1" s="1" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="AZ1" s="1" t="s">
         <v>39</v>
@@ -1492,7 +1492,7 @@
         <v>41</v>
       </c>
       <c r="BC1" s="1" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="BD1" s="1" t="s">
         <v>42</v>
@@ -1504,25 +1504,25 @@
         <v>44</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>45</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>46</v>
       </c>
       <c r="BL1" s="1" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="BN1" s="1" t="s">
         <v>47</v>
@@ -1531,7 +1531,7 @@
         <v>48</v>
       </c>
       <c r="BP1" s="1" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="BQ1" s="1" t="s">
         <v>49</v>
@@ -1543,7 +1543,7 @@
         <v>51</v>
       </c>
       <c r="BT1" s="1" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="BU1" s="1" t="s">
         <v>52</v>
@@ -1835,7 +1835,7 @@
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -2106,7 +2106,7 @@
         <v>10</v>
       </c>
       <c r="H18" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2496,7 +2496,7 @@
         <v>5</v>
       </c>
       <c r="H30" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2557,7 +2557,7 @@
         <v>15</v>
       </c>
       <c r="H32" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -2767,7 +2767,7 @@
         <v>10</v>
       </c>
       <c r="H38" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I38">
         <v>5</v>
@@ -2802,7 +2802,7 @@
         <v>15</v>
       </c>
       <c r="H39" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -2837,7 +2837,7 @@
         <v>20</v>
       </c>
       <c r="H40" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>5</v>
       </c>
       <c r="H50" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3268,7 +3268,7 @@
         <v>20</v>
       </c>
       <c r="H53" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>5</v>
       </c>
       <c r="H61" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I61">
         <v>1</v>
@@ -3574,7 +3574,7 @@
         <v>10</v>
       </c>
       <c r="H62" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -3635,7 +3635,7 @@
         <v>20</v>
       </c>
       <c r="H64" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I64">
         <v>10</v>
@@ -3743,7 +3743,7 @@
         <v>10</v>
       </c>
       <c r="H67" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I67">
         <v>10</v>
@@ -3778,7 +3778,7 @@
         <v>15</v>
       </c>
       <c r="H68" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I68">
         <v>5</v>
@@ -3845,7 +3845,7 @@
         <v>5</v>
       </c>
       <c r="H70" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I70">
         <v>2</v>
@@ -4142,7 +4142,7 @@
         <v>5</v>
       </c>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -4625,7 +4625,7 @@
         <v>40</v>
       </c>
       <c r="H94" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J94">
         <v>0</v>
@@ -4724,7 +4724,7 @@
         <v>5</v>
       </c>
       <c r="H97" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -4794,7 +4794,7 @@
         <v>15</v>
       </c>
       <c r="H99" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -5185,7 +5185,7 @@
         <v>10</v>
       </c>
       <c r="H110" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I110">
         <v>5</v>
@@ -5220,7 +5220,7 @@
         <v>15</v>
       </c>
       <c r="H111" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I111">
         <v>1</v>
@@ -5255,7 +5255,7 @@
         <v>20</v>
       </c>
       <c r="H112" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I112">
         <v>1</v>
@@ -5290,7 +5290,7 @@
         <v>25</v>
       </c>
       <c r="H113" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J113">
         <v>0</v>
@@ -6446,7 +6446,7 @@
         <v>50</v>
       </c>
       <c r="H148" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J148">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>70</v>
       </c>
       <c r="H152" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J152">
         <v>0</v>
@@ -6612,7 +6612,7 @@
         <v>75</v>
       </c>
       <c r="H153" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="J153">
         <v>0</v>
@@ -6784,7 +6784,7 @@
         <v>20</v>
       </c>
       <c r="H158" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J158">
         <v>0</v>
@@ -7058,7 +7058,7 @@
         <v>10</v>
       </c>
       <c r="H166" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I166">
         <v>5</v>
@@ -7093,7 +7093,7 @@
         <v>15</v>
       </c>
       <c r="H167" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I167">
         <v>1</v>
@@ -7128,7 +7128,7 @@
         <v>20</v>
       </c>
       <c r="H168" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I168">
         <v>1</v>
@@ -7163,7 +7163,7 @@
         <v>25</v>
       </c>
       <c r="H169" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J169">
         <v>0</v>
@@ -7341,7 +7341,7 @@
         <v>0</v>
       </c>
       <c r="H174" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I174">
         <v>3</v>
@@ -7501,7 +7501,7 @@
         <v>25</v>
       </c>
       <c r="H179" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J179">
         <v>0</v>
@@ -7766,7 +7766,7 @@
         <v>25</v>
       </c>
       <c r="H187" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I187">
         <v>1</v>
@@ -8179,7 +8179,7 @@
         <v>5</v>
       </c>
       <c r="H200" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J200">
         <v>0</v>
@@ -8211,7 +8211,7 @@
         <v>10</v>
       </c>
       <c r="H201" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J201">
         <v>0</v>
@@ -8243,7 +8243,7 @@
         <v>15</v>
       </c>
       <c r="H202" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="J202">
         <v>0</v>
@@ -8307,7 +8307,7 @@
         <v>25</v>
       </c>
       <c r="H204" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J204">
         <v>0</v>
@@ -8610,7 +8610,7 @@
         <v>20</v>
       </c>
       <c r="H213" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J213">
         <v>0</v>
@@ -8899,7 +8899,7 @@
         <v>10</v>
       </c>
       <c r="H221" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J221">
         <v>0</v>
@@ -9030,7 +9030,7 @@
         <v>30</v>
       </c>
       <c r="H225" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -9112,7 +9112,7 @@
         <v>5</v>
       </c>
       <c r="H227" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -9188,7 +9188,7 @@
         <v>15</v>
       </c>
       <c r="H229" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J229">
         <v>0</v>
@@ -9302,7 +9302,7 @@
         <v>30</v>
       </c>
       <c r="H232" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J232">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>40</v>
       </c>
       <c r="H242" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J242">
         <v>0</v>
@@ -9681,7 +9681,7 @@
         <v>45</v>
       </c>
       <c r="H243" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="J243">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>5</v>
       </c>
       <c r="H245" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J245">
         <v>0</v>
@@ -12550,7 +12550,7 @@
         <v>10</v>
       </c>
       <c r="H320" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I320">
         <v>5</v>
@@ -12667,7 +12667,7 @@
         <v>25</v>
       </c>
       <c r="H323" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I323">
         <v>3</v>
@@ -13582,7 +13582,7 @@
         <v>10</v>
       </c>
       <c r="H344" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I344">
         <v>10</v>
@@ -17250,7 +17250,7 @@
         <v>5</v>
       </c>
       <c r="H417" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I417">
         <v>5</v>
@@ -18314,7 +18314,7 @@
         <v>40</v>
       </c>
       <c r="H442" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J442">
         <v>20</v>
@@ -19378,7 +19378,7 @@
         <v>5</v>
       </c>
       <c r="H464" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I464">
         <v>5</v>
@@ -19808,7 +19808,7 @@
         <v>60</v>
       </c>
       <c r="H475" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="J475">
         <v>10</v>
@@ -23032,7 +23032,7 @@
         <v>60</v>
       </c>
       <c r="H560" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="Y560">
         <v>3</v>
@@ -23067,7 +23067,7 @@
         <v>65</v>
       </c>
       <c r="H561" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I561">
         <v>3</v>
@@ -23169,7 +23169,7 @@
         <v>80</v>
       </c>
       <c r="H564" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I564">
         <v>1</v>
@@ -27368,7 +27368,7 @@
         <v>20</v>
       </c>
       <c r="H679" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I679">
         <v>1</v>
@@ -27497,7 +27497,7 @@
         <v>35</v>
       </c>
       <c r="H682" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I682">
         <v>10</v>
@@ -27541,7 +27541,7 @@
         <v>40</v>
       </c>
       <c r="H683" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I683">
         <v>5</v>
@@ -27924,7 +27924,7 @@
         <v>45</v>
       </c>
       <c r="H693" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="I693">
         <v>1</v>
@@ -28059,7 +28059,7 @@
         <v>60</v>
       </c>
       <c r="H696" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="T696">
         <v>1</v>
@@ -28103,7 +28103,7 @@
         <v>65</v>
       </c>
       <c r="H697" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="N697">
         <v>1</v>
@@ -28200,7 +28200,7 @@
         <v>75</v>
       </c>
       <c r="H699" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J699">
         <v>5</v>
@@ -28250,7 +28250,7 @@
         <v>80</v>
       </c>
       <c r="H700" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="J700">
         <v>1</v>
@@ -28309,7 +28309,7 @@
         <v>85</v>
       </c>
       <c r="H701" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J701">
         <v>5</v>
@@ -28681,7 +28681,7 @@
         <v>35</v>
       </c>
       <c r="H710" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="I710">
         <v>1</v>
@@ -28822,7 +28822,7 @@
         <v>50</v>
       </c>
       <c r="H713" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="N713">
         <v>1</v>
@@ -28872,7 +28872,7 @@
         <v>55</v>
       </c>
       <c r="H714" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="N714">
         <v>1</v>
@@ -28919,7 +28919,7 @@
         <v>60</v>
       </c>
       <c r="H715" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J715">
         <v>1</v>
@@ -29013,7 +29013,7 @@
         <v>70</v>
       </c>
       <c r="H717" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="J717">
         <v>1</v>
@@ -29063,7 +29063,7 @@
         <v>75</v>
       </c>
       <c r="H718" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J718">
         <v>1</v>
@@ -29116,7 +29116,7 @@
         <v>80</v>
       </c>
       <c r="H719" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J719">
         <v>5</v>
@@ -30577,7 +30577,7 @@
         <v>55</v>
       </c>
       <c r="H752" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="J752">
         <v>5</v>
@@ -30922,7 +30922,7 @@
         <v>40</v>
       </c>
       <c r="H761" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J761">
         <v>5</v>
@@ -30969,7 +30969,7 @@
         <v>45</v>
       </c>
       <c r="H762" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="J762">
         <v>3</v>
@@ -31057,7 +31057,7 @@
         <v>5</v>
       </c>
       <c r="H764" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I764">
         <v>3</v>
@@ -31098,7 +31098,7 @@
         <v>10</v>
       </c>
       <c r="H765" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="R765">
         <v>5</v>
@@ -31422,7 +31422,7 @@
         <v>5</v>
       </c>
       <c r="H771" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J771">
         <v>5</v>
@@ -31466,7 +31466,7 @@
         <v>10</v>
       </c>
       <c r="H772" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="R772">
         <v>2</v>
@@ -31848,7 +31848,7 @@
         <v>5</v>
       </c>
       <c r="H780" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="T780">
         <v>1</v>
@@ -31886,7 +31886,7 @@
         <v>10</v>
       </c>
       <c r="H781" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="T781">
         <v>5</v>
@@ -31924,7 +31924,7 @@
         <v>15</v>
       </c>
       <c r="H782" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="T782">
         <v>5</v>
@@ -32015,7 +32015,7 @@
         <v>25</v>
       </c>
       <c r="H784" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J784">
         <v>10</v>
@@ -32209,7 +32209,7 @@
         <v>5</v>
       </c>
       <c r="H788" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X788">
         <v>5</v>
@@ -32238,7 +32238,7 @@
         <v>10</v>
       </c>
       <c r="H789" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I789">
         <v>3</v>
@@ -32276,7 +32276,7 @@
         <v>15</v>
       </c>
       <c r="H790" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="R790">
         <v>2</v>
@@ -32317,7 +32317,7 @@
         <v>20</v>
       </c>
       <c r="H791" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I791">
         <v>1</v>
@@ -32361,7 +32361,7 @@
         <v>25</v>
       </c>
       <c r="H792" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="R792">
         <v>1</v>
@@ -32405,7 +32405,7 @@
         <v>30</v>
       </c>
       <c r="H793" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J793">
         <v>10</v>
@@ -32611,7 +32611,7 @@
         <v>5</v>
       </c>
       <c r="H797" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I797">
         <v>1</v>
@@ -32655,7 +32655,7 @@
         <v>10</v>
       </c>
       <c r="H798" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="R798">
         <v>1</v>
@@ -32693,7 +32693,7 @@
         <v>15</v>
       </c>
       <c r="H799" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I799">
         <v>1</v>
@@ -32740,7 +32740,7 @@
         <v>20</v>
       </c>
       <c r="H800" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J800">
         <v>1</v>
@@ -32790,7 +32790,7 @@
         <v>25</v>
       </c>
       <c r="H801" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I801">
         <v>1</v>
@@ -32843,7 +32843,7 @@
         <v>30</v>
       </c>
       <c r="H802" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I802">
         <v>1</v>
@@ -33487,7 +33487,7 @@
         <v>5</v>
       </c>
       <c r="H815" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I815">
         <v>1</v>
@@ -33522,7 +33522,7 @@
         <v>10</v>
       </c>
       <c r="H816" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X816">
         <v>45</v>
@@ -33560,7 +33560,7 @@
         <v>15</v>
       </c>
       <c r="H817" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X817">
         <v>10</v>
@@ -33601,7 +33601,7 @@
         <v>20</v>
       </c>
       <c r="H818" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X818">
         <v>15</v>
@@ -33677,7 +33677,7 @@
         <v>30</v>
       </c>
       <c r="H820" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I820">
         <v>1</v>
@@ -34168,7 +34168,7 @@
         <v>5</v>
       </c>
       <c r="H830" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X830">
         <v>20</v>
@@ -34200,7 +34200,7 @@
         <v>10</v>
       </c>
       <c r="H831" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I831">
         <v>1</v>
@@ -34238,7 +34238,7 @@
         <v>15</v>
       </c>
       <c r="H832" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I832">
         <v>2</v>
@@ -34282,7 +34282,7 @@
         <v>20</v>
       </c>
       <c r="H833" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I833">
         <v>1</v>
@@ -34320,7 +34320,7 @@
         <v>25</v>
       </c>
       <c r="H834" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I834">
         <v>1</v>
@@ -34361,7 +34361,7 @@
         <v>30</v>
       </c>
       <c r="H835" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I835">
         <v>1</v>
@@ -34405,7 +34405,7 @@
         <v>35</v>
       </c>
       <c r="H836" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I836">
         <v>7</v>
@@ -34549,7 +34549,7 @@
         <v>5</v>
       </c>
       <c r="H839" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X839">
         <v>80</v>
@@ -34587,7 +34587,7 @@
         <v>10</v>
       </c>
       <c r="H840" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I840">
         <v>1</v>
@@ -34628,7 +34628,7 @@
         <v>15</v>
       </c>
       <c r="H841" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I841">
         <v>1</v>
@@ -34672,7 +34672,7 @@
         <v>20</v>
       </c>
       <c r="H842" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I842">
         <v>1</v>
@@ -34707,7 +34707,7 @@
         <v>25</v>
       </c>
       <c r="H843" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I843">
         <v>3</v>
@@ -34745,7 +34745,7 @@
         <v>30</v>
       </c>
       <c r="H844" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X844">
         <v>45</v>
@@ -34783,7 +34783,7 @@
         <v>35</v>
       </c>
       <c r="H845" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J845">
         <v>4</v>
@@ -34821,7 +34821,7 @@
         <v>40</v>
       </c>
       <c r="H846" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J846">
         <v>5</v>
@@ -34859,7 +34859,7 @@
         <v>45</v>
       </c>
       <c r="H847" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J847">
         <v>20</v>
@@ -34894,7 +34894,7 @@
         <v>50</v>
       </c>
       <c r="H848" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I848">
         <v>3</v>
@@ -35017,7 +35017,7 @@
         <v>65</v>
       </c>
       <c r="H851" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I851">
         <v>1</v>
@@ -35061,7 +35061,7 @@
         <v>70</v>
       </c>
       <c r="H852" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="J852">
         <v>85</v>
@@ -35456,7 +35456,7 @@
         <v>5</v>
       </c>
       <c r="H859" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I859">
         <v>1</v>
@@ -35488,7 +35488,7 @@
         <v>10</v>
       </c>
       <c r="H860" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I860">
         <v>1</v>
@@ -35526,7 +35526,7 @@
         <v>15</v>
       </c>
       <c r="H861" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X861">
         <v>50</v>
@@ -35558,7 +35558,7 @@
         <v>20</v>
       </c>
       <c r="H862" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I862">
         <v>1</v>
@@ -35599,7 +35599,7 @@
         <v>25</v>
       </c>
       <c r="H863" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I863">
         <v>1</v>
@@ -35637,7 +35637,7 @@
         <v>30</v>
       </c>
       <c r="H864" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J864">
         <v>2</v>
@@ -35678,7 +35678,7 @@
         <v>35</v>
       </c>
       <c r="H865" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J865">
         <v>3</v>
@@ -35719,7 +35719,7 @@
         <v>40</v>
       </c>
       <c r="H866" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J866">
         <v>3</v>
@@ -35757,7 +35757,7 @@
         <v>45</v>
       </c>
       <c r="H867" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J867">
         <v>10</v>
@@ -36210,7 +36210,7 @@
         <v>5</v>
       </c>
       <c r="H876" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X876">
         <v>25</v>
@@ -36242,7 +36242,7 @@
         <v>10</v>
       </c>
       <c r="H877" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I877">
         <v>3</v>
@@ -36280,7 +36280,7 @@
         <v>15</v>
       </c>
       <c r="H878" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X878">
         <v>90</v>
@@ -36315,7 +36315,7 @@
         <v>20</v>
       </c>
       <c r="H879" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I879">
         <v>5</v>
@@ -36356,7 +36356,7 @@
         <v>25</v>
       </c>
       <c r="H880" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I880">
         <v>3</v>
@@ -36397,7 +36397,7 @@
         <v>30</v>
       </c>
       <c r="H881" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I881">
         <v>3</v>
@@ -36441,7 +36441,7 @@
         <v>35</v>
       </c>
       <c r="H882" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I882">
         <v>10</v>
@@ -36558,7 +36558,7 @@
         <v>5</v>
       </c>
       <c r="H885" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I885">
         <v>2</v>
@@ -36596,7 +36596,7 @@
         <v>10</v>
       </c>
       <c r="H886" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I886">
         <v>2</v>
@@ -36634,7 +36634,7 @@
         <v>15</v>
       </c>
       <c r="H887" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I887">
         <v>3</v>
@@ -36672,7 +36672,7 @@
         <v>20</v>
       </c>
       <c r="H888" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X888">
         <v>70</v>
@@ -36704,7 +36704,7 @@
         <v>25</v>
       </c>
       <c r="H889" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I889">
         <v>1</v>
@@ -36739,7 +36739,7 @@
         <v>30</v>
       </c>
       <c r="H890" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I890">
         <v>1</v>
@@ -36780,7 +36780,7 @@
         <v>35</v>
       </c>
       <c r="H891" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X891">
         <v>10</v>
@@ -36812,7 +36812,7 @@
         <v>40</v>
       </c>
       <c r="H892" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J892">
         <v>2</v>
@@ -36850,7 +36850,7 @@
         <v>45</v>
       </c>
       <c r="H893" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J893">
         <v>1</v>
@@ -36885,7 +36885,7 @@
         <v>50</v>
       </c>
       <c r="H894" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I894">
         <v>5</v>
@@ -36923,7 +36923,7 @@
         <v>55</v>
       </c>
       <c r="H895" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I895">
         <v>1</v>
@@ -36964,7 +36964,7 @@
         <v>60</v>
       </c>
       <c r="H896" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I896">
         <v>1</v>
@@ -37008,7 +37008,7 @@
         <v>65</v>
       </c>
       <c r="H897" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J897">
         <v>5</v>
@@ -37040,7 +37040,7 @@
         <v>70</v>
       </c>
       <c r="H898" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J898">
         <v>10</v>
@@ -37346,7 +37346,7 @@
         <v>5</v>
       </c>
       <c r="H904" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X904">
         <v>20</v>
@@ -37378,7 +37378,7 @@
         <v>10</v>
       </c>
       <c r="H905" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X905">
         <v>85</v>
@@ -37416,7 +37416,7 @@
         <v>15</v>
       </c>
       <c r="H906" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I906">
         <v>1</v>
@@ -37457,7 +37457,7 @@
         <v>20</v>
       </c>
       <c r="H907" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I907">
         <v>3</v>
@@ -37495,7 +37495,7 @@
         <v>25</v>
       </c>
       <c r="H908" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X908">
         <v>80</v>
@@ -37530,7 +37530,7 @@
         <v>30</v>
       </c>
       <c r="H909" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I909">
         <v>1</v>
@@ -37571,7 +37571,7 @@
         <v>35</v>
       </c>
       <c r="H910" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X910">
         <v>35</v>
@@ -37609,7 +37609,7 @@
         <v>40</v>
       </c>
       <c r="H911" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X911">
         <v>60</v>
@@ -37650,7 +37650,7 @@
         <v>45</v>
       </c>
       <c r="H912" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J912">
         <v>2</v>
@@ -37694,7 +37694,7 @@
         <v>50</v>
       </c>
       <c r="H913" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X913">
         <v>75</v>
@@ -37735,7 +37735,7 @@
         <v>55</v>
       </c>
       <c r="H914" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I914">
         <v>1</v>
@@ -37776,7 +37776,7 @@
         <v>60</v>
       </c>
       <c r="H915" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I915">
         <v>2</v>
@@ -37820,7 +37820,7 @@
         <v>65</v>
       </c>
       <c r="H916" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J916">
         <v>20</v>
@@ -37864,7 +37864,7 @@
         <v>70</v>
       </c>
       <c r="H917" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J917">
         <v>20</v>
@@ -37964,7 +37964,7 @@
         <v>80</v>
       </c>
       <c r="H919" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J919">
         <v>15</v>
@@ -38102,7 +38102,7 @@
         <v>5</v>
       </c>
       <c r="H922" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I922">
         <v>1</v>
@@ -38137,7 +38137,7 @@
         <v>10</v>
       </c>
       <c r="H923" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I923">
         <v>2</v>
@@ -38175,7 +38175,7 @@
         <v>15</v>
       </c>
       <c r="H924" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I924">
         <v>5</v>
@@ -38213,7 +38213,7 @@
         <v>20</v>
       </c>
       <c r="H925" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I925">
         <v>2</v>
@@ -38254,7 +38254,7 @@
         <v>25</v>
       </c>
       <c r="H926" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I926">
         <v>6</v>
@@ -38295,7 +38295,7 @@
         <v>30</v>
       </c>
       <c r="H927" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I927">
         <v>1</v>
@@ -38330,7 +38330,7 @@
         <v>35</v>
       </c>
       <c r="H928" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I928">
         <v>10</v>
@@ -38368,7 +38368,7 @@
         <v>40</v>
       </c>
       <c r="H929" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I929">
         <v>5</v>
@@ -38453,7 +38453,7 @@
         <v>5</v>
       </c>
       <c r="H931" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X931">
         <v>75</v>
@@ -38488,7 +38488,7 @@
         <v>10</v>
       </c>
       <c r="H932" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X932">
         <v>60</v>
@@ -38523,7 +38523,7 @@
         <v>15</v>
       </c>
       <c r="H933" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X933">
         <v>50</v>
@@ -38558,7 +38558,7 @@
         <v>20</v>
       </c>
       <c r="H934" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I934">
         <v>2</v>
@@ -38596,7 +38596,7 @@
         <v>25</v>
       </c>
       <c r="H935" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I935">
         <v>1</v>
@@ -38631,7 +38631,7 @@
         <v>30</v>
       </c>
       <c r="H936" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X936">
         <v>20</v>
@@ -38663,7 +38663,7 @@
         <v>35</v>
       </c>
       <c r="H937" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X937">
         <v>15</v>
@@ -38695,7 +38695,7 @@
         <v>40</v>
       </c>
       <c r="H938" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X938">
         <v>15</v>
@@ -38727,7 +38727,7 @@
         <v>45</v>
       </c>
       <c r="H939" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X939">
         <v>30</v>
@@ -38765,7 +38765,7 @@
         <v>50</v>
       </c>
       <c r="H940" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X940">
         <v>25</v>
@@ -38800,7 +38800,7 @@
         <v>55</v>
       </c>
       <c r="H941" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X941">
         <v>25</v>
@@ -38835,7 +38835,7 @@
         <v>60</v>
       </c>
       <c r="H942" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X942">
         <v>30</v>
@@ -38870,7 +38870,7 @@
         <v>65</v>
       </c>
       <c r="H943" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X943">
         <v>15</v>
@@ -38905,7 +38905,7 @@
         <v>70</v>
       </c>
       <c r="H944" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X944">
         <v>20</v>
@@ -38946,7 +38946,7 @@
         <v>75</v>
       </c>
       <c r="H945" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I945">
         <v>1</v>
@@ -38993,7 +38993,7 @@
         <v>80</v>
       </c>
       <c r="H946" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I946">
         <v>3</v>
@@ -39046,7 +39046,7 @@
         <v>85</v>
       </c>
       <c r="H947" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="U947">
         <v>2</v>
@@ -39096,7 +39096,7 @@
         <v>90</v>
       </c>
       <c r="H948" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="I948">
         <v>20</v>
@@ -39187,7 +39187,7 @@
         <v>5</v>
       </c>
       <c r="H950" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X950">
         <v>25</v>
@@ -39219,7 +39219,7 @@
         <v>10</v>
       </c>
       <c r="H951" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X951">
         <v>80</v>
@@ -39257,7 +39257,7 @@
         <v>15</v>
       </c>
       <c r="H952" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I952">
         <v>1</v>
@@ -39295,7 +39295,7 @@
         <v>20</v>
       </c>
       <c r="H953" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I953">
         <v>10</v>
@@ -39333,7 +39333,7 @@
         <v>25</v>
       </c>
       <c r="H954" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X954">
         <v>40</v>
@@ -39371,7 +39371,7 @@
         <v>30</v>
       </c>
       <c r="H955" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I955">
         <v>2</v>
@@ -39406,7 +39406,7 @@
         <v>35</v>
       </c>
       <c r="H956" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X956">
         <v>15</v>
@@ -39438,7 +39438,7 @@
         <v>40</v>
       </c>
       <c r="H957" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J957">
         <v>1</v>
@@ -39473,7 +39473,7 @@
         <v>45</v>
       </c>
       <c r="H958" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="X958">
         <v>25</v>
@@ -39511,7 +39511,7 @@
         <v>50</v>
       </c>
       <c r="H959" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J959">
         <v>1</v>
@@ -39555,7 +39555,7 @@
         <v>55</v>
       </c>
       <c r="H960" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J960">
         <v>2</v>
@@ -39596,7 +39596,7 @@
         <v>60</v>
       </c>
       <c r="H961" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J961">
         <v>3</v>
@@ -39637,7 +39637,7 @@
         <v>65</v>
       </c>
       <c r="H962" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J962">
         <v>6</v>
@@ -39678,7 +39678,7 @@
         <v>70</v>
       </c>
       <c r="H963" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J963">
         <v>2</v>
@@ -39728,7 +39728,7 @@
         <v>75</v>
       </c>
       <c r="H964" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="I964">
         <v>1</v>
@@ -48158,6 +48158,1783 @@
       </c>
       <c r="AW1190">
         <v>2</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1191">
+        <v>2024</v>
+      </c>
+      <c r="B1191">
+        <v>4</v>
+      </c>
+      <c r="C1191">
+        <v>12</v>
+      </c>
+      <c r="D1191" s="3">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="E1191">
+        <v>0.5</v>
+      </c>
+      <c r="F1191">
+        <v>2</v>
+      </c>
+      <c r="G1191">
+        <v>0</v>
+      </c>
+      <c r="I1191">
+        <v>15</v>
+      </c>
+      <c r="S1191">
+        <v>5</v>
+      </c>
+      <c r="V1191">
+        <v>10</v>
+      </c>
+      <c r="X1191">
+        <v>1</v>
+      </c>
+      <c r="AM1191">
+        <v>3</v>
+      </c>
+      <c r="AN1191">
+        <v>5</v>
+      </c>
+      <c r="AO1191">
+        <v>1</v>
+      </c>
+      <c r="AW1191">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1192">
+        <v>2024</v>
+      </c>
+      <c r="B1192">
+        <v>4</v>
+      </c>
+      <c r="C1192">
+        <v>12</v>
+      </c>
+      <c r="D1192" s="3">
+        <v>0.64236111111111116</v>
+      </c>
+      <c r="E1192">
+        <v>0.5</v>
+      </c>
+      <c r="F1192">
+        <v>2</v>
+      </c>
+      <c r="G1192">
+        <v>5</v>
+      </c>
+      <c r="T1192">
+        <v>2</v>
+      </c>
+      <c r="X1192">
+        <v>15</v>
+      </c>
+      <c r="AJ1192">
+        <v>20</v>
+      </c>
+      <c r="AM1192">
+        <v>1</v>
+      </c>
+      <c r="AO1192">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1193">
+        <v>2024</v>
+      </c>
+      <c r="B1193">
+        <v>4</v>
+      </c>
+      <c r="C1193">
+        <v>12</v>
+      </c>
+      <c r="D1193" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1193">
+        <v>0.5</v>
+      </c>
+      <c r="F1193">
+        <v>2</v>
+      </c>
+      <c r="G1193">
+        <v>10</v>
+      </c>
+      <c r="I1193">
+        <v>1</v>
+      </c>
+      <c r="X1193">
+        <v>3</v>
+      </c>
+      <c r="AM1193">
+        <v>2</v>
+      </c>
+      <c r="AN1193">
+        <v>10</v>
+      </c>
+      <c r="AO1193">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1194">
+        <v>2024</v>
+      </c>
+      <c r="B1194">
+        <v>4</v>
+      </c>
+      <c r="C1194">
+        <v>12</v>
+      </c>
+      <c r="D1194" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1194">
+        <v>0.5</v>
+      </c>
+      <c r="F1194">
+        <v>2</v>
+      </c>
+      <c r="G1194">
+        <v>15</v>
+      </c>
+      <c r="I1194">
+        <v>2</v>
+      </c>
+      <c r="X1194">
+        <v>10</v>
+      </c>
+      <c r="AJ1194">
+        <v>5</v>
+      </c>
+      <c r="AM1194">
+        <v>1</v>
+      </c>
+      <c r="AN1194">
+        <v>1</v>
+      </c>
+      <c r="AO1194">
+        <v>3</v>
+      </c>
+      <c r="AP1194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1195">
+        <v>2024</v>
+      </c>
+      <c r="B1195">
+        <v>4</v>
+      </c>
+      <c r="C1195">
+        <v>12</v>
+      </c>
+      <c r="D1195" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1195">
+        <v>0.5</v>
+      </c>
+      <c r="F1195">
+        <v>2</v>
+      </c>
+      <c r="G1195">
+        <v>20</v>
+      </c>
+      <c r="T1195">
+        <v>2</v>
+      </c>
+      <c r="X1195">
+        <v>5</v>
+      </c>
+      <c r="AJ1195">
+        <v>10</v>
+      </c>
+      <c r="AM1195">
+        <v>1</v>
+      </c>
+      <c r="AO1195">
+        <v>2</v>
+      </c>
+      <c r="AP1195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1196">
+        <v>2024</v>
+      </c>
+      <c r="B1196">
+        <v>4</v>
+      </c>
+      <c r="C1196">
+        <v>12</v>
+      </c>
+      <c r="D1196" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1196">
+        <v>0.5</v>
+      </c>
+      <c r="F1196">
+        <v>2</v>
+      </c>
+      <c r="G1196">
+        <v>25</v>
+      </c>
+      <c r="I1196">
+        <v>2</v>
+      </c>
+      <c r="X1196">
+        <v>5</v>
+      </c>
+      <c r="AK1196">
+        <v>15</v>
+      </c>
+      <c r="AM1196">
+        <v>2</v>
+      </c>
+      <c r="AN1196">
+        <v>15</v>
+      </c>
+      <c r="AO1196">
+        <v>2</v>
+      </c>
+      <c r="AP1196">
+        <v>3</v>
+      </c>
+      <c r="AW1196">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1197">
+        <v>2024</v>
+      </c>
+      <c r="B1197">
+        <v>4</v>
+      </c>
+      <c r="C1197">
+        <v>12</v>
+      </c>
+      <c r="D1197" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1197">
+        <v>0.5</v>
+      </c>
+      <c r="F1197">
+        <v>2</v>
+      </c>
+      <c r="G1197">
+        <v>30</v>
+      </c>
+      <c r="J1197">
+        <v>3</v>
+      </c>
+      <c r="R1197">
+        <v>1</v>
+      </c>
+      <c r="X1197">
+        <v>1</v>
+      </c>
+      <c r="AK1197">
+        <v>5</v>
+      </c>
+      <c r="AP1197">
+        <v>1</v>
+      </c>
+      <c r="AS1197">
+        <v>1</v>
+      </c>
+      <c r="AW1197">
+        <v>1</v>
+      </c>
+      <c r="AY1197">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1198">
+        <v>2024</v>
+      </c>
+      <c r="B1198">
+        <v>4</v>
+      </c>
+      <c r="C1198">
+        <v>12</v>
+      </c>
+      <c r="D1198" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1198">
+        <v>0.5</v>
+      </c>
+      <c r="F1198">
+        <v>2</v>
+      </c>
+      <c r="G1198">
+        <v>35</v>
+      </c>
+      <c r="I1198">
+        <v>5</v>
+      </c>
+      <c r="J1198">
+        <v>5</v>
+      </c>
+      <c r="L1198">
+        <v>5</v>
+      </c>
+      <c r="N1198">
+        <v>1</v>
+      </c>
+      <c r="O1198">
+        <v>1</v>
+      </c>
+      <c r="V1198">
+        <v>2</v>
+      </c>
+      <c r="X1198">
+        <v>3</v>
+      </c>
+      <c r="AK1198">
+        <v>5</v>
+      </c>
+      <c r="AM1198">
+        <v>2</v>
+      </c>
+      <c r="AP1198">
+        <v>1</v>
+      </c>
+      <c r="AW1198">
+        <v>1</v>
+      </c>
+      <c r="BA1198">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1199">
+        <v>2024</v>
+      </c>
+      <c r="B1199">
+        <v>4</v>
+      </c>
+      <c r="C1199">
+        <v>12</v>
+      </c>
+      <c r="D1199" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1199">
+        <v>0.5</v>
+      </c>
+      <c r="F1199">
+        <v>2</v>
+      </c>
+      <c r="G1199">
+        <v>40</v>
+      </c>
+      <c r="J1199">
+        <v>20</v>
+      </c>
+      <c r="L1199">
+        <v>30</v>
+      </c>
+      <c r="M1199">
+        <v>5</v>
+      </c>
+      <c r="O1199">
+        <v>10</v>
+      </c>
+      <c r="P1199">
+        <v>3</v>
+      </c>
+      <c r="X1199">
+        <v>5</v>
+      </c>
+      <c r="AM1199">
+        <v>3</v>
+      </c>
+      <c r="BM1199">
+        <v>1</v>
+      </c>
+      <c r="BP1199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:70" x14ac:dyDescent="0.3">
+      <c r="A1200">
+        <v>2024</v>
+      </c>
+      <c r="B1200">
+        <v>4</v>
+      </c>
+      <c r="C1200">
+        <v>12</v>
+      </c>
+      <c r="D1200" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1200">
+        <v>0.5</v>
+      </c>
+      <c r="F1200">
+        <v>3</v>
+      </c>
+      <c r="G1200">
+        <v>0</v>
+      </c>
+      <c r="I1200">
+        <v>10</v>
+      </c>
+      <c r="S1200">
+        <v>1</v>
+      </c>
+      <c r="T1200">
+        <v>2</v>
+      </c>
+      <c r="V1200">
+        <v>5</v>
+      </c>
+      <c r="X1200">
+        <v>1</v>
+      </c>
+      <c r="AM1200">
+        <v>1</v>
+      </c>
+      <c r="AN1200">
+        <v>1</v>
+      </c>
+      <c r="AW1200">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1201">
+        <v>2024</v>
+      </c>
+      <c r="B1201">
+        <v>4</v>
+      </c>
+      <c r="C1201">
+        <v>12</v>
+      </c>
+      <c r="D1201" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1201">
+        <v>0.5</v>
+      </c>
+      <c r="F1201">
+        <v>3</v>
+      </c>
+      <c r="G1201">
+        <v>5</v>
+      </c>
+      <c r="R1201">
+        <v>1</v>
+      </c>
+      <c r="T1201">
+        <v>1</v>
+      </c>
+      <c r="X1201">
+        <v>5</v>
+      </c>
+      <c r="AJ1201">
+        <v>15</v>
+      </c>
+      <c r="AM1201">
+        <v>1</v>
+      </c>
+      <c r="AO1201">
+        <v>5</v>
+      </c>
+      <c r="AP1201">
+        <v>1</v>
+      </c>
+      <c r="AW1201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1202">
+        <v>2024</v>
+      </c>
+      <c r="B1202">
+        <v>4</v>
+      </c>
+      <c r="C1202">
+        <v>12</v>
+      </c>
+      <c r="D1202" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1202">
+        <v>0.5</v>
+      </c>
+      <c r="F1202">
+        <v>3</v>
+      </c>
+      <c r="G1202">
+        <v>10</v>
+      </c>
+      <c r="T1202">
+        <v>1</v>
+      </c>
+      <c r="X1202">
+        <v>5</v>
+      </c>
+      <c r="AJ1202">
+        <v>3</v>
+      </c>
+      <c r="AM1202">
+        <v>1</v>
+      </c>
+      <c r="AO1202">
+        <v>1</v>
+      </c>
+      <c r="AW1202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1203">
+        <v>2024</v>
+      </c>
+      <c r="B1203">
+        <v>4</v>
+      </c>
+      <c r="C1203">
+        <v>12</v>
+      </c>
+      <c r="D1203" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1203">
+        <v>0.5</v>
+      </c>
+      <c r="F1203">
+        <v>3</v>
+      </c>
+      <c r="G1203">
+        <v>15</v>
+      </c>
+      <c r="T1203">
+        <v>5</v>
+      </c>
+      <c r="X1203">
+        <v>3</v>
+      </c>
+      <c r="AJ1203">
+        <v>5</v>
+      </c>
+      <c r="AO1203">
+        <v>5</v>
+      </c>
+      <c r="AP1203">
+        <v>1</v>
+      </c>
+      <c r="AY1203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1204">
+        <v>2024</v>
+      </c>
+      <c r="B1204">
+        <v>4</v>
+      </c>
+      <c r="C1204">
+        <v>12</v>
+      </c>
+      <c r="D1204" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1204">
+        <v>0.5</v>
+      </c>
+      <c r="F1204">
+        <v>3</v>
+      </c>
+      <c r="G1204">
+        <v>20</v>
+      </c>
+      <c r="T1204">
+        <v>1</v>
+      </c>
+      <c r="X1204">
+        <v>1</v>
+      </c>
+      <c r="AJ1204">
+        <v>3</v>
+      </c>
+      <c r="AO1204">
+        <v>2</v>
+      </c>
+      <c r="AP1204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1205">
+        <v>2024</v>
+      </c>
+      <c r="B1205">
+        <v>4</v>
+      </c>
+      <c r="C1205">
+        <v>12</v>
+      </c>
+      <c r="D1205" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1205">
+        <v>0.5</v>
+      </c>
+      <c r="F1205">
+        <v>3</v>
+      </c>
+      <c r="G1205">
+        <v>25</v>
+      </c>
+      <c r="J1205">
+        <v>5</v>
+      </c>
+      <c r="X1205">
+        <v>1</v>
+      </c>
+      <c r="AJ1205">
+        <v>3</v>
+      </c>
+      <c r="AO1205">
+        <v>1</v>
+      </c>
+      <c r="AP1205">
+        <v>1</v>
+      </c>
+      <c r="AW1205">
+        <v>1</v>
+      </c>
+      <c r="BA1205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1206">
+        <v>2024</v>
+      </c>
+      <c r="B1206">
+        <v>4</v>
+      </c>
+      <c r="C1206">
+        <v>12</v>
+      </c>
+      <c r="D1206" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1206">
+        <v>0.5</v>
+      </c>
+      <c r="F1206">
+        <v>3</v>
+      </c>
+      <c r="G1206">
+        <v>30</v>
+      </c>
+      <c r="J1206">
+        <v>1</v>
+      </c>
+      <c r="T1206">
+        <v>1</v>
+      </c>
+      <c r="AJ1206">
+        <v>5</v>
+      </c>
+      <c r="AP1206">
+        <v>1</v>
+      </c>
+      <c r="AW1206">
+        <v>1</v>
+      </c>
+      <c r="BA1206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1207">
+        <v>2024</v>
+      </c>
+      <c r="B1207">
+        <v>4</v>
+      </c>
+      <c r="C1207">
+        <v>12</v>
+      </c>
+      <c r="D1207" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1207">
+        <v>0.5</v>
+      </c>
+      <c r="F1207">
+        <v>3</v>
+      </c>
+      <c r="G1207">
+        <v>35</v>
+      </c>
+      <c r="N1207">
+        <v>1</v>
+      </c>
+      <c r="T1207">
+        <v>1</v>
+      </c>
+      <c r="AJ1207">
+        <v>10</v>
+      </c>
+      <c r="AM1207">
+        <v>1</v>
+      </c>
+      <c r="AO1207">
+        <v>2</v>
+      </c>
+      <c r="AW1207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1208">
+        <v>2024</v>
+      </c>
+      <c r="B1208">
+        <v>4</v>
+      </c>
+      <c r="C1208">
+        <v>12</v>
+      </c>
+      <c r="D1208" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1208">
+        <v>0.5</v>
+      </c>
+      <c r="F1208">
+        <v>3</v>
+      </c>
+      <c r="G1208">
+        <v>40</v>
+      </c>
+      <c r="J1208">
+        <v>5</v>
+      </c>
+      <c r="R1208">
+        <v>1</v>
+      </c>
+      <c r="X1208">
+        <v>1</v>
+      </c>
+      <c r="AW1208">
+        <v>1</v>
+      </c>
+      <c r="AZ1208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1209">
+        <v>2024</v>
+      </c>
+      <c r="B1209">
+        <v>4</v>
+      </c>
+      <c r="C1209">
+        <v>12</v>
+      </c>
+      <c r="D1209" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1209">
+        <v>0.5</v>
+      </c>
+      <c r="F1209">
+        <v>3</v>
+      </c>
+      <c r="G1209">
+        <v>45</v>
+      </c>
+      <c r="J1209">
+        <v>20</v>
+      </c>
+      <c r="K1209">
+        <v>10</v>
+      </c>
+      <c r="O1209">
+        <v>5</v>
+      </c>
+      <c r="X1209">
+        <v>1</v>
+      </c>
+      <c r="AK1209">
+        <v>5</v>
+      </c>
+      <c r="AO1209">
+        <v>1</v>
+      </c>
+      <c r="AP1209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1210">
+        <v>2024</v>
+      </c>
+      <c r="B1210">
+        <v>4</v>
+      </c>
+      <c r="C1210">
+        <v>12</v>
+      </c>
+      <c r="D1210" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1210">
+        <v>0.5</v>
+      </c>
+      <c r="F1210">
+        <v>3</v>
+      </c>
+      <c r="G1210">
+        <v>50</v>
+      </c>
+      <c r="J1210">
+        <v>20</v>
+      </c>
+      <c r="O1210">
+        <v>20</v>
+      </c>
+      <c r="X1210">
+        <v>2</v>
+      </c>
+      <c r="AP1210">
+        <v>1</v>
+      </c>
+      <c r="AW1210">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1211">
+        <v>2024</v>
+      </c>
+      <c r="B1211">
+        <v>4</v>
+      </c>
+      <c r="C1211">
+        <v>12</v>
+      </c>
+      <c r="D1211" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1211">
+        <v>0.5</v>
+      </c>
+      <c r="F1211">
+        <v>3</v>
+      </c>
+      <c r="G1211">
+        <v>55</v>
+      </c>
+      <c r="J1211">
+        <v>15</v>
+      </c>
+      <c r="R1211">
+        <v>1</v>
+      </c>
+      <c r="T1211">
+        <v>1</v>
+      </c>
+      <c r="X1211">
+        <v>1</v>
+      </c>
+      <c r="AP1211">
+        <v>1</v>
+      </c>
+      <c r="AW1211">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1212">
+        <v>2024</v>
+      </c>
+      <c r="B1212">
+        <v>4</v>
+      </c>
+      <c r="C1212">
+        <v>12</v>
+      </c>
+      <c r="D1212" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1212">
+        <v>0.5</v>
+      </c>
+      <c r="F1212">
+        <v>3</v>
+      </c>
+      <c r="G1212">
+        <v>60</v>
+      </c>
+      <c r="J1212">
+        <v>15</v>
+      </c>
+      <c r="K1212">
+        <v>10</v>
+      </c>
+      <c r="L1212">
+        <v>1</v>
+      </c>
+      <c r="O1212">
+        <v>5</v>
+      </c>
+      <c r="T1212">
+        <v>1</v>
+      </c>
+      <c r="X1212">
+        <v>3</v>
+      </c>
+      <c r="AM1212">
+        <v>3</v>
+      </c>
+      <c r="AP1212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1213">
+        <v>2024</v>
+      </c>
+      <c r="B1213">
+        <v>4</v>
+      </c>
+      <c r="C1213">
+        <v>12</v>
+      </c>
+      <c r="D1213" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1213">
+        <v>0.5</v>
+      </c>
+      <c r="F1213">
+        <v>3</v>
+      </c>
+      <c r="G1213">
+        <v>65</v>
+      </c>
+      <c r="J1213">
+        <v>30</v>
+      </c>
+      <c r="K1213">
+        <v>40</v>
+      </c>
+      <c r="O1213">
+        <v>5</v>
+      </c>
+      <c r="U1213">
+        <v>1</v>
+      </c>
+      <c r="X1213">
+        <v>5</v>
+      </c>
+      <c r="AR1213">
+        <v>2</v>
+      </c>
+      <c r="AW1213">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1214">
+        <v>2024</v>
+      </c>
+      <c r="B1214">
+        <v>4</v>
+      </c>
+      <c r="C1214">
+        <v>12</v>
+      </c>
+      <c r="D1214" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1214">
+        <v>0.5</v>
+      </c>
+      <c r="F1214">
+        <v>3</v>
+      </c>
+      <c r="G1214">
+        <v>70</v>
+      </c>
+      <c r="J1214">
+        <v>40</v>
+      </c>
+      <c r="K1214">
+        <v>5</v>
+      </c>
+      <c r="L1214">
+        <v>30</v>
+      </c>
+      <c r="M1214">
+        <v>10</v>
+      </c>
+      <c r="O1214">
+        <v>10</v>
+      </c>
+      <c r="X1214">
+        <v>10</v>
+      </c>
+      <c r="AW1214">
+        <v>10</v>
+      </c>
+      <c r="AY1214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1215">
+        <v>2024</v>
+      </c>
+      <c r="B1215">
+        <v>4</v>
+      </c>
+      <c r="C1215">
+        <v>12</v>
+      </c>
+      <c r="D1215" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1215">
+        <v>0.5</v>
+      </c>
+      <c r="F1215">
+        <v>3</v>
+      </c>
+      <c r="G1215">
+        <v>75</v>
+      </c>
+      <c r="J1215">
+        <v>60</v>
+      </c>
+      <c r="K1215">
+        <v>80</v>
+      </c>
+      <c r="L1215">
+        <v>15</v>
+      </c>
+      <c r="M1215">
+        <v>5</v>
+      </c>
+      <c r="O1215">
+        <v>20</v>
+      </c>
+      <c r="X1215">
+        <v>15</v>
+      </c>
+      <c r="AR1215">
+        <v>2</v>
+      </c>
+      <c r="AS1215">
+        <v>2</v>
+      </c>
+      <c r="AW1215">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:53" x14ac:dyDescent="0.3">
+      <c r="A1216">
+        <v>2024</v>
+      </c>
+      <c r="B1216">
+        <v>4</v>
+      </c>
+      <c r="C1216">
+        <v>12</v>
+      </c>
+      <c r="D1216" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1216">
+        <v>0.5</v>
+      </c>
+      <c r="F1216">
+        <v>3</v>
+      </c>
+      <c r="G1216">
+        <v>80</v>
+      </c>
+      <c r="J1216">
+        <v>50</v>
+      </c>
+      <c r="K1216">
+        <v>90</v>
+      </c>
+      <c r="L1216">
+        <v>50</v>
+      </c>
+      <c r="M1216">
+        <v>10</v>
+      </c>
+      <c r="O1216">
+        <v>30</v>
+      </c>
+      <c r="P1216">
+        <v>5</v>
+      </c>
+      <c r="Q1216">
+        <v>4</v>
+      </c>
+      <c r="X1216">
+        <v>5</v>
+      </c>
+      <c r="AM1216">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1217">
+        <v>2024</v>
+      </c>
+      <c r="B1217">
+        <v>4</v>
+      </c>
+      <c r="C1217">
+        <v>12</v>
+      </c>
+      <c r="D1217" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1217">
+        <v>0.5</v>
+      </c>
+      <c r="F1217">
+        <v>4</v>
+      </c>
+      <c r="G1217">
+        <v>0</v>
+      </c>
+      <c r="I1217">
+        <v>20</v>
+      </c>
+      <c r="S1217">
+        <v>5</v>
+      </c>
+      <c r="V1217">
+        <v>5</v>
+      </c>
+      <c r="X1217">
+        <v>1</v>
+      </c>
+      <c r="AM1217">
+        <v>3</v>
+      </c>
+      <c r="AN1217">
+        <v>5</v>
+      </c>
+      <c r="AO1217">
+        <v>1</v>
+      </c>
+      <c r="AW1217">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1218">
+        <v>2024</v>
+      </c>
+      <c r="B1218">
+        <v>4</v>
+      </c>
+      <c r="C1218">
+        <v>12</v>
+      </c>
+      <c r="D1218" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1218">
+        <v>0.5</v>
+      </c>
+      <c r="F1218">
+        <v>4</v>
+      </c>
+      <c r="G1218">
+        <v>5</v>
+      </c>
+      <c r="I1218">
+        <v>2</v>
+      </c>
+      <c r="X1218">
+        <v>40</v>
+      </c>
+      <c r="AJ1218">
+        <v>10</v>
+      </c>
+      <c r="AM1218">
+        <v>2</v>
+      </c>
+      <c r="AO1218">
+        <v>1</v>
+      </c>
+      <c r="AP1218">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1219">
+        <v>2024</v>
+      </c>
+      <c r="B1219">
+        <v>4</v>
+      </c>
+      <c r="C1219">
+        <v>12</v>
+      </c>
+      <c r="D1219" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1219">
+        <v>0.5</v>
+      </c>
+      <c r="F1219">
+        <v>4</v>
+      </c>
+      <c r="G1219">
+        <v>10</v>
+      </c>
+      <c r="X1219">
+        <v>15</v>
+      </c>
+      <c r="AJ1219">
+        <v>8</v>
+      </c>
+      <c r="AM1219">
+        <v>1</v>
+      </c>
+      <c r="AO1219">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1220">
+        <v>2024</v>
+      </c>
+      <c r="B1220">
+        <v>4</v>
+      </c>
+      <c r="C1220">
+        <v>12</v>
+      </c>
+      <c r="D1220" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1220">
+        <v>0.5</v>
+      </c>
+      <c r="F1220">
+        <v>4</v>
+      </c>
+      <c r="G1220">
+        <v>15</v>
+      </c>
+      <c r="T1220">
+        <v>1</v>
+      </c>
+      <c r="X1220">
+        <v>15</v>
+      </c>
+      <c r="AJ1220">
+        <v>10</v>
+      </c>
+      <c r="AM1220">
+        <v>1</v>
+      </c>
+      <c r="AP1220">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1221">
+        <v>2024</v>
+      </c>
+      <c r="B1221">
+        <v>4</v>
+      </c>
+      <c r="C1221">
+        <v>12</v>
+      </c>
+      <c r="D1221" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1221">
+        <v>0.5</v>
+      </c>
+      <c r="F1221">
+        <v>4</v>
+      </c>
+      <c r="G1221">
+        <v>20</v>
+      </c>
+      <c r="X1221">
+        <v>2</v>
+      </c>
+      <c r="AJ1221">
+        <v>20</v>
+      </c>
+      <c r="AM1221">
+        <v>5</v>
+      </c>
+      <c r="AP1221">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1222">
+        <v>2024</v>
+      </c>
+      <c r="B1222">
+        <v>4</v>
+      </c>
+      <c r="C1222">
+        <v>12</v>
+      </c>
+      <c r="D1222" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1222">
+        <v>0.5</v>
+      </c>
+      <c r="F1222">
+        <v>4</v>
+      </c>
+      <c r="G1222">
+        <v>25</v>
+      </c>
+      <c r="T1222">
+        <v>1</v>
+      </c>
+      <c r="X1222">
+        <v>10</v>
+      </c>
+      <c r="AJ1222">
+        <v>10</v>
+      </c>
+      <c r="AP1222">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1223">
+        <v>2024</v>
+      </c>
+      <c r="B1223">
+        <v>4</v>
+      </c>
+      <c r="C1223">
+        <v>12</v>
+      </c>
+      <c r="D1223" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1223">
+        <v>0.5</v>
+      </c>
+      <c r="F1223">
+        <v>4</v>
+      </c>
+      <c r="G1223">
+        <v>30</v>
+      </c>
+      <c r="T1223">
+        <v>1</v>
+      </c>
+      <c r="X1223">
+        <v>3</v>
+      </c>
+      <c r="AJ1223">
+        <v>3</v>
+      </c>
+      <c r="AM1223">
+        <v>1</v>
+      </c>
+      <c r="AP1223">
+        <v>1</v>
+      </c>
+      <c r="AY1223">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1224">
+        <v>2024</v>
+      </c>
+      <c r="B1224">
+        <v>4</v>
+      </c>
+      <c r="C1224">
+        <v>12</v>
+      </c>
+      <c r="D1224" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1224">
+        <v>0.5</v>
+      </c>
+      <c r="F1224">
+        <v>4</v>
+      </c>
+      <c r="G1224">
+        <v>35</v>
+      </c>
+      <c r="J1224">
+        <v>15</v>
+      </c>
+      <c r="O1224">
+        <v>2</v>
+      </c>
+      <c r="T1224">
+        <v>1</v>
+      </c>
+      <c r="X1224">
+        <v>2</v>
+      </c>
+      <c r="AY1224">
+        <v>5</v>
+      </c>
+      <c r="BM1224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1225">
+        <v>2024</v>
+      </c>
+      <c r="B1225">
+        <v>4</v>
+      </c>
+      <c r="C1225">
+        <v>12</v>
+      </c>
+      <c r="D1225" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1225">
+        <v>0.5</v>
+      </c>
+      <c r="F1225">
+        <v>4</v>
+      </c>
+      <c r="G1225">
+        <v>40</v>
+      </c>
+      <c r="J1225">
+        <v>10</v>
+      </c>
+      <c r="K1225">
+        <v>5</v>
+      </c>
+      <c r="X1225">
+        <v>1</v>
+      </c>
+      <c r="AJ1225">
+        <v>1</v>
+      </c>
+      <c r="AY1225">
+        <v>2</v>
+      </c>
+      <c r="AZ1225">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1226">
+        <v>2024</v>
+      </c>
+      <c r="B1226">
+        <v>4</v>
+      </c>
+      <c r="C1226">
+        <v>12</v>
+      </c>
+      <c r="D1226" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1226">
+        <v>0.5</v>
+      </c>
+      <c r="F1226">
+        <v>4</v>
+      </c>
+      <c r="G1226">
+        <v>45</v>
+      </c>
+      <c r="J1226">
+        <v>30</v>
+      </c>
+      <c r="O1226">
+        <v>20</v>
+      </c>
+      <c r="X1226">
+        <v>2</v>
+      </c>
+      <c r="AJ1226">
+        <v>2</v>
+      </c>
+      <c r="AP1226">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1227">
+        <v>2024</v>
+      </c>
+      <c r="B1227">
+        <v>4</v>
+      </c>
+      <c r="C1227">
+        <v>12</v>
+      </c>
+      <c r="D1227" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1227">
+        <v>0.5</v>
+      </c>
+      <c r="F1227">
+        <v>4</v>
+      </c>
+      <c r="G1227">
+        <v>50</v>
+      </c>
+      <c r="J1227">
+        <v>5</v>
+      </c>
+      <c r="L1227">
+        <v>2</v>
+      </c>
+      <c r="T1227">
+        <v>5</v>
+      </c>
+      <c r="U1227">
+        <v>2</v>
+      </c>
+      <c r="X1227">
+        <v>3</v>
+      </c>
+      <c r="AK1227">
+        <v>3</v>
+      </c>
+      <c r="AM1227">
+        <v>1</v>
+      </c>
+      <c r="AN1227">
+        <v>1</v>
+      </c>
+      <c r="BM1227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1228">
+        <v>2024</v>
+      </c>
+      <c r="B1228">
+        <v>4</v>
+      </c>
+      <c r="C1228">
+        <v>12</v>
+      </c>
+      <c r="D1228" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1228">
+        <v>0.5</v>
+      </c>
+      <c r="F1228">
+        <v>4</v>
+      </c>
+      <c r="G1228">
+        <v>55</v>
+      </c>
+      <c r="J1228">
+        <v>50</v>
+      </c>
+      <c r="K1228">
+        <v>20</v>
+      </c>
+      <c r="L1228">
+        <v>1</v>
+      </c>
+      <c r="O1228">
+        <v>5</v>
+      </c>
+      <c r="X1228">
+        <v>1</v>
+      </c>
+      <c r="AP1228">
+        <v>2</v>
+      </c>
+      <c r="BM1228">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1229">
+        <v>2024</v>
+      </c>
+      <c r="B1229">
+        <v>4</v>
+      </c>
+      <c r="C1229">
+        <v>12</v>
+      </c>
+      <c r="D1229" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1229">
+        <v>0.5</v>
+      </c>
+      <c r="F1229">
+        <v>4</v>
+      </c>
+      <c r="G1229">
+        <v>60</v>
+      </c>
+      <c r="I1229">
+        <v>10</v>
+      </c>
+      <c r="J1229">
+        <v>40</v>
+      </c>
+      <c r="K1229">
+        <v>5</v>
+      </c>
+      <c r="O1229">
+        <v>50</v>
+      </c>
+      <c r="U1229">
+        <v>1</v>
+      </c>
+      <c r="X1229">
+        <v>10</v>
+      </c>
+      <c r="BM1229">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1230">
+        <v>2024</v>
+      </c>
+      <c r="B1230">
+        <v>4</v>
+      </c>
+      <c r="C1230">
+        <v>12</v>
+      </c>
+      <c r="D1230" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1230">
+        <v>0.5</v>
+      </c>
+      <c r="F1230">
+        <v>4</v>
+      </c>
+      <c r="G1230">
+        <v>65</v>
+      </c>
+      <c r="J1230">
+        <v>20</v>
+      </c>
+      <c r="K1230">
+        <v>10</v>
+      </c>
+      <c r="M1230">
+        <v>10</v>
+      </c>
+      <c r="X1230">
+        <v>5</v>
+      </c>
+      <c r="AW1230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:66" x14ac:dyDescent="0.3">
+      <c r="A1231">
+        <v>2024</v>
+      </c>
+      <c r="B1231">
+        <v>4</v>
+      </c>
+      <c r="C1231">
+        <v>12</v>
+      </c>
+      <c r="D1231" s="3">
+        <v>0.64236111111111105</v>
+      </c>
+      <c r="E1231">
+        <v>0.5</v>
+      </c>
+      <c r="F1231">
+        <v>4</v>
+      </c>
+      <c r="G1231">
+        <v>70</v>
+      </c>
+      <c r="J1231">
+        <v>20</v>
+      </c>
+      <c r="K1231">
+        <v>10</v>
+      </c>
+      <c r="L1231">
+        <v>10</v>
+      </c>
+      <c r="O1231">
+        <v>10</v>
+      </c>
+      <c r="Q1231">
+        <v>5</v>
+      </c>
+      <c r="X1231">
+        <v>20</v>
+      </c>
+      <c r="AM1231">
+        <v>10</v>
+      </c>
+      <c r="AQ1231">
+        <v>2</v>
+      </c>
+      <c r="AR1231">
+        <v>5</v>
+      </c>
+      <c r="AS1231">
+        <v>5</v>
+      </c>
+      <c r="AW1231">
+        <v>5</v>
+      </c>
+      <c r="BN1231">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1414" documentId="14_{436B2594-DD65-4C9F-B810-8D9ACA7BE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB22497D-524E-4851-B242-FC9259B95407}"/>
+  <xr:revisionPtr revIDLastSave="1415" documentId="14_{436B2594-DD65-4C9F-B810-8D9ACA7BE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BD59A8F-6502-4195-9776-5DBC1EF6D296}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1296,9 +1296,9 @@
   <dimension ref="A1:CH1435"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1415" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AY1" sqref="AY1"/>
-      <selection pane="bottomLeft" activeCell="AT1449" sqref="AT1449"/>
+      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1310,7 +1310,7 @@
     <col min="5" max="5" width="9.5546875" customWidth="1"/>
     <col min="6" max="6" width="6.6640625" customWidth="1"/>
     <col min="7" max="7" width="7" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.44140625" customWidth="1"/>
     <col min="10" max="10" width="10" customWidth="1"/>
     <col min="11" max="11" width="7.77734375" customWidth="1"/>
@@ -1320,31 +1320,31 @@
     <col min="15" max="15" width="7.44140625" customWidth="1"/>
     <col min="16" max="16" width="13.44140625" customWidth="1"/>
     <col min="17" max="17" width="15.44140625" customWidth="1"/>
-    <col min="18" max="18" width="14" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="11.21875" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="10" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="9.44140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="10.21875" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="14" customWidth="1"/>
+    <col min="19" max="19" width="11.21875" customWidth="1"/>
+    <col min="20" max="20" width="10" customWidth="1"/>
+    <col min="21" max="21" width="9.44140625" customWidth="1"/>
+    <col min="22" max="22" width="10.21875" customWidth="1"/>
     <col min="23" max="23" width="12.33203125" customWidth="1"/>
-    <col min="24" max="24" width="13" hidden="1" customWidth="1"/>
-    <col min="25" max="25" width="12.5546875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="13.109375" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="5.6640625" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="7.109375" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="5.6640625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="4.109375" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="13" customWidth="1"/>
+    <col min="25" max="25" width="12.5546875" customWidth="1"/>
+    <col min="26" max="26" width="13.109375" customWidth="1"/>
+    <col min="27" max="27" width="5.6640625" customWidth="1"/>
+    <col min="28" max="28" width="7.109375" customWidth="1"/>
+    <col min="29" max="29" width="5.6640625" customWidth="1"/>
+    <col min="30" max="30" width="4.109375" customWidth="1"/>
     <col min="31" max="31" width="11.5546875" customWidth="1"/>
-    <col min="32" max="33" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="13.5546875" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="39" max="40" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="10" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="43" max="44" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="32" max="33" width="8.88671875" customWidth="1"/>
+    <col min="34" max="34" width="7.6640625" customWidth="1"/>
+    <col min="35" max="35" width="10.44140625" customWidth="1"/>
+    <col min="36" max="36" width="13.5546875" customWidth="1"/>
+    <col min="37" max="37" width="14.33203125" customWidth="1"/>
+    <col min="38" max="38" width="12.33203125" customWidth="1"/>
+    <col min="39" max="40" width="10.33203125" customWidth="1"/>
+    <col min="41" max="41" width="10" customWidth="1"/>
+    <col min="42" max="42" width="13.6640625" customWidth="1"/>
+    <col min="43" max="44" width="10.109375" customWidth="1"/>
+    <col min="45" max="45" width="8.88671875" customWidth="1"/>
     <col min="46" max="46" width="14.6640625" customWidth="1"/>
     <col min="47" max="47" width="13.88671875" customWidth="1"/>
     <col min="48" max="48" width="11.21875" customWidth="1"/>
@@ -59114,20 +59114,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9ec2d0b7-503f-4434-bd5e-691963e6366e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9ec2d0b7-503f-4434-bd5e-691963e6366e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -59150,14 +59150,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E07FED4-9CAB-4D35-B6E3-4F76C1ACDD32}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -59165,4 +59157,12 @@
     <ds:schemaRef ds:uri="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1777" documentId="14_{436B2594-DD65-4C9F-B810-8D9ACA7BE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED926601-E058-4135-B968-961BB5BB8738}"/>
+  <xr:revisionPtr revIDLastSave="2223" documentId="14_{436B2594-DD65-4C9F-B810-8D9ACA7BE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B711CA9E-FE06-4BD2-A454-292739F154AD}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$CI$1318</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$CK$1318</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1119" uniqueCount="130">
   <si>
     <t>year</t>
   </si>
@@ -420,6 +420,15 @@
   </si>
   <si>
     <t>snails-percentcover__invert</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>callithamnion_acutum__red</t>
+  </si>
+  <si>
+    <t>tiffaniella_snyderae__red</t>
   </si>
 </sst>
 </file>
@@ -1296,12 +1305,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CI1465"/>
+  <dimension ref="A1:CK1509"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1454" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1507" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AY1" sqref="AY1"/>
-      <selection pane="bottomLeft" activeCell="F1476" sqref="F1476"/>
+      <selection pane="bottomLeft" activeCell="K1524" sqref="K1524"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1323,20 +1332,20 @@
     <col min="15" max="15" width="6.33203125" customWidth="1"/>
     <col min="16" max="16" width="7.44140625" customWidth="1"/>
     <col min="17" max="17" width="13.44140625" customWidth="1"/>
-    <col min="18" max="18" width="15.44140625" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="14" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="11.21875" hidden="1" customWidth="1"/>
-    <col min="21" max="21" width="10" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="9.44140625" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="15.44140625" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" customWidth="1"/>
+    <col min="21" max="21" width="10" customWidth="1"/>
+    <col min="22" max="22" width="9.44140625" customWidth="1"/>
     <col min="23" max="23" width="10.21875" customWidth="1"/>
     <col min="24" max="24" width="12.33203125" customWidth="1"/>
-    <col min="25" max="25" width="13" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="12.5546875" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="13.109375" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="5.6640625" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="7.109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="5.6640625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="4.109375" hidden="1" customWidth="1"/>
+    <col min="25" max="25" width="13" customWidth="1"/>
+    <col min="26" max="26" width="12.5546875" customWidth="1"/>
+    <col min="27" max="27" width="13.109375" customWidth="1"/>
+    <col min="28" max="28" width="5.6640625" customWidth="1"/>
+    <col min="29" max="29" width="7.109375" customWidth="1"/>
+    <col min="30" max="30" width="5.6640625" customWidth="1"/>
+    <col min="31" max="31" width="4.109375" customWidth="1"/>
     <col min="32" max="32" width="11.5546875" customWidth="1"/>
     <col min="33" max="34" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="7.6640625" hidden="1" customWidth="1"/>
@@ -1384,11 +1393,11 @@
     <col min="79" max="79" width="4.109375" customWidth="1"/>
     <col min="80" max="83" width="5.88671875" customWidth="1"/>
     <col min="84" max="84" width="8.44140625" customWidth="1"/>
-    <col min="85" max="85" width="6.77734375" customWidth="1"/>
-    <col min="86" max="87" width="5" customWidth="1"/>
+    <col min="85" max="87" width="6.77734375" customWidth="1"/>
+    <col min="88" max="89" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1645,11 +1654,17 @@
         <v>118</v>
       </c>
       <c r="CH1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="CI1" s="1"/>
-    </row>
-    <row r="2" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CK1" s="1"/>
+    </row>
+    <row r="2" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1684,7 +1699,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1713,7 +1728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1742,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1774,7 +1789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1803,7 +1818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1832,7 +1847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1870,7 +1885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -1905,7 +1920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1937,7 +1952,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -1969,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -2004,7 +2019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2039,7 +2054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -2074,7 +2089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -2109,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:87" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -24107,7 +24122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>2023</v>
       </c>
@@ -24145,7 +24160,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="594" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>2023</v>
       </c>
@@ -24183,7 +24198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="595" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>2023</v>
       </c>
@@ -24227,7 +24242,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="596" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>2023</v>
       </c>
@@ -24279,11 +24294,11 @@
       <c r="BY596">
         <v>5</v>
       </c>
-      <c r="CH596">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="597" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CJ596">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>2023</v>
       </c>
@@ -24321,7 +24336,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="598" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>2023</v>
       </c>
@@ -24356,7 +24371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>2023</v>
       </c>
@@ -24400,7 +24415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="600" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>2023</v>
       </c>
@@ -24438,7 +24453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>2023</v>
       </c>
@@ -24470,7 +24485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="602" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>2023</v>
       </c>
@@ -24502,7 +24517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="603" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>2023</v>
       </c>
@@ -24534,7 +24549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="604" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>2023</v>
       </c>
@@ -24563,7 +24578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="605" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>2023</v>
       </c>
@@ -24592,7 +24607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="606" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>2023</v>
       </c>
@@ -24621,7 +24636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="607" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>2023</v>
       </c>
@@ -24656,7 +24671,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="608" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>2023</v>
       </c>
@@ -34199,7 +34214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>2023</v>
       </c>
@@ -34237,7 +34252,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>2023</v>
       </c>
@@ -34278,7 +34293,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="835" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>2023</v>
       </c>
@@ -34318,11 +34333,11 @@
       <c r="BI835">
         <v>1</v>
       </c>
-      <c r="CH835">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="836" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CJ835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>2023</v>
       </c>
@@ -34372,7 +34387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="837" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>2023</v>
       </c>
@@ -34425,7 +34440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>2023</v>
       </c>
@@ -34466,7 +34481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>2023</v>
       </c>
@@ -34504,7 +34519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>2023</v>
       </c>
@@ -34545,7 +34560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>2023</v>
       </c>
@@ -34589,7 +34604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>2023</v>
       </c>
@@ -34624,7 +34639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="843" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>2023</v>
       </c>
@@ -34662,7 +34677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>2023</v>
       </c>
@@ -34700,7 +34715,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>2023</v>
       </c>
@@ -34738,7 +34753,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="846" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>2023</v>
       </c>
@@ -34776,7 +34791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>2023</v>
       </c>
@@ -34811,7 +34826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="848" spans="1:86" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:88" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>2023</v>
       </c>
@@ -60456,6 +60471,2689 @@
       </c>
       <c r="AY1465">
         <v>3</v>
+      </c>
+    </row>
+    <row r="1466" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1466">
+        <v>2024</v>
+      </c>
+      <c r="B1466">
+        <v>11</v>
+      </c>
+      <c r="C1466">
+        <v>15</v>
+      </c>
+      <c r="D1466" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E1466">
+        <v>0.3</v>
+      </c>
+      <c r="F1466">
+        <v>2</v>
+      </c>
+      <c r="G1466">
+        <v>0</v>
+      </c>
+      <c r="I1466" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1466" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1466" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1466" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1466" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1466" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1466" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1466" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1466">
+        <v>1</v>
+      </c>
+      <c r="W1466">
+        <v>1</v>
+      </c>
+      <c r="AC1466">
+        <v>1</v>
+      </c>
+      <c r="AF1466">
+        <v>1</v>
+      </c>
+      <c r="AU1466">
+        <v>1</v>
+      </c>
+      <c r="AV1466">
+        <v>5</v>
+      </c>
+      <c r="AY1466">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1467" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1467">
+        <v>2024</v>
+      </c>
+      <c r="B1467">
+        <v>11</v>
+      </c>
+      <c r="C1467">
+        <v>15</v>
+      </c>
+      <c r="D1467" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="E1467">
+        <v>0.3</v>
+      </c>
+      <c r="F1467">
+        <v>2</v>
+      </c>
+      <c r="G1467">
+        <v>5</v>
+      </c>
+      <c r="I1467" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1467" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1467" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1467" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1467" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1467" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1467" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1467" t="s">
+        <v>127</v>
+      </c>
+      <c r="AF1467">
+        <v>1</v>
+      </c>
+      <c r="AU1467">
+        <v>1</v>
+      </c>
+      <c r="AW1467">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1468" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1468">
+        <v>2024</v>
+      </c>
+      <c r="B1468">
+        <v>11</v>
+      </c>
+      <c r="C1468">
+        <v>15</v>
+      </c>
+      <c r="D1468" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1468">
+        <v>0.3</v>
+      </c>
+      <c r="F1468">
+        <v>2</v>
+      </c>
+      <c r="G1468">
+        <v>10</v>
+      </c>
+      <c r="I1468" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1468" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1468" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1468" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1468" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1468" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1468" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1468" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1468">
+        <v>2</v>
+      </c>
+      <c r="AF1468">
+        <v>50</v>
+      </c>
+      <c r="AU1468">
+        <v>1</v>
+      </c>
+      <c r="AV1468">
+        <v>5</v>
+      </c>
+      <c r="AW1468">
+        <v>30</v>
+      </c>
+      <c r="AY1468">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1469" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1469">
+        <v>2024</v>
+      </c>
+      <c r="B1469">
+        <v>11</v>
+      </c>
+      <c r="C1469">
+        <v>15</v>
+      </c>
+      <c r="D1469" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1469">
+        <v>0.3</v>
+      </c>
+      <c r="F1469">
+        <v>2</v>
+      </c>
+      <c r="G1469">
+        <v>15</v>
+      </c>
+      <c r="I1469" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1469" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1469" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1469" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1469" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1469" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1469" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1469" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1469">
+        <v>5</v>
+      </c>
+      <c r="W1469">
+        <v>1</v>
+      </c>
+      <c r="AF1469">
+        <v>1</v>
+      </c>
+      <c r="AU1469">
+        <v>1</v>
+      </c>
+      <c r="AW1469">
+        <v>5</v>
+      </c>
+      <c r="AY1469">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1470" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1470">
+        <v>2024</v>
+      </c>
+      <c r="B1470">
+        <v>11</v>
+      </c>
+      <c r="C1470">
+        <v>15</v>
+      </c>
+      <c r="D1470" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1470">
+        <v>0.3</v>
+      </c>
+      <c r="F1470">
+        <v>2</v>
+      </c>
+      <c r="G1470">
+        <v>20</v>
+      </c>
+      <c r="I1470" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1470" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1470" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1470" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1470" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1470" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1470" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1470" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1470">
+        <v>1</v>
+      </c>
+      <c r="AF1470">
+        <v>5</v>
+      </c>
+      <c r="AU1470">
+        <v>1</v>
+      </c>
+      <c r="AW1470">
+        <v>1</v>
+      </c>
+      <c r="BI1470">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1471" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1471">
+        <v>2024</v>
+      </c>
+      <c r="B1471">
+        <v>11</v>
+      </c>
+      <c r="C1471">
+        <v>15</v>
+      </c>
+      <c r="D1471" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1471">
+        <v>0.3</v>
+      </c>
+      <c r="F1471">
+        <v>2</v>
+      </c>
+      <c r="G1471">
+        <v>25</v>
+      </c>
+      <c r="I1471" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1471" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1471" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1471" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1471" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1471" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1471" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1471" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1471">
+        <v>10</v>
+      </c>
+      <c r="W1471">
+        <v>1</v>
+      </c>
+      <c r="AF1471">
+        <v>1</v>
+      </c>
+      <c r="AU1471">
+        <v>1</v>
+      </c>
+      <c r="AV1471">
+        <v>1</v>
+      </c>
+      <c r="AW1471">
+        <v>1</v>
+      </c>
+      <c r="AY1471">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1472" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1472">
+        <v>2024</v>
+      </c>
+      <c r="B1472">
+        <v>11</v>
+      </c>
+      <c r="C1472">
+        <v>15</v>
+      </c>
+      <c r="D1472" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1472">
+        <v>0.3</v>
+      </c>
+      <c r="F1472">
+        <v>2</v>
+      </c>
+      <c r="G1472">
+        <v>30</v>
+      </c>
+      <c r="I1472" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1472" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1472" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1472" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1472" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1472" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1472" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1472" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1472">
+        <v>1</v>
+      </c>
+      <c r="X1472">
+        <v>1</v>
+      </c>
+      <c r="AF1472">
+        <v>10</v>
+      </c>
+      <c r="AU1472">
+        <v>1</v>
+      </c>
+      <c r="AY1472">
+        <v>1</v>
+      </c>
+      <c r="AZ1472">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1473" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1473">
+        <v>2024</v>
+      </c>
+      <c r="B1473">
+        <v>11</v>
+      </c>
+      <c r="C1473">
+        <v>15</v>
+      </c>
+      <c r="D1473" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1473">
+        <v>0.3</v>
+      </c>
+      <c r="F1473">
+        <v>2</v>
+      </c>
+      <c r="G1473">
+        <v>35</v>
+      </c>
+      <c r="I1473" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1473" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1473" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1473" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1473" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1473" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1473" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1473" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1473">
+        <v>2</v>
+      </c>
+      <c r="AF1473">
+        <v>3</v>
+      </c>
+      <c r="AU1473">
+        <v>10</v>
+      </c>
+      <c r="AV1473">
+        <v>1</v>
+      </c>
+      <c r="AW1473">
+        <v>1</v>
+      </c>
+      <c r="BA1473">
+        <v>1</v>
+      </c>
+      <c r="BB1473">
+        <v>1</v>
+      </c>
+      <c r="BF1473">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1474" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1474">
+        <v>2024</v>
+      </c>
+      <c r="B1474">
+        <v>11</v>
+      </c>
+      <c r="C1474">
+        <v>15</v>
+      </c>
+      <c r="D1474" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1474">
+        <v>0.3</v>
+      </c>
+      <c r="F1474">
+        <v>2</v>
+      </c>
+      <c r="G1474">
+        <v>40</v>
+      </c>
+      <c r="I1474" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1474" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1474" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1474" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1474" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1474" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1474" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1474" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1474">
+        <v>5</v>
+      </c>
+      <c r="X1474">
+        <v>1</v>
+      </c>
+      <c r="AF1474">
+        <v>15</v>
+      </c>
+      <c r="AU1474">
+        <v>10</v>
+      </c>
+      <c r="AV1474">
+        <v>5</v>
+      </c>
+      <c r="AY1474">
+        <v>10</v>
+      </c>
+      <c r="BA1474">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1475" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1475">
+        <v>2024</v>
+      </c>
+      <c r="B1475">
+        <v>11</v>
+      </c>
+      <c r="C1475">
+        <v>15</v>
+      </c>
+      <c r="D1475" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1475">
+        <v>0.3</v>
+      </c>
+      <c r="F1475">
+        <v>3</v>
+      </c>
+      <c r="G1475">
+        <v>0</v>
+      </c>
+      <c r="I1475">
+        <v>500</v>
+      </c>
+      <c r="K1475">
+        <v>50</v>
+      </c>
+      <c r="L1475">
+        <v>10</v>
+      </c>
+      <c r="M1475">
+        <v>100</v>
+      </c>
+      <c r="Q1475">
+        <v>20</v>
+      </c>
+      <c r="W1475">
+        <v>1</v>
+      </c>
+      <c r="AC1475">
+        <v>1</v>
+      </c>
+      <c r="AF1475">
+        <v>5</v>
+      </c>
+      <c r="AU1475">
+        <v>3</v>
+      </c>
+      <c r="AV1475">
+        <v>10</v>
+      </c>
+      <c r="AW1475">
+        <v>1</v>
+      </c>
+      <c r="AY1475">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1476" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1476">
+        <v>2024</v>
+      </c>
+      <c r="B1476">
+        <v>11</v>
+      </c>
+      <c r="C1476">
+        <v>15</v>
+      </c>
+      <c r="D1476" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1476">
+        <v>0.3</v>
+      </c>
+      <c r="F1476">
+        <v>3</v>
+      </c>
+      <c r="G1476">
+        <v>5</v>
+      </c>
+      <c r="I1476" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1476">
+        <v>5</v>
+      </c>
+      <c r="K1476">
+        <v>30</v>
+      </c>
+      <c r="L1476">
+        <v>5</v>
+      </c>
+      <c r="N1476">
+        <v>80</v>
+      </c>
+      <c r="O1476">
+        <v>20</v>
+      </c>
+      <c r="AF1476">
+        <v>3</v>
+      </c>
+      <c r="AU1476">
+        <v>1</v>
+      </c>
+      <c r="AW1476">
+        <v>5</v>
+      </c>
+      <c r="AY1476">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1477" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1477">
+        <v>2024</v>
+      </c>
+      <c r="B1477">
+        <v>11</v>
+      </c>
+      <c r="C1477">
+        <v>15</v>
+      </c>
+      <c r="D1477" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1477">
+        <v>0.3</v>
+      </c>
+      <c r="F1477">
+        <v>3</v>
+      </c>
+      <c r="G1477">
+        <v>10</v>
+      </c>
+      <c r="I1477" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1477">
+        <v>5</v>
+      </c>
+      <c r="K1477">
+        <v>70</v>
+      </c>
+      <c r="L1477">
+        <v>200</v>
+      </c>
+      <c r="M1477">
+        <v>80</v>
+      </c>
+      <c r="N1477">
+        <v>15</v>
+      </c>
+      <c r="O1477">
+        <v>5</v>
+      </c>
+      <c r="Q1477">
+        <v>1</v>
+      </c>
+      <c r="W1477">
+        <v>1</v>
+      </c>
+      <c r="AF1477">
+        <v>10</v>
+      </c>
+      <c r="AU1477">
+        <v>1</v>
+      </c>
+      <c r="AV1477">
+        <v>1</v>
+      </c>
+      <c r="AW1477">
+        <v>5</v>
+      </c>
+      <c r="AY1477">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1478" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1478">
+        <v>2024</v>
+      </c>
+      <c r="B1478">
+        <v>11</v>
+      </c>
+      <c r="C1478">
+        <v>15</v>
+      </c>
+      <c r="D1478" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1478">
+        <v>0.3</v>
+      </c>
+      <c r="F1478">
+        <v>3</v>
+      </c>
+      <c r="G1478">
+        <v>15</v>
+      </c>
+      <c r="I1478" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1478">
+        <v>2</v>
+      </c>
+      <c r="K1478">
+        <v>30</v>
+      </c>
+      <c r="L1478">
+        <v>100</v>
+      </c>
+      <c r="M1478">
+        <v>15</v>
+      </c>
+      <c r="N1478">
+        <v>70</v>
+      </c>
+      <c r="O1478">
+        <v>15</v>
+      </c>
+      <c r="W1478">
+        <v>1</v>
+      </c>
+      <c r="AF1478">
+        <v>2</v>
+      </c>
+      <c r="AU1478">
+        <v>1</v>
+      </c>
+      <c r="AW1478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1479" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1479">
+        <v>2024</v>
+      </c>
+      <c r="B1479">
+        <v>11</v>
+      </c>
+      <c r="C1479">
+        <v>15</v>
+      </c>
+      <c r="D1479" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1479">
+        <v>0.3</v>
+      </c>
+      <c r="F1479">
+        <v>3</v>
+      </c>
+      <c r="G1479">
+        <v>20</v>
+      </c>
+      <c r="I1479" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1479">
+        <v>5</v>
+      </c>
+      <c r="K1479">
+        <v>10</v>
+      </c>
+      <c r="L1479">
+        <v>50</v>
+      </c>
+      <c r="M1479">
+        <v>10</v>
+      </c>
+      <c r="N1479">
+        <v>80</v>
+      </c>
+      <c r="O1479">
+        <v>10</v>
+      </c>
+      <c r="Q1479">
+        <v>1</v>
+      </c>
+      <c r="AF1479">
+        <v>3</v>
+      </c>
+      <c r="AU1479">
+        <v>1</v>
+      </c>
+      <c r="AW1479">
+        <v>1</v>
+      </c>
+      <c r="AY1479">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1480" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1480">
+        <v>2024</v>
+      </c>
+      <c r="B1480">
+        <v>11</v>
+      </c>
+      <c r="C1480">
+        <v>15</v>
+      </c>
+      <c r="D1480" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1480">
+        <v>0.3</v>
+      </c>
+      <c r="F1480">
+        <v>3</v>
+      </c>
+      <c r="G1480">
+        <v>25</v>
+      </c>
+      <c r="I1480" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1480">
+        <v>1</v>
+      </c>
+      <c r="K1480">
+        <v>2</v>
+      </c>
+      <c r="N1480">
+        <v>60</v>
+      </c>
+      <c r="O1480">
+        <v>40</v>
+      </c>
+      <c r="X1480">
+        <v>1</v>
+      </c>
+      <c r="AF1480">
+        <v>4</v>
+      </c>
+      <c r="AY1480">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1481" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1481">
+        <v>2024</v>
+      </c>
+      <c r="B1481">
+        <v>11</v>
+      </c>
+      <c r="C1481">
+        <v>15</v>
+      </c>
+      <c r="D1481" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1481">
+        <v>0.3</v>
+      </c>
+      <c r="F1481">
+        <v>3</v>
+      </c>
+      <c r="G1481">
+        <v>30</v>
+      </c>
+      <c r="I1481" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1481">
+        <v>1</v>
+      </c>
+      <c r="K1481">
+        <v>5</v>
+      </c>
+      <c r="L1481">
+        <v>10</v>
+      </c>
+      <c r="M1481">
+        <v>20</v>
+      </c>
+      <c r="N1481">
+        <v>40</v>
+      </c>
+      <c r="O1481">
+        <v>40</v>
+      </c>
+      <c r="W1481">
+        <v>1</v>
+      </c>
+      <c r="AF1481">
+        <v>4</v>
+      </c>
+      <c r="AU1481">
+        <v>1</v>
+      </c>
+      <c r="AY1481">
+        <v>2</v>
+      </c>
+      <c r="BE1481">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1482" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1482">
+        <v>2024</v>
+      </c>
+      <c r="B1482">
+        <v>11</v>
+      </c>
+      <c r="C1482">
+        <v>15</v>
+      </c>
+      <c r="D1482" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1482">
+        <v>0.3</v>
+      </c>
+      <c r="F1482">
+        <v>3</v>
+      </c>
+      <c r="G1482">
+        <v>35</v>
+      </c>
+      <c r="I1482" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1482">
+        <v>1</v>
+      </c>
+      <c r="K1482">
+        <v>30</v>
+      </c>
+      <c r="N1482">
+        <v>80</v>
+      </c>
+      <c r="O1482">
+        <v>20</v>
+      </c>
+      <c r="Q1482">
+        <v>1</v>
+      </c>
+      <c r="AF1482">
+        <v>1</v>
+      </c>
+      <c r="AU1482">
+        <v>1</v>
+      </c>
+      <c r="AY1482">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1483" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1483">
+        <v>2024</v>
+      </c>
+      <c r="B1483">
+        <v>11</v>
+      </c>
+      <c r="C1483">
+        <v>15</v>
+      </c>
+      <c r="D1483" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1483">
+        <v>0.3</v>
+      </c>
+      <c r="F1483">
+        <v>3</v>
+      </c>
+      <c r="G1483">
+        <v>40</v>
+      </c>
+      <c r="I1483" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1483">
+        <v>10</v>
+      </c>
+      <c r="N1483">
+        <v>80</v>
+      </c>
+      <c r="O1483">
+        <v>20</v>
+      </c>
+      <c r="AF1483">
+        <v>3</v>
+      </c>
+      <c r="AU1483">
+        <v>1</v>
+      </c>
+      <c r="AY1483">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1484">
+        <v>2024</v>
+      </c>
+      <c r="B1484">
+        <v>11</v>
+      </c>
+      <c r="C1484">
+        <v>15</v>
+      </c>
+      <c r="D1484" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1484">
+        <v>0.3</v>
+      </c>
+      <c r="F1484">
+        <v>3</v>
+      </c>
+      <c r="G1484">
+        <v>45</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1484">
+        <v>20</v>
+      </c>
+      <c r="M1484">
+        <v>15</v>
+      </c>
+      <c r="N1484">
+        <v>75</v>
+      </c>
+      <c r="O1484">
+        <v>10</v>
+      </c>
+      <c r="Q1484">
+        <v>1</v>
+      </c>
+      <c r="X1484">
+        <v>1</v>
+      </c>
+      <c r="AF1484">
+        <v>10</v>
+      </c>
+      <c r="AU1484">
+        <v>3</v>
+      </c>
+      <c r="AY1484">
+        <v>15</v>
+      </c>
+      <c r="BA1484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1485">
+        <v>2024</v>
+      </c>
+      <c r="B1485">
+        <v>11</v>
+      </c>
+      <c r="C1485">
+        <v>15</v>
+      </c>
+      <c r="D1485" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1485">
+        <v>0.3</v>
+      </c>
+      <c r="F1485">
+        <v>3</v>
+      </c>
+      <c r="G1485">
+        <v>50</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1485">
+        <v>5</v>
+      </c>
+      <c r="M1485">
+        <v>5</v>
+      </c>
+      <c r="N1485">
+        <v>90</v>
+      </c>
+      <c r="O1485">
+        <v>5</v>
+      </c>
+      <c r="Q1485">
+        <v>1</v>
+      </c>
+      <c r="W1485">
+        <v>1</v>
+      </c>
+      <c r="X1485">
+        <v>1</v>
+      </c>
+      <c r="AF1485">
+        <v>10</v>
+      </c>
+      <c r="AU1485">
+        <v>2</v>
+      </c>
+      <c r="AW1485">
+        <v>1</v>
+      </c>
+      <c r="AY1485">
+        <v>20</v>
+      </c>
+      <c r="BA1485">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1486">
+        <v>2024</v>
+      </c>
+      <c r="B1486">
+        <v>11</v>
+      </c>
+      <c r="C1486">
+        <v>15</v>
+      </c>
+      <c r="D1486" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1486">
+        <v>0.3</v>
+      </c>
+      <c r="F1486">
+        <v>3</v>
+      </c>
+      <c r="G1486">
+        <v>55</v>
+      </c>
+      <c r="I1486" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1486">
+        <v>5</v>
+      </c>
+      <c r="M1486">
+        <v>10</v>
+      </c>
+      <c r="N1486">
+        <v>90</v>
+      </c>
+      <c r="Q1486">
+        <v>1</v>
+      </c>
+      <c r="AF1486">
+        <v>15</v>
+      </c>
+      <c r="AU1486">
+        <v>5</v>
+      </c>
+      <c r="AY1486">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1487">
+        <v>2024</v>
+      </c>
+      <c r="B1487">
+        <v>11</v>
+      </c>
+      <c r="C1487">
+        <v>15</v>
+      </c>
+      <c r="D1487" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1487">
+        <v>0.3</v>
+      </c>
+      <c r="F1487">
+        <v>3</v>
+      </c>
+      <c r="G1487">
+        <v>60</v>
+      </c>
+      <c r="I1487" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1487">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1488">
+        <v>2024</v>
+      </c>
+      <c r="B1488">
+        <v>11</v>
+      </c>
+      <c r="C1488">
+        <v>15</v>
+      </c>
+      <c r="D1488" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1488">
+        <v>0.3</v>
+      </c>
+      <c r="F1488">
+        <v>3</v>
+      </c>
+      <c r="G1488">
+        <v>65</v>
+      </c>
+      <c r="I1488" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1488">
+        <v>5</v>
+      </c>
+      <c r="N1488">
+        <v>100</v>
+      </c>
+      <c r="AF1488">
+        <v>20</v>
+      </c>
+      <c r="AU1488">
+        <v>1</v>
+      </c>
+      <c r="AY1488">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1489">
+        <v>2024</v>
+      </c>
+      <c r="B1489">
+        <v>11</v>
+      </c>
+      <c r="C1489">
+        <v>15</v>
+      </c>
+      <c r="D1489" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1489">
+        <v>0.3</v>
+      </c>
+      <c r="F1489">
+        <v>3</v>
+      </c>
+      <c r="G1489">
+        <v>70</v>
+      </c>
+      <c r="I1489" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1489" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1489" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1489" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1489" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1489" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1489" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1489" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1489">
+        <v>2</v>
+      </c>
+      <c r="S1489">
+        <v>1</v>
+      </c>
+      <c r="X1489">
+        <v>5</v>
+      </c>
+      <c r="AF1489">
+        <v>30</v>
+      </c>
+      <c r="AU1489">
+        <v>1</v>
+      </c>
+      <c r="AV1489">
+        <v>1</v>
+      </c>
+      <c r="AY1489">
+        <v>10</v>
+      </c>
+      <c r="BE1489">
+        <v>1</v>
+      </c>
+      <c r="BN1489">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1490">
+        <v>2024</v>
+      </c>
+      <c r="B1490">
+        <v>11</v>
+      </c>
+      <c r="C1490">
+        <v>15</v>
+      </c>
+      <c r="D1490" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1490">
+        <v>0.3</v>
+      </c>
+      <c r="F1490">
+        <v>3</v>
+      </c>
+      <c r="G1490">
+        <v>75</v>
+      </c>
+      <c r="I1490" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1490" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1490" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1490" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1490" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1490" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1490" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1490" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1490">
+        <v>1</v>
+      </c>
+      <c r="AF1490">
+        <v>20</v>
+      </c>
+      <c r="AU1490">
+        <v>5</v>
+      </c>
+      <c r="AY1490">
+        <v>40</v>
+      </c>
+      <c r="BC1490">
+        <v>1</v>
+      </c>
+      <c r="BE1490">
+        <v>1</v>
+      </c>
+      <c r="BZ1490">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1491">
+        <v>2024</v>
+      </c>
+      <c r="B1491">
+        <v>11</v>
+      </c>
+      <c r="C1491">
+        <v>15</v>
+      </c>
+      <c r="D1491" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1491">
+        <v>0.3</v>
+      </c>
+      <c r="F1491">
+        <v>3</v>
+      </c>
+      <c r="G1491">
+        <v>80</v>
+      </c>
+      <c r="I1491" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1491" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1491" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1491" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1491" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1491" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1491" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1491" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1491">
+        <v>2</v>
+      </c>
+      <c r="R1491">
+        <v>5</v>
+      </c>
+      <c r="W1491">
+        <v>1</v>
+      </c>
+      <c r="X1491">
+        <v>5</v>
+      </c>
+      <c r="AF1491">
+        <v>40</v>
+      </c>
+      <c r="AU1491">
+        <v>5</v>
+      </c>
+      <c r="AY1491">
+        <v>25</v>
+      </c>
+      <c r="AZ1491">
+        <v>5</v>
+      </c>
+      <c r="BA1491">
+        <v>10</v>
+      </c>
+      <c r="BE1491">
+        <v>2</v>
+      </c>
+      <c r="BF1491">
+        <v>1</v>
+      </c>
+      <c r="BZ1491">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1492">
+        <v>2024</v>
+      </c>
+      <c r="B1492">
+        <v>11</v>
+      </c>
+      <c r="C1492">
+        <v>15</v>
+      </c>
+      <c r="D1492" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1492">
+        <v>0.3</v>
+      </c>
+      <c r="F1492">
+        <v>3</v>
+      </c>
+      <c r="G1492">
+        <v>85</v>
+      </c>
+      <c r="I1492" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1492" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1492" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1492" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1492" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1492" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1492" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1492" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1492">
+        <v>1</v>
+      </c>
+      <c r="R1492">
+        <v>50</v>
+      </c>
+      <c r="X1492">
+        <v>2</v>
+      </c>
+      <c r="AF1492">
+        <v>30</v>
+      </c>
+      <c r="AU1492">
+        <v>20</v>
+      </c>
+      <c r="AV1492">
+        <v>5</v>
+      </c>
+      <c r="AY1492">
+        <v>20</v>
+      </c>
+      <c r="AZ1492">
+        <v>5</v>
+      </c>
+      <c r="BA1492">
+        <v>1</v>
+      </c>
+      <c r="BD1492">
+        <v>5</v>
+      </c>
+      <c r="BE1492">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1493">
+        <v>2024</v>
+      </c>
+      <c r="B1493">
+        <v>11</v>
+      </c>
+      <c r="C1493">
+        <v>15</v>
+      </c>
+      <c r="D1493" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1493">
+        <v>0.3</v>
+      </c>
+      <c r="F1493">
+        <v>3</v>
+      </c>
+      <c r="G1493">
+        <v>90</v>
+      </c>
+      <c r="I1493" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1493" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1493" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1493" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1493" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1493" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1493" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1493" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q1493">
+        <v>15</v>
+      </c>
+      <c r="R1493">
+        <v>30</v>
+      </c>
+      <c r="X1493">
+        <v>1</v>
+      </c>
+      <c r="AF1493">
+        <v>10</v>
+      </c>
+      <c r="AU1493">
+        <v>30</v>
+      </c>
+      <c r="AY1493">
+        <v>50</v>
+      </c>
+      <c r="AZ1493">
+        <v>5</v>
+      </c>
+      <c r="BD1493">
+        <v>1</v>
+      </c>
+      <c r="BE1493">
+        <v>1</v>
+      </c>
+      <c r="BF1493">
+        <v>1</v>
+      </c>
+      <c r="BG1493">
+        <v>1</v>
+      </c>
+      <c r="BN1493">
+        <v>1</v>
+      </c>
+      <c r="BS1493">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1494">
+        <v>2024</v>
+      </c>
+      <c r="B1494">
+        <v>11</v>
+      </c>
+      <c r="C1494">
+        <v>15</v>
+      </c>
+      <c r="D1494" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1494">
+        <v>0.3</v>
+      </c>
+      <c r="F1494">
+        <v>4</v>
+      </c>
+      <c r="G1494">
+        <v>0</v>
+      </c>
+      <c r="I1494">
+        <v>400</v>
+      </c>
+      <c r="J1494">
+        <v>5</v>
+      </c>
+      <c r="K1494">
+        <v>75</v>
+      </c>
+      <c r="L1494">
+        <v>22</v>
+      </c>
+      <c r="M1494">
+        <v>100</v>
+      </c>
+      <c r="Q1494">
+        <v>10</v>
+      </c>
+      <c r="W1494">
+        <v>2</v>
+      </c>
+      <c r="AC1494">
+        <v>1</v>
+      </c>
+      <c r="AF1494">
+        <v>5</v>
+      </c>
+      <c r="AU1494">
+        <v>3</v>
+      </c>
+      <c r="AV1494">
+        <v>4</v>
+      </c>
+      <c r="AW1494">
+        <v>1</v>
+      </c>
+      <c r="AY1494">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1495">
+        <v>2024</v>
+      </c>
+      <c r="B1495">
+        <v>11</v>
+      </c>
+      <c r="C1495">
+        <v>15</v>
+      </c>
+      <c r="D1495" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1495">
+        <v>0.3</v>
+      </c>
+      <c r="F1495">
+        <v>4</v>
+      </c>
+      <c r="G1495">
+        <v>5</v>
+      </c>
+      <c r="I1495" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1495">
+        <v>1</v>
+      </c>
+      <c r="K1495">
+        <v>40</v>
+      </c>
+      <c r="M1495">
+        <v>20</v>
+      </c>
+      <c r="N1495">
+        <v>30</v>
+      </c>
+      <c r="O1495">
+        <v>60</v>
+      </c>
+      <c r="AF1495">
+        <v>2</v>
+      </c>
+      <c r="AU1495">
+        <v>2</v>
+      </c>
+      <c r="AV1495">
+        <v>1</v>
+      </c>
+      <c r="AW1495">
+        <v>1</v>
+      </c>
+      <c r="AY1495">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1496">
+        <v>2024</v>
+      </c>
+      <c r="B1496">
+        <v>11</v>
+      </c>
+      <c r="C1496">
+        <v>15</v>
+      </c>
+      <c r="D1496" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1496">
+        <v>0.3</v>
+      </c>
+      <c r="F1496">
+        <v>4</v>
+      </c>
+      <c r="G1496">
+        <v>10</v>
+      </c>
+      <c r="I1496" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1496">
+        <v>2</v>
+      </c>
+      <c r="K1496">
+        <v>70</v>
+      </c>
+      <c r="L1496">
+        <v>1</v>
+      </c>
+      <c r="M1496">
+        <v>40</v>
+      </c>
+      <c r="N1496">
+        <v>30</v>
+      </c>
+      <c r="O1496">
+        <v>30</v>
+      </c>
+      <c r="AF1496">
+        <v>3</v>
+      </c>
+      <c r="AU1496">
+        <v>2</v>
+      </c>
+      <c r="AW1496">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1497">
+        <v>2024</v>
+      </c>
+      <c r="B1497">
+        <v>11</v>
+      </c>
+      <c r="C1497">
+        <v>15</v>
+      </c>
+      <c r="D1497" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1497">
+        <v>0.3</v>
+      </c>
+      <c r="F1497">
+        <v>4</v>
+      </c>
+      <c r="G1497">
+        <v>15</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1497">
+        <v>2</v>
+      </c>
+      <c r="K1497">
+        <v>50</v>
+      </c>
+      <c r="L1497">
+        <v>8</v>
+      </c>
+      <c r="M1497">
+        <v>70</v>
+      </c>
+      <c r="N1497">
+        <v>10</v>
+      </c>
+      <c r="O1497">
+        <v>20</v>
+      </c>
+      <c r="AF1497">
+        <v>1</v>
+      </c>
+      <c r="AU1497">
+        <v>2</v>
+      </c>
+      <c r="AW1497">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1498">
+        <v>2024</v>
+      </c>
+      <c r="B1498">
+        <v>11</v>
+      </c>
+      <c r="C1498">
+        <v>15</v>
+      </c>
+      <c r="D1498" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1498">
+        <v>0.3</v>
+      </c>
+      <c r="F1498">
+        <v>4</v>
+      </c>
+      <c r="G1498">
+        <v>20</v>
+      </c>
+      <c r="I1498" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1498">
+        <v>2</v>
+      </c>
+      <c r="K1498">
+        <v>25</v>
+      </c>
+      <c r="L1498">
+        <v>7</v>
+      </c>
+      <c r="M1498">
+        <v>5</v>
+      </c>
+      <c r="N1498">
+        <v>45</v>
+      </c>
+      <c r="O1498">
+        <v>50</v>
+      </c>
+      <c r="Q1498">
+        <v>1</v>
+      </c>
+      <c r="W1498">
+        <v>1</v>
+      </c>
+      <c r="AF1498">
+        <v>1</v>
+      </c>
+      <c r="AU1498">
+        <v>1</v>
+      </c>
+      <c r="AY1498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1499">
+        <v>2024</v>
+      </c>
+      <c r="B1499">
+        <v>11</v>
+      </c>
+      <c r="C1499">
+        <v>15</v>
+      </c>
+      <c r="D1499" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1499">
+        <v>0.3</v>
+      </c>
+      <c r="F1499">
+        <v>4</v>
+      </c>
+      <c r="G1499">
+        <v>25</v>
+      </c>
+      <c r="I1499" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1499">
+        <v>5</v>
+      </c>
+      <c r="K1499">
+        <v>25</v>
+      </c>
+      <c r="M1499">
+        <v>25</v>
+      </c>
+      <c r="N1499">
+        <v>35</v>
+      </c>
+      <c r="O1499">
+        <v>40</v>
+      </c>
+      <c r="AF1499">
+        <v>3</v>
+      </c>
+      <c r="AU1499">
+        <v>1</v>
+      </c>
+      <c r="AY1499">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1500">
+        <v>2024</v>
+      </c>
+      <c r="B1500">
+        <v>11</v>
+      </c>
+      <c r="C1500">
+        <v>15</v>
+      </c>
+      <c r="D1500" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1500">
+        <v>0.3</v>
+      </c>
+      <c r="F1500">
+        <v>4</v>
+      </c>
+      <c r="G1500">
+        <v>30</v>
+      </c>
+      <c r="I1500" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1500">
+        <v>1</v>
+      </c>
+      <c r="K1500">
+        <v>5</v>
+      </c>
+      <c r="L1500">
+        <v>2</v>
+      </c>
+      <c r="M1500">
+        <v>10</v>
+      </c>
+      <c r="N1500">
+        <v>40</v>
+      </c>
+      <c r="O1500">
+        <v>50</v>
+      </c>
+      <c r="AF1500">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1501">
+        <v>2024</v>
+      </c>
+      <c r="B1501">
+        <v>11</v>
+      </c>
+      <c r="C1501">
+        <v>15</v>
+      </c>
+      <c r="D1501" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1501">
+        <v>0.3</v>
+      </c>
+      <c r="F1501">
+        <v>4</v>
+      </c>
+      <c r="G1501">
+        <v>35</v>
+      </c>
+      <c r="I1501" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1501">
+        <v>1</v>
+      </c>
+      <c r="K1501">
+        <v>10</v>
+      </c>
+      <c r="L1501">
+        <v>2</v>
+      </c>
+      <c r="M1501">
+        <v>15</v>
+      </c>
+      <c r="N1501">
+        <v>30</v>
+      </c>
+      <c r="O1501">
+        <v>55</v>
+      </c>
+      <c r="P1501">
+        <v>10</v>
+      </c>
+      <c r="Q1501">
+        <v>1</v>
+      </c>
+      <c r="AF1501">
+        <v>20</v>
+      </c>
+      <c r="AU1501">
+        <v>1</v>
+      </c>
+      <c r="AY1501">
+        <v>1</v>
+      </c>
+      <c r="BC1501">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1502">
+        <v>2024</v>
+      </c>
+      <c r="B1502">
+        <v>11</v>
+      </c>
+      <c r="C1502">
+        <v>15</v>
+      </c>
+      <c r="D1502" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1502">
+        <v>0.3</v>
+      </c>
+      <c r="F1502">
+        <v>4</v>
+      </c>
+      <c r="G1502">
+        <v>40</v>
+      </c>
+      <c r="I1502" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1502">
+        <v>1</v>
+      </c>
+      <c r="K1502">
+        <v>5</v>
+      </c>
+      <c r="M1502">
+        <v>25</v>
+      </c>
+      <c r="N1502">
+        <v>30</v>
+      </c>
+      <c r="O1502">
+        <v>45</v>
+      </c>
+      <c r="P1502">
+        <v>10</v>
+      </c>
+      <c r="X1502">
+        <v>1</v>
+      </c>
+      <c r="AF1502">
+        <v>10</v>
+      </c>
+      <c r="AV1502">
+        <v>2</v>
+      </c>
+      <c r="CH1502">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1503">
+        <v>2024</v>
+      </c>
+      <c r="B1503">
+        <v>11</v>
+      </c>
+      <c r="C1503">
+        <v>15</v>
+      </c>
+      <c r="D1503" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1503">
+        <v>0.3</v>
+      </c>
+      <c r="F1503">
+        <v>4</v>
+      </c>
+      <c r="G1503">
+        <v>45</v>
+      </c>
+      <c r="I1503" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1503">
+        <v>1</v>
+      </c>
+      <c r="K1503">
+        <v>30</v>
+      </c>
+      <c r="M1503">
+        <v>30</v>
+      </c>
+      <c r="N1503">
+        <v>25</v>
+      </c>
+      <c r="O1503">
+        <v>25</v>
+      </c>
+      <c r="P1503">
+        <v>5</v>
+      </c>
+      <c r="X1503">
+        <v>1</v>
+      </c>
+      <c r="AF1503">
+        <v>30</v>
+      </c>
+      <c r="AU1503">
+        <v>2</v>
+      </c>
+      <c r="AV1503">
+        <v>4</v>
+      </c>
+      <c r="AY1503">
+        <v>5</v>
+      </c>
+      <c r="BI1503">
+        <v>1</v>
+      </c>
+      <c r="BJ1503">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1504">
+        <v>2024</v>
+      </c>
+      <c r="B1504">
+        <v>11</v>
+      </c>
+      <c r="C1504">
+        <v>15</v>
+      </c>
+      <c r="D1504" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1504">
+        <v>0.3</v>
+      </c>
+      <c r="F1504">
+        <v>4</v>
+      </c>
+      <c r="G1504">
+        <v>50</v>
+      </c>
+      <c r="I1504" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1504" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1504" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1504" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1504" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1504" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1504" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1504" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1504">
+        <v>1</v>
+      </c>
+      <c r="AF1504">
+        <v>20</v>
+      </c>
+      <c r="AU1504">
+        <v>3</v>
+      </c>
+      <c r="AV1504">
+        <v>5</v>
+      </c>
+      <c r="AY1504">
+        <v>1</v>
+      </c>
+      <c r="AZ1504">
+        <v>1</v>
+      </c>
+      <c r="BD1504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:87" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1505">
+        <v>2024</v>
+      </c>
+      <c r="B1505">
+        <v>11</v>
+      </c>
+      <c r="C1505">
+        <v>15</v>
+      </c>
+      <c r="D1505" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1505">
+        <v>0.3</v>
+      </c>
+      <c r="F1505">
+        <v>4</v>
+      </c>
+      <c r="G1505">
+        <v>55</v>
+      </c>
+      <c r="I1505" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1505" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1505" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1505" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1505" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1505" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1505" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1505" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1505">
+        <v>3</v>
+      </c>
+      <c r="AF1505">
+        <v>40</v>
+      </c>
+      <c r="AV1505">
+        <v>3</v>
+      </c>
+      <c r="AY1505">
+        <v>1</v>
+      </c>
+      <c r="BD1505">
+        <v>1</v>
+      </c>
+      <c r="BE1505">
+        <v>1</v>
+      </c>
+      <c r="CI1505">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:87" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1506">
+        <v>2024</v>
+      </c>
+      <c r="B1506">
+        <v>11</v>
+      </c>
+      <c r="C1506">
+        <v>15</v>
+      </c>
+      <c r="D1506" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1506">
+        <v>0.3</v>
+      </c>
+      <c r="F1506">
+        <v>4</v>
+      </c>
+      <c r="G1506">
+        <v>60</v>
+      </c>
+      <c r="I1506" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1506" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1506" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1506" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1506" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1506" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1506" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1506" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1506">
+        <v>1</v>
+      </c>
+      <c r="AF1506">
+        <v>40</v>
+      </c>
+      <c r="AU1506">
+        <v>5</v>
+      </c>
+      <c r="AV1506">
+        <v>3</v>
+      </c>
+      <c r="BD1506">
+        <v>1</v>
+      </c>
+      <c r="BE1506">
+        <v>1</v>
+      </c>
+      <c r="BJ1506">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:87" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1507">
+        <v>2024</v>
+      </c>
+      <c r="B1507">
+        <v>11</v>
+      </c>
+      <c r="C1507">
+        <v>15</v>
+      </c>
+      <c r="D1507" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1507">
+        <v>0.3</v>
+      </c>
+      <c r="F1507">
+        <v>4</v>
+      </c>
+      <c r="G1507">
+        <v>65</v>
+      </c>
+      <c r="I1507" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1507" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1507" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1507" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1507" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1507" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1507" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1507" t="s">
+        <v>127</v>
+      </c>
+      <c r="X1507">
+        <v>5</v>
+      </c>
+      <c r="AF1507">
+        <v>10</v>
+      </c>
+      <c r="BA1507">
+        <v>2</v>
+      </c>
+      <c r="BE1507">
+        <v>3</v>
+      </c>
+      <c r="BG1507">
+        <v>1</v>
+      </c>
+      <c r="BJ1507">
+        <v>1</v>
+      </c>
+      <c r="BW1507">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:87" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1508">
+        <v>2024</v>
+      </c>
+      <c r="B1508">
+        <v>11</v>
+      </c>
+      <c r="C1508">
+        <v>15</v>
+      </c>
+      <c r="D1508" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1508">
+        <v>0.3</v>
+      </c>
+      <c r="F1508">
+        <v>4</v>
+      </c>
+      <c r="G1508">
+        <v>70</v>
+      </c>
+      <c r="I1508" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1508" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1508" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1508" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1508" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1508" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1508" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1508" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1508">
+        <v>5</v>
+      </c>
+      <c r="X1508">
+        <v>5</v>
+      </c>
+      <c r="AF1508">
+        <v>10</v>
+      </c>
+      <c r="AU1508">
+        <v>3</v>
+      </c>
+      <c r="AV1508">
+        <v>2</v>
+      </c>
+      <c r="AY1508">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:87" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1509">
+        <v>2024</v>
+      </c>
+      <c r="B1509">
+        <v>11</v>
+      </c>
+      <c r="C1509">
+        <v>15</v>
+      </c>
+      <c r="D1509" s="3">
+        <v>0.47569444444444398</v>
+      </c>
+      <c r="E1509">
+        <v>0.3</v>
+      </c>
+      <c r="F1509">
+        <v>4</v>
+      </c>
+      <c r="G1509">
+        <v>75</v>
+      </c>
+      <c r="I1509" t="s">
+        <v>127</v>
+      </c>
+      <c r="J1509" t="s">
+        <v>127</v>
+      </c>
+      <c r="K1509" t="s">
+        <v>127</v>
+      </c>
+      <c r="L1509" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1509" t="s">
+        <v>127</v>
+      </c>
+      <c r="N1509" t="s">
+        <v>127</v>
+      </c>
+      <c r="O1509" t="s">
+        <v>127</v>
+      </c>
+      <c r="P1509" t="s">
+        <v>127</v>
+      </c>
+      <c r="R1509">
+        <v>10</v>
+      </c>
+      <c r="W1509">
+        <v>1</v>
+      </c>
+      <c r="X1509">
+        <v>2</v>
+      </c>
+      <c r="AF1509">
+        <v>50</v>
+      </c>
+      <c r="AU1509">
+        <v>5</v>
+      </c>
+      <c r="AV1509">
+        <v>5</v>
+      </c>
+      <c r="BA1509">
+        <v>1</v>
+      </c>
+      <c r="BD1509">
+        <v>1</v>
+      </c>
+      <c r="BE1509">
+        <v>2</v>
+      </c>
+      <c r="CE1509">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -60467,6 +63165,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="9ec2d0b7-503f-4434-bd5e-691963e6366e" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C107646D0035FA4C8F1F95DBA74C7670" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1757c077ac40972b876cd5ccdf595ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ec2d0b7-503f-4434-bd5e-691963e6366e" xmlns:ns4="a169fe49-86d9-4b9f-a163-9271c3e82536" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="315eec8d60efed50e87e3fc3108bb7d6" ns3:_="" ns4:_="">
     <xsd:import namespace="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
@@ -60719,24 +63434,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E07FED4-9CAB-4D35-B6E3-4F76C1ACDD32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="9ec2d0b7-503f-4434-bd5e-691963e6366e" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBE69FB-5B7A-431F-9647-BD3868909ADD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -60753,22 +63469,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E07FED4-9CAB-4D35-B6E3-4F76C1ACDD32}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2223" documentId="14_{436B2594-DD65-4C9F-B810-8D9ACA7BE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B711CA9E-FE06-4BD2-A454-292739F154AD}"/>
+  <xr:revisionPtr revIDLastSave="2226" documentId="14_{436B2594-DD65-4C9F-B810-8D9ACA7BE4CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{932D4233-0B67-4367-A099-54F1DE61DC1C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1307,10 +1307,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CK1509"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1507" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AY1" sqref="AY1"/>
-      <selection pane="bottomLeft" activeCell="K1524" sqref="K1524"/>
+      <selection pane="bottomLeft" activeCell="AN1" sqref="AN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1347,17 +1347,17 @@
     <col min="30" max="30" width="5.6640625" customWidth="1"/>
     <col min="31" max="31" width="4.109375" customWidth="1"/>
     <col min="32" max="32" width="11.5546875" customWidth="1"/>
-    <col min="33" max="34" width="8.88671875" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="7.6640625" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="13.5546875" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="14.33203125" hidden="1" customWidth="1"/>
-    <col min="39" max="39" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="40" max="41" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="42" max="42" width="10" hidden="1" customWidth="1"/>
-    <col min="43" max="43" width="13.6640625" hidden="1" customWidth="1"/>
-    <col min="44" max="45" width="10.109375" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="33" max="34" width="8.88671875" customWidth="1"/>
+    <col min="35" max="35" width="7.6640625" customWidth="1"/>
+    <col min="36" max="36" width="10.44140625" customWidth="1"/>
+    <col min="37" max="37" width="13.5546875" customWidth="1"/>
+    <col min="38" max="38" width="14.33203125" customWidth="1"/>
+    <col min="39" max="39" width="12.33203125" customWidth="1"/>
+    <col min="40" max="41" width="10.33203125" customWidth="1"/>
+    <col min="42" max="42" width="10" customWidth="1"/>
+    <col min="43" max="43" width="13.6640625" customWidth="1"/>
+    <col min="44" max="45" width="10.109375" customWidth="1"/>
+    <col min="46" max="46" width="8.88671875" customWidth="1"/>
     <col min="47" max="47" width="14.6640625" customWidth="1"/>
     <col min="48" max="48" width="13.88671875" customWidth="1"/>
     <col min="49" max="49" width="11.21875" customWidth="1"/>
@@ -63173,15 +63173,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C107646D0035FA4C8F1F95DBA74C7670" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1757c077ac40972b876cd5ccdf595ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ec2d0b7-503f-4434-bd5e-691963e6366e" xmlns:ns4="a169fe49-86d9-4b9f-a163-9271c3e82536" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="315eec8d60efed50e87e3fc3108bb7d6" ns3:_="" ns4:_="">
     <xsd:import namespace="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
@@ -63434,6 +63425,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E07FED4-9CAB-4D35-B6E3-4F76C1ACDD32}">
   <ds:schemaRefs>
@@ -63445,14 +63445,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBE69FB-5B7A-431F-9647-BD3868909ADD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -63469,4 +63461,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{C3EE9921-92A6-4D79-9E53-9575D7FEA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{37F0C0FD-DAFA-49AF-9A08-F308DD62CF9B}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C3EE9921-92A6-4D79-9E53-9575D7FEA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63084D6-C40F-4D1A-8F36-4CFB42516355}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -461,13 +461,13 @@
     <t>stenogramma_interruptum__red</t>
   </si>
   <si>
-    <t>herposiphonia_densiuscula__red</t>
-  </si>
-  <si>
     <t>ozophora_lanceolata__red</t>
   </si>
   <si>
     <t>opuntiella_californica__red</t>
+  </si>
+  <si>
+    <t>herposiphonia_plumula__red</t>
   </si>
 </sst>
 </file>
@@ -1356,9 +1356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CX1732"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1675" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1691" sqref="I1691"/>
+    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CT2" sqref="CT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1746,13 +1746,13 @@
         <v>139</v>
       </c>
       <c r="CT1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="CU1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="CW1" s="1" t="s">
         <v>72</v>
@@ -74194,6 +74194,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C107646D0035FA4C8F1F95DBA74C7670" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1757c077ac40972b876cd5ccdf595ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ec2d0b7-503f-4434-bd5e-691963e6366e" xmlns:ns4="a169fe49-86d9-4b9f-a163-9271c3e82536" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="315eec8d60efed50e87e3fc3108bb7d6" ns3:_="" ns4:_="">
     <xsd:import namespace="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
@@ -74446,15 +74455,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -74464,6 +74464,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBE69FB-5B7A-431F-9647-BD3868909ADD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -74482,14 +74490,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E07FED4-9CAB-4D35-B6E3-4F76C1ACDD32}">
   <ds:schemaRefs>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C3EE9921-92A6-4D79-9E53-9575D7FEA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C63084D6-C40F-4D1A-8F36-4CFB42516355}"/>
+  <xr:revisionPtr revIDLastSave="771" documentId="13_ncr:1_{C3EE9921-92A6-4D79-9E53-9575D7FEA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FBC5963-2C86-4F2C-A302-CCC1CEA48D20}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="in" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$CX$1683</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">in!$A$1:$CY$1683</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="144">
   <si>
     <t>year</t>
   </si>
@@ -468,6 +468,9 @@
   </si>
   <si>
     <t>herposiphonia_plumula__red</t>
+  </si>
+  <si>
+    <t>rhodymenia_californica__red</t>
   </si>
 </sst>
 </file>
@@ -1354,11 +1357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CX1732"/>
+  <dimension ref="A1:CY1819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CJ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CT2" sqref="CT2"/>
+    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1783" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AZ1820" sqref="AZ1820"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1370,15 +1373,15 @@
     <col min="5" max="5" width="17.21875" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="5.5546875" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10" style="9" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="9" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" style="9" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" style="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="9" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" style="9" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="6.6640625" customWidth="1"/>
     <col min="18" max="18" width="7" customWidth="1"/>
     <col min="19" max="19" width="6.5546875" customWidth="1"/>
@@ -1392,18 +1395,20 @@
     <col min="27" max="27" width="16.44140625" customWidth="1"/>
     <col min="28" max="28" width="8.6640625" customWidth="1"/>
     <col min="29" max="29" width="7.109375" customWidth="1"/>
-    <col min="30" max="30" width="5.6640625" customWidth="1"/>
-    <col min="31" max="33" width="4.109375" hidden="1" customWidth="1"/>
-    <col min="34" max="35" width="6.77734375" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="11.5546875" customWidth="1"/>
+    <col min="30" max="30" width="9" customWidth="1"/>
+    <col min="31" max="33" width="9" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="9" customWidth="1"/>
+    <col min="35" max="35" width="9" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="9" customWidth="1"/>
     <col min="37" max="38" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="7.6640625" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="10.44140625" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="15.77734375" customWidth="1"/>
     <col min="42" max="42" width="16.5546875" customWidth="1"/>
     <col min="43" max="43" width="12.33203125" hidden="1" customWidth="1"/>
-    <col min="44" max="45" width="10.33203125" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="10" hidden="1" customWidth="1"/>
+    <col min="44" max="44" width="11.77734375" hidden="1" customWidth="1"/>
+    <col min="45" max="45" width="10.33203125" hidden="1" customWidth="1"/>
+    <col min="46" max="46" width="11.77734375" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="13.6640625" hidden="1" customWidth="1"/>
     <col min="48" max="49" width="10.109375" hidden="1" customWidth="1"/>
     <col min="50" max="50" width="8.88671875" hidden="1" customWidth="1"/>
@@ -1448,12 +1453,12 @@
     <col min="91" max="91" width="7.77734375" customWidth="1"/>
     <col min="92" max="92" width="18.5546875" customWidth="1"/>
     <col min="93" max="93" width="18.77734375" customWidth="1"/>
-    <col min="94" max="100" width="16.77734375" customWidth="1"/>
-    <col min="101" max="101" width="6.6640625" customWidth="1"/>
-    <col min="102" max="102" width="5" customWidth="1"/>
+    <col min="94" max="101" width="16.77734375" customWidth="1"/>
+    <col min="102" max="102" width="6.6640625" customWidth="1"/>
+    <col min="103" max="103" width="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1755,11 +1760,14 @@
         <v>141</v>
       </c>
       <c r="CW1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="CX1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="CX1" s="1"/>
-    </row>
-    <row r="2" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CY1" s="1"/>
+    </row>
+    <row r="2" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2021</v>
       </c>
@@ -1794,7 +1802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2021</v>
       </c>
@@ -1823,7 +1831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2021</v>
       </c>
@@ -1852,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -1884,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2021</v>
       </c>
@@ -1913,7 +1921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2021</v>
       </c>
@@ -1942,7 +1950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1980,7 +1988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2021</v>
       </c>
@@ -2015,7 +2023,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -2047,7 +2055,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2021</v>
       </c>
@@ -2079,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2021</v>
       </c>
@@ -2114,7 +2122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2021</v>
       </c>
@@ -2149,7 +2157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2021</v>
       </c>
@@ -2184,7 +2192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2021</v>
       </c>
@@ -2219,7 +2227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:103" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -25325,7 +25333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="625" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>2022</v>
       </c>
@@ -25354,7 +25362,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="626" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>2022</v>
       </c>
@@ -25386,7 +25394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="627" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>2022</v>
       </c>
@@ -25424,7 +25432,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="628" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>2022</v>
       </c>
@@ -25465,7 +25473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="629" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>2022</v>
       </c>
@@ -25515,7 +25523,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="630" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>2023</v>
       </c>
@@ -25553,7 +25561,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="631" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>2023</v>
       </c>
@@ -25582,7 +25590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="632" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>2023</v>
       </c>
@@ -25620,7 +25628,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="633" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>2023</v>
       </c>
@@ -25655,7 +25663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>2023</v>
       </c>
@@ -25687,7 +25695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>2023</v>
       </c>
@@ -25716,7 +25724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="636" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>2023</v>
       </c>
@@ -25754,7 +25762,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="637" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>2023</v>
       </c>
@@ -25792,7 +25800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="638" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>2023</v>
       </c>
@@ -25836,7 +25844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="639" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>2023</v>
       </c>
@@ -25888,11 +25896,11 @@
       <c r="CB639">
         <v>5</v>
       </c>
-      <c r="CW639">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="640" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CX639">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>2023</v>
       </c>
@@ -34306,7 +34314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="833" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A833">
         <v>2023</v>
       </c>
@@ -34344,7 +34352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="834" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A834">
         <v>2023</v>
       </c>
@@ -34385,7 +34393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="835" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A835">
         <v>2023</v>
       </c>
@@ -34425,11 +34433,11 @@
       <c r="BM835">
         <v>1</v>
       </c>
-      <c r="CW835">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="836" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="CX835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A836">
         <v>2023</v>
       </c>
@@ -34479,7 +34487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="837" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A837">
         <v>2023</v>
       </c>
@@ -34532,7 +34540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="838" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A838">
         <v>2023</v>
       </c>
@@ -34573,7 +34581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="839" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A839">
         <v>2023</v>
       </c>
@@ -34611,7 +34619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="840" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A840">
         <v>2023</v>
       </c>
@@ -34652,7 +34660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="841" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A841">
         <v>2023</v>
       </c>
@@ -34696,7 +34704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A842">
         <v>2023</v>
       </c>
@@ -34731,7 +34739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="843" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A843">
         <v>2023</v>
       </c>
@@ -34769,7 +34777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A844">
         <v>2023</v>
       </c>
@@ -34807,7 +34815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="845" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A845">
         <v>2023</v>
       </c>
@@ -34845,7 +34853,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="846" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A846">
         <v>2023</v>
       </c>
@@ -34883,7 +34891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="847" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A847">
         <v>2023</v>
       </c>
@@ -34918,7 +34926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="848" spans="1:101" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:102" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A848">
         <v>2023</v>
       </c>
@@ -74184,8 +74192,3713 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1733" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1733">
+        <v>2025</v>
+      </c>
+      <c r="B1733">
+        <v>6</v>
+      </c>
+      <c r="C1733">
+        <v>25</v>
+      </c>
+      <c r="D1733" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1733">
+        <v>0.03</v>
+      </c>
+      <c r="F1733">
+        <v>2</v>
+      </c>
+      <c r="G1733">
+        <v>0</v>
+      </c>
+      <c r="I1733" s="9">
+        <v>0</v>
+      </c>
+      <c r="J1733" s="9">
+        <v>10</v>
+      </c>
+      <c r="K1733" s="9">
+        <v>90</v>
+      </c>
+      <c r="L1733" s="9">
+        <v>1</v>
+      </c>
+      <c r="M1733" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q1733">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1734" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1734">
+        <v>2025</v>
+      </c>
+      <c r="B1734">
+        <v>6</v>
+      </c>
+      <c r="C1734">
+        <v>25</v>
+      </c>
+      <c r="D1734" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1734">
+        <v>0.03</v>
+      </c>
+      <c r="F1734">
+        <v>2</v>
+      </c>
+      <c r="G1734">
+        <v>5</v>
+      </c>
+      <c r="AJ1734">
+        <v>20</v>
+      </c>
+      <c r="AY1734">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1735" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1735">
+        <v>2025</v>
+      </c>
+      <c r="B1735">
+        <v>6</v>
+      </c>
+      <c r="C1735">
+        <v>25</v>
+      </c>
+      <c r="D1735" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1735">
+        <v>0.03</v>
+      </c>
+      <c r="F1735">
+        <v>2</v>
+      </c>
+      <c r="G1735">
+        <v>10</v>
+      </c>
+      <c r="Q1735">
+        <v>1</v>
+      </c>
+      <c r="AJ1735">
+        <v>25</v>
+      </c>
+      <c r="AT1735">
+        <v>5</v>
+      </c>
+      <c r="AY1735">
+        <v>5</v>
+      </c>
+      <c r="BA1735">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1736" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1736">
+        <v>2025</v>
+      </c>
+      <c r="B1736">
+        <v>6</v>
+      </c>
+      <c r="C1736">
+        <v>25</v>
+      </c>
+      <c r="D1736" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1736">
+        <v>0.03</v>
+      </c>
+      <c r="F1736">
+        <v>2</v>
+      </c>
+      <c r="G1736">
+        <v>15</v>
+      </c>
+      <c r="AJ1736">
+        <v>50</v>
+      </c>
+      <c r="AY1736">
+        <v>15</v>
+      </c>
+      <c r="BA1736">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1737" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1737">
+        <v>2025</v>
+      </c>
+      <c r="B1737">
+        <v>6</v>
+      </c>
+      <c r="C1737">
+        <v>25</v>
+      </c>
+      <c r="D1737" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1737">
+        <v>0.03</v>
+      </c>
+      <c r="F1737">
+        <v>2</v>
+      </c>
+      <c r="G1737">
+        <v>20</v>
+      </c>
+      <c r="Q1737">
+        <v>5</v>
+      </c>
+      <c r="AJ1737">
+        <v>90</v>
+      </c>
+      <c r="AY1737">
+        <v>15</v>
+      </c>
+      <c r="BA1737">
+        <v>3</v>
+      </c>
+      <c r="BC1737">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1738" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1738">
+        <v>2025</v>
+      </c>
+      <c r="B1738">
+        <v>6</v>
+      </c>
+      <c r="C1738">
+        <v>25</v>
+      </c>
+      <c r="D1738" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1738">
+        <v>0.03</v>
+      </c>
+      <c r="F1738">
+        <v>2</v>
+      </c>
+      <c r="G1738">
+        <v>25</v>
+      </c>
+      <c r="Q1738">
+        <v>10</v>
+      </c>
+      <c r="AJ1738">
+        <v>45</v>
+      </c>
+      <c r="AY1738">
+        <v>35</v>
+      </c>
+      <c r="BA1738">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1739" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1739">
+        <v>2025</v>
+      </c>
+      <c r="B1739">
+        <v>6</v>
+      </c>
+      <c r="C1739">
+        <v>25</v>
+      </c>
+      <c r="D1739" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1739">
+        <v>0.03</v>
+      </c>
+      <c r="F1739">
+        <v>2</v>
+      </c>
+      <c r="G1739">
+        <v>30</v>
+      </c>
+      <c r="Q1739">
+        <v>10</v>
+      </c>
+      <c r="AJ1739">
+        <v>75</v>
+      </c>
+      <c r="AY1739">
+        <v>10</v>
+      </c>
+      <c r="BA1739">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1740" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1740">
+        <v>2025</v>
+      </c>
+      <c r="B1740">
+        <v>6</v>
+      </c>
+      <c r="C1740">
+        <v>25</v>
+      </c>
+      <c r="D1740" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1740">
+        <v>0.03</v>
+      </c>
+      <c r="F1740">
+        <v>2</v>
+      </c>
+      <c r="G1740">
+        <v>35</v>
+      </c>
+      <c r="Q1740">
+        <v>5</v>
+      </c>
+      <c r="R1740">
+        <v>10</v>
+      </c>
+      <c r="AJ1740">
+        <v>65</v>
+      </c>
+      <c r="AY1740">
+        <v>45</v>
+      </c>
+      <c r="AZ1740">
+        <v>1</v>
+      </c>
+      <c r="BC1740">
+        <v>5</v>
+      </c>
+      <c r="BH1740">
+        <v>1</v>
+      </c>
+      <c r="BJ1740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1741" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1741">
+        <v>2025</v>
+      </c>
+      <c r="B1741">
+        <v>6</v>
+      </c>
+      <c r="C1741">
+        <v>25</v>
+      </c>
+      <c r="D1741" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1741">
+        <v>0.03</v>
+      </c>
+      <c r="F1741">
+        <v>2</v>
+      </c>
+      <c r="G1741">
+        <v>40</v>
+      </c>
+      <c r="R1741">
+        <v>15</v>
+      </c>
+      <c r="S1741">
+        <v>1</v>
+      </c>
+      <c r="AJ1741">
+        <v>40</v>
+      </c>
+      <c r="AY1741">
+        <v>30</v>
+      </c>
+      <c r="BA1741">
+        <v>3</v>
+      </c>
+      <c r="BC1741">
+        <v>20</v>
+      </c>
+      <c r="BN1741">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1742" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1742">
+        <v>2025</v>
+      </c>
+      <c r="B1742">
+        <v>6</v>
+      </c>
+      <c r="C1742">
+        <v>25</v>
+      </c>
+      <c r="D1742" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1742">
+        <v>0.03</v>
+      </c>
+      <c r="F1742">
+        <v>3</v>
+      </c>
+      <c r="G1742">
+        <v>0</v>
+      </c>
+      <c r="I1742" s="9">
+        <v>0</v>
+      </c>
+      <c r="J1742" s="9">
+        <v>20</v>
+      </c>
+      <c r="K1742" s="9">
+        <v>90</v>
+      </c>
+      <c r="L1742" s="9">
+        <v>5</v>
+      </c>
+      <c r="M1742" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q1742">
+        <v>45</v>
+      </c>
+      <c r="AJ1742">
+        <v>10</v>
+      </c>
+      <c r="AY1742">
+        <v>20</v>
+      </c>
+      <c r="BC1742">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1743" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1743">
+        <v>2025</v>
+      </c>
+      <c r="B1743">
+        <v>6</v>
+      </c>
+      <c r="C1743">
+        <v>25</v>
+      </c>
+      <c r="D1743" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1743">
+        <v>0.03</v>
+      </c>
+      <c r="F1743">
+        <v>3</v>
+      </c>
+      <c r="G1743">
+        <v>5</v>
+      </c>
+      <c r="Q1743">
+        <v>5</v>
+      </c>
+      <c r="AJ1743">
+        <v>30</v>
+      </c>
+      <c r="AY1743">
+        <v>10</v>
+      </c>
+      <c r="BA1743">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1744" spans="1:80" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1744">
+        <v>2025</v>
+      </c>
+      <c r="B1744">
+        <v>6</v>
+      </c>
+      <c r="C1744">
+        <v>25</v>
+      </c>
+      <c r="D1744" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1744">
+        <v>0.03</v>
+      </c>
+      <c r="F1744">
+        <v>3</v>
+      </c>
+      <c r="G1744">
+        <v>10</v>
+      </c>
+      <c r="Q1744">
+        <v>10</v>
+      </c>
+      <c r="AJ1744">
+        <v>50</v>
+      </c>
+      <c r="AY1744">
+        <v>25</v>
+      </c>
+      <c r="BA1744">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1745" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1745">
+        <v>2025</v>
+      </c>
+      <c r="B1745">
+        <v>6</v>
+      </c>
+      <c r="C1745">
+        <v>25</v>
+      </c>
+      <c r="D1745" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1745">
+        <v>0.03</v>
+      </c>
+      <c r="F1745">
+        <v>3</v>
+      </c>
+      <c r="G1745">
+        <v>15</v>
+      </c>
+      <c r="Q1745">
+        <v>1</v>
+      </c>
+      <c r="AJ1745">
+        <v>85</v>
+      </c>
+      <c r="AY1745">
+        <v>5</v>
+      </c>
+      <c r="BA1745">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1746" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1746">
+        <v>2025</v>
+      </c>
+      <c r="B1746">
+        <v>6</v>
+      </c>
+      <c r="C1746">
+        <v>25</v>
+      </c>
+      <c r="D1746" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1746">
+        <v>0.03</v>
+      </c>
+      <c r="F1746">
+        <v>3</v>
+      </c>
+      <c r="G1746">
+        <v>20</v>
+      </c>
+      <c r="Q1746">
+        <v>1</v>
+      </c>
+      <c r="AJ1746">
+        <v>50</v>
+      </c>
+      <c r="AY1746">
+        <v>10</v>
+      </c>
+      <c r="BA1746">
+        <v>1</v>
+      </c>
+      <c r="BC1746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1747" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1747">
+        <v>2025</v>
+      </c>
+      <c r="B1747">
+        <v>6</v>
+      </c>
+      <c r="C1747">
+        <v>25</v>
+      </c>
+      <c r="D1747" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1747">
+        <v>0.03</v>
+      </c>
+      <c r="F1747">
+        <v>3</v>
+      </c>
+      <c r="G1747">
+        <v>25</v>
+      </c>
+      <c r="AJ1747">
+        <v>60</v>
+      </c>
+      <c r="AY1747">
+        <v>10</v>
+      </c>
+      <c r="BA1747">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1748" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1748">
+        <v>2025</v>
+      </c>
+      <c r="B1748">
+        <v>6</v>
+      </c>
+      <c r="C1748">
+        <v>25</v>
+      </c>
+      <c r="D1748" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1748">
+        <v>0.03</v>
+      </c>
+      <c r="F1748">
+        <v>3</v>
+      </c>
+      <c r="G1748">
+        <v>30</v>
+      </c>
+      <c r="AJ1748">
+        <v>40</v>
+      </c>
+      <c r="AY1748">
+        <v>10</v>
+      </c>
+      <c r="BA1748">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1749" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1749">
+        <v>2025</v>
+      </c>
+      <c r="B1749">
+        <v>6</v>
+      </c>
+      <c r="C1749">
+        <v>25</v>
+      </c>
+      <c r="D1749" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1749">
+        <v>0.03</v>
+      </c>
+      <c r="F1749">
+        <v>3</v>
+      </c>
+      <c r="G1749">
+        <v>35</v>
+      </c>
+      <c r="AJ1749">
+        <v>45</v>
+      </c>
+      <c r="AY1749">
+        <v>20</v>
+      </c>
+      <c r="BA1749">
+        <v>1</v>
+      </c>
+      <c r="BC1749">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1750" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1750">
+        <v>2025</v>
+      </c>
+      <c r="B1750">
+        <v>6</v>
+      </c>
+      <c r="C1750">
+        <v>25</v>
+      </c>
+      <c r="D1750" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1750">
+        <v>0.03</v>
+      </c>
+      <c r="F1750">
+        <v>3</v>
+      </c>
+      <c r="G1750">
+        <v>40</v>
+      </c>
+      <c r="R1750">
+        <v>1</v>
+      </c>
+      <c r="W1750">
+        <v>1</v>
+      </c>
+      <c r="AJ1750">
+        <v>30</v>
+      </c>
+      <c r="AY1750">
+        <v>10</v>
+      </c>
+      <c r="BA1750">
+        <v>1</v>
+      </c>
+      <c r="BC1750">
+        <v>1</v>
+      </c>
+      <c r="BE1750">
+        <v>1</v>
+      </c>
+      <c r="BN1750">
+        <v>1</v>
+      </c>
+      <c r="BS1750">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1751" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1751">
+        <v>2025</v>
+      </c>
+      <c r="B1751">
+        <v>6</v>
+      </c>
+      <c r="C1751">
+        <v>25</v>
+      </c>
+      <c r="D1751" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1751">
+        <v>0.03</v>
+      </c>
+      <c r="F1751">
+        <v>3</v>
+      </c>
+      <c r="G1751">
+        <v>45</v>
+      </c>
+      <c r="Q1751">
+        <v>1</v>
+      </c>
+      <c r="R1751">
+        <v>2</v>
+      </c>
+      <c r="W1751">
+        <v>1</v>
+      </c>
+      <c r="X1751">
+        <v>1</v>
+      </c>
+      <c r="AJ1751">
+        <v>50</v>
+      </c>
+      <c r="AY1751">
+        <v>5</v>
+      </c>
+      <c r="BA1751">
+        <v>1</v>
+      </c>
+      <c r="BC1751">
+        <v>5</v>
+      </c>
+      <c r="BF1751">
+        <v>3</v>
+      </c>
+      <c r="BM1751">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1752" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1752">
+        <v>2025</v>
+      </c>
+      <c r="B1752">
+        <v>6</v>
+      </c>
+      <c r="C1752">
+        <v>25</v>
+      </c>
+      <c r="D1752" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1752">
+        <v>0.03</v>
+      </c>
+      <c r="F1752">
+        <v>3</v>
+      </c>
+      <c r="G1752">
+        <v>50</v>
+      </c>
+      <c r="W1752">
+        <v>1</v>
+      </c>
+      <c r="AJ1752">
+        <v>40</v>
+      </c>
+      <c r="AY1752">
+        <v>1</v>
+      </c>
+      <c r="BC1752">
+        <v>10</v>
+      </c>
+      <c r="BI1752">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1753" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1753">
+        <v>2025</v>
+      </c>
+      <c r="B1753">
+        <v>6</v>
+      </c>
+      <c r="C1753">
+        <v>25</v>
+      </c>
+      <c r="D1753" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1753">
+        <v>0.03</v>
+      </c>
+      <c r="F1753">
+        <v>3</v>
+      </c>
+      <c r="G1753">
+        <v>55</v>
+      </c>
+      <c r="R1753">
+        <v>1</v>
+      </c>
+      <c r="W1753">
+        <v>3</v>
+      </c>
+      <c r="AJ1753">
+        <v>60</v>
+      </c>
+      <c r="AO1753">
+        <v>1</v>
+      </c>
+      <c r="AY1753">
+        <v>1</v>
+      </c>
+      <c r="BC1753">
+        <v>10</v>
+      </c>
+      <c r="BI1753">
+        <v>1</v>
+      </c>
+      <c r="BS1753">
+        <v>1</v>
+      </c>
+      <c r="CG1753">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1754" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1754">
+        <v>2025</v>
+      </c>
+      <c r="B1754">
+        <v>6</v>
+      </c>
+      <c r="C1754">
+        <v>25</v>
+      </c>
+      <c r="D1754" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1754">
+        <v>0.03</v>
+      </c>
+      <c r="F1754">
+        <v>3</v>
+      </c>
+      <c r="G1754">
+        <v>60</v>
+      </c>
+      <c r="Q1754">
+        <v>1</v>
+      </c>
+      <c r="R1754">
+        <v>1</v>
+      </c>
+      <c r="W1754">
+        <v>2</v>
+      </c>
+      <c r="X1754">
+        <v>1</v>
+      </c>
+      <c r="AJ1754">
+        <v>40</v>
+      </c>
+      <c r="AO1754">
+        <v>1</v>
+      </c>
+      <c r="AY1754">
+        <v>10</v>
+      </c>
+      <c r="BA1754">
+        <v>3</v>
+      </c>
+      <c r="BC1754">
+        <v>15</v>
+      </c>
+      <c r="BE1754">
+        <v>1</v>
+      </c>
+      <c r="BF1754">
+        <v>1</v>
+      </c>
+      <c r="BI1754">
+        <v>1</v>
+      </c>
+      <c r="BJ1754">
+        <v>1</v>
+      </c>
+      <c r="BS1754">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1755" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1755">
+        <v>2025</v>
+      </c>
+      <c r="B1755">
+        <v>6</v>
+      </c>
+      <c r="C1755">
+        <v>25</v>
+      </c>
+      <c r="D1755" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1755">
+        <v>0.03</v>
+      </c>
+      <c r="F1755">
+        <v>3</v>
+      </c>
+      <c r="G1755">
+        <v>65</v>
+      </c>
+      <c r="Q1755">
+        <v>1</v>
+      </c>
+      <c r="R1755">
+        <v>10</v>
+      </c>
+      <c r="W1755">
+        <v>1</v>
+      </c>
+      <c r="AJ1755">
+        <v>70</v>
+      </c>
+      <c r="AY1755">
+        <v>10</v>
+      </c>
+      <c r="BB1755">
+        <v>1</v>
+      </c>
+      <c r="BC1755">
+        <v>1</v>
+      </c>
+      <c r="BD1755">
+        <v>3</v>
+      </c>
+      <c r="BI1755">
+        <v>1</v>
+      </c>
+      <c r="BS1755">
+        <v>1</v>
+      </c>
+      <c r="CK1755">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1756" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1756">
+        <v>2025</v>
+      </c>
+      <c r="B1756">
+        <v>6</v>
+      </c>
+      <c r="C1756">
+        <v>25</v>
+      </c>
+      <c r="D1756" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1756">
+        <v>0.03</v>
+      </c>
+      <c r="F1756">
+        <v>3</v>
+      </c>
+      <c r="G1756">
+        <v>70</v>
+      </c>
+      <c r="R1756">
+        <v>20</v>
+      </c>
+      <c r="T1756">
+        <v>5</v>
+      </c>
+      <c r="X1756">
+        <v>5</v>
+      </c>
+      <c r="AJ1756">
+        <v>80</v>
+      </c>
+      <c r="AY1756">
+        <v>1</v>
+      </c>
+      <c r="BI1756">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1757" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1757">
+        <v>2025</v>
+      </c>
+      <c r="B1757">
+        <v>6</v>
+      </c>
+      <c r="C1757">
+        <v>25</v>
+      </c>
+      <c r="D1757" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1757">
+        <v>0.03</v>
+      </c>
+      <c r="F1757">
+        <v>3</v>
+      </c>
+      <c r="G1757">
+        <v>75</v>
+      </c>
+      <c r="Q1757">
+        <v>2</v>
+      </c>
+      <c r="R1757">
+        <v>25</v>
+      </c>
+      <c r="X1757">
+        <v>1</v>
+      </c>
+      <c r="AJ1757">
+        <v>20</v>
+      </c>
+      <c r="AY1757">
+        <v>10</v>
+      </c>
+      <c r="BD1757">
+        <v>30</v>
+      </c>
+      <c r="BE1757">
+        <v>1</v>
+      </c>
+      <c r="BF1757">
+        <v>2</v>
+      </c>
+      <c r="BG1757">
+        <v>1</v>
+      </c>
+      <c r="BI1757">
+        <v>2</v>
+      </c>
+      <c r="BJ1757">
+        <v>3</v>
+      </c>
+      <c r="BK1757">
+        <v>1</v>
+      </c>
+      <c r="BV1757">
+        <v>1</v>
+      </c>
+      <c r="CC1757">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1758" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1758">
+        <v>2025</v>
+      </c>
+      <c r="B1758">
+        <v>6</v>
+      </c>
+      <c r="C1758">
+        <v>25</v>
+      </c>
+      <c r="D1758" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1758">
+        <v>0.03</v>
+      </c>
+      <c r="F1758">
+        <v>3</v>
+      </c>
+      <c r="G1758">
+        <v>80</v>
+      </c>
+      <c r="Q1758">
+        <v>5</v>
+      </c>
+      <c r="R1758">
+        <v>25</v>
+      </c>
+      <c r="S1758">
+        <v>10</v>
+      </c>
+      <c r="T1758">
+        <v>10</v>
+      </c>
+      <c r="X1758">
+        <v>1</v>
+      </c>
+      <c r="AJ1758">
+        <v>25</v>
+      </c>
+      <c r="AY1758">
+        <v>25</v>
+      </c>
+      <c r="BA1758">
+        <v>1</v>
+      </c>
+      <c r="BC1758">
+        <v>3</v>
+      </c>
+      <c r="BD1758">
+        <v>10</v>
+      </c>
+      <c r="BE1758">
+        <v>1</v>
+      </c>
+      <c r="BF1758">
+        <v>1</v>
+      </c>
+      <c r="BG1758">
+        <v>1</v>
+      </c>
+      <c r="BH1758">
+        <v>1</v>
+      </c>
+      <c r="BI1758">
+        <v>1</v>
+      </c>
+      <c r="BJ1758">
+        <v>5</v>
+      </c>
+      <c r="BK1758">
+        <v>5</v>
+      </c>
+      <c r="BR1758">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1759" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1759">
+        <v>2025</v>
+      </c>
+      <c r="B1759">
+        <v>6</v>
+      </c>
+      <c r="C1759">
+        <v>25</v>
+      </c>
+      <c r="D1759" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1759">
+        <v>0.03</v>
+      </c>
+      <c r="F1759">
+        <v>3</v>
+      </c>
+      <c r="G1759">
+        <v>85</v>
+      </c>
+      <c r="R1759">
+        <v>3</v>
+      </c>
+      <c r="X1759">
+        <v>2</v>
+      </c>
+      <c r="AJ1759">
+        <v>70</v>
+      </c>
+      <c r="AY1759">
+        <v>20</v>
+      </c>
+      <c r="BD1759">
+        <v>10</v>
+      </c>
+      <c r="BE1759">
+        <v>1</v>
+      </c>
+      <c r="BH1759">
+        <v>2</v>
+      </c>
+      <c r="BJ1759">
+        <v>1</v>
+      </c>
+      <c r="BV1759">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1760" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1760">
+        <v>2025</v>
+      </c>
+      <c r="B1760">
+        <v>6</v>
+      </c>
+      <c r="C1760">
+        <v>25</v>
+      </c>
+      <c r="D1760" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1760">
+        <v>0.03</v>
+      </c>
+      <c r="F1760">
+        <v>3</v>
+      </c>
+      <c r="G1760">
+        <v>90</v>
+      </c>
+      <c r="Q1760">
+        <v>10</v>
+      </c>
+      <c r="R1760">
+        <v>5</v>
+      </c>
+      <c r="U1760">
+        <v>5</v>
+      </c>
+      <c r="X1760">
+        <v>5</v>
+      </c>
+      <c r="AJ1760">
+        <v>20</v>
+      </c>
+      <c r="AY1760">
+        <v>40</v>
+      </c>
+      <c r="BD1760">
+        <v>30</v>
+      </c>
+      <c r="BE1760">
+        <v>1</v>
+      </c>
+      <c r="BH1760">
+        <v>2</v>
+      </c>
+      <c r="BI1760">
+        <v>1</v>
+      </c>
+      <c r="BJ1760">
+        <v>3</v>
+      </c>
+      <c r="BK1760">
+        <v>1</v>
+      </c>
+      <c r="BL1760">
+        <v>1</v>
+      </c>
+      <c r="BX1760">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1761" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1761">
+        <v>2025</v>
+      </c>
+      <c r="B1761">
+        <v>6</v>
+      </c>
+      <c r="C1761">
+        <v>25</v>
+      </c>
+      <c r="D1761" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1761">
+        <v>0.03</v>
+      </c>
+      <c r="F1761">
+        <v>3</v>
+      </c>
+      <c r="G1761">
+        <v>95</v>
+      </c>
+      <c r="R1761">
+        <v>10</v>
+      </c>
+      <c r="T1761">
+        <v>2</v>
+      </c>
+      <c r="U1761">
+        <v>10</v>
+      </c>
+      <c r="X1761">
+        <v>20</v>
+      </c>
+      <c r="AJ1761">
+        <v>10</v>
+      </c>
+      <c r="AY1761">
+        <v>1</v>
+      </c>
+      <c r="BC1761">
+        <v>5</v>
+      </c>
+      <c r="BD1761">
+        <v>15</v>
+      </c>
+      <c r="BE1761">
+        <v>5</v>
+      </c>
+      <c r="BF1761">
+        <v>1</v>
+      </c>
+      <c r="BH1761">
+        <v>5</v>
+      </c>
+      <c r="BJ1761">
+        <v>30</v>
+      </c>
+      <c r="BV1761">
+        <v>1</v>
+      </c>
+      <c r="BZ1761">
+        <v>5</v>
+      </c>
+      <c r="CB1761">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1762" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1762">
+        <v>2025</v>
+      </c>
+      <c r="B1762">
+        <v>6</v>
+      </c>
+      <c r="C1762">
+        <v>25</v>
+      </c>
+      <c r="D1762" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1762">
+        <v>0.03</v>
+      </c>
+      <c r="F1762">
+        <v>4</v>
+      </c>
+      <c r="G1762">
+        <v>0</v>
+      </c>
+      <c r="I1762" s="9">
+        <v>250</v>
+      </c>
+      <c r="J1762" s="9">
+        <v>1</v>
+      </c>
+      <c r="K1762" s="9">
+        <v>80</v>
+      </c>
+      <c r="L1762" s="9">
+        <v>4</v>
+      </c>
+      <c r="M1762" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q1762">
+        <v>20</v>
+      </c>
+      <c r="AY1762">
+        <v>15</v>
+      </c>
+      <c r="AZ1762">
+        <v>5</v>
+      </c>
+      <c r="BA1762">
+        <v>3</v>
+      </c>
+      <c r="BC1762">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1763" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1763">
+        <v>2025</v>
+      </c>
+      <c r="B1763">
+        <v>6</v>
+      </c>
+      <c r="C1763">
+        <v>25</v>
+      </c>
+      <c r="D1763" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1763">
+        <v>0.03</v>
+      </c>
+      <c r="F1763">
+        <v>4</v>
+      </c>
+      <c r="G1763">
+        <v>5</v>
+      </c>
+      <c r="Q1763">
+        <v>1</v>
+      </c>
+      <c r="AJ1763">
+        <v>3</v>
+      </c>
+      <c r="AY1763">
+        <v>5</v>
+      </c>
+      <c r="BA1763">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1764" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1764">
+        <v>2025</v>
+      </c>
+      <c r="B1764">
+        <v>6</v>
+      </c>
+      <c r="C1764">
+        <v>25</v>
+      </c>
+      <c r="D1764" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1764">
+        <v>0.03</v>
+      </c>
+      <c r="F1764">
+        <v>4</v>
+      </c>
+      <c r="G1764">
+        <v>10</v>
+      </c>
+      <c r="AJ1764">
+        <v>10</v>
+      </c>
+      <c r="AY1764">
+        <v>10</v>
+      </c>
+      <c r="BA1764">
+        <v>2</v>
+      </c>
+      <c r="BB1764">
+        <v>2</v>
+      </c>
+      <c r="BC1764">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1765" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1765">
+        <v>2025</v>
+      </c>
+      <c r="B1765">
+        <v>6</v>
+      </c>
+      <c r="C1765">
+        <v>25</v>
+      </c>
+      <c r="D1765" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1765">
+        <v>0.03</v>
+      </c>
+      <c r="F1765">
+        <v>4</v>
+      </c>
+      <c r="G1765">
+        <v>15</v>
+      </c>
+      <c r="Q1765">
+        <v>5</v>
+      </c>
+      <c r="AJ1765">
+        <v>15</v>
+      </c>
+      <c r="AY1765">
+        <v>5</v>
+      </c>
+      <c r="BA1765">
+        <v>5</v>
+      </c>
+      <c r="BB1765">
+        <v>1</v>
+      </c>
+      <c r="BC1765">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1766" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1766">
+        <v>2025</v>
+      </c>
+      <c r="B1766">
+        <v>6</v>
+      </c>
+      <c r="C1766">
+        <v>25</v>
+      </c>
+      <c r="D1766" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1766">
+        <v>0.03</v>
+      </c>
+      <c r="F1766">
+        <v>4</v>
+      </c>
+      <c r="G1766">
+        <v>20</v>
+      </c>
+      <c r="Q1766">
+        <v>1</v>
+      </c>
+      <c r="AJ1766">
+        <v>40</v>
+      </c>
+      <c r="AO1766">
+        <v>1</v>
+      </c>
+      <c r="AY1766">
+        <v>5</v>
+      </c>
+      <c r="BA1766">
+        <v>1</v>
+      </c>
+      <c r="BB1766">
+        <v>1</v>
+      </c>
+      <c r="BC1766">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1767">
+        <v>2025</v>
+      </c>
+      <c r="B1767">
+        <v>6</v>
+      </c>
+      <c r="C1767">
+        <v>25</v>
+      </c>
+      <c r="D1767" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1767">
+        <v>0.03</v>
+      </c>
+      <c r="F1767">
+        <v>4</v>
+      </c>
+      <c r="G1767">
+        <v>25</v>
+      </c>
+      <c r="AJ1767">
+        <v>80</v>
+      </c>
+      <c r="AY1767">
+        <v>1</v>
+      </c>
+      <c r="BC1767">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1768">
+        <v>2025</v>
+      </c>
+      <c r="B1768">
+        <v>6</v>
+      </c>
+      <c r="C1768">
+        <v>25</v>
+      </c>
+      <c r="D1768" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1768">
+        <v>0.03</v>
+      </c>
+      <c r="F1768">
+        <v>4</v>
+      </c>
+      <c r="G1768">
+        <v>30</v>
+      </c>
+      <c r="AJ1768">
+        <v>30</v>
+      </c>
+      <c r="AY1768">
+        <v>1</v>
+      </c>
+      <c r="BA1768">
+        <v>1</v>
+      </c>
+      <c r="BC1768">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1769">
+        <v>2025</v>
+      </c>
+      <c r="B1769">
+        <v>6</v>
+      </c>
+      <c r="C1769">
+        <v>25</v>
+      </c>
+      <c r="D1769" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1769">
+        <v>0.03</v>
+      </c>
+      <c r="F1769">
+        <v>4</v>
+      </c>
+      <c r="G1769">
+        <v>35</v>
+      </c>
+      <c r="AJ1769">
+        <v>40</v>
+      </c>
+      <c r="AY1769">
+        <v>1</v>
+      </c>
+      <c r="BN1769">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1770">
+        <v>2025</v>
+      </c>
+      <c r="B1770">
+        <v>6</v>
+      </c>
+      <c r="C1770">
+        <v>25</v>
+      </c>
+      <c r="D1770" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1770">
+        <v>0.03</v>
+      </c>
+      <c r="F1770">
+        <v>4</v>
+      </c>
+      <c r="G1770">
+        <v>40</v>
+      </c>
+      <c r="R1770">
+        <v>1</v>
+      </c>
+      <c r="AJ1770">
+        <v>50</v>
+      </c>
+      <c r="AY1770">
+        <v>2</v>
+      </c>
+      <c r="AZ1770">
+        <v>1</v>
+      </c>
+      <c r="BN1770">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1771">
+        <v>2025</v>
+      </c>
+      <c r="B1771">
+        <v>6</v>
+      </c>
+      <c r="C1771">
+        <v>25</v>
+      </c>
+      <c r="D1771" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1771">
+        <v>0.03</v>
+      </c>
+      <c r="F1771">
+        <v>4</v>
+      </c>
+      <c r="G1771">
+        <v>45</v>
+      </c>
+      <c r="AJ1771">
+        <v>60</v>
+      </c>
+      <c r="AY1771">
+        <v>5</v>
+      </c>
+      <c r="BN1771">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1772">
+        <v>2025</v>
+      </c>
+      <c r="B1772">
+        <v>6</v>
+      </c>
+      <c r="C1772">
+        <v>25</v>
+      </c>
+      <c r="D1772" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1772">
+        <v>0.03</v>
+      </c>
+      <c r="F1772">
+        <v>4</v>
+      </c>
+      <c r="G1772">
+        <v>50</v>
+      </c>
+      <c r="Q1772">
+        <v>1</v>
+      </c>
+      <c r="W1772">
+        <v>1</v>
+      </c>
+      <c r="X1772">
+        <v>1</v>
+      </c>
+      <c r="AJ1772">
+        <v>20</v>
+      </c>
+      <c r="AO1772">
+        <v>1</v>
+      </c>
+      <c r="AY1772">
+        <v>2</v>
+      </c>
+      <c r="BN1772">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1773">
+        <v>2025</v>
+      </c>
+      <c r="B1773">
+        <v>6</v>
+      </c>
+      <c r="C1773">
+        <v>25</v>
+      </c>
+      <c r="D1773" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1773">
+        <v>0.03</v>
+      </c>
+      <c r="F1773">
+        <v>4</v>
+      </c>
+      <c r="G1773">
+        <v>55</v>
+      </c>
+      <c r="W1773">
+        <v>3</v>
+      </c>
+      <c r="X1773">
+        <v>2</v>
+      </c>
+      <c r="AJ1773">
+        <v>95</v>
+      </c>
+      <c r="AY1773">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1774">
+        <v>2025</v>
+      </c>
+      <c r="B1774">
+        <v>6</v>
+      </c>
+      <c r="C1774">
+        <v>25</v>
+      </c>
+      <c r="D1774" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1774">
+        <v>0.03</v>
+      </c>
+      <c r="F1774">
+        <v>4</v>
+      </c>
+      <c r="G1774">
+        <v>60</v>
+      </c>
+      <c r="Q1774">
+        <v>5</v>
+      </c>
+      <c r="R1774">
+        <v>5</v>
+      </c>
+      <c r="AJ1774">
+        <v>95</v>
+      </c>
+      <c r="AY1774">
+        <v>5</v>
+      </c>
+      <c r="BE1774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1775">
+        <v>2025</v>
+      </c>
+      <c r="B1775">
+        <v>6</v>
+      </c>
+      <c r="C1775">
+        <v>25</v>
+      </c>
+      <c r="D1775" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1775">
+        <v>0.03</v>
+      </c>
+      <c r="F1775">
+        <v>4</v>
+      </c>
+      <c r="G1775">
+        <v>65</v>
+      </c>
+      <c r="R1775">
+        <v>10</v>
+      </c>
+      <c r="W1775">
+        <v>1</v>
+      </c>
+      <c r="X1775">
+        <v>1</v>
+      </c>
+      <c r="AJ1775">
+        <v>80</v>
+      </c>
+      <c r="AY1775">
+        <v>10</v>
+      </c>
+      <c r="BD1775">
+        <v>1</v>
+      </c>
+      <c r="BH1775">
+        <v>1</v>
+      </c>
+      <c r="BI1775">
+        <v>1</v>
+      </c>
+      <c r="BJ1775">
+        <v>1</v>
+      </c>
+      <c r="BK1775">
+        <v>2</v>
+      </c>
+      <c r="CC1775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:85" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1776">
+        <v>2025</v>
+      </c>
+      <c r="B1776">
+        <v>6</v>
+      </c>
+      <c r="C1776">
+        <v>25</v>
+      </c>
+      <c r="D1776" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1776">
+        <v>0.03</v>
+      </c>
+      <c r="F1776">
+        <v>4</v>
+      </c>
+      <c r="G1776">
+        <v>70</v>
+      </c>
+      <c r="R1776">
+        <v>10</v>
+      </c>
+      <c r="X1776">
+        <v>30</v>
+      </c>
+      <c r="AJ1776">
+        <v>70</v>
+      </c>
+      <c r="BD1776">
+        <v>20</v>
+      </c>
+      <c r="BF1776">
+        <v>1</v>
+      </c>
+      <c r="BH1776">
+        <v>5</v>
+      </c>
+      <c r="BI1776">
+        <v>5</v>
+      </c>
+      <c r="CG1776">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1777">
+        <v>2025</v>
+      </c>
+      <c r="B1777">
+        <v>6</v>
+      </c>
+      <c r="C1777">
+        <v>25</v>
+      </c>
+      <c r="D1777" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1777">
+        <v>0.03</v>
+      </c>
+      <c r="F1777">
+        <v>4</v>
+      </c>
+      <c r="G1777">
+        <v>75</v>
+      </c>
+      <c r="R1777">
+        <v>30</v>
+      </c>
+      <c r="X1777">
+        <v>30</v>
+      </c>
+      <c r="AJ1777">
+        <v>20</v>
+      </c>
+      <c r="AO1777">
+        <v>1</v>
+      </c>
+      <c r="AY1777">
+        <v>1</v>
+      </c>
+      <c r="BC1777">
+        <v>1</v>
+      </c>
+      <c r="BI1777">
+        <v>5</v>
+      </c>
+      <c r="BL1777">
+        <v>1</v>
+      </c>
+      <c r="CC1777">
+        <v>1</v>
+      </c>
+      <c r="CH1777">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1778">
+        <v>2025</v>
+      </c>
+      <c r="B1778">
+        <v>6</v>
+      </c>
+      <c r="C1778">
+        <v>25</v>
+      </c>
+      <c r="D1778" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1778">
+        <v>0.03</v>
+      </c>
+      <c r="F1778">
+        <v>4</v>
+      </c>
+      <c r="G1778">
+        <v>80</v>
+      </c>
+      <c r="R1778">
+        <v>60</v>
+      </c>
+      <c r="X1778">
+        <v>5</v>
+      </c>
+      <c r="AJ1778">
+        <v>70</v>
+      </c>
+      <c r="BF1778">
+        <v>1</v>
+      </c>
+      <c r="BH1778">
+        <v>1</v>
+      </c>
+      <c r="BI1778">
+        <v>10</v>
+      </c>
+      <c r="BJ1778">
+        <v>10</v>
+      </c>
+      <c r="BK1778">
+        <v>5</v>
+      </c>
+      <c r="BZ1778">
+        <v>1</v>
+      </c>
+      <c r="CC1778">
+        <v>5</v>
+      </c>
+      <c r="CW1778">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1779">
+        <v>2025</v>
+      </c>
+      <c r="B1779">
+        <v>6</v>
+      </c>
+      <c r="C1779">
+        <v>25</v>
+      </c>
+      <c r="D1779" s="3">
+        <v>0.51875000000000004</v>
+      </c>
+      <c r="E1779">
+        <v>0.03</v>
+      </c>
+      <c r="F1779">
+        <v>4</v>
+      </c>
+      <c r="G1779">
+        <v>85</v>
+      </c>
+      <c r="R1779">
+        <v>30</v>
+      </c>
+      <c r="X1779">
+        <v>30</v>
+      </c>
+      <c r="BC1779">
+        <v>10</v>
+      </c>
+      <c r="BD1779">
+        <v>5</v>
+      </c>
+      <c r="BE1779">
+        <v>5</v>
+      </c>
+      <c r="BF1779">
+        <v>3</v>
+      </c>
+      <c r="BH1779">
+        <v>5</v>
+      </c>
+      <c r="BJ1779">
+        <v>20</v>
+      </c>
+      <c r="BK1779">
+        <v>10</v>
+      </c>
+      <c r="BV1779">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1780">
+        <v>2025</v>
+      </c>
+      <c r="B1780">
+        <v>7</v>
+      </c>
+      <c r="C1780">
+        <v>11</v>
+      </c>
+      <c r="D1780" s="3">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="E1780">
+        <v>0.48</v>
+      </c>
+      <c r="F1780">
+        <v>2</v>
+      </c>
+      <c r="G1780">
+        <v>0</v>
+      </c>
+      <c r="I1780" s="9">
+        <v>1</v>
+      </c>
+      <c r="J1780" s="9">
+        <v>1</v>
+      </c>
+      <c r="K1780" s="9">
+        <v>50</v>
+      </c>
+      <c r="M1780" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q1780">
+        <v>5</v>
+      </c>
+      <c r="AJ1780">
+        <v>1</v>
+      </c>
+      <c r="AY1780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1781">
+        <v>2025</v>
+      </c>
+      <c r="B1781">
+        <v>7</v>
+      </c>
+      <c r="C1781">
+        <v>11</v>
+      </c>
+      <c r="D1781" s="3">
+        <v>0.54305555555555551</v>
+      </c>
+      <c r="E1781">
+        <v>0.48</v>
+      </c>
+      <c r="F1781">
+        <v>2</v>
+      </c>
+      <c r="G1781">
+        <v>5</v>
+      </c>
+      <c r="AJ1781">
+        <v>15</v>
+      </c>
+      <c r="AY1781">
+        <v>3</v>
+      </c>
+      <c r="BF1781">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1782">
+        <v>2025</v>
+      </c>
+      <c r="B1782">
+        <v>7</v>
+      </c>
+      <c r="C1782">
+        <v>11</v>
+      </c>
+      <c r="D1782" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1782">
+        <v>0.48</v>
+      </c>
+      <c r="F1782">
+        <v>2</v>
+      </c>
+      <c r="G1782">
+        <v>10</v>
+      </c>
+      <c r="AJ1782">
+        <v>2</v>
+      </c>
+      <c r="AY1782">
+        <v>1</v>
+      </c>
+      <c r="BA1782">
+        <v>1</v>
+      </c>
+      <c r="BC1782">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1783">
+        <v>2025</v>
+      </c>
+      <c r="B1783">
+        <v>7</v>
+      </c>
+      <c r="C1783">
+        <v>11</v>
+      </c>
+      <c r="D1783" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1783">
+        <v>0.48</v>
+      </c>
+      <c r="F1783">
+        <v>2</v>
+      </c>
+      <c r="G1783">
+        <v>15</v>
+      </c>
+      <c r="AJ1783">
+        <v>45</v>
+      </c>
+      <c r="AY1783">
+        <v>5</v>
+      </c>
+      <c r="BA1783">
+        <v>5</v>
+      </c>
+      <c r="BB1783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1784">
+        <v>2025</v>
+      </c>
+      <c r="B1784">
+        <v>7</v>
+      </c>
+      <c r="C1784">
+        <v>11</v>
+      </c>
+      <c r="D1784" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1784">
+        <v>0.48</v>
+      </c>
+      <c r="F1784">
+        <v>2</v>
+      </c>
+      <c r="G1784">
+        <v>20</v>
+      </c>
+      <c r="AJ1784">
+        <v>55</v>
+      </c>
+      <c r="AY1784">
+        <v>3</v>
+      </c>
+      <c r="BA1784">
+        <v>1</v>
+      </c>
+      <c r="BC1784">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1785">
+        <v>2025</v>
+      </c>
+      <c r="B1785">
+        <v>7</v>
+      </c>
+      <c r="C1785">
+        <v>11</v>
+      </c>
+      <c r="D1785" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1785">
+        <v>0.48</v>
+      </c>
+      <c r="F1785">
+        <v>2</v>
+      </c>
+      <c r="G1785">
+        <v>25</v>
+      </c>
+      <c r="Q1785">
+        <v>5</v>
+      </c>
+      <c r="AJ1785">
+        <v>20</v>
+      </c>
+      <c r="AY1785">
+        <v>10</v>
+      </c>
+      <c r="AZ1785">
+        <v>1</v>
+      </c>
+      <c r="BA1785">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1786">
+        <v>2025</v>
+      </c>
+      <c r="B1786">
+        <v>7</v>
+      </c>
+      <c r="C1786">
+        <v>11</v>
+      </c>
+      <c r="D1786" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1786">
+        <v>0.48</v>
+      </c>
+      <c r="F1786">
+        <v>2</v>
+      </c>
+      <c r="G1786">
+        <v>30</v>
+      </c>
+      <c r="Q1786">
+        <v>5</v>
+      </c>
+      <c r="X1786">
+        <v>15</v>
+      </c>
+      <c r="AJ1786">
+        <v>75</v>
+      </c>
+      <c r="AY1786">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1787">
+        <v>2025</v>
+      </c>
+      <c r="B1787">
+        <v>7</v>
+      </c>
+      <c r="C1787">
+        <v>11</v>
+      </c>
+      <c r="D1787" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1787">
+        <v>0.48</v>
+      </c>
+      <c r="F1787">
+        <v>2</v>
+      </c>
+      <c r="G1787">
+        <v>35</v>
+      </c>
+      <c r="Q1787">
+        <v>3</v>
+      </c>
+      <c r="AJ1787">
+        <v>70</v>
+      </c>
+      <c r="AY1787">
+        <v>20</v>
+      </c>
+      <c r="BA1787">
+        <v>1</v>
+      </c>
+      <c r="BC1787">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1788">
+        <v>2025</v>
+      </c>
+      <c r="B1788">
+        <v>7</v>
+      </c>
+      <c r="C1788">
+        <v>11</v>
+      </c>
+      <c r="D1788" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1788">
+        <v>0.48</v>
+      </c>
+      <c r="F1788">
+        <v>2</v>
+      </c>
+      <c r="G1788">
+        <v>40</v>
+      </c>
+      <c r="Q1788">
+        <v>2</v>
+      </c>
+      <c r="AJ1788">
+        <v>70</v>
+      </c>
+      <c r="AY1788">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1789">
+        <v>2025</v>
+      </c>
+      <c r="B1789">
+        <v>7</v>
+      </c>
+      <c r="C1789">
+        <v>11</v>
+      </c>
+      <c r="D1789" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1789">
+        <v>0.48</v>
+      </c>
+      <c r="F1789">
+        <v>3</v>
+      </c>
+      <c r="G1789">
+        <v>0</v>
+      </c>
+      <c r="I1789" s="9">
+        <v>500</v>
+      </c>
+      <c r="J1789" s="9">
+        <v>1</v>
+      </c>
+      <c r="K1789" s="9">
+        <v>80</v>
+      </c>
+      <c r="L1789" s="9">
+        <v>10</v>
+      </c>
+      <c r="M1789" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q1789">
+        <v>20</v>
+      </c>
+      <c r="AD1789">
+        <v>1</v>
+      </c>
+      <c r="AJ1789">
+        <v>1</v>
+      </c>
+      <c r="AY1789">
+        <v>10</v>
+      </c>
+      <c r="AZ1789">
+        <v>2</v>
+      </c>
+      <c r="BA1789">
+        <v>1</v>
+      </c>
+      <c r="BC1789">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1790">
+        <v>2025</v>
+      </c>
+      <c r="B1790">
+        <v>7</v>
+      </c>
+      <c r="C1790">
+        <v>11</v>
+      </c>
+      <c r="D1790" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1790">
+        <v>0.48</v>
+      </c>
+      <c r="F1790">
+        <v>3</v>
+      </c>
+      <c r="G1790">
+        <v>5</v>
+      </c>
+      <c r="AJ1790">
+        <v>10</v>
+      </c>
+      <c r="AY1790">
+        <v>1</v>
+      </c>
+      <c r="BA1790">
+        <v>5</v>
+      </c>
+      <c r="BC1790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1791">
+        <v>2025</v>
+      </c>
+      <c r="B1791">
+        <v>7</v>
+      </c>
+      <c r="C1791">
+        <v>11</v>
+      </c>
+      <c r="D1791" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1791">
+        <v>0.48</v>
+      </c>
+      <c r="F1791">
+        <v>3</v>
+      </c>
+      <c r="G1791">
+        <v>10</v>
+      </c>
+      <c r="AJ1791">
+        <v>25</v>
+      </c>
+      <c r="AY1791">
+        <v>5</v>
+      </c>
+      <c r="AZ1791">
+        <v>1</v>
+      </c>
+      <c r="BA1791">
+        <v>5</v>
+      </c>
+      <c r="BC1791">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:101" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1792">
+        <v>2025</v>
+      </c>
+      <c r="B1792">
+        <v>7</v>
+      </c>
+      <c r="C1792">
+        <v>11</v>
+      </c>
+      <c r="D1792" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1792">
+        <v>0.48</v>
+      </c>
+      <c r="F1792">
+        <v>3</v>
+      </c>
+      <c r="G1792">
+        <v>15</v>
+      </c>
+      <c r="AJ1792">
+        <v>20</v>
+      </c>
+      <c r="AY1792">
+        <v>1</v>
+      </c>
+      <c r="BA1792">
+        <v>3</v>
+      </c>
+      <c r="BC1792">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1793">
+        <v>2025</v>
+      </c>
+      <c r="B1793">
+        <v>7</v>
+      </c>
+      <c r="C1793">
+        <v>11</v>
+      </c>
+      <c r="D1793" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1793">
+        <v>0.48</v>
+      </c>
+      <c r="F1793">
+        <v>3</v>
+      </c>
+      <c r="G1793">
+        <v>20</v>
+      </c>
+      <c r="Q1793">
+        <v>1</v>
+      </c>
+      <c r="AJ1793">
+        <v>40</v>
+      </c>
+      <c r="AY1793">
+        <v>1</v>
+      </c>
+      <c r="BA1793">
+        <v>2</v>
+      </c>
+      <c r="BC1793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1794">
+        <v>2025</v>
+      </c>
+      <c r="B1794">
+        <v>7</v>
+      </c>
+      <c r="C1794">
+        <v>11</v>
+      </c>
+      <c r="D1794" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1794">
+        <v>0.48</v>
+      </c>
+      <c r="F1794">
+        <v>3</v>
+      </c>
+      <c r="G1794">
+        <v>25</v>
+      </c>
+      <c r="AJ1794">
+        <v>15</v>
+      </c>
+      <c r="AY1794">
+        <v>2</v>
+      </c>
+      <c r="BA1794">
+        <v>5</v>
+      </c>
+      <c r="BB1794">
+        <v>1</v>
+      </c>
+      <c r="BC1794">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1795">
+        <v>2025</v>
+      </c>
+      <c r="B1795">
+        <v>7</v>
+      </c>
+      <c r="C1795">
+        <v>11</v>
+      </c>
+      <c r="D1795" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1795">
+        <v>0.48</v>
+      </c>
+      <c r="F1795">
+        <v>3</v>
+      </c>
+      <c r="G1795">
+        <v>30</v>
+      </c>
+      <c r="Q1795">
+        <v>1</v>
+      </c>
+      <c r="AJ1795">
+        <v>15</v>
+      </c>
+      <c r="AY1795">
+        <v>1</v>
+      </c>
+      <c r="BA1795">
+        <v>1</v>
+      </c>
+      <c r="BC1795">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1796">
+        <v>2025</v>
+      </c>
+      <c r="B1796">
+        <v>7</v>
+      </c>
+      <c r="C1796">
+        <v>11</v>
+      </c>
+      <c r="D1796" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1796">
+        <v>0.48</v>
+      </c>
+      <c r="F1796">
+        <v>3</v>
+      </c>
+      <c r="G1796">
+        <v>35</v>
+      </c>
+      <c r="AJ1796">
+        <v>15</v>
+      </c>
+      <c r="AY1796">
+        <v>1</v>
+      </c>
+      <c r="BB1796">
+        <v>1</v>
+      </c>
+      <c r="BC1796">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1797">
+        <v>2025</v>
+      </c>
+      <c r="B1797">
+        <v>7</v>
+      </c>
+      <c r="C1797">
+        <v>11</v>
+      </c>
+      <c r="D1797" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1797">
+        <v>0.48</v>
+      </c>
+      <c r="F1797">
+        <v>3</v>
+      </c>
+      <c r="G1797">
+        <v>40</v>
+      </c>
+      <c r="Q1797">
+        <v>1</v>
+      </c>
+      <c r="AJ1797">
+        <v>10</v>
+      </c>
+      <c r="BC1797">
+        <v>1</v>
+      </c>
+      <c r="BI1797">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1798">
+        <v>2025</v>
+      </c>
+      <c r="B1798">
+        <v>7</v>
+      </c>
+      <c r="C1798">
+        <v>11</v>
+      </c>
+      <c r="D1798" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1798">
+        <v>0.48</v>
+      </c>
+      <c r="F1798">
+        <v>3</v>
+      </c>
+      <c r="G1798">
+        <v>45</v>
+      </c>
+      <c r="Q1798">
+        <v>2</v>
+      </c>
+      <c r="AJ1798">
+        <v>50</v>
+      </c>
+      <c r="AY1798">
+        <v>5</v>
+      </c>
+      <c r="BA1798">
+        <v>1</v>
+      </c>
+      <c r="CG1798">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1799">
+        <v>2025</v>
+      </c>
+      <c r="B1799">
+        <v>7</v>
+      </c>
+      <c r="C1799">
+        <v>11</v>
+      </c>
+      <c r="D1799" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1799">
+        <v>0.48</v>
+      </c>
+      <c r="F1799">
+        <v>3</v>
+      </c>
+      <c r="G1799">
+        <v>50</v>
+      </c>
+      <c r="W1799">
+        <v>1</v>
+      </c>
+      <c r="AJ1799">
+        <v>60</v>
+      </c>
+      <c r="AY1799">
+        <v>1</v>
+      </c>
+      <c r="BC1799">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1800">
+        <v>2025</v>
+      </c>
+      <c r="B1800">
+        <v>7</v>
+      </c>
+      <c r="C1800">
+        <v>11</v>
+      </c>
+      <c r="D1800" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1800">
+        <v>0.48</v>
+      </c>
+      <c r="F1800">
+        <v>3</v>
+      </c>
+      <c r="G1800">
+        <v>55</v>
+      </c>
+      <c r="W1800">
+        <v>1</v>
+      </c>
+      <c r="AJ1800">
+        <v>40</v>
+      </c>
+      <c r="AY1800">
+        <v>5</v>
+      </c>
+      <c r="BC1800">
+        <v>3</v>
+      </c>
+      <c r="BF1800">
+        <v>1</v>
+      </c>
+      <c r="BI1800">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1801">
+        <v>2025</v>
+      </c>
+      <c r="B1801">
+        <v>7</v>
+      </c>
+      <c r="C1801">
+        <v>11</v>
+      </c>
+      <c r="D1801" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1801">
+        <v>0.48</v>
+      </c>
+      <c r="F1801">
+        <v>3</v>
+      </c>
+      <c r="G1801">
+        <v>60</v>
+      </c>
+      <c r="Q1801">
+        <v>1</v>
+      </c>
+      <c r="AJ1801">
+        <v>70</v>
+      </c>
+      <c r="AO1801">
+        <v>1</v>
+      </c>
+      <c r="AY1801">
+        <v>2</v>
+      </c>
+      <c r="BA1801">
+        <v>1</v>
+      </c>
+      <c r="BC1801">
+        <v>1</v>
+      </c>
+      <c r="BF1801">
+        <v>1</v>
+      </c>
+      <c r="BI1801">
+        <v>1</v>
+      </c>
+      <c r="BJ1801">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1802">
+        <v>2025</v>
+      </c>
+      <c r="B1802">
+        <v>7</v>
+      </c>
+      <c r="C1802">
+        <v>11</v>
+      </c>
+      <c r="D1802" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1802">
+        <v>0.48</v>
+      </c>
+      <c r="F1802">
+        <v>3</v>
+      </c>
+      <c r="G1802">
+        <v>65</v>
+      </c>
+      <c r="Q1802">
+        <v>1</v>
+      </c>
+      <c r="R1802">
+        <v>5</v>
+      </c>
+      <c r="X1802">
+        <v>1</v>
+      </c>
+      <c r="AJ1802">
+        <v>70</v>
+      </c>
+      <c r="AY1802">
+        <v>10</v>
+      </c>
+      <c r="BA1802">
+        <v>1</v>
+      </c>
+      <c r="BC1802">
+        <v>5</v>
+      </c>
+      <c r="BD1802">
+        <v>1</v>
+      </c>
+      <c r="BH1802">
+        <v>1</v>
+      </c>
+      <c r="BI1802">
+        <v>1</v>
+      </c>
+      <c r="BN1802">
+        <v>1</v>
+      </c>
+      <c r="BS1802">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1803">
+        <v>2025</v>
+      </c>
+      <c r="B1803">
+        <v>7</v>
+      </c>
+      <c r="C1803">
+        <v>11</v>
+      </c>
+      <c r="D1803" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1803">
+        <v>0.48</v>
+      </c>
+      <c r="F1803">
+        <v>3</v>
+      </c>
+      <c r="G1803">
+        <v>70</v>
+      </c>
+      <c r="R1803">
+        <v>1</v>
+      </c>
+      <c r="X1803">
+        <v>1</v>
+      </c>
+      <c r="AJ1803">
+        <v>95</v>
+      </c>
+      <c r="AY1803">
+        <v>1</v>
+      </c>
+      <c r="BD1803">
+        <v>1</v>
+      </c>
+      <c r="BF1803">
+        <v>5</v>
+      </c>
+      <c r="BI1803">
+        <v>1</v>
+      </c>
+      <c r="BJ1803">
+        <v>2</v>
+      </c>
+      <c r="BN1803">
+        <v>1</v>
+      </c>
+      <c r="BS1803">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1804">
+        <v>2025</v>
+      </c>
+      <c r="B1804">
+        <v>7</v>
+      </c>
+      <c r="C1804">
+        <v>11</v>
+      </c>
+      <c r="D1804" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1804">
+        <v>0.48</v>
+      </c>
+      <c r="F1804">
+        <v>3</v>
+      </c>
+      <c r="G1804">
+        <v>75</v>
+      </c>
+      <c r="Q1804">
+        <v>5</v>
+      </c>
+      <c r="R1804">
+        <v>20</v>
+      </c>
+      <c r="T1804">
+        <v>1</v>
+      </c>
+      <c r="AJ1804">
+        <v>80</v>
+      </c>
+      <c r="AY1804">
+        <v>15</v>
+      </c>
+      <c r="BA1804">
+        <v>1</v>
+      </c>
+      <c r="BD1804">
+        <v>20</v>
+      </c>
+      <c r="BF1804">
+        <v>1</v>
+      </c>
+      <c r="BI1804">
+        <v>5</v>
+      </c>
+      <c r="BJ1804">
+        <v>5</v>
+      </c>
+      <c r="BK1804">
+        <v>2</v>
+      </c>
+      <c r="BN1804">
+        <v>1</v>
+      </c>
+      <c r="BS1804">
+        <v>1</v>
+      </c>
+      <c r="CH1804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1805">
+        <v>2025</v>
+      </c>
+      <c r="B1805">
+        <v>7</v>
+      </c>
+      <c r="C1805">
+        <v>11</v>
+      </c>
+      <c r="D1805" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1805">
+        <v>0.48</v>
+      </c>
+      <c r="F1805">
+        <v>3</v>
+      </c>
+      <c r="G1805">
+        <v>80</v>
+      </c>
+      <c r="R1805">
+        <v>15</v>
+      </c>
+      <c r="X1805">
+        <v>10</v>
+      </c>
+      <c r="AJ1805">
+        <v>70</v>
+      </c>
+      <c r="AY1805">
+        <v>1</v>
+      </c>
+      <c r="BD1805">
+        <v>20</v>
+      </c>
+      <c r="BF1805">
+        <v>5</v>
+      </c>
+      <c r="BH1805">
+        <v>3</v>
+      </c>
+      <c r="BI1805">
+        <v>5</v>
+      </c>
+      <c r="BJ1805">
+        <v>5</v>
+      </c>
+      <c r="BN1805">
+        <v>5</v>
+      </c>
+      <c r="BR1805">
+        <v>1</v>
+      </c>
+      <c r="CC1805">
+        <v>1</v>
+      </c>
+      <c r="CG1805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1806">
+        <v>2025</v>
+      </c>
+      <c r="B1806">
+        <v>7</v>
+      </c>
+      <c r="C1806">
+        <v>11</v>
+      </c>
+      <c r="D1806" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1806">
+        <v>0.48</v>
+      </c>
+      <c r="F1806">
+        <v>4</v>
+      </c>
+      <c r="G1806">
+        <v>0</v>
+      </c>
+      <c r="I1806" s="9">
+        <v>200</v>
+      </c>
+      <c r="J1806" s="9">
+        <v>5</v>
+      </c>
+      <c r="K1806" s="9">
+        <v>60</v>
+      </c>
+      <c r="L1806" s="9">
+        <v>50</v>
+      </c>
+      <c r="M1806" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q1806">
+        <v>30</v>
+      </c>
+      <c r="AJ1806">
+        <v>1</v>
+      </c>
+      <c r="AR1806">
+        <v>1</v>
+      </c>
+      <c r="AY1806">
+        <v>20</v>
+      </c>
+      <c r="AZ1806">
+        <v>3</v>
+      </c>
+      <c r="BC1806">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1807">
+        <v>2025</v>
+      </c>
+      <c r="B1807">
+        <v>7</v>
+      </c>
+      <c r="C1807">
+        <v>11</v>
+      </c>
+      <c r="D1807" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1807">
+        <v>0.48</v>
+      </c>
+      <c r="F1807">
+        <v>4</v>
+      </c>
+      <c r="G1807">
+        <v>5</v>
+      </c>
+      <c r="AJ1807">
+        <v>5</v>
+      </c>
+      <c r="AY1807">
+        <v>2</v>
+      </c>
+      <c r="BA1807">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:86" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1808">
+        <v>2025</v>
+      </c>
+      <c r="B1808">
+        <v>7</v>
+      </c>
+      <c r="C1808">
+        <v>11</v>
+      </c>
+      <c r="D1808" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1808">
+        <v>0.48</v>
+      </c>
+      <c r="F1808">
+        <v>4</v>
+      </c>
+      <c r="G1808">
+        <v>10</v>
+      </c>
+      <c r="AJ1808">
+        <v>10</v>
+      </c>
+      <c r="AY1808">
+        <v>2</v>
+      </c>
+      <c r="AZ1808">
+        <v>1</v>
+      </c>
+      <c r="BA1808">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1809">
+        <v>2025</v>
+      </c>
+      <c r="B1809">
+        <v>7</v>
+      </c>
+      <c r="C1809">
+        <v>11</v>
+      </c>
+      <c r="D1809" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1809">
+        <v>0.48</v>
+      </c>
+      <c r="F1809">
+        <v>4</v>
+      </c>
+      <c r="G1809">
+        <v>15</v>
+      </c>
+      <c r="Q1809">
+        <v>1</v>
+      </c>
+      <c r="AJ1809">
+        <v>80</v>
+      </c>
+      <c r="AY1809">
+        <v>1</v>
+      </c>
+      <c r="AZ1809">
+        <v>1</v>
+      </c>
+      <c r="BA1809">
+        <v>3</v>
+      </c>
+      <c r="BB1809">
+        <v>1</v>
+      </c>
+      <c r="BC1809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1810">
+        <v>2025</v>
+      </c>
+      <c r="B1810">
+        <v>7</v>
+      </c>
+      <c r="C1810">
+        <v>11</v>
+      </c>
+      <c r="D1810" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1810">
+        <v>0.48</v>
+      </c>
+      <c r="F1810">
+        <v>4</v>
+      </c>
+      <c r="G1810">
+        <v>20</v>
+      </c>
+      <c r="Q1810">
+        <v>1</v>
+      </c>
+      <c r="AJ1810">
+        <v>80</v>
+      </c>
+      <c r="AY1810">
+        <v>2</v>
+      </c>
+      <c r="BA1810">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1811">
+        <v>2025</v>
+      </c>
+      <c r="B1811">
+        <v>7</v>
+      </c>
+      <c r="C1811">
+        <v>11</v>
+      </c>
+      <c r="D1811" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1811">
+        <v>0.48</v>
+      </c>
+      <c r="F1811">
+        <v>4</v>
+      </c>
+      <c r="G1811">
+        <v>25</v>
+      </c>
+      <c r="AJ1811">
+        <v>60</v>
+      </c>
+      <c r="AY1811">
+        <v>1</v>
+      </c>
+      <c r="BA1811">
+        <v>1</v>
+      </c>
+      <c r="BC1811">
+        <v>1</v>
+      </c>
+      <c r="BO1811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1812">
+        <v>2025</v>
+      </c>
+      <c r="B1812">
+        <v>7</v>
+      </c>
+      <c r="C1812">
+        <v>11</v>
+      </c>
+      <c r="D1812" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1812">
+        <v>0.48</v>
+      </c>
+      <c r="F1812">
+        <v>4</v>
+      </c>
+      <c r="G1812">
+        <v>30</v>
+      </c>
+      <c r="AJ1812">
+        <v>40</v>
+      </c>
+      <c r="AY1812">
+        <v>2</v>
+      </c>
+      <c r="CO1812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1813">
+        <v>2025</v>
+      </c>
+      <c r="B1813">
+        <v>7</v>
+      </c>
+      <c r="C1813">
+        <v>11</v>
+      </c>
+      <c r="D1813" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1813">
+        <v>0.48</v>
+      </c>
+      <c r="F1813">
+        <v>4</v>
+      </c>
+      <c r="G1813">
+        <v>35</v>
+      </c>
+      <c r="AJ1813">
+        <v>20</v>
+      </c>
+      <c r="AZ1813">
+        <v>1</v>
+      </c>
+      <c r="BB1813">
+        <v>1</v>
+      </c>
+      <c r="BF1813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1814">
+        <v>2025</v>
+      </c>
+      <c r="B1814">
+        <v>7</v>
+      </c>
+      <c r="C1814">
+        <v>11</v>
+      </c>
+      <c r="D1814" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1814">
+        <v>0.48</v>
+      </c>
+      <c r="F1814">
+        <v>4</v>
+      </c>
+      <c r="G1814">
+        <v>40</v>
+      </c>
+      <c r="AJ1814">
+        <v>5</v>
+      </c>
+      <c r="AY1814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1815">
+        <v>2025</v>
+      </c>
+      <c r="B1815">
+        <v>7</v>
+      </c>
+      <c r="C1815">
+        <v>11</v>
+      </c>
+      <c r="D1815" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1815">
+        <v>0.48</v>
+      </c>
+      <c r="F1815">
+        <v>4</v>
+      </c>
+      <c r="G1815">
+        <v>45</v>
+      </c>
+      <c r="Q1815">
+        <v>1</v>
+      </c>
+      <c r="AJ1815">
+        <v>80</v>
+      </c>
+      <c r="AY1815">
+        <v>1</v>
+      </c>
+      <c r="BC1815">
+        <v>1</v>
+      </c>
+      <c r="BF1815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1816">
+        <v>2025</v>
+      </c>
+      <c r="B1816">
+        <v>7</v>
+      </c>
+      <c r="C1816">
+        <v>11</v>
+      </c>
+      <c r="D1816" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1816">
+        <v>0.48</v>
+      </c>
+      <c r="F1816">
+        <v>4</v>
+      </c>
+      <c r="G1816">
+        <v>50</v>
+      </c>
+      <c r="AJ1816">
+        <v>60</v>
+      </c>
+      <c r="AY1816">
+        <v>3</v>
+      </c>
+      <c r="BC1816">
+        <v>3</v>
+      </c>
+      <c r="BF1816">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1817">
+        <v>2025</v>
+      </c>
+      <c r="B1817">
+        <v>7</v>
+      </c>
+      <c r="C1817">
+        <v>11</v>
+      </c>
+      <c r="D1817" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1817">
+        <v>0.48</v>
+      </c>
+      <c r="F1817">
+        <v>4</v>
+      </c>
+      <c r="G1817">
+        <v>55</v>
+      </c>
+      <c r="Q1817">
+        <v>3</v>
+      </c>
+      <c r="W1817">
+        <v>1</v>
+      </c>
+      <c r="AJ1817">
+        <v>70</v>
+      </c>
+      <c r="AY1817">
+        <v>3</v>
+      </c>
+      <c r="BC1817">
+        <v>1</v>
+      </c>
+      <c r="BD1817">
+        <v>1</v>
+      </c>
+      <c r="BF1817">
+        <v>1</v>
+      </c>
+      <c r="BI1817">
+        <v>1</v>
+      </c>
+      <c r="BS1817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1818">
+        <v>2025</v>
+      </c>
+      <c r="B1818">
+        <v>7</v>
+      </c>
+      <c r="C1818">
+        <v>11</v>
+      </c>
+      <c r="D1818" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1818">
+        <v>0.48</v>
+      </c>
+      <c r="F1818">
+        <v>4</v>
+      </c>
+      <c r="G1818">
+        <v>60</v>
+      </c>
+      <c r="Q1818">
+        <v>2</v>
+      </c>
+      <c r="R1818">
+        <v>1</v>
+      </c>
+      <c r="X1818">
+        <v>7</v>
+      </c>
+      <c r="AJ1818">
+        <v>95</v>
+      </c>
+      <c r="AY1818">
+        <v>10</v>
+      </c>
+      <c r="BC1818">
+        <v>5</v>
+      </c>
+      <c r="BF1818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1819">
+        <v>2025</v>
+      </c>
+      <c r="B1819">
+        <v>7</v>
+      </c>
+      <c r="C1819">
+        <v>11</v>
+      </c>
+      <c r="D1819" s="3">
+        <v>0.54305555555555596</v>
+      </c>
+      <c r="E1819">
+        <v>0.48</v>
+      </c>
+      <c r="F1819">
+        <v>4</v>
+      </c>
+      <c r="G1819">
+        <v>65</v>
+      </c>
+      <c r="R1819">
+        <v>20</v>
+      </c>
+      <c r="T1819">
+        <v>1</v>
+      </c>
+      <c r="X1819">
+        <v>10</v>
+      </c>
+      <c r="AJ1819">
+        <v>60</v>
+      </c>
+      <c r="BC1819">
+        <v>1</v>
+      </c>
+      <c r="BD1819">
+        <v>1</v>
+      </c>
+      <c r="BF1819">
+        <v>2</v>
+      </c>
+      <c r="BH1819">
+        <v>1</v>
+      </c>
+      <c r="BI1819">
+        <v>5</v>
+      </c>
+      <c r="CC1819">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:CX1683" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:CY1683" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:XFD1" xr:uid="{2BAE4060-6CB1-4E30-9F95-B75B30AAED68}"/>
   </dataValidations>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="771" documentId="13_ncr:1_{C3EE9921-92A6-4D79-9E53-9575D7FEA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FBC5963-2C86-4F2C-A302-CCC1CEA48D20}"/>
+  <xr:revisionPtr revIDLastSave="774" documentId="13_ncr:1_{C3EE9921-92A6-4D79-9E53-9575D7FEA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBCC747-D502-43C5-A84A-FB0D0C3E1F50}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1359,9 +1359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CY1819"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AZ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1783" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AZ1820" sqref="AZ1820"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1803" sqref="N1803"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1373,15 +1373,15 @@
     <col min="5" max="5" width="17.21875" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="5.5546875" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="9" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="9" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="10" style="9" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" style="9" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="9" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" style="9" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" style="9" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="9" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="9" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="10" style="9" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="9" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="9" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" style="9" customWidth="1"/>
     <col min="17" max="17" width="6.6640625" customWidth="1"/>
     <col min="18" max="18" width="7" customWidth="1"/>
     <col min="19" max="19" width="6.5546875" customWidth="1"/>
@@ -77907,15 +77907,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C107646D0035FA4C8F1F95DBA74C7670" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1757c077ac40972b876cd5ccdf595ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ec2d0b7-503f-4434-bd5e-691963e6366e" xmlns:ns4="a169fe49-86d9-4b9f-a163-9271c3e82536" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="315eec8d60efed50e87e3fc3108bb7d6" ns3:_="" ns4:_="">
     <xsd:import namespace="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
@@ -78168,6 +78159,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -78177,14 +78177,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBE69FB-5B7A-431F-9647-BD3868909ADD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -78203,6 +78195,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E07FED4-9CAB-4D35-B6E3-4F76C1ACDD32}">
   <ds:schemaRefs>

--- a/GW_seaweed_seasonality_transect_data.xlsx
+++ b/GW_seaweed_seasonality_transect_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ubcca-my.sharepoint.com/personal/sschenk_student_ubc_ca/Documents/Project - Seaweed Seasonality Transects/seaweed_seasonality_2021-09-05/git_GW_seaweed_seasonality_transects/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="774" documentId="13_ncr:1_{C3EE9921-92A6-4D79-9E53-9575D7FEA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABBCC747-D502-43C5-A84A-FB0D0C3E1F50}"/>
+  <xr:revisionPtr revIDLastSave="964" documentId="13_ncr:1_{C3EE9921-92A6-4D79-9E53-9575D7FEA779}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E29BCC80-606C-42A5-855A-927E60F80236}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1357,11 +1357,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:CY1819"/>
+  <dimension ref="A1:CY1853"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1782" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1803" sqref="N1803"/>
+    <sheetView tabSelected="1" topLeftCell="BJ1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1816" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BQ1853" sqref="BQ1853"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1373,15 +1373,15 @@
     <col min="5" max="5" width="17.21875" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="5.5546875" customWidth="1"/>
-    <col min="8" max="8" width="4.6640625" customWidth="1"/>
-    <col min="9" max="9" width="7.109375" style="9" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="10" style="9" customWidth="1"/>
-    <col min="12" max="12" width="7.77734375" style="9" customWidth="1"/>
-    <col min="13" max="13" width="7.44140625" style="9" customWidth="1"/>
-    <col min="14" max="14" width="7.21875" style="9" customWidth="1"/>
-    <col min="15" max="15" width="6.33203125" style="9" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="7.109375" style="9" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" style="9" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10" style="9" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.77734375" style="9" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="7.44140625" style="9" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="7.21875" style="9" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="9" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" style="9" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="6.6640625" customWidth="1"/>
     <col min="18" max="18" width="7" customWidth="1"/>
     <col min="19" max="19" width="6.5546875" customWidth="1"/>
@@ -1390,11 +1390,11 @@
     <col min="22" max="22" width="5.21875" customWidth="1"/>
     <col min="23" max="23" width="6.5546875" customWidth="1"/>
     <col min="24" max="24" width="6.77734375" customWidth="1"/>
-    <col min="25" max="25" width="15.5546875" customWidth="1"/>
-    <col min="26" max="26" width="16.88671875" customWidth="1"/>
-    <col min="27" max="27" width="16.44140625" customWidth="1"/>
-    <col min="28" max="28" width="8.6640625" customWidth="1"/>
-    <col min="29" max="29" width="7.109375" customWidth="1"/>
+    <col min="25" max="25" width="15.5546875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="16.88671875" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="16.44140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="8.6640625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="7.109375" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="9" customWidth="1"/>
     <col min="31" max="33" width="9" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="9" customWidth="1"/>
@@ -1403,8 +1403,8 @@
     <col min="37" max="38" width="8.88671875" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="7.6640625" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="10.44140625" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="15.77734375" customWidth="1"/>
-    <col min="42" max="42" width="16.5546875" customWidth="1"/>
+    <col min="41" max="41" width="15.77734375" hidden="1" customWidth="1"/>
+    <col min="42" max="42" width="16.5546875" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="12.33203125" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="11.77734375" hidden="1" customWidth="1"/>
     <col min="45" max="45" width="10.33203125" hidden="1" customWidth="1"/>
@@ -77897,6 +77897,1271 @@
         <v>1</v>
       </c>
     </row>
+    <row r="1820" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1820">
+        <v>2025</v>
+      </c>
+      <c r="B1820">
+        <v>8</v>
+      </c>
+      <c r="C1820">
+        <v>10</v>
+      </c>
+      <c r="D1820" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1820">
+        <v>0.7</v>
+      </c>
+      <c r="F1820">
+        <v>2</v>
+      </c>
+      <c r="G1820">
+        <v>0</v>
+      </c>
+      <c r="I1820" s="9">
+        <v>50</v>
+      </c>
+      <c r="J1820" s="9">
+        <v>7</v>
+      </c>
+      <c r="K1820" s="9">
+        <v>90</v>
+      </c>
+      <c r="L1820" s="9">
+        <v>20</v>
+      </c>
+      <c r="M1820" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q1820">
+        <v>5</v>
+      </c>
+      <c r="AY1820">
+        <v>3</v>
+      </c>
+      <c r="AZ1820">
+        <v>5</v>
+      </c>
+      <c r="BC1820">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1821">
+        <v>2025</v>
+      </c>
+      <c r="B1821">
+        <v>8</v>
+      </c>
+      <c r="C1821">
+        <v>10</v>
+      </c>
+      <c r="D1821" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1821">
+        <v>0.7</v>
+      </c>
+      <c r="F1821">
+        <v>2</v>
+      </c>
+      <c r="G1821">
+        <v>5</v>
+      </c>
+      <c r="Q1821">
+        <v>1</v>
+      </c>
+      <c r="AJ1821">
+        <v>20</v>
+      </c>
+      <c r="AY1821">
+        <v>1</v>
+      </c>
+      <c r="BA1821">
+        <v>10</v>
+      </c>
+      <c r="BC1821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1822">
+        <v>2025</v>
+      </c>
+      <c r="B1822">
+        <v>8</v>
+      </c>
+      <c r="C1822">
+        <v>10</v>
+      </c>
+      <c r="D1822" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1822">
+        <v>0.7</v>
+      </c>
+      <c r="F1822">
+        <v>2</v>
+      </c>
+      <c r="G1822">
+        <v>10</v>
+      </c>
+      <c r="AJ1822">
+        <v>7</v>
+      </c>
+      <c r="AY1822">
+        <v>1</v>
+      </c>
+      <c r="BA1822">
+        <v>15</v>
+      </c>
+      <c r="BC1822">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1823">
+        <v>2025</v>
+      </c>
+      <c r="B1823">
+        <v>8</v>
+      </c>
+      <c r="C1823">
+        <v>10</v>
+      </c>
+      <c r="D1823" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1823">
+        <v>0.7</v>
+      </c>
+      <c r="F1823">
+        <v>2</v>
+      </c>
+      <c r="G1823">
+        <v>15</v>
+      </c>
+      <c r="Q1823">
+        <v>1</v>
+      </c>
+      <c r="AJ1823">
+        <v>55</v>
+      </c>
+      <c r="AY1823">
+        <v>3</v>
+      </c>
+      <c r="BA1823">
+        <v>3</v>
+      </c>
+      <c r="BC1823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:93" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1824">
+        <v>2025</v>
+      </c>
+      <c r="B1824">
+        <v>8</v>
+      </c>
+      <c r="C1824">
+        <v>10</v>
+      </c>
+      <c r="D1824" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1824">
+        <v>0.7</v>
+      </c>
+      <c r="F1824">
+        <v>2</v>
+      </c>
+      <c r="G1824">
+        <v>20</v>
+      </c>
+      <c r="Q1824">
+        <v>1</v>
+      </c>
+      <c r="AJ1824">
+        <v>10</v>
+      </c>
+      <c r="AY1824">
+        <v>1</v>
+      </c>
+      <c r="BA1824">
+        <v>1</v>
+      </c>
+      <c r="BC1824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1825">
+        <v>2025</v>
+      </c>
+      <c r="B1825">
+        <v>8</v>
+      </c>
+      <c r="C1825">
+        <v>10</v>
+      </c>
+      <c r="D1825" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1825">
+        <v>0.7</v>
+      </c>
+      <c r="F1825">
+        <v>2</v>
+      </c>
+      <c r="G1825">
+        <v>25</v>
+      </c>
+      <c r="AJ1825">
+        <v>25</v>
+      </c>
+      <c r="AY1825">
+        <v>10</v>
+      </c>
+      <c r="BA1825">
+        <v>1</v>
+      </c>
+      <c r="BC1825">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1826">
+        <v>2025</v>
+      </c>
+      <c r="B1826">
+        <v>8</v>
+      </c>
+      <c r="C1826">
+        <v>10</v>
+      </c>
+      <c r="D1826" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1826">
+        <v>0.7</v>
+      </c>
+      <c r="F1826">
+        <v>2</v>
+      </c>
+      <c r="G1826">
+        <v>30</v>
+      </c>
+      <c r="AJ1826">
+        <v>10</v>
+      </c>
+      <c r="AY1826">
+        <v>1</v>
+      </c>
+      <c r="BC1826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1827">
+        <v>2025</v>
+      </c>
+      <c r="B1827">
+        <v>8</v>
+      </c>
+      <c r="C1827">
+        <v>10</v>
+      </c>
+      <c r="D1827" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1827">
+        <v>0.7</v>
+      </c>
+      <c r="F1827">
+        <v>2</v>
+      </c>
+      <c r="G1827">
+        <v>35</v>
+      </c>
+      <c r="Q1827">
+        <v>1</v>
+      </c>
+      <c r="AJ1827">
+        <v>30</v>
+      </c>
+      <c r="AY1827">
+        <v>10</v>
+      </c>
+      <c r="BA1827">
+        <v>1</v>
+      </c>
+      <c r="BC1827">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1828">
+        <v>2025</v>
+      </c>
+      <c r="B1828">
+        <v>8</v>
+      </c>
+      <c r="C1828">
+        <v>10</v>
+      </c>
+      <c r="D1828" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1828">
+        <v>0.7</v>
+      </c>
+      <c r="F1828">
+        <v>3</v>
+      </c>
+      <c r="G1828">
+        <v>0</v>
+      </c>
+      <c r="I1828" s="9">
+        <v>44</v>
+      </c>
+      <c r="J1828" s="9">
+        <v>5</v>
+      </c>
+      <c r="K1828" s="9">
+        <v>90</v>
+      </c>
+      <c r="L1828" s="9">
+        <v>20</v>
+      </c>
+      <c r="M1828" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q1828">
+        <v>30</v>
+      </c>
+      <c r="AY1828">
+        <v>10</v>
+      </c>
+      <c r="AZ1828">
+        <v>5</v>
+      </c>
+      <c r="BC1828">
+        <v>10</v>
+      </c>
+      <c r="BN1828">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1829">
+        <v>2025</v>
+      </c>
+      <c r="B1829">
+        <v>8</v>
+      </c>
+      <c r="C1829">
+        <v>10</v>
+      </c>
+      <c r="D1829" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1829">
+        <v>0.7</v>
+      </c>
+      <c r="F1829">
+        <v>3</v>
+      </c>
+      <c r="G1829">
+        <v>5</v>
+      </c>
+      <c r="AJ1829">
+        <v>45</v>
+      </c>
+      <c r="AY1829">
+        <v>3</v>
+      </c>
+      <c r="BA1829">
+        <v>10</v>
+      </c>
+      <c r="BC1829">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1830">
+        <v>2025</v>
+      </c>
+      <c r="B1830">
+        <v>8</v>
+      </c>
+      <c r="C1830">
+        <v>10</v>
+      </c>
+      <c r="D1830" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1830">
+        <v>0.7</v>
+      </c>
+      <c r="F1830">
+        <v>3</v>
+      </c>
+      <c r="G1830">
+        <v>10</v>
+      </c>
+      <c r="Q1830">
+        <v>1</v>
+      </c>
+      <c r="W1830">
+        <v>1</v>
+      </c>
+      <c r="AJ1830">
+        <v>40</v>
+      </c>
+      <c r="AY1830">
+        <v>3</v>
+      </c>
+      <c r="BA1830">
+        <v>10</v>
+      </c>
+      <c r="BC1830">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1831">
+        <v>2025</v>
+      </c>
+      <c r="B1831">
+        <v>8</v>
+      </c>
+      <c r="C1831">
+        <v>10</v>
+      </c>
+      <c r="D1831" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1831">
+        <v>0.7</v>
+      </c>
+      <c r="F1831">
+        <v>3</v>
+      </c>
+      <c r="G1831">
+        <v>15</v>
+      </c>
+      <c r="AJ1831">
+        <v>50</v>
+      </c>
+      <c r="AY1831">
+        <v>1</v>
+      </c>
+      <c r="BA1831">
+        <v>1</v>
+      </c>
+      <c r="BC1831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1832">
+        <v>2025</v>
+      </c>
+      <c r="B1832">
+        <v>8</v>
+      </c>
+      <c r="C1832">
+        <v>10</v>
+      </c>
+      <c r="D1832" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1832">
+        <v>0.7</v>
+      </c>
+      <c r="F1832">
+        <v>3</v>
+      </c>
+      <c r="G1832">
+        <v>20</v>
+      </c>
+      <c r="AJ1832">
+        <v>20</v>
+      </c>
+      <c r="AY1832">
+        <v>5</v>
+      </c>
+      <c r="BA1832">
+        <v>3</v>
+      </c>
+      <c r="BB1832">
+        <v>1</v>
+      </c>
+      <c r="BC1832">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1833">
+        <v>2025</v>
+      </c>
+      <c r="B1833">
+        <v>8</v>
+      </c>
+      <c r="C1833">
+        <v>10</v>
+      </c>
+      <c r="D1833" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1833">
+        <v>0.7</v>
+      </c>
+      <c r="F1833">
+        <v>3</v>
+      </c>
+      <c r="G1833">
+        <v>25</v>
+      </c>
+      <c r="AJ1833">
+        <v>15</v>
+      </c>
+      <c r="AY1833">
+        <v>3</v>
+      </c>
+      <c r="BC1833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1834">
+        <v>2025</v>
+      </c>
+      <c r="B1834">
+        <v>8</v>
+      </c>
+      <c r="C1834">
+        <v>10</v>
+      </c>
+      <c r="D1834" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1834">
+        <v>0.7</v>
+      </c>
+      <c r="F1834">
+        <v>3</v>
+      </c>
+      <c r="G1834">
+        <v>30</v>
+      </c>
+      <c r="AJ1834">
+        <v>10</v>
+      </c>
+      <c r="AY1834">
+        <v>10</v>
+      </c>
+      <c r="BC1834">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1835">
+        <v>2025</v>
+      </c>
+      <c r="B1835">
+        <v>8</v>
+      </c>
+      <c r="C1835">
+        <v>10</v>
+      </c>
+      <c r="D1835" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1835">
+        <v>0.7</v>
+      </c>
+      <c r="F1835">
+        <v>3</v>
+      </c>
+      <c r="G1835">
+        <v>35</v>
+      </c>
+      <c r="AJ1835">
+        <v>10</v>
+      </c>
+      <c r="AY1835">
+        <v>4</v>
+      </c>
+      <c r="BC1835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1836">
+        <v>2025</v>
+      </c>
+      <c r="B1836">
+        <v>8</v>
+      </c>
+      <c r="C1836">
+        <v>10</v>
+      </c>
+      <c r="D1836" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1836">
+        <v>0.7</v>
+      </c>
+      <c r="F1836">
+        <v>3</v>
+      </c>
+      <c r="G1836">
+        <v>40</v>
+      </c>
+      <c r="AJ1836">
+        <v>20</v>
+      </c>
+      <c r="AY1836">
+        <v>1</v>
+      </c>
+      <c r="BC1836">
+        <v>1</v>
+      </c>
+      <c r="BF1836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1837">
+        <v>2025</v>
+      </c>
+      <c r="B1837">
+        <v>8</v>
+      </c>
+      <c r="C1837">
+        <v>10</v>
+      </c>
+      <c r="D1837" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1837">
+        <v>0.7</v>
+      </c>
+      <c r="F1837">
+        <v>3</v>
+      </c>
+      <c r="G1837">
+        <v>45</v>
+      </c>
+      <c r="AJ1837">
+        <v>10</v>
+      </c>
+      <c r="AY1837">
+        <v>1</v>
+      </c>
+      <c r="BC1837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1838">
+        <v>2025</v>
+      </c>
+      <c r="B1838">
+        <v>8</v>
+      </c>
+      <c r="C1838">
+        <v>10</v>
+      </c>
+      <c r="D1838" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1838">
+        <v>0.7</v>
+      </c>
+      <c r="F1838">
+        <v>3</v>
+      </c>
+      <c r="G1838">
+        <v>50</v>
+      </c>
+      <c r="AJ1838">
+        <v>25</v>
+      </c>
+      <c r="AY1838">
+        <v>5</v>
+      </c>
+      <c r="BC1838">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1839">
+        <v>2025</v>
+      </c>
+      <c r="B1839">
+        <v>8</v>
+      </c>
+      <c r="C1839">
+        <v>10</v>
+      </c>
+      <c r="D1839" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1839">
+        <v>0.7</v>
+      </c>
+      <c r="F1839">
+        <v>3</v>
+      </c>
+      <c r="G1839">
+        <v>55</v>
+      </c>
+      <c r="Q1839">
+        <v>1</v>
+      </c>
+      <c r="X1839">
+        <v>1</v>
+      </c>
+      <c r="AJ1839">
+        <v>40</v>
+      </c>
+      <c r="AY1839">
+        <v>3</v>
+      </c>
+      <c r="BC1839">
+        <v>2</v>
+      </c>
+      <c r="BI1839">
+        <v>1</v>
+      </c>
+      <c r="BJ1839">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:66" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1840">
+        <v>2025</v>
+      </c>
+      <c r="B1840">
+        <v>8</v>
+      </c>
+      <c r="C1840">
+        <v>10</v>
+      </c>
+      <c r="D1840" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1840">
+        <v>0.7</v>
+      </c>
+      <c r="F1840">
+        <v>3</v>
+      </c>
+      <c r="G1840">
+        <v>60</v>
+      </c>
+      <c r="AJ1840">
+        <v>50</v>
+      </c>
+      <c r="AY1840">
+        <v>1</v>
+      </c>
+      <c r="BC1840">
+        <v>2</v>
+      </c>
+      <c r="BF1840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1841">
+        <v>2025</v>
+      </c>
+      <c r="B1841">
+        <v>8</v>
+      </c>
+      <c r="C1841">
+        <v>10</v>
+      </c>
+      <c r="D1841" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1841">
+        <v>0.7</v>
+      </c>
+      <c r="F1841">
+        <v>4</v>
+      </c>
+      <c r="G1841">
+        <v>0</v>
+      </c>
+      <c r="I1841" s="9">
+        <v>50</v>
+      </c>
+      <c r="J1841" s="9">
+        <v>5</v>
+      </c>
+      <c r="K1841" s="9">
+        <v>60</v>
+      </c>
+      <c r="L1841" s="9">
+        <v>5</v>
+      </c>
+      <c r="M1841" s="9">
+        <v>100</v>
+      </c>
+      <c r="Q1841">
+        <v>20</v>
+      </c>
+      <c r="AY1841">
+        <v>10</v>
+      </c>
+      <c r="AZ1841">
+        <v>5</v>
+      </c>
+      <c r="BC1841">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1842">
+        <v>2025</v>
+      </c>
+      <c r="B1842">
+        <v>8</v>
+      </c>
+      <c r="C1842">
+        <v>10</v>
+      </c>
+      <c r="D1842" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1842">
+        <v>0.7</v>
+      </c>
+      <c r="F1842">
+        <v>4</v>
+      </c>
+      <c r="G1842">
+        <v>5</v>
+      </c>
+      <c r="AJ1842">
+        <v>20</v>
+      </c>
+      <c r="AY1842">
+        <v>1</v>
+      </c>
+      <c r="BA1842">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1843">
+        <v>2025</v>
+      </c>
+      <c r="B1843">
+        <v>8</v>
+      </c>
+      <c r="C1843">
+        <v>10</v>
+      </c>
+      <c r="D1843" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1843">
+        <v>0.7</v>
+      </c>
+      <c r="F1843">
+        <v>4</v>
+      </c>
+      <c r="G1843">
+        <v>10</v>
+      </c>
+      <c r="AJ1843">
+        <v>30</v>
+      </c>
+      <c r="AY1843">
+        <v>3</v>
+      </c>
+      <c r="BA1843">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1844">
+        <v>2025</v>
+      </c>
+      <c r="B1844">
+        <v>8</v>
+      </c>
+      <c r="C1844">
+        <v>10</v>
+      </c>
+      <c r="D1844" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1844">
+        <v>0.7</v>
+      </c>
+      <c r="F1844">
+        <v>4</v>
+      </c>
+      <c r="G1844">
+        <v>15</v>
+      </c>
+      <c r="Q1844">
+        <v>1</v>
+      </c>
+      <c r="AJ1844">
+        <v>50</v>
+      </c>
+      <c r="AY1844">
+        <v>1</v>
+      </c>
+      <c r="AZ1844">
+        <v>1</v>
+      </c>
+      <c r="BA1844">
+        <v>3</v>
+      </c>
+      <c r="BC1844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1845">
+        <v>2025</v>
+      </c>
+      <c r="B1845">
+        <v>8</v>
+      </c>
+      <c r="C1845">
+        <v>10</v>
+      </c>
+      <c r="D1845" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1845">
+        <v>0.7</v>
+      </c>
+      <c r="F1845">
+        <v>4</v>
+      </c>
+      <c r="G1845">
+        <v>20</v>
+      </c>
+      <c r="Q1845">
+        <v>1</v>
+      </c>
+      <c r="AJ1845">
+        <v>60</v>
+      </c>
+      <c r="AY1845">
+        <v>2</v>
+      </c>
+      <c r="AZ1845">
+        <v>1</v>
+      </c>
+      <c r="BA1845">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1846">
+        <v>2025</v>
+      </c>
+      <c r="B1846">
+        <v>8</v>
+      </c>
+      <c r="C1846">
+        <v>10</v>
+      </c>
+      <c r="D1846" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1846">
+        <v>0.7</v>
+      </c>
+      <c r="F1846">
+        <v>4</v>
+      </c>
+      <c r="G1846">
+        <v>25</v>
+      </c>
+      <c r="AJ1846">
+        <v>30</v>
+      </c>
+      <c r="AY1846">
+        <v>1</v>
+      </c>
+      <c r="AZ1846">
+        <v>1</v>
+      </c>
+      <c r="BA1846">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1847">
+        <v>2025</v>
+      </c>
+      <c r="B1847">
+        <v>8</v>
+      </c>
+      <c r="C1847">
+        <v>10</v>
+      </c>
+      <c r="D1847" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1847">
+        <v>0.7</v>
+      </c>
+      <c r="F1847">
+        <v>4</v>
+      </c>
+      <c r="G1847">
+        <v>30</v>
+      </c>
+      <c r="AJ1847">
+        <v>40</v>
+      </c>
+      <c r="AY1847">
+        <v>1</v>
+      </c>
+      <c r="AZ1847">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1848">
+        <v>2025</v>
+      </c>
+      <c r="B1848">
+        <v>8</v>
+      </c>
+      <c r="C1848">
+        <v>10</v>
+      </c>
+      <c r="D1848" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1848">
+        <v>0.7</v>
+      </c>
+      <c r="F1848">
+        <v>4</v>
+      </c>
+      <c r="G1848">
+        <v>35</v>
+      </c>
+      <c r="AJ1848">
+        <v>30</v>
+      </c>
+      <c r="AZ1848">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1849">
+        <v>2025</v>
+      </c>
+      <c r="B1849">
+        <v>8</v>
+      </c>
+      <c r="C1849">
+        <v>10</v>
+      </c>
+      <c r="D1849" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1849">
+        <v>0.7</v>
+      </c>
+      <c r="F1849">
+        <v>4</v>
+      </c>
+      <c r="G1849">
+        <v>40</v>
+      </c>
+      <c r="AJ1849">
+        <v>10</v>
+      </c>
+      <c r="AZ1849">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1850">
+        <v>2025</v>
+      </c>
+      <c r="B1850">
+        <v>8</v>
+      </c>
+      <c r="C1850">
+        <v>10</v>
+      </c>
+      <c r="D1850" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1850">
+        <v>0.7</v>
+      </c>
+      <c r="F1850">
+        <v>4</v>
+      </c>
+      <c r="G1850">
+        <v>45</v>
+      </c>
+      <c r="Q1850">
+        <v>1</v>
+      </c>
+      <c r="AJ1850">
+        <v>60</v>
+      </c>
+      <c r="AY1850">
+        <v>3</v>
+      </c>
+      <c r="AZ1850">
+        <v>3</v>
+      </c>
+      <c r="BD1850">
+        <v>2</v>
+      </c>
+      <c r="BI1850">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1851">
+        <v>2025</v>
+      </c>
+      <c r="B1851">
+        <v>8</v>
+      </c>
+      <c r="C1851">
+        <v>10</v>
+      </c>
+      <c r="D1851" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1851">
+        <v>0.7</v>
+      </c>
+      <c r="F1851">
+        <v>4</v>
+      </c>
+      <c r="G1851">
+        <v>50</v>
+      </c>
+      <c r="AJ1851">
+        <v>20</v>
+      </c>
+      <c r="AZ1851">
+        <v>2</v>
+      </c>
+      <c r="BR1851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1852">
+        <v>2025</v>
+      </c>
+      <c r="B1852">
+        <v>8</v>
+      </c>
+      <c r="C1852">
+        <v>10</v>
+      </c>
+      <c r="D1852" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1852">
+        <v>0.7</v>
+      </c>
+      <c r="F1852">
+        <v>4</v>
+      </c>
+      <c r="G1852">
+        <v>55</v>
+      </c>
+      <c r="AJ1852">
+        <v>30</v>
+      </c>
+      <c r="AY1852">
+        <v>2</v>
+      </c>
+      <c r="AZ1852">
+        <v>5</v>
+      </c>
+      <c r="BB1852">
+        <v>1</v>
+      </c>
+      <c r="BC1852">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:89" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1853">
+        <v>2025</v>
+      </c>
+      <c r="B1853">
+        <v>8</v>
+      </c>
+      <c r="C1853">
+        <v>10</v>
+      </c>
+      <c r="D1853" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="E1853">
+        <v>0.7</v>
+      </c>
+      <c r="F1853">
+        <v>4</v>
+      </c>
+      <c r="G1853">
+        <v>60</v>
+      </c>
+      <c r="Q1853">
+        <v>10</v>
+      </c>
+      <c r="AJ1853">
+        <v>40</v>
+      </c>
+      <c r="AY1853">
+        <v>5</v>
+      </c>
+      <c r="AZ1853">
+        <v>5</v>
+      </c>
+      <c r="BC1853">
+        <v>5</v>
+      </c>
+      <c r="BE1853">
+        <v>1</v>
+      </c>
+      <c r="BI1853">
+        <v>1</v>
+      </c>
+      <c r="BJ1853">
+        <v>1</v>
+      </c>
+      <c r="BR1853">
+        <v>1</v>
+      </c>
+      <c r="CC1853">
+        <v>1</v>
+      </c>
+      <c r="CK1853">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:CY1683" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <dataValidations count="1">
@@ -77907,6 +79172,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C107646D0035FA4C8F1F95DBA74C7670" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f1757c077ac40972b876cd5ccdf595ef">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="9ec2d0b7-503f-4434-bd5e-691963e6366e" xmlns:ns4="a169fe49-86d9-4b9f-a163-9271c3e82536" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="315eec8d60efed50e87e3fc3108bb7d6" ns3:_="" ns4:_="">
     <xsd:import namespace="9ec2d0b7-503f-4434-bd5e-691963e6366e"/>
@@ -78159,15 +79433,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -78177,6 +79442,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFBE69FB-5B7A-431F-9647-BD3868909ADD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -78195,14 +79468,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{01C5801A-55FB-4B4B-B6DE-27DF63074F19}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E07FED4-9CAB-4D35-B6E3-4F76C1ACDD32}">
   <ds:schemaRefs>
